--- a/data_tables/Total_data_cleaned.xlsx
+++ b/data_tables/Total_data_cleaned.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Simon\Documents\projects\datamining\DataMining-Group23\data_tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA81F211-E3F3-46EF-8B3B-7EC570B4F8A7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92F33134-0CBA-4108-90B2-886B44632BB7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{196242FC-4F62-234C-ABAE-90D7B6224D3F}"/>
   </bookViews>
@@ -970,8 +970,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67CF83BE-F021-5E44-A4B8-2C5D9BB127DA}">
   <dimension ref="A1:J148"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" topLeftCell="A117" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="D127" sqref="D127"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -987,7 +987,7 @@
     <col min="9" max="9" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="31" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>147</v>
       </c>
@@ -4735,7 +4735,7 @@
         <v>7</v>
       </c>
       <c r="D126" s="9">
-        <v>73</v>
+        <v>17</v>
       </c>
       <c r="E126" s="7">
         <v>18.8</v>

--- a/data_tables/Total_data_cleaned.xlsx
+++ b/data_tables/Total_data_cleaned.xlsx
@@ -1,37 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Simon\Documents\projects\datamining\DataMining-Group23\data_tables\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ulrikaeriksson/Documents/Data_Mining/DataMining-Group23/data_tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92F33134-0CBA-4108-90B2-886B44632BB7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6213089-2CE5-8F48-99AD-447EB8DDEFBF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{196242FC-4F62-234C-ABAE-90D7B6224D3F}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="22200" windowHeight="12560" xr2:uid="{196242FC-4F62-234C-ABAE-90D7B6224D3F}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="158">
   <si>
     <t>Afghanistan</t>
   </si>
@@ -502,13 +496,16 @@
   </si>
   <si>
     <t>Oneperson household</t>
+  </si>
+  <si>
+    <t>Population density</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -612,7 +609,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -652,6 +649,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Dålig" xfId="1" builtinId="27"/>
@@ -968,26 +967,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67CF83BE-F021-5E44-A4B8-2C5D9BB127DA}">
-  <dimension ref="A1:J148"/>
+  <dimension ref="A1:K148"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A117" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D127" sqref="D127"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="12.1640625" style="8" customWidth="1"/>
-    <col min="2" max="2" width="17.25" style="9" customWidth="1"/>
+    <col min="2" max="2" width="17.1640625" style="9" customWidth="1"/>
     <col min="3" max="3" width="22.5" style="6" customWidth="1"/>
     <col min="4" max="4" width="21.33203125" style="9" customWidth="1"/>
     <col min="5" max="5" width="10.83203125" style="6" customWidth="1"/>
-    <col min="6" max="6" width="18.58203125" style="6" customWidth="1"/>
+    <col min="6" max="6" width="18.5" style="6" customWidth="1"/>
     <col min="7" max="7" width="19.6640625" style="6" customWidth="1"/>
     <col min="8" max="8" width="20.6640625" style="6" customWidth="1"/>
     <col min="9" max="9" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" ht="17">
       <c r="A1" s="1" t="s">
         <v>147</v>
       </c>
@@ -1018,8 +1017,11 @@
       <c r="J1" s="13" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K1" s="16" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
@@ -1044,8 +1046,11 @@
       <c r="J2" s="6">
         <v>4.7</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K2" s="15">
+        <v>54.422205373280597</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="8" t="s">
         <v>1</v>
       </c>
@@ -1073,8 +1078,11 @@
       <c r="J3" s="6">
         <v>6.3</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K3" s="15">
+        <v>104.870693430657</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="8" t="s">
         <v>2</v>
       </c>
@@ -1102,8 +1110,11 @@
       <c r="J4" s="6">
         <v>3.2</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K4" s="15">
+        <v>17.347873677280599</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="8" t="s">
         <v>3</v>
       </c>
@@ -1135,8 +1146,11 @@
       <c r="J5" s="6">
         <v>9.1999999999999993</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K5" s="15">
+        <v>16.176856348362399</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="8" t="s">
         <v>4</v>
       </c>
@@ -1164,8 +1178,11 @@
       <c r="J6" s="6">
         <v>6.6</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K6" s="15">
+        <v>102.931155602388</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="8" t="s">
         <v>5</v>
       </c>
@@ -1197,8 +1214,11 @@
       <c r="J7" s="6">
         <v>13.2</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K7" s="15">
+        <v>3.20202712729261</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="8" t="s">
         <v>6</v>
       </c>
@@ -1230,8 +1250,11 @@
       <c r="J8" s="6">
         <v>15.6</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K8" s="15">
+        <v>106.748567066151</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="8" t="s">
         <v>7</v>
       </c>
@@ -1263,8 +1286,11 @@
       <c r="J9" s="6">
         <v>2.6</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K9" s="15">
+        <v>119.308868538524</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="8" t="s">
         <v>8</v>
       </c>
@@ -1290,8 +1316,11 @@
       <c r="J10" s="6">
         <v>5.9</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K10" s="15">
+        <v>1935.9066147859901</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="8" t="s">
         <v>9</v>
       </c>
@@ -1319,8 +1348,11 @@
       <c r="J11" s="6">
         <v>5.9</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K11" s="15">
+        <v>1265.0361143120499</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" s="8" t="s">
         <v>10</v>
       </c>
@@ -1352,8 +1384,11 @@
       <c r="J12" s="6">
         <v>26.2</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K12" s="15">
+        <v>46.8575969641713</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" s="8" t="s">
         <v>11</v>
       </c>
@@ -1385,8 +1420,11 @@
       <c r="J13" s="6">
         <v>20.7</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K13" s="15">
+        <v>375.56367239101701</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" s="8" t="s">
         <v>12</v>
       </c>
@@ -1414,8 +1452,11 @@
       <c r="J14" s="6">
         <v>9.9</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K14" s="15">
+        <v>99.110429230223502</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15" s="8" t="s">
         <v>13</v>
       </c>
@@ -1445,8 +1486,11 @@
       <c r="J15" s="6">
         <v>12.2</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K15" s="15">
+        <v>10.2017908243331</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" s="8" t="s">
         <v>14</v>
       </c>
@@ -1474,8 +1518,11 @@
       <c r="J16" s="6">
         <v>8.8000000000000007</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K16" s="15">
+        <v>68.496425781249997</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" s="8" t="s">
         <v>15</v>
       </c>
@@ -1503,8 +1550,11 @@
       <c r="J17" s="6">
         <v>9.3000000000000007</v>
       </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K17" s="15">
+        <v>4.04365570906781</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" s="8" t="s">
         <v>16</v>
       </c>
@@ -1536,8 +1586,11 @@
       <c r="J18" s="6">
         <v>6.5</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K18" s="15">
+        <v>25.040054126875098</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19" s="8" t="s">
         <v>17</v>
       </c>
@@ -1569,8 +1622,11 @@
       <c r="J19" s="6">
         <v>11.5</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K19" s="15">
+        <v>65.180462417096507</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20" s="8" t="s">
         <v>18</v>
       </c>
@@ -1602,8 +1658,11 @@
       <c r="J20" s="6">
         <v>7.7</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K20" s="15">
+        <v>70.151250000000005</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21" s="8" t="s">
         <v>19</v>
       </c>
@@ -1631,8 +1690,11 @@
       <c r="J21" s="6">
         <v>5.3</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K21" s="15">
+        <v>90.671725583503303</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22" s="8" t="s">
         <v>20</v>
       </c>
@@ -1658,8 +1720,11 @@
       <c r="J22" s="6">
         <v>12.2</v>
       </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K22" s="15">
+        <v>50.884743288697102</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23" s="8" t="s">
         <v>21</v>
       </c>
@@ -1691,8 +1756,11 @@
       <c r="J23" s="6">
         <v>12.5</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K23" s="15">
+        <v>4.03673422033956</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24" s="8" t="s">
         <v>22</v>
       </c>
@@ -1718,13 +1786,16 @@
       <c r="J24" s="6">
         <v>7.7</v>
       </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K24" s="15">
+        <v>7.47869915567113</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25" s="8" t="s">
         <v>23</v>
       </c>
       <c r="B25" s="9">
-        <v>4.5589370727539063</v>
+        <v>4.5589370727539062</v>
       </c>
       <c r="C25" s="9">
         <f t="shared" si="0"/>
@@ -1745,8 +1816,11 @@
       <c r="J25" s="6">
         <v>8.8000000000000007</v>
       </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K25" s="15">
+        <v>11.8329050190597</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
       <c r="A26" s="8" t="s">
         <v>24</v>
       </c>
@@ -1774,8 +1848,11 @@
       <c r="J26" s="6">
         <v>10.6</v>
       </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K26" s="15">
+        <v>24.2823792385533</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
       <c r="A27" s="8" t="s">
         <v>25</v>
       </c>
@@ -1804,8 +1881,11 @@
       <c r="J27" s="6">
         <v>9.6999999999999993</v>
       </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K27" s="15">
+        <v>147.67403502115599</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
       <c r="A28" s="8" t="s">
         <v>26</v>
       </c>
@@ -1837,8 +1917,11 @@
       <c r="J28" s="6">
         <v>7.2</v>
       </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K28" s="15">
+        <v>44.223177106804897</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
       <c r="A29" s="8" t="s">
         <v>27</v>
       </c>
@@ -1863,8 +1946,11 @@
       <c r="J29" s="6">
         <v>5.7</v>
       </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K29" s="15">
+        <v>15.404831625183</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
       <c r="A30" s="8" t="s">
         <v>28</v>
       </c>
@@ -1890,8 +1976,11 @@
       <c r="J30" s="6">
         <v>5.9</v>
       </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K30" s="15">
+        <v>35.879221014093197</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
       <c r="A31" s="8" t="s">
         <v>29</v>
       </c>
@@ -1923,8 +2012,11 @@
       <c r="J31" s="6">
         <v>7.9</v>
       </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K31" s="15">
+        <v>96.078515471993697</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
       <c r="A32" s="8" t="s">
         <v>30</v>
       </c>
@@ -1956,8 +2048,11 @@
       <c r="J32" s="6">
         <v>16.5</v>
       </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K32" s="15">
+        <v>73.725875625446704</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
       <c r="A33" s="8" t="s">
         <v>31</v>
       </c>
@@ -1989,8 +2084,11 @@
       <c r="J33" s="6">
         <v>5.3</v>
       </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K33" s="15">
+        <v>127.65703463203501</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
       <c r="A34" s="8" t="s">
         <v>32</v>
       </c>
@@ -2018,8 +2116,11 @@
       <c r="J34" s="6">
         <v>13.1</v>
       </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K34" s="15">
+        <v>137.17553425722099</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
       <c r="A35" s="8" t="s">
         <v>33</v>
       </c>
@@ -2047,8 +2148,11 @@
       <c r="J35" s="6">
         <v>12.8</v>
       </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K35" s="15">
+        <v>136.51987601154701</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
       <c r="A36" s="8" t="s">
         <v>34</v>
       </c>
@@ -2080,8 +2184,11 @@
       <c r="J36" s="6">
         <v>9.9</v>
       </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K36" s="15">
+        <v>222.87306975781399</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
       <c r="A37" s="8" t="s">
         <v>35</v>
       </c>
@@ -2109,8 +2216,11 @@
       <c r="J37" s="6">
         <v>7.1</v>
       </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K37" s="15">
+        <v>66.938548880657095</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
       <c r="A38" s="8" t="s">
         <v>36</v>
       </c>
@@ -2138,8 +2248,11 @@
       <c r="J38" s="6">
         <v>4</v>
       </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K38" s="15">
+        <v>97.999046662313503</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
       <c r="A39" s="8" t="s">
         <v>37</v>
       </c>
@@ -2167,8 +2280,11 @@
       <c r="J39" s="6">
         <v>13.7</v>
       </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K39" s="15">
+        <v>307.81143822393801</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
       <c r="A40" s="8" t="s">
         <v>38</v>
       </c>
@@ -2200,8 +2316,11 @@
       <c r="J40" s="6">
         <v>17.8</v>
       </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K40" s="15">
+        <v>31.032790752535998</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
       <c r="A41" s="8" t="s">
         <v>39</v>
       </c>
@@ -2229,8 +2348,11 @@
       <c r="J41" s="6">
         <v>7.2</v>
       </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K41" s="15">
+        <v>104.957438</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
       <c r="A42" s="8" t="s">
         <v>40</v>
       </c>
@@ -2262,8 +2384,11 @@
       <c r="J42" s="6">
         <v>15.9</v>
       </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K42" s="15">
+        <v>18.1358484978117</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
       <c r="A43" s="8" t="s">
         <v>41</v>
       </c>
@@ -2295,8 +2420,11 @@
       <c r="J43" s="6">
         <v>17.7</v>
       </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K43" s="15">
+        <v>122.57837631516</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
       <c r="A44" s="8" t="s">
         <v>42</v>
       </c>
@@ -2319,8 +2447,11 @@
       <c r="J44" s="6">
         <v>7.1</v>
       </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K44" s="15">
+        <v>7.8594209647999396</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
       <c r="A45" s="8" t="s">
         <v>43</v>
       </c>
@@ -2345,8 +2476,11 @@
       <c r="J45" s="6">
         <v>5.0999999999999996</v>
       </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K45" s="15">
+        <v>207.56600790513801</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
       <c r="A46" s="8" t="s">
         <v>44</v>
       </c>
@@ -2378,8 +2512,11 @@
       <c r="J46" s="6">
         <v>8.1999999999999993</v>
       </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K46" s="15">
+        <v>65.032016515623397</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
       <c r="A47" s="8" t="s">
         <v>45</v>
       </c>
@@ -2411,8 +2548,11 @@
       <c r="J47" s="6">
         <v>13.6</v>
       </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K47" s="15">
+        <v>237.016337059329</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
       <c r="A48" s="8" t="s">
         <v>46</v>
       </c>
@@ -2444,8 +2584,11 @@
       <c r="J48" s="6">
         <v>5.4</v>
       </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K48" s="15">
+        <v>126.71894611936401</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
       <c r="A49" s="8" t="s">
         <v>47</v>
       </c>
@@ -2477,8 +2620,11 @@
       <c r="J49" s="6">
         <v>5</v>
       </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K49" s="15">
+        <v>83.478828549263</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
       <c r="A50" s="8" t="s">
         <v>48</v>
       </c>
@@ -2504,8 +2650,11 @@
       <c r="J50" s="6">
         <v>2.7</v>
       </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K50" s="15">
+        <v>157.83410787607301</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
       <c r="A51" s="8" t="s">
         <v>49</v>
       </c>
@@ -2531,8 +2680,11 @@
       <c r="J51" s="6">
         <v>6.3</v>
       </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K51" s="15">
+        <v>51.754745238482798</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
       <c r="A52" s="8" t="s">
         <v>50</v>
       </c>
@@ -2558,8 +2710,11 @@
       <c r="J52" s="6">
         <v>11.7</v>
       </c>
-    </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K52" s="15">
+        <v>398.448076923077</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
       <c r="A53" s="8" t="s">
         <v>51</v>
       </c>
@@ -2587,8 +2742,11 @@
       <c r="J53" s="6">
         <v>2.9</v>
       </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K53" s="15">
+        <v>82.805138975779798</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
       <c r="A54" s="8" t="s">
         <v>52</v>
       </c>
@@ -2608,8 +2766,11 @@
       <c r="H54" s="7"/>
       <c r="I54" s="4"/>
       <c r="J54" s="6"/>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K54" s="15">
+        <v>7039.7142857142899</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
       <c r="A55" s="8" t="s">
         <v>53</v>
       </c>
@@ -2641,8 +2802,11 @@
       <c r="J55" s="6">
         <v>19.100000000000001</v>
       </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K55" s="15">
+        <v>108.042936043301</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
       <c r="A56" s="8" t="s">
         <v>54</v>
       </c>
@@ -2667,8 +2831,11 @@
       <c r="J56" s="6">
         <v>14</v>
       </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K56" s="15">
+        <v>3.40432917705736</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
       <c r="A57" s="8" t="s">
         <v>55</v>
       </c>
@@ -2696,8 +2863,11 @@
       <c r="J57" s="6">
         <v>16.3</v>
       </c>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K57" s="15">
+        <v>450.41861670461702</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
       <c r="A58" s="8" t="s">
         <v>56</v>
       </c>
@@ -2725,8 +2895,11 @@
       <c r="J58" s="6">
         <v>3.4</v>
       </c>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K58" s="15">
+        <v>145.72518809651299</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
       <c r="A59" s="8" t="s">
         <v>57</v>
       </c>
@@ -2754,8 +2927,11 @@
       <c r="J59" s="6">
         <v>4.0999999999999996</v>
       </c>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K59" s="15">
+        <v>49.831029740416</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
       <c r="A60" s="8" t="s">
         <v>58</v>
       </c>
@@ -2781,8 +2957,11 @@
       <c r="J60" s="6">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K60" s="15">
+        <v>88.125386811567495</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
       <c r="A61" s="8" t="s">
         <v>59</v>
       </c>
@@ -2814,8 +2993,11 @@
       <c r="J61" s="6">
         <v>11.5</v>
       </c>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K61" s="15">
+        <v>69.873827841486403</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11">
       <c r="A62" s="8" t="s">
         <v>60</v>
       </c>
@@ -2847,8 +3029,11 @@
       <c r="J62" s="6">
         <v>5.4</v>
       </c>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K62" s="15">
+        <v>402.60628465804098</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11">
       <c r="A63" s="8" t="s">
         <v>61</v>
       </c>
@@ -2880,8 +3065,11 @@
       <c r="J63" s="6">
         <v>8.1999999999999993</v>
       </c>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K63" s="15">
+        <v>205.85916910314799</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11">
       <c r="A64" s="8" t="s">
         <v>62</v>
       </c>
@@ -2907,8 +3095,11 @@
       <c r="J64" s="6">
         <v>14.5</v>
       </c>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K64" s="15">
+        <v>76.3985849056604</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11">
       <c r="A65" s="8" t="s">
         <v>63</v>
       </c>
@@ -2940,8 +3131,11 @@
       <c r="J65" s="6">
         <v>2.2000000000000002</v>
       </c>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K65" s="15">
+        <v>266.878947368421</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11">
       <c r="A66" s="8" t="s">
         <v>64</v>
       </c>
@@ -2973,13 +3167,16 @@
       <c r="J66" s="6">
         <v>18.5</v>
       </c>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K66" s="15">
+        <v>347.77758667983301</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11">
       <c r="A67" s="8" t="s">
         <v>65</v>
       </c>
       <c r="B67" s="9">
-        <v>4.8080825805664063</v>
+        <v>4.8080825805664062</v>
       </c>
       <c r="C67" s="9">
         <f t="shared" ref="C67:C130" si="1">ROUND(B67,0)</f>
@@ -3000,8 +3197,11 @@
       <c r="J67" s="6">
         <v>2.9</v>
       </c>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K67" s="15">
+        <v>109.285345798603</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11">
       <c r="A68" s="8" t="s">
         <v>66</v>
       </c>
@@ -3029,8 +3229,11 @@
       <c r="J68" s="6">
         <v>22.5</v>
       </c>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K68" s="15">
+        <v>6.6813520020743002</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11">
       <c r="A69" s="8" t="s">
         <v>67</v>
       </c>
@@ -3058,8 +3261,11 @@
       <c r="J69" s="6">
         <v>3.2</v>
       </c>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K69" s="15">
+        <v>87.324493094844897</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11">
       <c r="A70" s="8" t="s">
         <v>68</v>
       </c>
@@ -3081,8 +3287,11 @@
       <c r="H70" s="7"/>
       <c r="I70" s="4"/>
       <c r="J70" s="6"/>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K70" s="15">
+        <v>168.154679893451</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11">
       <c r="A71" s="8" t="s">
         <v>69</v>
       </c>
@@ -3110,8 +3319,11 @@
       <c r="J71" s="6">
         <v>2.2999999999999998</v>
       </c>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K71" s="15">
+        <v>232.12839506172801</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11">
       <c r="A72" s="8" t="s">
         <v>70</v>
       </c>
@@ -3139,8 +3351,11 @@
       <c r="J72" s="6">
         <v>8.3000000000000007</v>
       </c>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K72" s="15">
+        <v>32.333159541188699</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11">
       <c r="A73" s="8" t="s">
         <v>71</v>
       </c>
@@ -3168,8 +3383,11 @@
       <c r="J73" s="6">
         <v>8.6</v>
       </c>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K73" s="15">
+        <v>29.714731369150801</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11">
       <c r="A74" s="8" t="s">
         <v>72</v>
       </c>
@@ -3201,8 +3419,11 @@
       <c r="J74" s="6">
         <v>21.2</v>
       </c>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K74" s="15">
+        <v>31.2116436153104</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11">
       <c r="A75" s="8" t="s">
         <v>73</v>
       </c>
@@ -3230,8 +3451,11 @@
       <c r="J75" s="6">
         <v>3.3</v>
       </c>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K75" s="15">
+        <v>594.56080156402697</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11">
       <c r="A76" s="8" t="s">
         <v>74</v>
       </c>
@@ -3256,8 +3480,11 @@
       <c r="J76" s="6">
         <v>21.2</v>
       </c>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K76" s="15">
+        <v>73.561890645586303</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11">
       <c r="A77" s="8" t="s">
         <v>75</v>
       </c>
@@ -3285,8 +3512,11 @@
       <c r="J77" s="6">
         <v>6.8</v>
       </c>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K77" s="15">
+        <v>49.126931063122903</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11">
       <c r="A78" s="8" t="s">
         <v>76</v>
       </c>
@@ -3309,8 +3539,11 @@
       <c r="J78" s="6">
         <v>5.2</v>
       </c>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K78" s="15">
+        <v>3.6228878002205098</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11">
       <c r="A79" s="8" t="s">
         <v>77</v>
       </c>
@@ -3342,8 +3575,11 @@
       <c r="J79" s="6">
         <v>31.9</v>
       </c>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K79" s="15">
+        <v>45.1352114924182</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11">
       <c r="A80" s="8" t="s">
         <v>78</v>
       </c>
@@ -3375,8 +3611,11 @@
       <c r="J80" s="6">
         <v>13.5</v>
       </c>
-    </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K80" s="15">
+        <v>231.44749034749</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11">
       <c r="A81" s="8" t="s">
         <v>79</v>
       </c>
@@ -3402,8 +3641,11 @@
       <c r="J81" s="6">
         <v>7.9</v>
       </c>
-    </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K81" s="15">
+        <v>82.599524187153094</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11">
       <c r="A82" s="8" t="s">
         <v>80</v>
       </c>
@@ -3429,8 +3671,11 @@
       <c r="J82" s="6">
         <v>3.9</v>
       </c>
-    </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K82" s="15">
+        <v>43.951349260914398</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11">
       <c r="A83" s="8" t="s">
         <v>81</v>
       </c>
@@ -3458,8 +3703,11 @@
       <c r="J83" s="6">
         <v>3.7</v>
       </c>
-    </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K83" s="15">
+        <v>197.519134493</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11">
       <c r="A84" s="8" t="s">
         <v>82</v>
       </c>
@@ -3487,8 +3735,11 @@
       <c r="J84" s="6">
         <v>4.8</v>
       </c>
-    </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K84" s="15">
+        <v>15.195977675607899</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11">
       <c r="A85" s="8" t="s">
         <v>83</v>
       </c>
@@ -3520,8 +3771,11 @@
       <c r="J85" s="6">
         <v>7.5</v>
       </c>
-    </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K85" s="15">
+        <v>1454.0374999999999</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11">
       <c r="A86" s="8" t="s">
         <v>84</v>
       </c>
@@ -3547,8 +3801,11 @@
       <c r="J86" s="6">
         <v>4.4000000000000004</v>
       </c>
-    </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K86" s="15">
+        <v>4.2885262442999901</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11">
       <c r="A87" s="8" t="s">
         <v>85</v>
       </c>
@@ -3577,8 +3834,11 @@
       <c r="J87" s="6">
         <v>7.8</v>
       </c>
-    </row>
-    <row r="88" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K87" s="15">
+        <v>622.96206896551701</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11">
       <c r="A88" s="8" t="s">
         <v>86</v>
       </c>
@@ -3610,8 +3870,11 @@
       <c r="J88" s="6">
         <v>5.0999999999999996</v>
       </c>
-    </row>
-    <row r="89" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K88" s="15">
+        <v>66.443723346793902</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11">
       <c r="A89" s="8" t="s">
         <v>87</v>
       </c>
@@ -3643,8 +3906,11 @@
       <c r="J89" s="6">
         <v>15.9</v>
       </c>
-    </row>
-    <row r="90" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K89" s="15">
+        <v>123.654509353119</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11">
       <c r="A90" s="8" t="s">
         <v>88</v>
       </c>
@@ -3669,8 +3935,11 @@
       <c r="J90" s="6">
         <v>13</v>
       </c>
-    </row>
-    <row r="91" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K90" s="15">
+        <v>1.9797413682123599</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11">
       <c r="A91" s="8" t="s">
         <v>89</v>
       </c>
@@ -3702,8 +3971,11 @@
       <c r="J91" s="6">
         <v>10.3</v>
       </c>
-    </row>
-    <row r="92" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K91" s="15">
+        <v>46.280371747211902</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11">
       <c r="A92" s="8" t="s">
         <v>90</v>
       </c>
@@ -3731,8 +4003,11 @@
       <c r="J92" s="6">
         <v>2.9</v>
       </c>
-    </row>
-    <row r="93" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K92" s="15">
+        <v>80.079722159982097</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11">
       <c r="A93" s="8" t="s">
         <v>91</v>
       </c>
@@ -3760,8 +4035,11 @@
       <c r="J93" s="6">
         <v>4.9000000000000004</v>
       </c>
-    </row>
-    <row r="94" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K93" s="15">
+        <v>37.728367964597297</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11">
       <c r="A94" s="8" t="s">
         <v>92</v>
       </c>
@@ -3789,8 +4067,11 @@
       <c r="J94" s="6">
         <v>7.8</v>
       </c>
-    </row>
-    <row r="95" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K94" s="15">
+        <v>81.721395541128203</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11">
       <c r="A95" s="8" t="s">
         <v>93</v>
       </c>
@@ -3818,8 +4099,11 @@
       <c r="J95" s="6">
         <v>8.6999999999999993</v>
       </c>
-    </row>
-    <row r="96" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K95" s="15">
+        <v>3.0776445723863999</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11">
       <c r="A96" s="8" t="s">
         <v>94</v>
       </c>
@@ -3847,8 +4131,11 @@
       <c r="J96" s="6">
         <v>8.8000000000000007</v>
       </c>
-    </row>
-    <row r="97" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K96" s="15">
+        <v>204.42970352284601</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11">
       <c r="A97" s="8" t="s">
         <v>95</v>
       </c>
@@ -3876,8 +4163,11 @@
       <c r="J97" s="6">
         <v>12.6</v>
       </c>
-    </row>
-    <row r="98" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K97" s="15">
+        <v>508.544197091125</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11">
       <c r="A98" s="8" t="s">
         <v>96</v>
       </c>
@@ -3909,13 +4199,16 @@
       <c r="J98" s="6">
         <v>12.1</v>
       </c>
-    </row>
-    <row r="99" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K98" s="15">
+        <v>18.206296760472402</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11">
       <c r="A99" s="8" t="s">
         <v>97</v>
       </c>
       <c r="B99" s="9">
-        <v>6.4763565063476563</v>
+        <v>6.4763565063476562</v>
       </c>
       <c r="C99" s="9">
         <f t="shared" si="1"/>
@@ -3934,8 +4227,11 @@
       <c r="J99" s="6">
         <v>12.2</v>
       </c>
-    </row>
-    <row r="100" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K99" s="15">
+        <v>51.666785773641401</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11">
       <c r="A100" s="8" t="s">
         <v>98</v>
       </c>
@@ -3963,8 +4259,11 @@
       <c r="J100" s="6">
         <v>4.5999999999999996</v>
       </c>
-    </row>
-    <row r="101" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K100" s="15">
+        <v>16.9553548590827</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11">
       <c r="A101" s="8" t="s">
         <v>99</v>
       </c>
@@ -3992,8 +4291,11 @@
       <c r="J101" s="6">
         <v>9.5</v>
       </c>
-    </row>
-    <row r="102" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K101" s="15">
+        <v>209.587833371762</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11">
       <c r="A102" s="8" t="s">
         <v>100</v>
       </c>
@@ -4025,8 +4327,11 @@
       <c r="J102" s="6">
         <v>12.2</v>
       </c>
-    </row>
-    <row r="103" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K102" s="15">
+        <v>14.4621363742146</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11">
       <c r="A103" s="8" t="s">
         <v>101</v>
       </c>
@@ -4054,8 +4359,11 @@
       <c r="J103" s="6">
         <v>2.9</v>
       </c>
-    </row>
-    <row r="104" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K103" s="15">
+        <v>255.57279343088399</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11">
       <c r="A104" s="8" t="s">
         <v>102</v>
       </c>
@@ -4079,8 +4387,11 @@
       </c>
       <c r="I104" s="4"/>
       <c r="J104" s="6"/>
-    </row>
-    <row r="105" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K104" s="15">
+        <v>778.20215946843905</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11">
       <c r="A105" s="8" t="s">
         <v>103</v>
       </c>
@@ -4108,8 +4419,11 @@
       <c r="J105" s="6">
         <v>4.3</v>
       </c>
-    </row>
-    <row r="106" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K105" s="15">
+        <v>55.132997040624197</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11">
       <c r="A106" s="8" t="s">
         <v>104</v>
       </c>
@@ -4137,8 +4451,11 @@
       <c r="J106" s="6">
         <v>9.5</v>
       </c>
-    </row>
-    <row r="107" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K106" s="15">
+        <v>17.1439642587465</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11">
       <c r="A107" s="8" t="s">
         <v>105</v>
       </c>
@@ -4166,8 +4483,11 @@
       <c r="J107" s="6">
         <v>4.9000000000000004</v>
       </c>
-    </row>
-    <row r="108" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K107" s="15">
+        <v>25.129285156249999</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11">
       <c r="A108" s="8" t="s">
         <v>106</v>
       </c>
@@ -4195,8 +4515,11 @@
       <c r="J108" s="6">
         <v>3.2</v>
       </c>
-    </row>
-    <row r="109" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K108" s="15">
+        <v>351.873394372338</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11">
       <c r="A109" s="8" t="s">
         <v>107</v>
       </c>
@@ -4228,8 +4551,11 @@
       <c r="J109" s="6">
         <v>16.2</v>
       </c>
-    </row>
-    <row r="110" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K109" s="15">
+        <v>124.027045298671</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11">
       <c r="A110" s="8" t="s">
         <v>108</v>
       </c>
@@ -4261,8 +4587,11 @@
       <c r="J110" s="6">
         <v>14</v>
       </c>
-    </row>
-    <row r="111" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K110" s="15">
+        <v>112.37070028928601</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11">
       <c r="A111" s="8" t="s">
         <v>109</v>
       </c>
@@ -4294,13 +4623,16 @@
       <c r="J111" s="6">
         <v>10.4</v>
       </c>
-    </row>
-    <row r="112" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K111" s="15">
+        <v>85.129255041724605</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11">
       <c r="A112" s="8" t="s">
         <v>110</v>
       </c>
       <c r="B112" s="9">
-        <v>5.5787429809570313</v>
+        <v>5.5787429809570312</v>
       </c>
       <c r="C112" s="9">
         <f t="shared" si="1"/>
@@ -4327,8 +4659,11 @@
       <c r="J112" s="6">
         <v>31</v>
       </c>
-    </row>
-    <row r="113" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K112" s="15">
+        <v>8.8231172379093206</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11">
       <c r="A113" s="8" t="s">
         <v>111</v>
       </c>
@@ -4356,8 +4691,11 @@
       <c r="J113" s="6">
         <v>6.7</v>
       </c>
-    </row>
-    <row r="114" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K113" s="15">
+        <v>494.86854479124401</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11">
       <c r="A114" s="8" t="s">
         <v>112</v>
       </c>
@@ -4385,8 +4723,11 @@
       <c r="J114" s="6">
         <v>3.2</v>
       </c>
-    </row>
-    <row r="115" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K114" s="15">
+        <v>15.322308332829399</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11">
       <c r="A115" s="8" t="s">
         <v>113</v>
       </c>
@@ -4414,8 +4755,11 @@
       <c r="J115" s="6">
         <v>6</v>
       </c>
-    </row>
-    <row r="116" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K115" s="15">
+        <v>82.327777489222498</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11">
       <c r="A116" s="8" t="s">
         <v>114</v>
       </c>
@@ -4447,8 +4791,11 @@
       <c r="J116" s="6">
         <v>15.6</v>
       </c>
-    </row>
-    <row r="117" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K116" s="15">
+        <v>80.291195975302998</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11">
       <c r="A117" s="8" t="s">
         <v>115</v>
       </c>
@@ -4471,8 +4818,11 @@
       <c r="J117" s="6">
         <v>9.6999999999999993</v>
       </c>
-    </row>
-    <row r="118" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K117" s="15">
+        <v>104.699528955389</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11">
       <c r="A118" s="8" t="s">
         <v>116</v>
       </c>
@@ -4504,8 +4854,11 @@
       <c r="J118" s="6">
         <v>9.9</v>
       </c>
-    </row>
-    <row r="119" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K118" s="15">
+        <v>7915.7306064880104</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11">
       <c r="A119" s="8" t="s">
         <v>117</v>
       </c>
@@ -4537,8 +4890,11 @@
       <c r="J119" s="6">
         <v>12.8</v>
       </c>
-    </row>
-    <row r="120" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K119" s="15">
+        <v>113.12839495903199</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11">
       <c r="A120" s="8" t="s">
         <v>118</v>
       </c>
@@ -4570,8 +4926,11 @@
       <c r="J120" s="6">
         <v>18.600000000000001</v>
       </c>
-    </row>
-    <row r="121" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K120" s="15">
+        <v>102.61906653426</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11">
       <c r="A121" s="8" t="s">
         <v>119</v>
       </c>
@@ -4603,8 +4962,11 @@
       <c r="J121" s="6">
         <v>11.6</v>
       </c>
-    </row>
-    <row r="122" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K121" s="15">
+        <v>46.754285337444003</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11">
       <c r="A122" s="8" t="s">
         <v>120</v>
       </c>
@@ -4636,8 +4998,11 @@
       <c r="J122" s="6">
         <v>26.9</v>
       </c>
-    </row>
-    <row r="123" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K122" s="15">
+        <v>527.96677267131702</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11">
       <c r="A123" s="8" t="s">
         <v>121</v>
       </c>
@@ -4660,8 +5025,9 @@
       <c r="J123" s="6">
         <v>3.7</v>
       </c>
-    </row>
-    <row r="124" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K123" s="15"/>
+    </row>
+    <row r="124" spans="1:11">
       <c r="A124" s="8" t="s">
         <v>122</v>
       </c>
@@ -4693,8 +5059,11 @@
       <c r="J124" s="6">
         <v>8.6999999999999993</v>
       </c>
-    </row>
-    <row r="125" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K124" s="15">
+        <v>93.1049519201935</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11">
       <c r="A125" s="8" t="s">
         <v>123</v>
       </c>
@@ -4722,8 +5091,11 @@
       <c r="J125" s="6">
         <v>14.6</v>
       </c>
-    </row>
-    <row r="126" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K125" s="15">
+        <v>341.95503109551902</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11">
       <c r="A126" s="8" t="s">
         <v>124</v>
       </c>
@@ -4751,8 +5123,11 @@
       <c r="J126" s="6">
         <v>14.8</v>
       </c>
-    </row>
-    <row r="127" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K126" s="15">
+        <v>24.717645036949701</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11">
       <c r="A127" s="8" t="s">
         <v>125</v>
       </c>
@@ -4784,8 +5159,11 @@
       <c r="J127" s="6">
         <v>17.2</v>
       </c>
-    </row>
-    <row r="128" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K127" s="15">
+        <v>214.242762425347</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11">
       <c r="A128" s="8" t="s">
         <v>126</v>
       </c>
@@ -4809,8 +5187,9 @@
         <v>26.5</v>
       </c>
       <c r="J128" s="6"/>
-    </row>
-    <row r="129" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K128" s="15"/>
+    </row>
+    <row r="129" spans="1:11">
       <c r="A129" s="8" t="s">
         <v>127</v>
       </c>
@@ -4836,8 +5215,11 @@
       <c r="J129" s="6">
         <v>2.5</v>
       </c>
-    </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K129" s="15">
+        <v>64.281289179023801</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11">
       <c r="A130" s="8" t="s">
         <v>128</v>
       </c>
@@ -4865,8 +5247,11 @@
       <c r="J130" s="6">
         <v>5.4</v>
       </c>
-    </row>
-    <row r="131" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K130" s="15">
+        <v>64.698599006547795</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11">
       <c r="A131" s="8" t="s">
         <v>129</v>
       </c>
@@ -4898,8 +5283,11 @@
       <c r="J131" s="6">
         <v>14.4</v>
       </c>
-    </row>
-    <row r="132" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K131" s="15">
+        <v>135.13185421519299</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11">
       <c r="A132" s="8" t="s">
         <v>130</v>
       </c>
@@ -4927,8 +5315,11 @@
       <c r="J132" s="6">
         <v>9.6</v>
       </c>
-    </row>
-    <row r="133" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K132" s="15">
+        <v>143.36631733774601</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11">
       <c r="A133" s="8" t="s">
         <v>131</v>
       </c>
@@ -4954,8 +5345,11 @@
       <c r="J133" s="6">
         <v>13.6</v>
       </c>
-    </row>
-    <row r="134" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K133" s="15">
+        <v>266.885964912281</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11">
       <c r="A134" s="8" t="s">
         <v>132</v>
       </c>
@@ -4983,8 +5377,11 @@
       <c r="J134" s="6">
         <v>3.4</v>
       </c>
-    </row>
-    <row r="135" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K134" s="15">
+        <v>74.228417868177104</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11">
       <c r="A135" s="8" t="s">
         <v>133</v>
       </c>
@@ -5012,8 +5409,11 @@
       <c r="J135" s="6">
         <v>7.3</v>
       </c>
-    </row>
-    <row r="136" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K135" s="15">
+        <v>104.914075594766</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11">
       <c r="A136" s="8" t="s">
         <v>134</v>
       </c>
@@ -5039,8 +5439,11 @@
       <c r="J136" s="6">
         <v>6.7</v>
       </c>
-    </row>
-    <row r="137" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K136" s="15">
+        <v>12.2530483263465</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11">
       <c r="A137" s="8" t="s">
         <v>135</v>
       </c>
@@ -5068,8 +5471,11 @@
       <c r="J137" s="6">
         <v>9.9</v>
       </c>
-    </row>
-    <row r="138" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K137" s="15">
+        <v>213.75901655695199</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11">
       <c r="A138" s="8" t="s">
         <v>136</v>
       </c>
@@ -5097,8 +5503,11 @@
       <c r="J138" s="6">
         <v>22.4</v>
       </c>
-    </row>
-    <row r="139" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K138" s="15">
+        <v>77.389837559771493</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11">
       <c r="A139" s="8" t="s">
         <v>137</v>
       </c>
@@ -5126,8 +5535,11 @@
       <c r="J139" s="6">
         <v>2.8</v>
       </c>
-    </row>
-    <row r="140" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K139" s="15">
+        <v>112.44192583732099</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11">
       <c r="A140" s="8" t="s">
         <v>138</v>
       </c>
@@ -5159,8 +5571,11 @@
       <c r="J140" s="6">
         <v>8.9</v>
       </c>
-    </row>
-    <row r="141" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K140" s="15">
+        <v>272.89824742694202</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11">
       <c r="A141" s="8" t="s">
         <v>139</v>
       </c>
@@ -5188,8 +5603,11 @@
       <c r="J141" s="6">
         <v>15.3</v>
       </c>
-    </row>
-    <row r="142" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K141" s="15">
+        <v>35.607764593732398</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11">
       <c r="A142" s="8" t="s">
         <v>140</v>
       </c>
@@ -5221,8 +5639,11 @@
       <c r="J142" s="6">
         <v>18.399999999999999</v>
       </c>
-    </row>
-    <row r="143" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K142" s="15">
+        <v>19.750599931436401</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11">
       <c r="A143" s="8" t="s">
         <v>141</v>
       </c>
@@ -5250,8 +5671,11 @@
       <c r="J143" s="6">
         <v>7.4</v>
       </c>
-    </row>
-    <row r="144" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K143" s="15">
+        <v>76.133521391631405</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11">
       <c r="A144" s="8" t="s">
         <v>142</v>
       </c>
@@ -5277,8 +5701,11 @@
       <c r="J144" s="6">
         <v>3.7</v>
       </c>
-    </row>
-    <row r="145" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K144" s="15">
+        <v>36.253120571396202</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11">
       <c r="A145" s="8" t="s">
         <v>143</v>
       </c>
@@ -5306,8 +5733,11 @@
       <c r="J145" s="6">
         <v>7.3</v>
       </c>
-    </row>
-    <row r="146" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K145" s="15">
+        <v>308.12655206888797</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11">
       <c r="A146" s="8" t="s">
         <v>144</v>
       </c>
@@ -5333,13 +5763,16 @@
       <c r="J146" s="6">
         <v>8.5</v>
       </c>
-    </row>
-    <row r="147" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K146" s="15">
+        <v>53.507623539216198</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11">
       <c r="A147" s="8" t="s">
         <v>145</v>
       </c>
       <c r="B147" s="9">
-        <v>3.9327774047851563</v>
+        <v>3.9327774047851562</v>
       </c>
       <c r="C147" s="9">
         <f t="shared" si="2"/>
@@ -5360,8 +5793,11 @@
       <c r="J147" s="6">
         <v>6.1</v>
       </c>
-    </row>
-    <row r="148" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="K147" s="15">
+        <v>22.9948344745019</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11">
       <c r="A148" s="8" t="s">
         <v>146</v>
       </c>
@@ -5389,6 +5825,9 @@
       <c r="J148" s="6">
         <v>10.7</v>
       </c>
+      <c r="K148" s="15">
+        <v>42.729492051182604</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data_tables/Total_data_cleaned.xlsx
+++ b/data_tables/Total_data_cleaned.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ulrikaeriksson/Documents/Data_Mining/DataMining-Group23/data_tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6213089-2CE5-8F48-99AD-447EB8DDEFBF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C4AE9E6-1175-B548-8A4C-4A95053398D3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="22200" windowHeight="12560" xr2:uid="{196242FC-4F62-234C-ABAE-90D7B6224D3F}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="159">
   <si>
     <t>Afghanistan</t>
   </si>
@@ -499,6 +499,9 @@
   </si>
   <si>
     <t>Population density</t>
+  </si>
+  <si>
+    <t>Alcohol or drug use disorder</t>
   </si>
 </sst>
 </file>
@@ -967,10 +970,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67CF83BE-F021-5E44-A4B8-2C5D9BB127DA}">
-  <dimension ref="A1:K148"/>
+  <dimension ref="A1:L148"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+    <sheetView tabSelected="1" topLeftCell="A24" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
@@ -986,7 +989,7 @@
     <col min="9" max="9" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="17">
+    <row r="1" spans="1:12" ht="17">
       <c r="A1" s="1" t="s">
         <v>147</v>
       </c>
@@ -1020,8 +1023,11 @@
       <c r="K1" s="16" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="L1" s="16" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
@@ -1049,8 +1055,11 @@
       <c r="K2" s="15">
         <v>54.422205373280597</v>
       </c>
-    </row>
-    <row r="3" spans="1:11">
+      <c r="L2" s="15">
+        <v>1.809624516</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" s="8" t="s">
         <v>1</v>
       </c>
@@ -1081,8 +1090,11 @@
       <c r="K3" s="15">
         <v>104.870693430657</v>
       </c>
-    </row>
-    <row r="4" spans="1:11">
+      <c r="L3" s="15">
+        <v>2.3255375310000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" s="8" t="s">
         <v>2</v>
       </c>
@@ -1113,8 +1125,11 @@
       <c r="K4" s="15">
         <v>17.347873677280599</v>
       </c>
-    </row>
-    <row r="5" spans="1:11">
+      <c r="L4" s="15">
+        <v>1.485914602</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" s="8" t="s">
         <v>3</v>
       </c>
@@ -1149,8 +1164,11 @@
       <c r="K5" s="15">
         <v>16.176856348362399</v>
       </c>
-    </row>
-    <row r="6" spans="1:11">
+      <c r="L5" s="15">
+        <v>3.1186833850000002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6" s="8" t="s">
         <v>4</v>
       </c>
@@ -1181,8 +1199,11 @@
       <c r="K6" s="15">
         <v>102.931155602388</v>
       </c>
-    </row>
-    <row r="7" spans="1:11">
+      <c r="L6" s="15">
+        <v>2.3654491160000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7" s="8" t="s">
         <v>5</v>
       </c>
@@ -1217,8 +1238,11 @@
       <c r="K7" s="15">
         <v>3.20202712729261</v>
       </c>
-    </row>
-    <row r="8" spans="1:11">
+      <c r="L7" s="15">
+        <v>3.8037627660000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8" s="8" t="s">
         <v>6</v>
       </c>
@@ -1253,8 +1277,11 @@
       <c r="K8" s="15">
         <v>106.748567066151</v>
       </c>
-    </row>
-    <row r="9" spans="1:11">
+      <c r="L8" s="15">
+        <v>2.8291145819999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9" s="8" t="s">
         <v>7</v>
       </c>
@@ -1289,8 +1316,11 @@
       <c r="K9" s="15">
         <v>119.308868538524</v>
       </c>
-    </row>
-    <row r="10" spans="1:11">
+      <c r="L9" s="15">
+        <v>3.2560069280000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10" s="8" t="s">
         <v>8</v>
       </c>
@@ -1319,8 +1349,11 @@
       <c r="K10" s="15">
         <v>1935.9066147859901</v>
       </c>
-    </row>
-    <row r="11" spans="1:11">
+      <c r="L10" s="15">
+        <v>1.615647681</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11" s="8" t="s">
         <v>9</v>
       </c>
@@ -1351,8 +1384,11 @@
       <c r="K11" s="15">
         <v>1265.0361143120499</v>
       </c>
-    </row>
-    <row r="12" spans="1:11">
+      <c r="L11" s="15">
+        <v>2.031842132</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
       <c r="A12" s="8" t="s">
         <v>10</v>
       </c>
@@ -1387,8 +1423,11 @@
       <c r="K12" s="15">
         <v>46.8575969641713</v>
       </c>
-    </row>
-    <row r="13" spans="1:11">
+      <c r="L12" s="15">
+        <v>5.1028469349999996</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
       <c r="A13" s="8" t="s">
         <v>11</v>
       </c>
@@ -1423,8 +1462,11 @@
       <c r="K13" s="15">
         <v>375.56367239101701</v>
       </c>
-    </row>
-    <row r="14" spans="1:11">
+      <c r="L13" s="15">
+        <v>2.2844173109999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
       <c r="A14" s="8" t="s">
         <v>12</v>
       </c>
@@ -1455,8 +1497,11 @@
       <c r="K14" s="15">
         <v>99.110429230223502</v>
       </c>
-    </row>
-    <row r="15" spans="1:11">
+      <c r="L14" s="15">
+        <v>1.6706470899999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
       <c r="A15" s="8" t="s">
         <v>13</v>
       </c>
@@ -1489,8 +1534,11 @@
       <c r="K15" s="15">
         <v>10.2017908243331</v>
       </c>
-    </row>
-    <row r="16" spans="1:11">
+      <c r="L15" s="15">
+        <v>2.434164628</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
       <c r="A16" s="8" t="s">
         <v>14</v>
       </c>
@@ -1521,8 +1569,11 @@
       <c r="K16" s="15">
         <v>68.496425781249997</v>
       </c>
-    </row>
-    <row r="17" spans="1:11">
+      <c r="L16" s="15">
+        <v>3.526306038</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
       <c r="A17" s="8" t="s">
         <v>15</v>
       </c>
@@ -1553,8 +1604,11 @@
       <c r="K17" s="15">
         <v>4.04365570906781</v>
       </c>
-    </row>
-    <row r="18" spans="1:11">
+      <c r="L17" s="15">
+        <v>2.3786810370000002</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
       <c r="A18" s="8" t="s">
         <v>16</v>
       </c>
@@ -1589,8 +1643,11 @@
       <c r="K18" s="15">
         <v>25.040054126875098</v>
       </c>
-    </row>
-    <row r="19" spans="1:11">
+      <c r="L18" s="15">
+        <v>3.730609555</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
       <c r="A19" s="8" t="s">
         <v>17</v>
       </c>
@@ -1625,8 +1682,11 @@
       <c r="K19" s="15">
         <v>65.180462417096507</v>
       </c>
-    </row>
-    <row r="20" spans="1:11">
+      <c r="L19" s="15">
+        <v>2.3871194039999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
       <c r="A20" s="8" t="s">
         <v>18</v>
       </c>
@@ -1661,8 +1721,11 @@
       <c r="K20" s="15">
         <v>70.151250000000005</v>
       </c>
-    </row>
-    <row r="21" spans="1:11">
+      <c r="L20" s="15">
+        <v>1.6203995840000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
       <c r="A21" s="8" t="s">
         <v>19</v>
       </c>
@@ -1693,8 +1756,11 @@
       <c r="K21" s="15">
         <v>90.671725583503303</v>
       </c>
-    </row>
-    <row r="22" spans="1:11">
+      <c r="L21" s="15">
+        <v>1.5939582269999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
       <c r="A22" s="8" t="s">
         <v>20</v>
       </c>
@@ -1723,8 +1789,11 @@
       <c r="K22" s="15">
         <v>50.884743288697102</v>
       </c>
-    </row>
-    <row r="23" spans="1:11">
+      <c r="L22" s="15">
+        <v>1.8031018350000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
       <c r="A23" s="8" t="s">
         <v>21</v>
       </c>
@@ -1759,8 +1828,11 @@
       <c r="K23" s="15">
         <v>4.03673422033956</v>
       </c>
-    </row>
-    <row r="24" spans="1:11">
+      <c r="L23" s="15">
+        <v>3.7945346299999998</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
       <c r="A24" s="8" t="s">
         <v>22</v>
       </c>
@@ -1789,8 +1861,11 @@
       <c r="K24" s="15">
         <v>7.47869915567113</v>
       </c>
-    </row>
-    <row r="25" spans="1:11">
+      <c r="L24" s="15">
+        <v>1.8895983300000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
       <c r="A25" s="8" t="s">
         <v>23</v>
       </c>
@@ -1819,8 +1894,11 @@
       <c r="K25" s="15">
         <v>11.8329050190597</v>
       </c>
-    </row>
-    <row r="26" spans="1:11">
+      <c r="L25" s="15">
+        <v>1.612914776</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
       <c r="A26" s="8" t="s">
         <v>24</v>
       </c>
@@ -1851,8 +1929,11 @@
       <c r="K26" s="15">
         <v>24.2823792385533</v>
       </c>
-    </row>
-    <row r="27" spans="1:11">
+      <c r="L26" s="15">
+        <v>3.461463626</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
       <c r="A27" s="8" t="s">
         <v>25</v>
       </c>
@@ -1884,8 +1965,11 @@
       <c r="K27" s="15">
         <v>147.67403502115599</v>
       </c>
-    </row>
-    <row r="28" spans="1:11">
+      <c r="L27" s="15">
+        <v>1.9578983599999999</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
       <c r="A28" s="8" t="s">
         <v>26</v>
       </c>
@@ -1920,8 +2004,11 @@
       <c r="K28" s="15">
         <v>44.223177106804897</v>
       </c>
-    </row>
-    <row r="29" spans="1:11">
+      <c r="L28" s="15">
+        <v>2.3728377520000001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
       <c r="A29" s="8" t="s">
         <v>27</v>
       </c>
@@ -1949,8 +2036,11 @@
       <c r="K29" s="15">
         <v>15.404831625183</v>
       </c>
-    </row>
-    <row r="30" spans="1:11">
+      <c r="L29" s="15">
+        <v>1.9430276660000001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
       <c r="A30" s="8" t="s">
         <v>28</v>
       </c>
@@ -1979,8 +2069,11 @@
       <c r="K30" s="15">
         <v>35.879221014093197</v>
       </c>
-    </row>
-    <row r="31" spans="1:11">
+      <c r="L30" s="15">
+        <v>1.8587189340000001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
       <c r="A31" s="8" t="s">
         <v>29</v>
       </c>
@@ -2015,8 +2108,11 @@
       <c r="K31" s="15">
         <v>96.078515471993697</v>
       </c>
-    </row>
-    <row r="32" spans="1:11">
+      <c r="L31" s="15">
+        <v>1.9148140069999999</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
       <c r="A32" s="8" t="s">
         <v>30</v>
       </c>
@@ -2051,8 +2147,11 @@
       <c r="K32" s="15">
         <v>73.725875625446704</v>
       </c>
-    </row>
-    <row r="33" spans="1:11">
+      <c r="L32" s="15">
+        <v>2.7405460929999998</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12">
       <c r="A33" s="8" t="s">
         <v>31</v>
       </c>
@@ -2087,8 +2186,11 @@
       <c r="K33" s="15">
         <v>127.65703463203501</v>
       </c>
-    </row>
-    <row r="34" spans="1:11">
+      <c r="L33" s="15">
+        <v>1.7680723469999999</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12">
       <c r="A34" s="8" t="s">
         <v>32</v>
       </c>
@@ -2119,8 +2221,11 @@
       <c r="K34" s="15">
         <v>137.17553425722099</v>
       </c>
-    </row>
-    <row r="35" spans="1:11">
+      <c r="L34" s="15">
+        <v>2.7127169690000001</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12">
       <c r="A35" s="8" t="s">
         <v>33</v>
       </c>
@@ -2151,8 +2256,11 @@
       <c r="K35" s="15">
         <v>136.51987601154701</v>
       </c>
-    </row>
-    <row r="36" spans="1:11">
+      <c r="L35" s="15">
+        <v>2.8271041879999999</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12">
       <c r="A36" s="8" t="s">
         <v>34</v>
       </c>
@@ -2187,8 +2295,11 @@
       <c r="K36" s="15">
         <v>222.87306975781399</v>
       </c>
-    </row>
-    <row r="37" spans="1:11">
+      <c r="L36" s="15">
+        <v>2.1777191999999999</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12">
       <c r="A37" s="8" t="s">
         <v>35</v>
       </c>
@@ -2219,8 +2330,11 @@
       <c r="K37" s="15">
         <v>66.938548880657095</v>
       </c>
-    </row>
-    <row r="38" spans="1:11">
+      <c r="L37" s="15">
+        <v>2.31497332</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12">
       <c r="A38" s="8" t="s">
         <v>36</v>
       </c>
@@ -2251,8 +2365,11 @@
       <c r="K38" s="15">
         <v>97.999046662313503</v>
       </c>
-    </row>
-    <row r="39" spans="1:11">
+      <c r="L38" s="15">
+        <v>1.446643887</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12">
       <c r="A39" s="8" t="s">
         <v>37</v>
       </c>
@@ -2283,8 +2400,11 @@
       <c r="K39" s="15">
         <v>307.81143822393801</v>
       </c>
-    </row>
-    <row r="40" spans="1:11">
+      <c r="L39" s="15">
+        <v>3.0883517739999999</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12">
       <c r="A40" s="8" t="s">
         <v>38</v>
       </c>
@@ -2319,8 +2439,11 @@
       <c r="K40" s="15">
         <v>31.032790752535998</v>
       </c>
-    </row>
-    <row r="41" spans="1:11">
+      <c r="L40" s="15">
+        <v>5.4835234560000004</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12">
       <c r="A41" s="8" t="s">
         <v>39</v>
       </c>
@@ -2351,8 +2474,11 @@
       <c r="K41" s="15">
         <v>104.957438</v>
       </c>
-    </row>
-    <row r="42" spans="1:11">
+      <c r="L41" s="15">
+        <v>2.616682548</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12">
       <c r="A42" s="8" t="s">
         <v>40</v>
       </c>
@@ -2387,8 +2513,11 @@
       <c r="K42" s="15">
         <v>18.1358484978117</v>
       </c>
-    </row>
-    <row r="43" spans="1:11">
+      <c r="L42" s="15">
+        <v>4.0242325509999999</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12">
       <c r="A43" s="8" t="s">
         <v>41</v>
       </c>
@@ -2423,8 +2552,11 @@
       <c r="K43" s="15">
         <v>122.57837631516</v>
       </c>
-    </row>
-    <row r="44" spans="1:11">
+      <c r="L43" s="15">
+        <v>2.7333169019999999</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12">
       <c r="A44" s="8" t="s">
         <v>42</v>
       </c>
@@ -2450,8 +2582,11 @@
       <c r="K44" s="15">
         <v>7.8594209647999396</v>
       </c>
-    </row>
-    <row r="45" spans="1:11">
+      <c r="L44" s="15">
+        <v>2.0146800420000002</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12">
       <c r="A45" s="8" t="s">
         <v>43</v>
       </c>
@@ -2479,8 +2614,11 @@
       <c r="K45" s="15">
         <v>207.56600790513801</v>
       </c>
-    </row>
-    <row r="46" spans="1:11">
+      <c r="L45" s="15">
+        <v>1.576080782</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12">
       <c r="A46" s="8" t="s">
         <v>44</v>
       </c>
@@ -2515,8 +2653,11 @@
       <c r="K46" s="15">
         <v>65.032016515623397</v>
       </c>
-    </row>
-    <row r="47" spans="1:11">
+      <c r="L46" s="15">
+        <v>2.4086422789999999</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12">
       <c r="A47" s="8" t="s">
         <v>45</v>
       </c>
@@ -2551,8 +2692,11 @@
       <c r="K47" s="15">
         <v>237.016337059329</v>
       </c>
-    </row>
-    <row r="48" spans="1:11">
+      <c r="L47" s="15">
+        <v>2.827630079</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12">
       <c r="A48" s="8" t="s">
         <v>46</v>
       </c>
@@ -2587,8 +2731,11 @@
       <c r="K48" s="15">
         <v>126.71894611936401</v>
       </c>
-    </row>
-    <row r="49" spans="1:11">
+      <c r="L48" s="15">
+        <v>1.6884604519999999</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12">
       <c r="A49" s="8" t="s">
         <v>47</v>
       </c>
@@ -2623,8 +2770,11 @@
       <c r="K49" s="15">
         <v>83.478828549263</v>
       </c>
-    </row>
-    <row r="50" spans="1:11">
+      <c r="L49" s="15">
+        <v>1.8782843119999999</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12">
       <c r="A50" s="8" t="s">
         <v>48</v>
       </c>
@@ -2653,8 +2803,11 @@
       <c r="K50" s="15">
         <v>157.83410787607301</v>
       </c>
-    </row>
-    <row r="51" spans="1:11">
+      <c r="L50" s="15">
+        <v>3.162466411</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12">
       <c r="A51" s="8" t="s">
         <v>49</v>
       </c>
@@ -2683,8 +2836,11 @@
       <c r="K51" s="15">
         <v>51.754745238482798</v>
       </c>
-    </row>
-    <row r="52" spans="1:11">
+      <c r="L51" s="15">
+        <v>1.590701079</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12">
       <c r="A52" s="8" t="s">
         <v>50</v>
       </c>
@@ -2713,8 +2869,11 @@
       <c r="K52" s="15">
         <v>398.448076923077</v>
       </c>
-    </row>
-    <row r="53" spans="1:11">
+      <c r="L52" s="15">
+        <v>2.334270047</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12">
       <c r="A53" s="8" t="s">
         <v>51</v>
       </c>
@@ -2745,8 +2904,11 @@
       <c r="K53" s="15">
         <v>82.805138975779798</v>
       </c>
-    </row>
-    <row r="54" spans="1:11">
+      <c r="L53" s="15">
+        <v>2.1300707230000002</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12">
       <c r="A54" s="8" t="s">
         <v>52</v>
       </c>
@@ -2769,8 +2931,9 @@
       <c r="K54" s="15">
         <v>7039.7142857142899</v>
       </c>
-    </row>
-    <row r="55" spans="1:11">
+      <c r="L54" s="15"/>
+    </row>
+    <row r="55" spans="1:12">
       <c r="A55" s="8" t="s">
         <v>53</v>
       </c>
@@ -2805,8 +2968,11 @@
       <c r="K55" s="15">
         <v>108.042936043301</v>
       </c>
-    </row>
-    <row r="56" spans="1:11">
+      <c r="L55" s="15">
+        <v>2.6101259950000002</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12">
       <c r="A56" s="8" t="s">
         <v>54</v>
       </c>
@@ -2834,8 +3000,11 @@
       <c r="K56" s="15">
         <v>3.40432917705736</v>
       </c>
-    </row>
-    <row r="57" spans="1:11">
+      <c r="L56" s="15">
+        <v>2.1393359009999999</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12">
       <c r="A57" s="8" t="s">
         <v>55</v>
       </c>
@@ -2866,8 +3035,11 @@
       <c r="K57" s="15">
         <v>450.41861670461702</v>
       </c>
-    </row>
-    <row r="58" spans="1:11">
+      <c r="L57" s="15">
+        <v>1.7448725620000001</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12">
       <c r="A58" s="8" t="s">
         <v>56</v>
       </c>
@@ -2898,8 +3070,11 @@
       <c r="K58" s="15">
         <v>145.72518809651299</v>
       </c>
-    </row>
-    <row r="59" spans="1:11">
+      <c r="L58" s="15">
+        <v>1.2969102939999999</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12">
       <c r="A59" s="8" t="s">
         <v>57</v>
       </c>
@@ -2930,8 +3105,11 @@
       <c r="K59" s="15">
         <v>49.831029740416</v>
       </c>
-    </row>
-    <row r="60" spans="1:11">
+      <c r="L59" s="15">
+        <v>1.7879851849999999</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12">
       <c r="A60" s="8" t="s">
         <v>58</v>
       </c>
@@ -2960,8 +3138,11 @@
       <c r="K60" s="15">
         <v>88.125386811567495</v>
       </c>
-    </row>
-    <row r="61" spans="1:11">
+      <c r="L60" s="15">
+        <v>2.1814031009999999</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12">
       <c r="A61" s="8" t="s">
         <v>59</v>
       </c>
@@ -2996,8 +3177,11 @@
       <c r="K61" s="15">
         <v>69.873827841486403</v>
       </c>
-    </row>
-    <row r="62" spans="1:11">
+      <c r="L61" s="15">
+        <v>3.2364014619999999</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12">
       <c r="A62" s="8" t="s">
         <v>60</v>
       </c>
@@ -3032,8 +3216,11 @@
       <c r="K62" s="15">
         <v>402.60628465804098</v>
       </c>
-    </row>
-    <row r="63" spans="1:11">
+      <c r="L62" s="15">
+        <v>1.3260031560000001</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12">
       <c r="A63" s="8" t="s">
         <v>61</v>
       </c>
@@ -3068,8 +3255,11 @@
       <c r="K63" s="15">
         <v>205.85916910314799</v>
       </c>
-    </row>
-    <row r="64" spans="1:11">
+      <c r="L63" s="15">
+        <v>1.683797108</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12">
       <c r="A64" s="8" t="s">
         <v>62</v>
       </c>
@@ -3098,8 +3288,11 @@
       <c r="K64" s="15">
         <v>76.3985849056604</v>
       </c>
-    </row>
-    <row r="65" spans="1:11">
+      <c r="L64" s="15">
+        <v>1.720200808</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12">
       <c r="A65" s="8" t="s">
         <v>63</v>
       </c>
@@ -3134,8 +3327,11 @@
       <c r="K65" s="15">
         <v>266.878947368421</v>
       </c>
-    </row>
-    <row r="66" spans="1:11">
+      <c r="L65" s="15">
+        <v>2.3290716069999999</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12">
       <c r="A66" s="8" t="s">
         <v>64</v>
       </c>
@@ -3170,8 +3366,11 @@
       <c r="K66" s="15">
         <v>347.77758667983301</v>
       </c>
-    </row>
-    <row r="67" spans="1:11">
+      <c r="L66" s="15">
+        <v>1.5638960449999999</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12">
       <c r="A67" s="8" t="s">
         <v>65</v>
       </c>
@@ -3200,8 +3399,11 @@
       <c r="K67" s="15">
         <v>109.285345798603</v>
       </c>
-    </row>
-    <row r="68" spans="1:11">
+      <c r="L67" s="15">
+        <v>1.61326719</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12">
       <c r="A68" s="8" t="s">
         <v>66</v>
       </c>
@@ -3232,8 +3434,11 @@
       <c r="K68" s="15">
         <v>6.6813520020743002</v>
       </c>
-    </row>
-    <row r="69" spans="1:11">
+      <c r="L68" s="15">
+        <v>3.3750323070000001</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12">
       <c r="A69" s="8" t="s">
         <v>67</v>
       </c>
@@ -3264,8 +3469,11 @@
       <c r="K69" s="15">
         <v>87.324493094844897</v>
       </c>
-    </row>
-    <row r="70" spans="1:11">
+      <c r="L69" s="15">
+        <v>1.5311732680000001</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12">
       <c r="A70" s="8" t="s">
         <v>68</v>
       </c>
@@ -3290,8 +3498,9 @@
       <c r="K70" s="15">
         <v>168.154679893451</v>
       </c>
-    </row>
-    <row r="71" spans="1:11">
+      <c r="L70" s="15"/>
+    </row>
+    <row r="71" spans="1:12">
       <c r="A71" s="8" t="s">
         <v>69</v>
       </c>
@@ -3322,8 +3531,11 @@
       <c r="K71" s="15">
         <v>232.12839506172801</v>
       </c>
-    </row>
-    <row r="72" spans="1:11">
+      <c r="L71" s="15">
+        <v>1.5134735370000001</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12">
       <c r="A72" s="8" t="s">
         <v>70</v>
       </c>
@@ -3354,8 +3566,11 @@
       <c r="K72" s="15">
         <v>32.333159541188699</v>
       </c>
-    </row>
-    <row r="73" spans="1:11">
+      <c r="L72" s="15">
+        <v>3.336949615</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12">
       <c r="A73" s="8" t="s">
         <v>71</v>
       </c>
@@ -3386,8 +3601,11 @@
       <c r="K73" s="15">
         <v>29.714731369150801</v>
       </c>
-    </row>
-    <row r="74" spans="1:11">
+      <c r="L73" s="15">
+        <v>1.6259996080000001</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12">
       <c r="A74" s="8" t="s">
         <v>72</v>
       </c>
@@ -3422,8 +3640,11 @@
       <c r="K74" s="15">
         <v>31.2116436153104</v>
       </c>
-    </row>
-    <row r="75" spans="1:11">
+      <c r="L74" s="15">
+        <v>4.7946621010000001</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12">
       <c r="A75" s="8" t="s">
         <v>73</v>
       </c>
@@ -3454,8 +3675,11 @@
       <c r="K75" s="15">
         <v>594.56080156402697</v>
       </c>
-    </row>
-    <row r="76" spans="1:11">
+      <c r="L75" s="15">
+        <v>1.6208092970000001</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12">
       <c r="A76" s="8" t="s">
         <v>74</v>
       </c>
@@ -3483,8 +3707,11 @@
       <c r="K76" s="15">
         <v>73.561890645586303</v>
       </c>
-    </row>
-    <row r="77" spans="1:11">
+      <c r="L76" s="15">
+        <v>2.270169144</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12">
       <c r="A77" s="8" t="s">
         <v>75</v>
       </c>
@@ -3515,8 +3742,11 @@
       <c r="K77" s="15">
         <v>49.126931063122903</v>
       </c>
-    </row>
-    <row r="78" spans="1:11">
+      <c r="L77" s="15">
+        <v>1.612780331</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12">
       <c r="A78" s="8" t="s">
         <v>76</v>
       </c>
@@ -3542,8 +3772,11 @@
       <c r="K78" s="15">
         <v>3.6228878002205098</v>
       </c>
-    </row>
-    <row r="79" spans="1:11">
+      <c r="L78" s="15">
+        <v>1.546907963</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12">
       <c r="A79" s="8" t="s">
         <v>77</v>
       </c>
@@ -3578,8 +3811,11 @@
       <c r="K79" s="15">
         <v>45.1352114924182</v>
       </c>
-    </row>
-    <row r="80" spans="1:11">
+      <c r="L79" s="15">
+        <v>4.5945722770000001</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12">
       <c r="A80" s="8" t="s">
         <v>78</v>
       </c>
@@ -3614,8 +3850,11 @@
       <c r="K80" s="15">
         <v>231.44749034749</v>
       </c>
-    </row>
-    <row r="81" spans="1:11">
+      <c r="L80" s="15">
+        <v>2.3455869890000001</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12">
       <c r="A81" s="8" t="s">
         <v>79</v>
       </c>
@@ -3644,8 +3883,11 @@
       <c r="K81" s="15">
         <v>82.599524187153094</v>
       </c>
-    </row>
-    <row r="82" spans="1:11">
+      <c r="L81" s="15">
+        <v>2.269450236</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12">
       <c r="A82" s="8" t="s">
         <v>80</v>
       </c>
@@ -3674,8 +3916,11 @@
       <c r="K82" s="15">
         <v>43.951349260914398</v>
       </c>
-    </row>
-    <row r="83" spans="1:11">
+      <c r="L82" s="15">
+        <v>1.9295615370000001</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12">
       <c r="A83" s="8" t="s">
         <v>81</v>
       </c>
@@ -3706,8 +3951,11 @@
       <c r="K83" s="15">
         <v>197.519134493</v>
       </c>
-    </row>
-    <row r="84" spans="1:11">
+      <c r="L83" s="15">
+        <v>2.0067722699999999</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12">
       <c r="A84" s="8" t="s">
         <v>82</v>
       </c>
@@ -3738,8 +3986,11 @@
       <c r="K84" s="15">
         <v>15.195977675607899</v>
       </c>
-    </row>
-    <row r="85" spans="1:11">
+      <c r="L84" s="15">
+        <v>1.5667934619999999</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12">
       <c r="A85" s="8" t="s">
         <v>83</v>
       </c>
@@ -3774,8 +4025,11 @@
       <c r="K85" s="15">
         <v>1454.0374999999999</v>
       </c>
-    </row>
-    <row r="86" spans="1:11">
+      <c r="L85" s="15">
+        <v>1.9806688539999999</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12">
       <c r="A86" s="8" t="s">
         <v>84</v>
       </c>
@@ -3804,8 +4058,11 @@
       <c r="K86" s="15">
         <v>4.2885262442999901</v>
       </c>
-    </row>
-    <row r="87" spans="1:11">
+      <c r="L86" s="15">
+        <v>1.6035010940000001</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12">
       <c r="A87" s="8" t="s">
         <v>85</v>
       </c>
@@ -3837,8 +4094,11 @@
       <c r="K87" s="15">
         <v>622.96206896551701</v>
       </c>
-    </row>
-    <row r="88" spans="1:11">
+      <c r="L87" s="15">
+        <v>1.831791645</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12">
       <c r="A88" s="8" t="s">
         <v>86</v>
       </c>
@@ -3873,8 +4133,11 @@
       <c r="K88" s="15">
         <v>66.443723346793902</v>
       </c>
-    </row>
-    <row r="89" spans="1:11">
+      <c r="L88" s="15">
+        <v>2.1725092840000002</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12">
       <c r="A89" s="8" t="s">
         <v>87</v>
       </c>
@@ -3909,8 +4172,11 @@
       <c r="K89" s="15">
         <v>123.654509353119</v>
       </c>
-    </row>
-    <row r="90" spans="1:11">
+      <c r="L89" s="15">
+        <v>4.3550731010000003</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12">
       <c r="A90" s="8" t="s">
         <v>88</v>
       </c>
@@ -3938,8 +4204,11 @@
       <c r="K90" s="15">
         <v>1.9797413682123599</v>
       </c>
-    </row>
-    <row r="91" spans="1:11">
+      <c r="L90" s="15">
+        <v>4.1221787049999996</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12">
       <c r="A91" s="8" t="s">
         <v>89</v>
       </c>
@@ -3974,8 +4243,11 @@
       <c r="K91" s="15">
         <v>46.280371747211902</v>
       </c>
-    </row>
-    <row r="92" spans="1:11">
+      <c r="L91" s="15">
+        <v>2.471931482</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12">
       <c r="A92" s="8" t="s">
         <v>90</v>
       </c>
@@ -4006,8 +4278,11 @@
       <c r="K92" s="15">
         <v>80.079722159982097</v>
       </c>
-    </row>
-    <row r="93" spans="1:11">
+      <c r="L92" s="15">
+        <v>1.3015604540000001</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12">
       <c r="A93" s="8" t="s">
         <v>91</v>
       </c>
@@ -4038,8 +4313,11 @@
       <c r="K93" s="15">
         <v>37.728367964597297</v>
       </c>
-    </row>
-    <row r="94" spans="1:11">
+      <c r="L93" s="15">
+        <v>1.960396129</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12">
       <c r="A94" s="8" t="s">
         <v>92</v>
       </c>
@@ -4070,8 +4348,11 @@
       <c r="K94" s="15">
         <v>81.721395541128203</v>
       </c>
-    </row>
-    <row r="95" spans="1:11">
+      <c r="L94" s="15">
+        <v>1.503220129</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12">
       <c r="A95" s="8" t="s">
         <v>93</v>
       </c>
@@ -4102,8 +4383,11 @@
       <c r="K95" s="15">
         <v>3.0776445723863999</v>
       </c>
-    </row>
-    <row r="96" spans="1:11">
+      <c r="L95" s="15">
+        <v>2.2975601029999999</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12">
       <c r="A96" s="8" t="s">
         <v>94</v>
       </c>
@@ -4134,8 +4418,11 @@
       <c r="K96" s="15">
         <v>204.42970352284601</v>
       </c>
-    </row>
-    <row r="97" spans="1:11">
+      <c r="L96" s="15">
+        <v>2.0671706080000001</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12">
       <c r="A97" s="8" t="s">
         <v>95</v>
       </c>
@@ -4166,8 +4453,11 @@
       <c r="K97" s="15">
         <v>508.544197091125</v>
       </c>
-    </row>
-    <row r="98" spans="1:11">
+      <c r="L97" s="15">
+        <v>1.8695020659999999</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12">
       <c r="A98" s="8" t="s">
         <v>96</v>
       </c>
@@ -4202,8 +4492,11 @@
       <c r="K98" s="15">
         <v>18.206296760472402</v>
       </c>
-    </row>
-    <row r="99" spans="1:11">
+      <c r="L98" s="15">
+        <v>3.7186145019999999</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12">
       <c r="A99" s="8" t="s">
         <v>97</v>
       </c>
@@ -4230,8 +4523,11 @@
       <c r="K99" s="15">
         <v>51.666785773641401</v>
       </c>
-    </row>
-    <row r="100" spans="1:11">
+      <c r="L99" s="15">
+        <v>2.3588229690000002</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12">
       <c r="A100" s="8" t="s">
         <v>98</v>
       </c>
@@ -4262,8 +4558,11 @@
       <c r="K100" s="15">
         <v>16.9553548590827</v>
       </c>
-    </row>
-    <row r="101" spans="1:11">
+      <c r="L100" s="15">
+        <v>1.559410481</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12">
       <c r="A101" s="8" t="s">
         <v>99</v>
       </c>
@@ -4294,8 +4593,11 @@
       <c r="K101" s="15">
         <v>209.587833371762</v>
       </c>
-    </row>
-    <row r="102" spans="1:11">
+      <c r="L101" s="15">
+        <v>1.6105036260000001</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12">
       <c r="A102" s="8" t="s">
         <v>100</v>
       </c>
@@ -4330,8 +4632,11 @@
       <c r="K102" s="15">
         <v>14.4621363742146</v>
       </c>
-    </row>
-    <row r="103" spans="1:11">
+      <c r="L102" s="15">
+        <v>2.8172961070000002</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12">
       <c r="A103" s="8" t="s">
         <v>101</v>
       </c>
@@ -4362,8 +4667,11 @@
       <c r="K103" s="15">
         <v>255.57279343088399</v>
       </c>
-    </row>
-    <row r="104" spans="1:11">
+      <c r="L103" s="15">
+        <v>2.3859996830000001</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12">
       <c r="A104" s="8" t="s">
         <v>102</v>
       </c>
@@ -4390,8 +4698,11 @@
       <c r="K104" s="15">
         <v>778.20215946843905</v>
       </c>
-    </row>
-    <row r="105" spans="1:11">
+      <c r="L104" s="15">
+        <v>1.651153146</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12">
       <c r="A105" s="8" t="s">
         <v>103</v>
       </c>
@@ -4422,8 +4733,11 @@
       <c r="K105" s="15">
         <v>55.132997040624197</v>
       </c>
-    </row>
-    <row r="106" spans="1:11">
+      <c r="L105" s="15">
+        <v>1.9408513249999999</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12">
       <c r="A106" s="8" t="s">
         <v>104</v>
       </c>
@@ -4454,8 +4768,11 @@
       <c r="K106" s="15">
         <v>17.1439642587465</v>
       </c>
-    </row>
-    <row r="107" spans="1:11">
+      <c r="L106" s="15">
+        <v>2.919371215</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12">
       <c r="A107" s="8" t="s">
         <v>105</v>
       </c>
@@ -4486,8 +4803,11 @@
       <c r="K107" s="15">
         <v>25.129285156249999</v>
       </c>
-    </row>
-    <row r="108" spans="1:11">
+      <c r="L107" s="15">
+        <v>1.979901752</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12">
       <c r="A108" s="8" t="s">
         <v>106</v>
       </c>
@@ -4518,8 +4838,11 @@
       <c r="K108" s="15">
         <v>351.873394372338</v>
       </c>
-    </row>
-    <row r="109" spans="1:11">
+      <c r="L108" s="15">
+        <v>1.566442484</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12">
       <c r="A109" s="8" t="s">
         <v>107</v>
       </c>
@@ -4554,8 +4877,11 @@
       <c r="K109" s="15">
         <v>124.027045298671</v>
       </c>
-    </row>
-    <row r="110" spans="1:11">
+      <c r="L109" s="15">
+        <v>2.7536132470000001</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12">
       <c r="A110" s="8" t="s">
         <v>108</v>
       </c>
@@ -4590,8 +4916,11 @@
       <c r="K110" s="15">
         <v>112.37070028928601</v>
       </c>
-    </row>
-    <row r="111" spans="1:11">
+      <c r="L110" s="15">
+        <v>1.9087955809999999</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12">
       <c r="A111" s="8" t="s">
         <v>109</v>
       </c>
@@ -4626,8 +4955,11 @@
       <c r="K111" s="15">
         <v>85.129255041724605</v>
       </c>
-    </row>
-    <row r="112" spans="1:11">
+      <c r="L111" s="15">
+        <v>2.0628492619999999</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12">
       <c r="A112" s="8" t="s">
         <v>110</v>
       </c>
@@ -4662,8 +4994,11 @@
       <c r="K112" s="15">
         <v>8.8231172379093206</v>
       </c>
-    </row>
-    <row r="113" spans="1:11">
+      <c r="L112" s="15">
+        <v>5.9328232779999999</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12">
       <c r="A113" s="8" t="s">
         <v>111</v>
       </c>
@@ -4694,8 +5029,11 @@
       <c r="K113" s="15">
         <v>494.86854479124401</v>
       </c>
-    </row>
-    <row r="114" spans="1:11">
+      <c r="L113" s="15">
+        <v>2.7858125299999998</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12">
       <c r="A114" s="8" t="s">
         <v>112</v>
       </c>
@@ -4726,8 +5064,11 @@
       <c r="K114" s="15">
         <v>15.322308332829399</v>
       </c>
-    </row>
-    <row r="115" spans="1:11">
+      <c r="L114" s="15">
+        <v>1.4580674179999999</v>
+      </c>
+    </row>
+    <row r="115" spans="1:12">
       <c r="A115" s="8" t="s">
         <v>113</v>
       </c>
@@ -4758,8 +5099,11 @@
       <c r="K115" s="15">
         <v>82.327777489222498</v>
       </c>
-    </row>
-    <row r="116" spans="1:11">
+      <c r="L115" s="15">
+        <v>1.6261849719999999</v>
+      </c>
+    </row>
+    <row r="116" spans="1:12">
       <c r="A116" s="8" t="s">
         <v>114</v>
       </c>
@@ -4794,8 +5138,11 @@
       <c r="K116" s="15">
         <v>80.291195975302998</v>
       </c>
-    </row>
-    <row r="117" spans="1:11">
+      <c r="L116" s="15">
+        <v>2.3197503199999998</v>
+      </c>
+    </row>
+    <row r="117" spans="1:12">
       <c r="A117" s="8" t="s">
         <v>115</v>
       </c>
@@ -4821,8 +5168,11 @@
       <c r="K117" s="15">
         <v>104.699528955389</v>
       </c>
-    </row>
-    <row r="118" spans="1:11">
+      <c r="L117" s="15">
+        <v>1.6294331559999999</v>
+      </c>
+    </row>
+    <row r="118" spans="1:12">
       <c r="A118" s="8" t="s">
         <v>116</v>
       </c>
@@ -4857,8 +5207,11 @@
       <c r="K118" s="15">
         <v>7915.7306064880104</v>
       </c>
-    </row>
-    <row r="119" spans="1:11">
+      <c r="L118" s="15">
+        <v>1.530099412</v>
+      </c>
+    </row>
+    <row r="119" spans="1:12">
       <c r="A119" s="8" t="s">
         <v>117</v>
       </c>
@@ -4893,8 +5246,11 @@
       <c r="K119" s="15">
         <v>113.12839495903199</v>
       </c>
-    </row>
-    <row r="120" spans="1:11">
+      <c r="L119" s="15">
+        <v>2.992271423</v>
+      </c>
+    </row>
+    <row r="120" spans="1:12">
       <c r="A120" s="8" t="s">
         <v>118</v>
       </c>
@@ -4929,8 +5285,11 @@
       <c r="K120" s="15">
         <v>102.61906653426</v>
       </c>
-    </row>
-    <row r="121" spans="1:11">
+      <c r="L120" s="15">
+        <v>2.8881774459999998</v>
+      </c>
+    </row>
+    <row r="121" spans="1:12">
       <c r="A121" s="8" t="s">
         <v>119</v>
       </c>
@@ -4965,8 +5324,11 @@
       <c r="K121" s="15">
         <v>46.754285337444003</v>
       </c>
-    </row>
-    <row r="122" spans="1:11">
+      <c r="L121" s="15">
+        <v>2.1691135539999999</v>
+      </c>
+    </row>
+    <row r="122" spans="1:12">
       <c r="A122" s="8" t="s">
         <v>120</v>
       </c>
@@ -5001,8 +5363,11 @@
       <c r="K122" s="15">
         <v>527.96677267131702</v>
       </c>
-    </row>
-    <row r="123" spans="1:11">
+      <c r="L122" s="15">
+        <v>3.1578342109999999</v>
+      </c>
+    </row>
+    <row r="123" spans="1:12">
       <c r="A123" s="8" t="s">
         <v>121</v>
       </c>
@@ -5026,8 +5391,11 @@
         <v>3.7</v>
       </c>
       <c r="K123" s="15"/>
-    </row>
-    <row r="124" spans="1:11">
+      <c r="L123" s="15">
+        <v>1.9170053039999999</v>
+      </c>
+    </row>
+    <row r="124" spans="1:12">
       <c r="A124" s="8" t="s">
         <v>122</v>
       </c>
@@ -5062,8 +5430,11 @@
       <c r="K124" s="15">
         <v>93.1049519201935</v>
       </c>
-    </row>
-    <row r="125" spans="1:11">
+      <c r="L124" s="15">
+        <v>2.2706885099999998</v>
+      </c>
+    </row>
+    <row r="125" spans="1:12">
       <c r="A125" s="8" t="s">
         <v>123</v>
       </c>
@@ -5094,8 +5465,11 @@
       <c r="K125" s="15">
         <v>341.95503109551902</v>
       </c>
-    </row>
-    <row r="126" spans="1:11">
+      <c r="L125" s="15">
+        <v>1.5497655269999999</v>
+      </c>
+    </row>
+    <row r="126" spans="1:12">
       <c r="A126" s="8" t="s">
         <v>124</v>
       </c>
@@ -5126,8 +5500,11 @@
       <c r="K126" s="15">
         <v>24.717645036949701</v>
       </c>
-    </row>
-    <row r="127" spans="1:11">
+      <c r="L126" s="15">
+        <v>2.4664065709999998</v>
+      </c>
+    </row>
+    <row r="127" spans="1:12">
       <c r="A127" s="8" t="s">
         <v>125</v>
       </c>
@@ -5162,8 +5539,11 @@
       <c r="K127" s="15">
         <v>214.242762425347</v>
       </c>
-    </row>
-    <row r="128" spans="1:11">
+      <c r="L127" s="15">
+        <v>2.396185547</v>
+      </c>
+    </row>
+    <row r="128" spans="1:12">
       <c r="A128" s="8" t="s">
         <v>126</v>
       </c>
@@ -5188,8 +5568,11 @@
       </c>
       <c r="J128" s="6"/>
       <c r="K128" s="15"/>
-    </row>
-    <row r="129" spans="1:11">
+      <c r="L128" s="15">
+        <v>1.979137336</v>
+      </c>
+    </row>
+    <row r="129" spans="1:12">
       <c r="A129" s="8" t="s">
         <v>127</v>
       </c>
@@ -5218,8 +5601,11 @@
       <c r="K129" s="15">
         <v>64.281289179023801</v>
       </c>
-    </row>
-    <row r="130" spans="1:11">
+      <c r="L129" s="15">
+        <v>2.5833153879999999</v>
+      </c>
+    </row>
+    <row r="130" spans="1:12">
       <c r="A130" s="8" t="s">
         <v>128</v>
       </c>
@@ -5250,8 +5636,11 @@
       <c r="K130" s="15">
         <v>64.698599006547795</v>
       </c>
-    </row>
-    <row r="131" spans="1:11">
+      <c r="L130" s="15">
+        <v>2.0172102519999999</v>
+      </c>
+    </row>
+    <row r="131" spans="1:12">
       <c r="A131" s="8" t="s">
         <v>129</v>
       </c>
@@ -5286,8 +5675,11 @@
       <c r="K131" s="15">
         <v>135.13185421519299</v>
       </c>
-    </row>
-    <row r="132" spans="1:11">
+      <c r="L131" s="15">
+        <v>1.7415079250000001</v>
+      </c>
+    </row>
+    <row r="132" spans="1:12">
       <c r="A132" s="8" t="s">
         <v>130</v>
       </c>
@@ -5318,8 +5710,11 @@
       <c r="K132" s="15">
         <v>143.36631733774601</v>
       </c>
-    </row>
-    <row r="133" spans="1:11">
+      <c r="L132" s="15">
+        <v>1.660319265</v>
+      </c>
+    </row>
+    <row r="133" spans="1:12">
       <c r="A133" s="8" t="s">
         <v>131</v>
       </c>
@@ -5348,8 +5743,11 @@
       <c r="K133" s="15">
         <v>266.885964912281</v>
       </c>
-    </row>
-    <row r="134" spans="1:11">
+      <c r="L133" s="15">
+        <v>2.3274293319999999</v>
+      </c>
+    </row>
+    <row r="134" spans="1:12">
       <c r="A134" s="8" t="s">
         <v>132</v>
       </c>
@@ -5380,8 +5778,11 @@
       <c r="K134" s="15">
         <v>74.228417868177104</v>
       </c>
-    </row>
-    <row r="135" spans="1:11">
+      <c r="L134" s="15">
+        <v>1.466407341</v>
+      </c>
+    </row>
+    <row r="135" spans="1:12">
       <c r="A135" s="8" t="s">
         <v>133</v>
       </c>
@@ -5412,8 +5813,11 @@
       <c r="K135" s="15">
         <v>104.914075594766</v>
       </c>
-    </row>
-    <row r="136" spans="1:11">
+      <c r="L135" s="15">
+        <v>1.7250975909999999</v>
+      </c>
+    </row>
+    <row r="136" spans="1:12">
       <c r="A136" s="8" t="s">
         <v>134</v>
       </c>
@@ -5442,8 +5846,11 @@
       <c r="K136" s="15">
         <v>12.2530483263465</v>
       </c>
-    </row>
-    <row r="137" spans="1:11">
+      <c r="L136" s="15">
+        <v>2.7327663169999998</v>
+      </c>
+    </row>
+    <row r="137" spans="1:12">
       <c r="A137" s="8" t="s">
         <v>135</v>
       </c>
@@ -5474,8 +5881,11 @@
       <c r="K137" s="15">
         <v>213.75901655695199</v>
       </c>
-    </row>
-    <row r="138" spans="1:11">
+      <c r="L137" s="15">
+        <v>1.7230074019999999</v>
+      </c>
+    </row>
+    <row r="138" spans="1:12">
       <c r="A138" s="8" t="s">
         <v>136</v>
       </c>
@@ -5506,8 +5916,11 @@
       <c r="K138" s="15">
         <v>77.389837559771493</v>
       </c>
-    </row>
-    <row r="139" spans="1:11">
+      <c r="L138" s="15">
+        <v>5.1017697169999998</v>
+      </c>
+    </row>
+    <row r="139" spans="1:12">
       <c r="A139" s="8" t="s">
         <v>137</v>
       </c>
@@ -5538,8 +5951,11 @@
       <c r="K139" s="15">
         <v>112.44192583732099</v>
       </c>
-    </row>
-    <row r="140" spans="1:11">
+      <c r="L139" s="15">
+        <v>1.751084868</v>
+      </c>
+    </row>
+    <row r="140" spans="1:12">
       <c r="A140" s="8" t="s">
         <v>138</v>
       </c>
@@ -5574,8 +5990,11 @@
       <c r="K140" s="15">
         <v>272.89824742694202</v>
       </c>
-    </row>
-    <row r="141" spans="1:11">
+      <c r="L140" s="15">
+        <v>2.8989730470000001</v>
+      </c>
+    </row>
+    <row r="141" spans="1:12">
       <c r="A141" s="8" t="s">
         <v>139</v>
       </c>
@@ -5606,8 +6025,11 @@
       <c r="K141" s="15">
         <v>35.607764593732398</v>
       </c>
-    </row>
-    <row r="142" spans="1:11">
+      <c r="L141" s="15">
+        <v>5.4680782109999999</v>
+      </c>
+    </row>
+    <row r="142" spans="1:12">
       <c r="A142" s="8" t="s">
         <v>140</v>
       </c>
@@ -5642,8 +6064,11 @@
       <c r="K142" s="15">
         <v>19.750599931436401</v>
       </c>
-    </row>
-    <row r="143" spans="1:11">
+      <c r="L142" s="15">
+        <v>2.0612895770000002</v>
+      </c>
+    </row>
+    <row r="143" spans="1:12">
       <c r="A143" s="8" t="s">
         <v>141</v>
       </c>
@@ -5674,8 +6099,11 @@
       <c r="K143" s="15">
         <v>76.133521391631405</v>
       </c>
-    </row>
-    <row r="144" spans="1:11">
+      <c r="L143" s="15">
+        <v>2.3188884989999998</v>
+      </c>
+    </row>
+    <row r="144" spans="1:12">
       <c r="A144" s="8" t="s">
         <v>142</v>
       </c>
@@ -5704,8 +6132,11 @@
       <c r="K144" s="15">
         <v>36.253120571396202</v>
       </c>
-    </row>
-    <row r="145" spans="1:11">
+      <c r="L144" s="15">
+        <v>1.878402629</v>
+      </c>
+    </row>
+    <row r="145" spans="1:12">
       <c r="A145" s="8" t="s">
         <v>143</v>
       </c>
@@ -5736,8 +6167,11 @@
       <c r="K145" s="15">
         <v>308.12655206888797</v>
       </c>
-    </row>
-    <row r="146" spans="1:11">
+      <c r="L145" s="15">
+        <v>2.3690779389999999</v>
+      </c>
+    </row>
+    <row r="146" spans="1:12">
       <c r="A146" s="8" t="s">
         <v>144</v>
       </c>
@@ -5766,8 +6200,11 @@
       <c r="K146" s="15">
         <v>53.507623539216198</v>
       </c>
-    </row>
-    <row r="147" spans="1:11">
+      <c r="L146" s="15">
+        <v>1.404976709</v>
+      </c>
+    </row>
+    <row r="147" spans="1:12">
       <c r="A147" s="8" t="s">
         <v>145</v>
       </c>
@@ -5796,8 +6233,11 @@
       <c r="K147" s="15">
         <v>22.9948344745019</v>
       </c>
-    </row>
-    <row r="148" spans="1:11">
+      <c r="L147" s="15">
+        <v>2.1439141730000002</v>
+      </c>
+    </row>
+    <row r="148" spans="1:12">
       <c r="A148" s="8" t="s">
         <v>146</v>
       </c>
@@ -5828,6 +6268,9 @@
       <c r="K148" s="15">
         <v>42.729492051182604</v>
       </c>
+      <c r="L148" s="15">
+        <v>2.3203841710000002</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data_tables/Total_data_cleaned.xlsx
+++ b/data_tables/Total_data_cleaned.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ulrikaeriksson/Documents/Data_Mining/DataMining-Group23/data_tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C4AE9E6-1175-B548-8A4C-4A95053398D3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B0F17D3-C707-FC40-BC31-8DA5D132607E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="22200" windowHeight="12560" xr2:uid="{196242FC-4F62-234C-ABAE-90D7B6224D3F}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="160">
   <si>
     <t>Afghanistan</t>
   </si>
@@ -502,6 +502,9 @@
   </si>
   <si>
     <t>Alcohol or drug use disorder</t>
+  </si>
+  <si>
+    <t>Total Taxes (% GDP)</t>
   </si>
 </sst>
 </file>
@@ -970,10 +973,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67CF83BE-F021-5E44-A4B8-2C5D9BB127DA}">
-  <dimension ref="A1:L148"/>
+  <dimension ref="A1:M148"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView tabSelected="1" topLeftCell="A124" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="F144" sqref="F144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
@@ -989,7 +992,7 @@
     <col min="9" max="9" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="17">
+    <row r="1" spans="1:13" ht="17">
       <c r="A1" s="1" t="s">
         <v>147</v>
       </c>
@@ -1026,8 +1029,11 @@
       <c r="L1" s="16" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="16" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
@@ -1058,8 +1064,11 @@
       <c r="L2" s="15">
         <v>1.809624516</v>
       </c>
-    </row>
-    <row r="3" spans="1:12">
+      <c r="M2" s="15">
+        <v>9.1248640000000005</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="8" t="s">
         <v>1</v>
       </c>
@@ -1093,8 +1102,11 @@
       <c r="L3" s="15">
         <v>2.3255375310000002</v>
       </c>
-    </row>
-    <row r="4" spans="1:12">
+      <c r="M3" s="15">
+        <v>23.52533</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="8" t="s">
         <v>2</v>
       </c>
@@ -1128,8 +1140,11 @@
       <c r="L4" s="15">
         <v>1.485914602</v>
       </c>
-    </row>
-    <row r="5" spans="1:12">
+      <c r="M4" s="15">
+        <v>14.162544</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="8" t="s">
         <v>3</v>
       </c>
@@ -1167,8 +1182,11 @@
       <c r="L5" s="15">
         <v>3.1186833850000002</v>
       </c>
-    </row>
-    <row r="6" spans="1:12">
+      <c r="M5" s="15">
+        <v>30.661214999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="8" t="s">
         <v>4</v>
       </c>
@@ -1202,8 +1220,11 @@
       <c r="L6" s="15">
         <v>2.3654491160000002</v>
       </c>
-    </row>
-    <row r="7" spans="1:12">
+      <c r="M6" s="15">
+        <v>21.761512</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="8" t="s">
         <v>5</v>
       </c>
@@ -1241,8 +1262,11 @@
       <c r="L7" s="15">
         <v>3.8037627660000002</v>
       </c>
-    </row>
-    <row r="8" spans="1:12">
+      <c r="M7" s="15">
+        <v>28.578520000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="8" t="s">
         <v>6</v>
       </c>
@@ -1280,8 +1304,11 @@
       <c r="L8" s="15">
         <v>2.8291145819999999</v>
       </c>
-    </row>
-    <row r="9" spans="1:12">
+      <c r="M8" s="15">
+        <v>41.884256999999998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="8" t="s">
         <v>7</v>
       </c>
@@ -1319,8 +1346,11 @@
       <c r="L9" s="15">
         <v>3.2560069280000001</v>
       </c>
-    </row>
-    <row r="10" spans="1:12">
+      <c r="M9" s="15">
+        <v>16.506067999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="8" t="s">
         <v>8</v>
       </c>
@@ -1352,8 +1382,11 @@
       <c r="L10" s="15">
         <v>1.615647681</v>
       </c>
-    </row>
-    <row r="11" spans="1:12">
+      <c r="M10" s="15">
+        <v>1.0698810000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="8" t="s">
         <v>9</v>
       </c>
@@ -1387,8 +1420,11 @@
       <c r="L11" s="15">
         <v>2.031842132</v>
       </c>
-    </row>
-    <row r="12" spans="1:12">
+      <c r="M11" s="15">
+        <v>8.1908390000000004</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="8" t="s">
         <v>10</v>
       </c>
@@ -1426,8 +1462,11 @@
       <c r="L12" s="15">
         <v>5.1028469349999996</v>
       </c>
-    </row>
-    <row r="13" spans="1:12">
+      <c r="M12" s="15">
+        <v>35.748614000000003</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="8" t="s">
         <v>11</v>
       </c>
@@ -1465,8 +1504,11 @@
       <c r="L13" s="15">
         <v>2.2844173109999999</v>
       </c>
-    </row>
-    <row r="14" spans="1:12">
+      <c r="M13" s="15">
+        <v>43.875816</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="8" t="s">
         <v>12</v>
       </c>
@@ -1500,8 +1542,11 @@
       <c r="L14" s="15">
         <v>1.6706470899999999</v>
       </c>
-    </row>
-    <row r="15" spans="1:12">
+      <c r="M14" s="15">
+        <v>15.888945</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="8" t="s">
         <v>13</v>
       </c>
@@ -1537,8 +1582,11 @@
       <c r="L15" s="15">
         <v>2.434164628</v>
       </c>
-    </row>
-    <row r="16" spans="1:12">
+      <c r="M15" s="15">
+        <v>26.203921000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="8" t="s">
         <v>14</v>
       </c>
@@ -1572,8 +1620,11 @@
       <c r="L16" s="15">
         <v>3.526306038</v>
       </c>
-    </row>
-    <row r="17" spans="1:12">
+      <c r="M16" s="15">
+        <v>37.572918999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="8" t="s">
         <v>15</v>
       </c>
@@ -1607,8 +1658,11 @@
       <c r="L17" s="15">
         <v>2.3786810370000002</v>
       </c>
-    </row>
-    <row r="18" spans="1:12">
+      <c r="M17" s="15">
+        <v>20.871931</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="8" t="s">
         <v>16</v>
       </c>
@@ -1646,8 +1700,11 @@
       <c r="L18" s="15">
         <v>3.730609555</v>
       </c>
-    </row>
-    <row r="19" spans="1:12">
+      <c r="M18" s="15">
+        <v>33.713017999999998</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="8" t="s">
         <v>17</v>
       </c>
@@ -1685,8 +1742,11 @@
       <c r="L19" s="15">
         <v>2.3871194039999999</v>
       </c>
-    </row>
-    <row r="20" spans="1:12">
+      <c r="M19" s="15">
+        <v>28.800666</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="8" t="s">
         <v>18</v>
       </c>
@@ -1724,8 +1784,11 @@
       <c r="L20" s="15">
         <v>1.6203995840000001</v>
       </c>
-    </row>
-    <row r="21" spans="1:12">
+      <c r="M20" s="15">
+        <v>16.652574000000001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="8" t="s">
         <v>19</v>
       </c>
@@ -1759,8 +1822,11 @@
       <c r="L21" s="15">
         <v>1.5939582269999999</v>
       </c>
-    </row>
-    <row r="22" spans="1:12">
+      <c r="M21" s="15">
+        <v>14.825889999999999</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="8" t="s">
         <v>20</v>
       </c>
@@ -1792,8 +1858,11 @@
       <c r="L22" s="15">
         <v>1.8031018350000001</v>
       </c>
-    </row>
-    <row r="23" spans="1:12">
+      <c r="M22" s="15">
+        <v>13.376192</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="8" t="s">
         <v>21</v>
       </c>
@@ -1831,8 +1900,11 @@
       <c r="L23" s="15">
         <v>3.7945346299999998</v>
       </c>
-    </row>
-    <row r="24" spans="1:12">
+      <c r="M23" s="15">
+        <v>32.830274000000003</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="8" t="s">
         <v>22</v>
       </c>
@@ -1864,8 +1936,11 @@
       <c r="L24" s="15">
         <v>1.8895983300000001</v>
       </c>
-    </row>
-    <row r="25" spans="1:12">
+      <c r="M24" s="15">
+        <v>9.6534659999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="8" t="s">
         <v>23</v>
       </c>
@@ -1897,8 +1972,11 @@
       <c r="L25" s="15">
         <v>1.612914776</v>
       </c>
-    </row>
-    <row r="26" spans="1:12">
+      <c r="M25" s="15">
+        <v>5.6650309999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13">
       <c r="A26" s="8" t="s">
         <v>24</v>
       </c>
@@ -1932,8 +2010,11 @@
       <c r="L26" s="15">
         <v>3.461463626</v>
       </c>
-    </row>
-    <row r="27" spans="1:12">
+      <c r="M26" s="15">
+        <v>17.409112</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13">
       <c r="A27" s="8" t="s">
         <v>25</v>
       </c>
@@ -1968,8 +2049,11 @@
       <c r="L27" s="15">
         <v>1.9578983599999999</v>
       </c>
-    </row>
-    <row r="28" spans="1:12">
+      <c r="M27" s="15">
+        <v>23.790354000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13">
       <c r="A28" s="8" t="s">
         <v>26</v>
       </c>
@@ -2007,8 +2091,11 @@
       <c r="L28" s="15">
         <v>2.3728377520000001</v>
       </c>
-    </row>
-    <row r="29" spans="1:12">
+      <c r="M28" s="15">
+        <v>19.211746000000002</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13">
       <c r="A29" s="8" t="s">
         <v>27</v>
       </c>
@@ -2039,8 +2126,11 @@
       <c r="L29" s="15">
         <v>1.9430276660000001</v>
       </c>
-    </row>
-    <row r="30" spans="1:12">
+      <c r="M29" s="15">
+        <v>17.503682999999999</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13">
       <c r="A30" s="8" t="s">
         <v>28</v>
       </c>
@@ -2072,8 +2162,11 @@
       <c r="L30" s="15">
         <v>1.8587189340000001</v>
       </c>
-    </row>
-    <row r="31" spans="1:12">
+      <c r="M30" s="15">
+        <v>7.1134009999999996</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13">
       <c r="A31" s="8" t="s">
         <v>29</v>
       </c>
@@ -2111,8 +2204,11 @@
       <c r="L31" s="15">
         <v>1.9148140069999999</v>
       </c>
-    </row>
-    <row r="32" spans="1:12">
+      <c r="M31" s="15">
+        <v>13.854123</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13">
       <c r="A32" s="8" t="s">
         <v>30</v>
       </c>
@@ -2150,8 +2246,11 @@
       <c r="L32" s="15">
         <v>2.7405460929999998</v>
       </c>
-    </row>
-    <row r="33" spans="1:12">
+      <c r="M32" s="15">
+        <v>35.163044999999997</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13">
       <c r="A33" s="8" t="s">
         <v>31</v>
       </c>
@@ -2189,8 +2288,11 @@
       <c r="L33" s="15">
         <v>1.7680723469999999</v>
       </c>
-    </row>
-    <row r="34" spans="1:12">
+      <c r="M33" s="15">
+        <v>23.997837000000001</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13">
       <c r="A34" s="8" t="s">
         <v>32</v>
       </c>
@@ -2224,8 +2326,11 @@
       <c r="L34" s="15">
         <v>2.7127169690000001</v>
       </c>
-    </row>
-    <row r="35" spans="1:12">
+      <c r="M34" s="15">
+        <v>34.068710000000003</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13">
       <c r="A35" s="8" t="s">
         <v>33</v>
       </c>
@@ -2259,8 +2364,11 @@
       <c r="L35" s="15">
         <v>2.8271041879999999</v>
       </c>
-    </row>
-    <row r="36" spans="1:12">
+      <c r="M35" s="15">
+        <v>45.43515</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13">
       <c r="A36" s="8" t="s">
         <v>34</v>
       </c>
@@ -2298,8 +2406,11 @@
       <c r="L36" s="15">
         <v>2.1777191999999999</v>
       </c>
-    </row>
-    <row r="37" spans="1:12">
+      <c r="M36" s="15">
+        <v>13.509418</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13">
       <c r="A37" s="8" t="s">
         <v>35</v>
       </c>
@@ -2333,8 +2444,11 @@
       <c r="L37" s="15">
         <v>2.31497332</v>
       </c>
-    </row>
-    <row r="38" spans="1:12">
+      <c r="M37" s="15">
+        <v>14.671663000000001</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13">
       <c r="A38" s="8" t="s">
         <v>36</v>
       </c>
@@ -2368,8 +2482,9 @@
       <c r="L38" s="15">
         <v>1.446643887</v>
       </c>
-    </row>
-    <row r="39" spans="1:12">
+      <c r="M38" s="15"/>
+    </row>
+    <row r="39" spans="1:13">
       <c r="A39" s="8" t="s">
         <v>37</v>
       </c>
@@ -2403,8 +2518,11 @@
       <c r="L39" s="15">
         <v>3.0883517739999999</v>
       </c>
-    </row>
-    <row r="40" spans="1:12">
+      <c r="M39" s="15">
+        <v>17.381668999999999</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13">
       <c r="A40" s="8" t="s">
         <v>38</v>
       </c>
@@ -2442,8 +2560,11 @@
       <c r="L40" s="15">
         <v>5.4835234560000004</v>
       </c>
-    </row>
-    <row r="41" spans="1:12">
+      <c r="M40" s="15">
+        <v>33.730350999999999</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13">
       <c r="A41" s="8" t="s">
         <v>39</v>
       </c>
@@ -2477,8 +2598,9 @@
       <c r="L41" s="15">
         <v>2.616682548</v>
       </c>
-    </row>
-    <row r="42" spans="1:12">
+      <c r="M41" s="15"/>
+    </row>
+    <row r="42" spans="1:13">
       <c r="A42" s="8" t="s">
         <v>40</v>
       </c>
@@ -2516,8 +2638,11 @@
       <c r="L42" s="15">
         <v>4.0242325509999999</v>
       </c>
-    </row>
-    <row r="43" spans="1:12">
+      <c r="M42" s="15">
+        <v>44.017195000000001</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13">
       <c r="A43" s="8" t="s">
         <v>41</v>
       </c>
@@ -2555,8 +2680,11 @@
       <c r="L43" s="15">
         <v>2.7333169019999999</v>
       </c>
-    </row>
-    <row r="44" spans="1:12">
+      <c r="M43" s="15">
+        <v>45.277869000000003</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13">
       <c r="A44" s="8" t="s">
         <v>42</v>
       </c>
@@ -2585,8 +2713,11 @@
       <c r="L44" s="15">
         <v>2.0146800420000002</v>
       </c>
-    </row>
-    <row r="45" spans="1:12">
+      <c r="M44" s="15">
+        <v>20.494221</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13">
       <c r="A45" s="8" t="s">
         <v>43</v>
       </c>
@@ -2617,8 +2748,11 @@
       <c r="L45" s="15">
         <v>1.576080782</v>
       </c>
-    </row>
-    <row r="46" spans="1:12">
+      <c r="M45" s="15">
+        <v>11.14148</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13">
       <c r="A46" s="8" t="s">
         <v>44</v>
       </c>
@@ -2656,8 +2790,11 @@
       <c r="L46" s="15">
         <v>2.4086422789999999</v>
       </c>
-    </row>
-    <row r="47" spans="1:12">
+      <c r="M46" s="15">
+        <v>25.819448000000001</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13">
       <c r="A47" s="8" t="s">
         <v>45</v>
       </c>
@@ -2695,8 +2832,11 @@
       <c r="L47" s="15">
         <v>2.827630079</v>
       </c>
-    </row>
-    <row r="48" spans="1:12">
+      <c r="M47" s="15">
+        <v>37.430619999999998</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13">
       <c r="A48" s="8" t="s">
         <v>46</v>
       </c>
@@ -2734,8 +2874,11 @@
       <c r="L48" s="15">
         <v>1.6884604519999999</v>
       </c>
-    </row>
-    <row r="49" spans="1:12">
+      <c r="M48" s="15">
+        <v>12.377316</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13">
       <c r="A49" s="8" t="s">
         <v>47</v>
       </c>
@@ -2773,8 +2916,11 @@
       <c r="L49" s="15">
         <v>1.8782843119999999</v>
       </c>
-    </row>
-    <row r="50" spans="1:12">
+      <c r="M49" s="15">
+        <v>38.338583999999997</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13">
       <c r="A50" s="8" t="s">
         <v>48</v>
       </c>
@@ -2806,8 +2952,11 @@
       <c r="L50" s="15">
         <v>3.162466411</v>
       </c>
-    </row>
-    <row r="51" spans="1:12">
+      <c r="M50" s="15">
+        <v>10.78232</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13">
       <c r="A51" s="8" t="s">
         <v>49</v>
       </c>
@@ -2839,8 +2988,11 @@
       <c r="L51" s="15">
         <v>1.590701079</v>
       </c>
-    </row>
-    <row r="52" spans="1:12">
+      <c r="M51" s="15">
+        <v>14.030989</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13">
       <c r="A52" s="8" t="s">
         <v>50</v>
       </c>
@@ -2872,8 +3024,11 @@
       <c r="L52" s="15">
         <v>2.334270047</v>
       </c>
-    </row>
-    <row r="53" spans="1:12">
+      <c r="M52" s="15">
+        <v>13.731528000000001</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13">
       <c r="A53" s="8" t="s">
         <v>51</v>
       </c>
@@ -2907,8 +3062,11 @@
       <c r="L53" s="15">
         <v>2.1300707230000002</v>
       </c>
-    </row>
-    <row r="54" spans="1:12">
+      <c r="M53" s="15">
+        <v>22.421873000000001</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13">
       <c r="A54" s="8" t="s">
         <v>52</v>
       </c>
@@ -2932,8 +3090,11 @@
         <v>7039.7142857142899</v>
       </c>
       <c r="L54" s="15"/>
-    </row>
-    <row r="55" spans="1:12">
+      <c r="M54" s="15">
+        <v>13.574933</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13">
       <c r="A55" s="8" t="s">
         <v>53</v>
       </c>
@@ -2971,8 +3132,11 @@
       <c r="L55" s="15">
         <v>2.6101259950000002</v>
       </c>
-    </row>
-    <row r="56" spans="1:12">
+      <c r="M55" s="15">
+        <v>39.148890999999999</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13">
       <c r="A56" s="8" t="s">
         <v>54</v>
       </c>
@@ -3003,8 +3167,11 @@
       <c r="L56" s="15">
         <v>2.1393359009999999</v>
       </c>
-    </row>
-    <row r="57" spans="1:12">
+      <c r="M56" s="15">
+        <v>36.789971000000001</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13">
       <c r="A57" s="8" t="s">
         <v>55</v>
       </c>
@@ -3038,8 +3205,11 @@
       <c r="L57" s="15">
         <v>1.7448725620000001</v>
       </c>
-    </row>
-    <row r="58" spans="1:12">
+      <c r="M57" s="15">
+        <v>17.577255000000001</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13">
       <c r="A58" s="8" t="s">
         <v>56</v>
       </c>
@@ -3073,8 +3243,11 @@
       <c r="L58" s="15">
         <v>1.2969102939999999</v>
       </c>
-    </row>
-    <row r="59" spans="1:12">
+      <c r="M58" s="15">
+        <v>10.361459</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13">
       <c r="A59" s="8" t="s">
         <v>57</v>
       </c>
@@ -3108,8 +3281,11 @@
       <c r="L59" s="15">
         <v>1.7879851849999999</v>
       </c>
-    </row>
-    <row r="60" spans="1:12">
+      <c r="M59" s="15">
+        <v>7.9746290000000002</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13">
       <c r="A60" s="8" t="s">
         <v>58</v>
       </c>
@@ -3141,8 +3317,11 @@
       <c r="L60" s="15">
         <v>2.1814031009999999</v>
       </c>
-    </row>
-    <row r="61" spans="1:12">
+      <c r="M60" s="15">
+        <v>1.3778090000000001</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13">
       <c r="A61" s="8" t="s">
         <v>59</v>
       </c>
@@ -3180,8 +3359,11 @@
       <c r="L61" s="15">
         <v>3.2364014619999999</v>
       </c>
-    </row>
-    <row r="62" spans="1:12">
+      <c r="M61" s="15">
+        <v>23.358557999999999</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13">
       <c r="A62" s="8" t="s">
         <v>60</v>
       </c>
@@ -3219,8 +3401,11 @@
       <c r="L62" s="15">
         <v>1.3260031560000001</v>
       </c>
-    </row>
-    <row r="63" spans="1:12">
+      <c r="M62" s="15">
+        <v>31.128926</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13">
       <c r="A63" s="8" t="s">
         <v>61</v>
       </c>
@@ -3258,8 +3443,11 @@
       <c r="L63" s="15">
         <v>1.683797108</v>
       </c>
-    </row>
-    <row r="64" spans="1:12">
+      <c r="M63" s="15">
+        <v>42.385586000000004</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13">
       <c r="A64" s="8" t="s">
         <v>62</v>
       </c>
@@ -3291,8 +3479,11 @@
       <c r="L64" s="15">
         <v>1.720200808</v>
       </c>
-    </row>
-    <row r="65" spans="1:12">
+      <c r="M64" s="15">
+        <v>16.017084000000001</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13">
       <c r="A65" s="8" t="s">
         <v>63</v>
       </c>
@@ -3330,8 +3521,11 @@
       <c r="L65" s="15">
         <v>2.3290716069999999</v>
       </c>
-    </row>
-    <row r="66" spans="1:12">
+      <c r="M65" s="15">
+        <v>25.114878999999998</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13">
       <c r="A66" s="8" t="s">
         <v>64</v>
       </c>
@@ -3369,8 +3563,11 @@
       <c r="L66" s="15">
         <v>1.5638960449999999</v>
       </c>
-    </row>
-    <row r="67" spans="1:12">
+      <c r="M66" s="15">
+        <v>30.777436000000002</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13">
       <c r="A67" s="8" t="s">
         <v>65</v>
       </c>
@@ -3402,8 +3599,11 @@
       <c r="L67" s="15">
         <v>1.61326719</v>
       </c>
-    </row>
-    <row r="68" spans="1:12">
+      <c r="M67" s="15">
+        <v>15.341718</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13">
       <c r="A68" s="8" t="s">
         <v>66</v>
       </c>
@@ -3437,8 +3637,11 @@
       <c r="L68" s="15">
         <v>3.3750323070000001</v>
       </c>
-    </row>
-    <row r="69" spans="1:12">
+      <c r="M68" s="15">
+        <v>15.228497000000001</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13">
       <c r="A69" s="8" t="s">
         <v>67</v>
       </c>
@@ -3472,8 +3675,11 @@
       <c r="L69" s="15">
         <v>1.5311732680000001</v>
       </c>
-    </row>
-    <row r="70" spans="1:12">
+      <c r="M69" s="15">
+        <v>15.800242000000001</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13">
       <c r="A70" s="8" t="s">
         <v>68</v>
       </c>
@@ -3499,8 +3705,11 @@
         <v>168.154679893451</v>
       </c>
       <c r="L70" s="15"/>
-    </row>
-    <row r="71" spans="1:12">
+      <c r="M70" s="15">
+        <v>23.459638000000002</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13">
       <c r="A71" s="8" t="s">
         <v>69</v>
       </c>
@@ -3534,8 +3743,11 @@
       <c r="L71" s="15">
         <v>1.5134735370000001</v>
       </c>
-    </row>
-    <row r="72" spans="1:12">
+      <c r="M71" s="15">
+        <v>1.5125850000000001</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13">
       <c r="A72" s="8" t="s">
         <v>70</v>
       </c>
@@ -3569,8 +3781,11 @@
       <c r="L72" s="15">
         <v>3.336949615</v>
       </c>
-    </row>
-    <row r="73" spans="1:12">
+      <c r="M72" s="15">
+        <v>25.102250000000002</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13">
       <c r="A73" s="8" t="s">
         <v>71</v>
       </c>
@@ -3604,8 +3819,11 @@
       <c r="L73" s="15">
         <v>1.6259996080000001</v>
       </c>
-    </row>
-    <row r="74" spans="1:12">
+      <c r="M73" s="15">
+        <v>12.428921000000001</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13">
       <c r="A74" s="8" t="s">
         <v>72</v>
       </c>
@@ -3643,8 +3861,11 @@
       <c r="L74" s="15">
         <v>4.7946621010000001</v>
       </c>
-    </row>
-    <row r="75" spans="1:12">
+      <c r="M74" s="15">
+        <v>30.234611000000001</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13">
       <c r="A75" s="8" t="s">
         <v>73</v>
       </c>
@@ -3678,8 +3899,11 @@
       <c r="L75" s="15">
         <v>1.6208092970000001</v>
       </c>
-    </row>
-    <row r="76" spans="1:12">
+      <c r="M75" s="15">
+        <v>13.693778999999999</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13">
       <c r="A76" s="8" t="s">
         <v>74</v>
       </c>
@@ -3710,8 +3934,11 @@
       <c r="L76" s="15">
         <v>2.270169144</v>
       </c>
-    </row>
-    <row r="77" spans="1:12">
+      <c r="M76" s="15">
+        <v>26.536635</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13">
       <c r="A77" s="8" t="s">
         <v>75</v>
       </c>
@@ -3745,8 +3972,9 @@
       <c r="L77" s="15">
         <v>1.612780331</v>
       </c>
-    </row>
-    <row r="78" spans="1:12">
+      <c r="M77" s="15"/>
+    </row>
+    <row r="78" spans="1:13">
       <c r="A78" s="8" t="s">
         <v>76</v>
       </c>
@@ -3775,8 +4003,11 @@
       <c r="L78" s="15">
         <v>1.546907963</v>
       </c>
-    </row>
-    <row r="79" spans="1:12">
+      <c r="M78" s="15">
+        <v>1.192523</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13">
       <c r="A79" s="8" t="s">
         <v>77</v>
       </c>
@@ -3814,8 +4045,11 @@
       <c r="L79" s="15">
         <v>4.5945722770000001</v>
       </c>
-    </row>
-    <row r="80" spans="1:12">
+      <c r="M79" s="15">
+        <v>29.684875000000002</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13">
       <c r="A80" s="8" t="s">
         <v>78</v>
       </c>
@@ -3853,8 +4087,11 @@
       <c r="L80" s="15">
         <v>2.3455869890000001</v>
       </c>
-    </row>
-    <row r="81" spans="1:12">
+      <c r="M80" s="15">
+        <v>37.932749000000001</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13">
       <c r="A81" s="8" t="s">
         <v>79</v>
       </c>
@@ -3886,8 +4123,11 @@
       <c r="L81" s="15">
         <v>2.269450236</v>
       </c>
-    </row>
-    <row r="82" spans="1:12">
+      <c r="M81" s="15">
+        <v>25.286065000000001</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13">
       <c r="A82" s="8" t="s">
         <v>80</v>
       </c>
@@ -3919,8 +4159,11 @@
       <c r="L82" s="15">
         <v>1.9295615370000001</v>
       </c>
-    </row>
-    <row r="83" spans="1:12">
+      <c r="M82" s="15">
+        <v>10.999344000000001</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13">
       <c r="A83" s="8" t="s">
         <v>81</v>
       </c>
@@ -3954,8 +4197,11 @@
       <c r="L83" s="15">
         <v>2.0067722699999999</v>
       </c>
-    </row>
-    <row r="84" spans="1:12">
+      <c r="M83" s="15">
+        <v>15.323005</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13">
       <c r="A84" s="8" t="s">
         <v>82</v>
       </c>
@@ -3989,8 +4235,11 @@
       <c r="L84" s="15">
         <v>1.5667934619999999</v>
       </c>
-    </row>
-    <row r="85" spans="1:12">
+      <c r="M84" s="15">
+        <v>14.916247</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13">
       <c r="A85" s="8" t="s">
         <v>83</v>
       </c>
@@ -4028,8 +4277,11 @@
       <c r="L85" s="15">
         <v>1.9806688539999999</v>
       </c>
-    </row>
-    <row r="86" spans="1:12">
+      <c r="M85" s="15">
+        <v>31.893222000000002</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13">
       <c r="A86" s="8" t="s">
         <v>84</v>
       </c>
@@ -4061,8 +4313,11 @@
       <c r="L86" s="15">
         <v>1.6035010940000001</v>
       </c>
-    </row>
-    <row r="87" spans="1:12">
+      <c r="M86" s="15">
+        <v>16.519642999999999</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13">
       <c r="A87" s="8" t="s">
         <v>85</v>
       </c>
@@ -4097,8 +4352,11 @@
       <c r="L87" s="15">
         <v>1.831791645</v>
       </c>
-    </row>
-    <row r="88" spans="1:12">
+      <c r="M87" s="15">
+        <v>18.213287999999999</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13">
       <c r="A88" s="8" t="s">
         <v>86</v>
       </c>
@@ -4136,8 +4394,11 @@
       <c r="L88" s="15">
         <v>2.1725092840000002</v>
       </c>
-    </row>
-    <row r="89" spans="1:12">
+      <c r="M88" s="15">
+        <v>13.701247</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13">
       <c r="A89" s="8" t="s">
         <v>87</v>
       </c>
@@ -4175,8 +4436,11 @@
       <c r="L89" s="15">
         <v>4.3550731010000003</v>
       </c>
-    </row>
-    <row r="90" spans="1:12">
+      <c r="M89" s="15">
+        <v>26.432732999999999</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13">
       <c r="A90" s="8" t="s">
         <v>88</v>
       </c>
@@ -4207,8 +4471,11 @@
       <c r="L90" s="15">
         <v>4.1221787049999996</v>
       </c>
-    </row>
-    <row r="91" spans="1:12">
+      <c r="M90" s="15">
+        <v>20.360968</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13">
       <c r="A91" s="8" t="s">
         <v>89</v>
       </c>
@@ -4246,8 +4513,11 @@
       <c r="L91" s="15">
         <v>2.471931482</v>
       </c>
-    </row>
-    <row r="92" spans="1:12">
+      <c r="M91" s="15">
+        <v>36.090035</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13">
       <c r="A92" s="8" t="s">
         <v>90</v>
       </c>
@@ -4281,8 +4551,11 @@
       <c r="L92" s="15">
         <v>1.3015604540000001</v>
       </c>
-    </row>
-    <row r="93" spans="1:12">
+      <c r="M92" s="15">
+        <v>21.448879999999999</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13">
       <c r="A93" s="8" t="s">
         <v>91</v>
       </c>
@@ -4316,8 +4589,11 @@
       <c r="L93" s="15">
         <v>1.960396129</v>
       </c>
-    </row>
-    <row r="94" spans="1:12">
+      <c r="M93" s="15">
+        <v>20.156713</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13">
       <c r="A94" s="8" t="s">
         <v>92</v>
       </c>
@@ -4351,8 +4627,11 @@
       <c r="L94" s="15">
         <v>1.503220129</v>
       </c>
-    </row>
-    <row r="95" spans="1:12">
+      <c r="M94" s="15">
+        <v>8.3322769999999995</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13">
       <c r="A95" s="8" t="s">
         <v>93</v>
       </c>
@@ -4386,8 +4665,11 @@
       <c r="L95" s="15">
         <v>2.2975601029999999</v>
       </c>
-    </row>
-    <row r="96" spans="1:12">
+      <c r="M95" s="15">
+        <v>28.710813000000002</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13">
       <c r="A96" s="8" t="s">
         <v>94</v>
       </c>
@@ -4421,8 +4703,11 @@
       <c r="L96" s="15">
         <v>2.0671706080000001</v>
       </c>
-    </row>
-    <row r="97" spans="1:12">
+      <c r="M96" s="15">
+        <v>18.687477999999999</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13">
       <c r="A97" s="8" t="s">
         <v>95</v>
       </c>
@@ -4456,8 +4741,11 @@
       <c r="L97" s="15">
         <v>1.8695020659999999</v>
       </c>
-    </row>
-    <row r="98" spans="1:12">
+      <c r="M97" s="15">
+        <v>38.400931</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13">
       <c r="A98" s="8" t="s">
         <v>96</v>
       </c>
@@ -4495,8 +4783,11 @@
       <c r="L98" s="15">
         <v>3.7186145019999999</v>
       </c>
-    </row>
-    <row r="99" spans="1:12">
+      <c r="M98" s="15">
+        <v>32.613869999999999</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13">
       <c r="A99" s="8" t="s">
         <v>97</v>
       </c>
@@ -4526,8 +4817,11 @@
       <c r="L99" s="15">
         <v>2.3588229690000002</v>
       </c>
-    </row>
-    <row r="100" spans="1:12">
+      <c r="M99" s="15">
+        <v>23.448450000000001</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13">
       <c r="A100" s="8" t="s">
         <v>98</v>
       </c>
@@ -4561,8 +4855,11 @@
       <c r="L100" s="15">
         <v>1.559410481</v>
       </c>
-    </row>
-    <row r="101" spans="1:12">
+      <c r="M100" s="15">
+        <v>13.454078000000001</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13">
       <c r="A101" s="8" t="s">
         <v>99</v>
       </c>
@@ -4596,8 +4893,11 @@
       <c r="L101" s="15">
         <v>1.6105036260000001</v>
       </c>
-    </row>
-    <row r="102" spans="1:12">
+      <c r="M101" s="15">
+        <v>7.1707000000000001</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13">
       <c r="A102" s="8" t="s">
         <v>100</v>
       </c>
@@ -4635,8 +4935,11 @@
       <c r="L102" s="15">
         <v>2.8172961070000002</v>
       </c>
-    </row>
-    <row r="103" spans="1:12">
+      <c r="M102" s="15">
+        <v>38.709806999999998</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13">
       <c r="A103" s="8" t="s">
         <v>101</v>
       </c>
@@ -4670,8 +4973,11 @@
       <c r="L103" s="15">
         <v>2.3859996830000001</v>
       </c>
-    </row>
-    <row r="104" spans="1:12">
+      <c r="M103" s="15">
+        <v>9.9883570000000006</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13">
       <c r="A104" s="8" t="s">
         <v>102</v>
       </c>
@@ -4701,8 +5007,11 @@
       <c r="L104" s="15">
         <v>1.651153146</v>
       </c>
-    </row>
-    <row r="105" spans="1:12">
+      <c r="M104" s="15">
+        <v>5.5946610000000003</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13">
       <c r="A105" s="8" t="s">
         <v>103</v>
       </c>
@@ -4736,8 +5045,11 @@
       <c r="L105" s="15">
         <v>1.9408513249999999</v>
       </c>
-    </row>
-    <row r="106" spans="1:12">
+      <c r="M105" s="15">
+        <v>15.463361000000001</v>
+      </c>
+    </row>
+    <row r="106" spans="1:13">
       <c r="A106" s="8" t="s">
         <v>104</v>
       </c>
@@ -4771,8 +5083,11 @@
       <c r="L106" s="15">
         <v>2.919371215</v>
       </c>
-    </row>
-    <row r="107" spans="1:12">
+      <c r="M106" s="15">
+        <v>10.489746</v>
+      </c>
+    </row>
+    <row r="107" spans="1:13">
       <c r="A107" s="8" t="s">
         <v>105</v>
       </c>
@@ -4806,8 +5121,11 @@
       <c r="L107" s="15">
         <v>1.979901752</v>
       </c>
-    </row>
-    <row r="108" spans="1:12">
+      <c r="M107" s="15">
+        <v>13.614037</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13">
       <c r="A108" s="8" t="s">
         <v>106</v>
       </c>
@@ -4841,8 +5159,11 @@
       <c r="L108" s="15">
         <v>1.566442484</v>
       </c>
-    </row>
-    <row r="109" spans="1:12">
+      <c r="M108" s="15">
+        <v>13.676774</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13">
       <c r="A109" s="8" t="s">
         <v>107</v>
       </c>
@@ -4880,8 +5201,11 @@
       <c r="L109" s="15">
         <v>2.7536132470000001</v>
       </c>
-    </row>
-    <row r="110" spans="1:12">
+      <c r="M109" s="15">
+        <v>33.346711999999997</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13">
       <c r="A110" s="8" t="s">
         <v>108</v>
       </c>
@@ -4919,8 +5243,11 @@
       <c r="L110" s="15">
         <v>1.9087955809999999</v>
       </c>
-    </row>
-    <row r="111" spans="1:12">
+      <c r="M110" s="15">
+        <v>34.141741000000003</v>
+      </c>
+    </row>
+    <row r="111" spans="1:13">
       <c r="A111" s="8" t="s">
         <v>109</v>
       </c>
@@ -4958,8 +5285,11 @@
       <c r="L111" s="15">
         <v>2.0628492619999999</v>
       </c>
-    </row>
-    <row r="112" spans="1:12">
+      <c r="M111" s="15">
+        <v>26.441125</v>
+      </c>
+    </row>
+    <row r="112" spans="1:13">
       <c r="A112" s="8" t="s">
         <v>110</v>
       </c>
@@ -4997,8 +5327,11 @@
       <c r="L112" s="15">
         <v>5.9328232779999999</v>
       </c>
-    </row>
-    <row r="113" spans="1:12">
+      <c r="M112" s="15">
+        <v>29.046813</v>
+      </c>
+    </row>
+    <row r="113" spans="1:13">
       <c r="A113" s="8" t="s">
         <v>111</v>
       </c>
@@ -5032,8 +5365,11 @@
       <c r="L113" s="15">
         <v>2.7858125299999998</v>
       </c>
-    </row>
-    <row r="114" spans="1:12">
+      <c r="M113" s="15">
+        <v>15.459153000000001</v>
+      </c>
+    </row>
+    <row r="114" spans="1:13">
       <c r="A114" s="8" t="s">
         <v>112</v>
       </c>
@@ -5067,8 +5403,11 @@
       <c r="L114" s="15">
         <v>1.4580674179999999</v>
       </c>
-    </row>
-    <row r="115" spans="1:12">
+      <c r="M114" s="15">
+        <v>2.23278</v>
+      </c>
+    </row>
+    <row r="115" spans="1:13">
       <c r="A115" s="8" t="s">
         <v>113</v>
       </c>
@@ -5102,8 +5441,11 @@
       <c r="L115" s="15">
         <v>1.6261849719999999</v>
       </c>
-    </row>
-    <row r="116" spans="1:12">
+      <c r="M115" s="15">
+        <v>15.920230999999999</v>
+      </c>
+    </row>
+    <row r="116" spans="1:13">
       <c r="A116" s="8" t="s">
         <v>114</v>
       </c>
@@ -5141,8 +5483,11 @@
       <c r="L116" s="15">
         <v>2.3197503199999998</v>
       </c>
-    </row>
-    <row r="117" spans="1:12">
+      <c r="M116" s="15">
+        <v>35.078639000000003</v>
+      </c>
+    </row>
+    <row r="117" spans="1:13">
       <c r="A117" s="8" t="s">
         <v>115</v>
       </c>
@@ -5171,8 +5516,11 @@
       <c r="L117" s="15">
         <v>1.6294331559999999</v>
       </c>
-    </row>
-    <row r="118" spans="1:12">
+      <c r="M117" s="15">
+        <v>11.178661</v>
+      </c>
+    </row>
+    <row r="118" spans="1:13">
       <c r="A118" s="8" t="s">
         <v>116</v>
       </c>
@@ -5210,8 +5558,11 @@
       <c r="L118" s="15">
         <v>1.530099412</v>
       </c>
-    </row>
-    <row r="119" spans="1:12">
+      <c r="M118" s="15">
+        <v>13.421915</v>
+      </c>
+    </row>
+    <row r="119" spans="1:13">
       <c r="A119" s="8" t="s">
         <v>117</v>
       </c>
@@ -5249,8 +5600,11 @@
       <c r="L119" s="15">
         <v>2.992271423</v>
       </c>
-    </row>
-    <row r="120" spans="1:12">
+      <c r="M119" s="15">
+        <v>32.356543000000002</v>
+      </c>
+    </row>
+    <row r="120" spans="1:13">
       <c r="A120" s="8" t="s">
         <v>118</v>
       </c>
@@ -5288,8 +5642,11 @@
       <c r="L120" s="15">
         <v>2.8881774459999998</v>
       </c>
-    </row>
-    <row r="121" spans="1:12">
+      <c r="M120" s="15">
+        <v>36.505336999999997</v>
+      </c>
+    </row>
+    <row r="121" spans="1:13">
       <c r="A121" s="8" t="s">
         <v>119</v>
       </c>
@@ -5327,8 +5684,11 @@
       <c r="L121" s="15">
         <v>2.1691135539999999</v>
       </c>
-    </row>
-    <row r="122" spans="1:12">
+      <c r="M121" s="15">
+        <v>29.305698</v>
+      </c>
+    </row>
+    <row r="122" spans="1:13">
       <c r="A122" s="8" t="s">
         <v>120</v>
       </c>
@@ -5366,8 +5726,11 @@
       <c r="L122" s="15">
         <v>3.1578342109999999</v>
       </c>
-    </row>
-    <row r="123" spans="1:12">
+      <c r="M122" s="15">
+        <v>26.236792000000001</v>
+      </c>
+    </row>
+    <row r="123" spans="1:13">
       <c r="A123" s="8" t="s">
         <v>121</v>
       </c>
@@ -5394,8 +5757,9 @@
       <c r="L123" s="15">
         <v>1.9170053039999999</v>
       </c>
-    </row>
-    <row r="124" spans="1:12">
+      <c r="M123" s="15"/>
+    </row>
+    <row r="124" spans="1:13">
       <c r="A124" s="8" t="s">
         <v>122</v>
       </c>
@@ -5433,8 +5797,11 @@
       <c r="L124" s="15">
         <v>2.2706885099999998</v>
       </c>
-    </row>
-    <row r="125" spans="1:12">
+      <c r="M124" s="15">
+        <v>33.180988999999997</v>
+      </c>
+    </row>
+    <row r="125" spans="1:13">
       <c r="A125" s="8" t="s">
         <v>123</v>
       </c>
@@ -5468,8 +5835,11 @@
       <c r="L125" s="15">
         <v>1.5497655269999999</v>
       </c>
-    </row>
-    <row r="126" spans="1:12">
+      <c r="M125" s="15">
+        <v>12.444495999999999</v>
+      </c>
+    </row>
+    <row r="126" spans="1:13">
       <c r="A126" s="8" t="s">
         <v>124</v>
       </c>
@@ -5503,8 +5873,11 @@
       <c r="L126" s="15">
         <v>2.4664065709999998</v>
       </c>
-    </row>
-    <row r="127" spans="1:12">
+      <c r="M126" s="15">
+        <v>44.237478000000003</v>
+      </c>
+    </row>
+    <row r="127" spans="1:13">
       <c r="A127" s="8" t="s">
         <v>125</v>
       </c>
@@ -5542,8 +5915,11 @@
       <c r="L127" s="15">
         <v>2.396185547</v>
       </c>
-    </row>
-    <row r="128" spans="1:12">
+      <c r="M127" s="15">
+        <v>27.700901999999999</v>
+      </c>
+    </row>
+    <row r="128" spans="1:13">
       <c r="A128" s="8" t="s">
         <v>126</v>
       </c>
@@ -5571,8 +5947,9 @@
       <c r="L128" s="15">
         <v>1.979137336</v>
       </c>
-    </row>
-    <row r="129" spans="1:12">
+      <c r="M128" s="15"/>
+    </row>
+    <row r="129" spans="1:13">
       <c r="A129" s="8" t="s">
         <v>127</v>
       </c>
@@ -5604,8 +5981,11 @@
       <c r="L129" s="15">
         <v>2.5833153879999999</v>
       </c>
-    </row>
-    <row r="130" spans="1:12">
+      <c r="M129" s="15">
+        <v>20.6</v>
+      </c>
+    </row>
+    <row r="130" spans="1:13">
       <c r="A130" s="8" t="s">
         <v>128</v>
       </c>
@@ -5639,8 +6019,11 @@
       <c r="L130" s="15">
         <v>2.0172102519999999</v>
       </c>
-    </row>
-    <row r="131" spans="1:12">
+      <c r="M130" s="15">
+        <v>11.390269</v>
+      </c>
+    </row>
+    <row r="131" spans="1:13">
       <c r="A131" s="8" t="s">
         <v>129</v>
       </c>
@@ -5678,8 +6061,11 @@
       <c r="L131" s="15">
         <v>1.7415079250000001</v>
       </c>
-    </row>
-    <row r="132" spans="1:12">
+      <c r="M131" s="15">
+        <v>17.834917999999998</v>
+      </c>
+    </row>
+    <row r="132" spans="1:13">
       <c r="A132" s="8" t="s">
         <v>130</v>
       </c>
@@ -5713,8 +6099,11 @@
       <c r="L132" s="15">
         <v>1.660319265</v>
       </c>
-    </row>
-    <row r="133" spans="1:12">
+      <c r="M132" s="15">
+        <v>18.763441</v>
+      </c>
+    </row>
+    <row r="133" spans="1:13">
       <c r="A133" s="8" t="s">
         <v>131</v>
       </c>
@@ -5746,8 +6135,11 @@
       <c r="L133" s="15">
         <v>2.3274293319999999</v>
       </c>
-    </row>
-    <row r="134" spans="1:12">
+      <c r="M133" s="15">
+        <v>26.147864999999999</v>
+      </c>
+    </row>
+    <row r="134" spans="1:13">
       <c r="A134" s="8" t="s">
         <v>132</v>
       </c>
@@ -5781,8 +6173,11 @@
       <c r="L134" s="15">
         <v>1.466407341</v>
       </c>
-    </row>
-    <row r="135" spans="1:12">
+      <c r="M134" s="15">
+        <v>29.614932</v>
+      </c>
+    </row>
+    <row r="135" spans="1:13">
       <c r="A135" s="8" t="s">
         <v>133</v>
       </c>
@@ -5816,8 +6211,11 @@
       <c r="L135" s="15">
         <v>1.7250975909999999</v>
       </c>
-    </row>
-    <row r="136" spans="1:12">
+      <c r="M135" s="15">
+        <v>25.301887000000001</v>
+      </c>
+    </row>
+    <row r="136" spans="1:13">
       <c r="A136" s="8" t="s">
         <v>134</v>
       </c>
@@ -5849,8 +6247,11 @@
       <c r="L136" s="15">
         <v>2.7327663169999998</v>
       </c>
-    </row>
-    <row r="137" spans="1:12">
+      <c r="M136" s="15">
+        <v>20.373964000000001</v>
+      </c>
+    </row>
+    <row r="137" spans="1:13">
       <c r="A137" s="8" t="s">
         <v>135</v>
       </c>
@@ -5884,8 +6285,11 @@
       <c r="L137" s="15">
         <v>1.7230074019999999</v>
       </c>
-    </row>
-    <row r="138" spans="1:12">
+      <c r="M137" s="15">
+        <v>12.676283</v>
+      </c>
+    </row>
+    <row r="138" spans="1:13">
       <c r="A138" s="8" t="s">
         <v>136</v>
       </c>
@@ -5919,8 +6323,11 @@
       <c r="L138" s="15">
         <v>5.1017697169999998</v>
       </c>
-    </row>
-    <row r="139" spans="1:12">
+      <c r="M138" s="15">
+        <v>30.859074</v>
+      </c>
+    </row>
+    <row r="139" spans="1:13">
       <c r="A139" s="8" t="s">
         <v>137</v>
       </c>
@@ -5954,8 +6361,11 @@
       <c r="L139" s="15">
         <v>1.751084868</v>
       </c>
-    </row>
-    <row r="140" spans="1:12">
+      <c r="M139" s="15">
+        <v>9.2430889999999994</v>
+      </c>
+    </row>
+    <row r="140" spans="1:13">
       <c r="A140" s="8" t="s">
         <v>138</v>
       </c>
@@ -5993,8 +6403,11 @@
       <c r="L140" s="15">
         <v>2.8989730470000001</v>
       </c>
-    </row>
-    <row r="141" spans="1:12">
+      <c r="M140" s="15">
+        <v>32.734135000000002</v>
+      </c>
+    </row>
+    <row r="141" spans="1:13">
       <c r="A141" s="8" t="s">
         <v>139</v>
       </c>
@@ -6028,8 +6441,11 @@
       <c r="L141" s="15">
         <v>5.4680782109999999</v>
       </c>
-    </row>
-    <row r="142" spans="1:12">
+      <c r="M141" s="15">
+        <v>25.773724000000001</v>
+      </c>
+    </row>
+    <row r="142" spans="1:13">
       <c r="A142" s="8" t="s">
         <v>140</v>
       </c>
@@ -6067,8 +6483,11 @@
       <c r="L142" s="15">
         <v>2.0612895770000002</v>
       </c>
-    </row>
-    <row r="143" spans="1:12">
+      <c r="M142" s="15">
+        <v>34.229075999999999</v>
+      </c>
+    </row>
+    <row r="143" spans="1:13">
       <c r="A143" s="8" t="s">
         <v>141</v>
       </c>
@@ -6102,8 +6521,11 @@
       <c r="L143" s="15">
         <v>2.3188884989999998</v>
       </c>
-    </row>
-    <row r="144" spans="1:12">
+      <c r="M143" s="15">
+        <v>26.204868999999999</v>
+      </c>
+    </row>
+    <row r="144" spans="1:13">
       <c r="A144" s="8" t="s">
         <v>142</v>
       </c>
@@ -6135,8 +6557,11 @@
       <c r="L144" s="15">
         <v>1.878402629</v>
       </c>
-    </row>
-    <row r="145" spans="1:12">
+      <c r="M144" s="15">
+        <v>20.279105000000001</v>
+      </c>
+    </row>
+    <row r="145" spans="1:13">
       <c r="A145" s="8" t="s">
         <v>143</v>
       </c>
@@ -6170,8 +6595,11 @@
       <c r="L145" s="15">
         <v>2.3690779389999999</v>
       </c>
-    </row>
-    <row r="146" spans="1:12">
+      <c r="M145" s="15">
+        <v>17.944656999999999</v>
+      </c>
+    </row>
+    <row r="146" spans="1:13">
       <c r="A146" s="8" t="s">
         <v>144</v>
       </c>
@@ -6203,8 +6631,11 @@
       <c r="L146" s="15">
         <v>1.404976709</v>
       </c>
-    </row>
-    <row r="147" spans="1:12">
+      <c r="M146" s="15">
+        <v>7.0387729999999999</v>
+      </c>
+    </row>
+    <row r="147" spans="1:13">
       <c r="A147" s="8" t="s">
         <v>145</v>
       </c>
@@ -6236,8 +6667,11 @@
       <c r="L147" s="15">
         <v>2.1439141730000002</v>
       </c>
-    </row>
-    <row r="148" spans="1:12">
+      <c r="M147" s="15">
+        <v>12.970041</v>
+      </c>
+    </row>
+    <row r="148" spans="1:13">
       <c r="A148" s="8" t="s">
         <v>146</v>
       </c>
@@ -6271,6 +6705,9 @@
       <c r="L148" s="15">
         <v>2.3203841710000002</v>
       </c>
+      <c r="M148" s="15">
+        <v>27.182075999999999</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data_tables/Total_data_cleaned.xlsx
+++ b/data_tables/Total_data_cleaned.xlsx
@@ -1,31 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ulrikaeriksson/Documents/Data_Mining/DataMining-Group23/data_tables/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Simon\Documents\projects\datamining\DataMining-Group23\data_tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B0F17D3-C707-FC40-BC31-8DA5D132607E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17818FF5-08B4-4AED-B436-C5F4BB978910}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="22200" windowHeight="12560" xr2:uid="{196242FC-4F62-234C-ABAE-90D7B6224D3F}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{196242FC-4F62-234C-ABAE-90D7B6224D3F}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="263">
   <si>
     <t>Afghanistan</t>
   </si>
@@ -505,13 +511,322 @@
   </si>
   <si>
     <t>Total Taxes (% GDP)</t>
+  </si>
+  <si>
+    <t>Economic inequality</t>
+  </si>
+  <si>
+    <t>27.8</t>
+  </si>
+  <si>
+    <t>29.0</t>
+  </si>
+  <si>
+    <t>27.6</t>
+  </si>
+  <si>
+    <t>42.4</t>
+  </si>
+  <si>
+    <t>32.4</t>
+  </si>
+  <si>
+    <t>34.7</t>
+  </si>
+  <si>
+    <t>30.5</t>
+  </si>
+  <si>
+    <t>31.8</t>
+  </si>
+  <si>
+    <t>32.0</t>
+  </si>
+  <si>
+    <t>26.7</t>
+  </si>
+  <si>
+    <t>28.1</t>
+  </si>
+  <si>
+    <t>47.8</t>
+  </si>
+  <si>
+    <t>45.8</t>
+  </si>
+  <si>
+    <t>33.1</t>
+  </si>
+  <si>
+    <t>60.5</t>
+  </si>
+  <si>
+    <t>46.9</t>
+  </si>
+  <si>
+    <t>37.4</t>
+  </si>
+  <si>
+    <t>35.3</t>
+  </si>
+  <si>
+    <t>30.8</t>
+  </si>
+  <si>
+    <t>46.5</t>
+  </si>
+  <si>
+    <t>34.0</t>
+  </si>
+  <si>
+    <t>56.2</t>
+  </si>
+  <si>
+    <t>43.3</t>
+  </si>
+  <si>
+    <t>47.7</t>
+  </si>
+  <si>
+    <t>38.6</t>
+  </si>
+  <si>
+    <t>50.8</t>
+  </si>
+  <si>
+    <t>42.1</t>
+  </si>
+  <si>
+    <t>40.2</t>
+  </si>
+  <si>
+    <t>48.7</t>
+  </si>
+  <si>
+    <t>32.2</t>
+  </si>
+  <si>
+    <t>35.6</t>
+  </si>
+  <si>
+    <t>25.9</t>
+  </si>
+  <si>
+    <t>28.5</t>
+  </si>
+  <si>
+    <t>45.3</t>
+  </si>
+  <si>
+    <t>34.6</t>
+  </si>
+  <si>
+    <t>33.2</t>
+  </si>
+  <si>
+    <t>26.8</t>
+  </si>
+  <si>
+    <t>32.3</t>
+  </si>
+  <si>
+    <t>47.3</t>
+  </si>
+  <si>
+    <t>36.5</t>
+  </si>
+  <si>
+    <t>31.4</t>
+  </si>
+  <si>
+    <t>42.8</t>
+  </si>
+  <si>
+    <t>35.8</t>
+  </si>
+  <si>
+    <t>33.7</t>
+  </si>
+  <si>
+    <t>60.8</t>
+  </si>
+  <si>
+    <t>30.9</t>
+  </si>
+  <si>
+    <t>25.6</t>
+  </si>
+  <si>
+    <t>35.7</t>
+  </si>
+  <si>
+    <t>38.1</t>
+  </si>
+  <si>
+    <t>38.8</t>
+  </si>
+  <si>
+    <t>29.5</t>
+  </si>
+  <si>
+    <t>31.9</t>
+  </si>
+  <si>
+    <t>41.4</t>
+  </si>
+  <si>
+    <t>41.7</t>
+  </si>
+  <si>
+    <t>45.5</t>
+  </si>
+  <si>
+    <t>32.1</t>
+  </si>
+  <si>
+    <t>35.4</t>
+  </si>
+  <si>
+    <t>26.5</t>
+  </si>
+  <si>
+    <t>37.9</t>
+  </si>
+  <si>
+    <t>35.1</t>
+  </si>
+  <si>
+    <t>54.2</t>
+  </si>
+  <si>
+    <t>37.7</t>
+  </si>
+  <si>
+    <t>31.2</t>
+  </si>
+  <si>
+    <t>40.6</t>
+  </si>
+  <si>
+    <t>46.1</t>
+  </si>
+  <si>
+    <t>33.0</t>
+  </si>
+  <si>
+    <t>43.4</t>
+  </si>
+  <si>
+    <t>26.3</t>
+  </si>
+  <si>
+    <t>40.7</t>
+  </si>
+  <si>
+    <t>45.6</t>
+  </si>
+  <si>
+    <t>59.1</t>
+  </si>
+  <si>
+    <t>32.8</t>
+  </si>
+  <si>
+    <t>28.6</t>
+  </si>
+  <si>
+    <t>46.6</t>
+  </si>
+  <si>
+    <t>43.0</t>
+  </si>
+  <si>
+    <t>30.7</t>
+  </si>
+  <si>
+    <t>35.5</t>
+  </si>
+  <si>
+    <t>50.4</t>
+  </si>
+  <si>
+    <t>47.9</t>
+  </si>
+  <si>
+    <t>43.8</t>
+  </si>
+  <si>
+    <t>40.1</t>
+  </si>
+  <si>
+    <t>27.5</t>
+  </si>
+  <si>
+    <t>45.9</t>
+  </si>
+  <si>
+    <t>40.3</t>
+  </si>
+  <si>
+    <t>29.1</t>
+  </si>
+  <si>
+    <t>26.1</t>
+  </si>
+  <si>
+    <t>25.7</t>
+  </si>
+  <si>
+    <t>63.0</t>
+  </si>
+  <si>
+    <t>31.6</t>
+  </si>
+  <si>
+    <t>36.0</t>
+  </si>
+  <si>
+    <t>39.8</t>
+  </si>
+  <si>
+    <t>27.2</t>
+  </si>
+  <si>
+    <t>32.5</t>
+  </si>
+  <si>
+    <t>37.8</t>
+  </si>
+  <si>
+    <t>41.9</t>
+  </si>
+  <si>
+    <t>43.2</t>
+  </si>
+  <si>
+    <t>25.5</t>
+  </si>
+  <si>
+    <t>34.1</t>
+  </si>
+  <si>
+    <t>41.5</t>
+  </si>
+  <si>
+    <t>39.7</t>
+  </si>
+  <si>
+    <t>36.7</t>
+  </si>
+  <si>
+    <t>57.1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -548,8 +863,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF222222"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -572,8 +893,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF8F9FA"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -609,13 +936,28 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFA2A9B1"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFA2A9B1"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFA2A9B1"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFA2A9B1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -657,6 +999,8 @@
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Dålig" xfId="1" builtinId="27"/>
@@ -973,13 +1317,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67CF83BE-F021-5E44-A4B8-2C5D9BB127DA}">
-  <dimension ref="A1:M148"/>
+  <dimension ref="A1:N148"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A124" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="F144" sqref="F144"/>
+    <sheetView tabSelected="1" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="12.1640625" style="8" customWidth="1"/>
     <col min="2" max="2" width="17.1640625" style="9" customWidth="1"/>
@@ -990,9 +1334,10 @@
     <col min="7" max="7" width="19.6640625" style="6" customWidth="1"/>
     <col min="8" max="8" width="20.6640625" style="6" customWidth="1"/>
     <col min="9" max="9" width="14.6640625" customWidth="1"/>
+    <col min="13" max="13" width="21.58203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="17">
+    <row r="1" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>147</v>
       </c>
@@ -1032,8 +1377,11 @@
       <c r="M1" s="16" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="17" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
@@ -1067,8 +1415,11 @@
       <c r="M2" s="15">
         <v>9.1248640000000005</v>
       </c>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="N2" s="18" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="8" t="s">
         <v>1</v>
       </c>
@@ -1105,8 +1456,11 @@
       <c r="M3" s="15">
         <v>23.52533</v>
       </c>
-    </row>
-    <row r="4" spans="1:13">
+      <c r="N3" s="18" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="8" t="s">
         <v>2</v>
       </c>
@@ -1143,8 +1497,11 @@
       <c r="M4" s="15">
         <v>14.162544</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="18" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="8" t="s">
         <v>3</v>
       </c>
@@ -1185,8 +1542,11 @@
       <c r="M5" s="15">
         <v>30.661214999999999</v>
       </c>
-    </row>
-    <row r="6" spans="1:13">
+      <c r="N5" s="18" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="8" t="s">
         <v>4</v>
       </c>
@@ -1223,8 +1583,11 @@
       <c r="M6" s="15">
         <v>21.761512</v>
       </c>
-    </row>
-    <row r="7" spans="1:13">
+      <c r="N6" s="18" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="8" t="s">
         <v>5</v>
       </c>
@@ -1265,8 +1628,11 @@
       <c r="M7" s="15">
         <v>28.578520000000001</v>
       </c>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="N7" s="18" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="8" t="s">
         <v>6</v>
       </c>
@@ -1307,8 +1673,11 @@
       <c r="M8" s="15">
         <v>41.884256999999998</v>
       </c>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="N8" s="18" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="8" t="s">
         <v>7</v>
       </c>
@@ -1349,8 +1718,11 @@
       <c r="M9" s="15">
         <v>16.506067999999999</v>
       </c>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="N9" s="18" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="8" t="s">
         <v>8</v>
       </c>
@@ -1385,8 +1757,9 @@
       <c r="M10" s="15">
         <v>1.0698810000000001</v>
       </c>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="N10" s="18"/>
+    </row>
+    <row r="11" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="8" t="s">
         <v>9</v>
       </c>
@@ -1423,8 +1796,11 @@
       <c r="M11" s="15">
         <v>8.1908390000000004</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="N11" s="18" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="8" t="s">
         <v>10</v>
       </c>
@@ -1465,8 +1841,11 @@
       <c r="M12" s="15">
         <v>35.748614000000003</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="N12" s="18" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="8" t="s">
         <v>11</v>
       </c>
@@ -1507,8 +1886,11 @@
       <c r="M13" s="15">
         <v>43.875816</v>
       </c>
-    </row>
-    <row r="14" spans="1:13">
+      <c r="N13" s="18" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="8" t="s">
         <v>12</v>
       </c>
@@ -1545,8 +1927,11 @@
       <c r="M14" s="15">
         <v>15.888945</v>
       </c>
-    </row>
-    <row r="15" spans="1:13">
+      <c r="N14" s="18" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15" s="8" t="s">
         <v>13</v>
       </c>
@@ -1585,8 +1970,11 @@
       <c r="M15" s="15">
         <v>26.203921000000001</v>
       </c>
-    </row>
-    <row r="16" spans="1:13">
+      <c r="N15" s="18" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" s="8" t="s">
         <v>14</v>
       </c>
@@ -1623,8 +2011,11 @@
       <c r="M16" s="15">
         <v>37.572918999999999</v>
       </c>
-    </row>
-    <row r="17" spans="1:13">
+      <c r="N16" s="18" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17" s="8" t="s">
         <v>15</v>
       </c>
@@ -1661,8 +2052,11 @@
       <c r="M17" s="15">
         <v>20.871931</v>
       </c>
-    </row>
-    <row r="18" spans="1:13">
+      <c r="N17" s="18" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A18" s="8" t="s">
         <v>16</v>
       </c>
@@ -1703,8 +2097,11 @@
       <c r="M18" s="15">
         <v>33.713017999999998</v>
       </c>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="N18" s="18" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A19" s="8" t="s">
         <v>17</v>
       </c>
@@ -1745,8 +2142,11 @@
       <c r="M19" s="15">
         <v>28.800666</v>
       </c>
-    </row>
-    <row r="20" spans="1:13">
+      <c r="N19" s="18" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A20" s="8" t="s">
         <v>18</v>
       </c>
@@ -1787,8 +2187,11 @@
       <c r="M20" s="15">
         <v>16.652574000000001</v>
       </c>
-    </row>
-    <row r="21" spans="1:13">
+      <c r="N20" s="18" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A21" s="8" t="s">
         <v>19</v>
       </c>
@@ -1825,8 +2228,11 @@
       <c r="M21" s="15">
         <v>14.825889999999999</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21" s="18" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="8" t="s">
         <v>20</v>
       </c>
@@ -1861,8 +2267,11 @@
       <c r="M22" s="15">
         <v>13.376192</v>
       </c>
-    </row>
-    <row r="23" spans="1:13">
+      <c r="N22" s="18" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" s="8" t="s">
         <v>21</v>
       </c>
@@ -1903,8 +2312,11 @@
       <c r="M23" s="15">
         <v>32.830274000000003</v>
       </c>
-    </row>
-    <row r="24" spans="1:13">
+      <c r="N23" s="18" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A24" s="8" t="s">
         <v>22</v>
       </c>
@@ -1939,13 +2351,16 @@
       <c r="M24" s="15">
         <v>9.6534659999999999</v>
       </c>
-    </row>
-    <row r="25" spans="1:13">
+      <c r="N24" s="18" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A25" s="8" t="s">
         <v>23</v>
       </c>
       <c r="B25" s="9">
-        <v>4.5589370727539062</v>
+        <v>4.5589370727539063</v>
       </c>
       <c r="C25" s="9">
         <f t="shared" si="0"/>
@@ -1975,8 +2390,11 @@
       <c r="M25" s="15">
         <v>5.6650309999999999</v>
       </c>
-    </row>
-    <row r="26" spans="1:13">
+      <c r="N25" s="18" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A26" s="8" t="s">
         <v>24</v>
       </c>
@@ -2013,8 +2431,11 @@
       <c r="M26" s="15">
         <v>17.409112</v>
       </c>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="N26" s="18" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A27" s="8" t="s">
         <v>25</v>
       </c>
@@ -2052,8 +2473,11 @@
       <c r="M27" s="15">
         <v>23.790354000000001</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" s="18" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A28" s="8" t="s">
         <v>26</v>
       </c>
@@ -2094,8 +2518,11 @@
       <c r="M28" s="15">
         <v>19.211746000000002</v>
       </c>
-    </row>
-    <row r="29" spans="1:13">
+      <c r="N28" s="18" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A29" s="8" t="s">
         <v>27</v>
       </c>
@@ -2129,8 +2556,11 @@
       <c r="M29" s="15">
         <v>17.503682999999999</v>
       </c>
-    </row>
-    <row r="30" spans="1:13">
+      <c r="N29" s="18" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A30" s="8" t="s">
         <v>28</v>
       </c>
@@ -2165,8 +2595,11 @@
       <c r="M30" s="15">
         <v>7.1134009999999996</v>
       </c>
-    </row>
-    <row r="31" spans="1:13">
+      <c r="N30" s="18" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A31" s="8" t="s">
         <v>29</v>
       </c>
@@ -2207,8 +2640,11 @@
       <c r="M31" s="15">
         <v>13.854123</v>
       </c>
-    </row>
-    <row r="32" spans="1:13">
+      <c r="N31" s="18" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A32" s="8" t="s">
         <v>30</v>
       </c>
@@ -2249,8 +2685,11 @@
       <c r="M32" s="15">
         <v>35.163044999999997</v>
       </c>
-    </row>
-    <row r="33" spans="1:13">
+      <c r="N32" s="18" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A33" s="8" t="s">
         <v>31</v>
       </c>
@@ -2291,8 +2730,11 @@
       <c r="M33" s="15">
         <v>23.997837000000001</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="18" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A34" s="8" t="s">
         <v>32</v>
       </c>
@@ -2329,8 +2771,11 @@
       <c r="M34" s="15">
         <v>34.068710000000003</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="18" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A35" s="8" t="s">
         <v>33</v>
       </c>
@@ -2367,8 +2812,11 @@
       <c r="M35" s="15">
         <v>45.43515</v>
       </c>
-    </row>
-    <row r="36" spans="1:13">
+      <c r="N35" s="18" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A36" s="8" t="s">
         <v>34</v>
       </c>
@@ -2409,8 +2857,11 @@
       <c r="M36" s="15">
         <v>13.509418</v>
       </c>
-    </row>
-    <row r="37" spans="1:13">
+      <c r="N36" s="18" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A37" s="8" t="s">
         <v>35</v>
       </c>
@@ -2447,8 +2898,11 @@
       <c r="M37" s="15">
         <v>14.671663000000001</v>
       </c>
-    </row>
-    <row r="38" spans="1:13">
+      <c r="N37" s="18">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A38" s="8" t="s">
         <v>36</v>
       </c>
@@ -2483,8 +2937,11 @@
         <v>1.446643887</v>
       </c>
       <c r="M38" s="15"/>
-    </row>
-    <row r="39" spans="1:13">
+      <c r="N38" s="18" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A39" s="8" t="s">
         <v>37</v>
       </c>
@@ -2521,8 +2978,11 @@
       <c r="M39" s="15">
         <v>17.381668999999999</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="N39" s="18">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A40" s="8" t="s">
         <v>38</v>
       </c>
@@ -2563,8 +3023,11 @@
       <c r="M40" s="15">
         <v>33.730350999999999</v>
       </c>
-    </row>
-    <row r="41" spans="1:13">
+      <c r="N40" s="18" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A41" s="8" t="s">
         <v>39</v>
       </c>
@@ -2599,8 +3062,11 @@
         <v>2.616682548</v>
       </c>
       <c r="M41" s="15"/>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="18" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A42" s="8" t="s">
         <v>40</v>
       </c>
@@ -2641,8 +3107,11 @@
       <c r="M42" s="15">
         <v>44.017195000000001</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="18" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A43" s="8" t="s">
         <v>41</v>
       </c>
@@ -2683,8 +3152,11 @@
       <c r="M43" s="15">
         <v>45.277869000000003</v>
       </c>
-    </row>
-    <row r="44" spans="1:13">
+      <c r="N43" s="18" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A44" s="8" t="s">
         <v>42</v>
       </c>
@@ -2716,8 +3188,11 @@
       <c r="M44" s="15">
         <v>20.494221</v>
       </c>
-    </row>
-    <row r="45" spans="1:13">
+      <c r="N44" s="18">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A45" s="8" t="s">
         <v>43</v>
       </c>
@@ -2751,8 +3226,11 @@
       <c r="M45" s="15">
         <v>11.14148</v>
       </c>
-    </row>
-    <row r="46" spans="1:13">
+      <c r="N45" s="18" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A46" s="8" t="s">
         <v>44</v>
       </c>
@@ -2793,8 +3271,11 @@
       <c r="M46" s="15">
         <v>25.819448000000001</v>
       </c>
-    </row>
-    <row r="47" spans="1:13">
+      <c r="N46" s="18" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A47" s="8" t="s">
         <v>45</v>
       </c>
@@ -2835,8 +3316,11 @@
       <c r="M47" s="15">
         <v>37.430619999999998</v>
       </c>
-    </row>
-    <row r="48" spans="1:13">
+      <c r="N47" s="18" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A48" s="8" t="s">
         <v>46</v>
       </c>
@@ -2877,8 +3361,11 @@
       <c r="M48" s="15">
         <v>12.377316</v>
       </c>
-    </row>
-    <row r="49" spans="1:13">
+      <c r="N48" s="18" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A49" s="8" t="s">
         <v>47</v>
       </c>
@@ -2919,8 +3406,11 @@
       <c r="M49" s="15">
         <v>38.338583999999997</v>
       </c>
-    </row>
-    <row r="50" spans="1:13">
+      <c r="N49" s="18" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A50" s="8" t="s">
         <v>48</v>
       </c>
@@ -2955,8 +3445,11 @@
       <c r="M50" s="15">
         <v>10.78232</v>
       </c>
-    </row>
-    <row r="51" spans="1:13">
+      <c r="N50" s="18" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A51" s="8" t="s">
         <v>49</v>
       </c>
@@ -2991,8 +3484,11 @@
       <c r="M51" s="15">
         <v>14.030989</v>
       </c>
-    </row>
-    <row r="52" spans="1:13">
+      <c r="N51" s="18" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A52" s="8" t="s">
         <v>50</v>
       </c>
@@ -3027,8 +3523,11 @@
       <c r="M52" s="15">
         <v>13.731528000000001</v>
       </c>
-    </row>
-    <row r="53" spans="1:13">
+      <c r="N52" s="18" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A53" s="8" t="s">
         <v>51</v>
       </c>
@@ -3065,8 +3564,11 @@
       <c r="M53" s="15">
         <v>22.421873000000001</v>
       </c>
-    </row>
-    <row r="54" spans="1:13">
+      <c r="N53" s="18">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A54" s="8" t="s">
         <v>52</v>
       </c>
@@ -3093,8 +3595,9 @@
       <c r="M54" s="15">
         <v>13.574933</v>
       </c>
-    </row>
-    <row r="55" spans="1:13">
+      <c r="N54" s="18"/>
+    </row>
+    <row r="55" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A55" s="8" t="s">
         <v>53</v>
       </c>
@@ -3135,8 +3638,11 @@
       <c r="M55" s="15">
         <v>39.148890999999999</v>
       </c>
-    </row>
-    <row r="56" spans="1:13">
+      <c r="N55" s="18" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A56" s="8" t="s">
         <v>54</v>
       </c>
@@ -3170,8 +3676,11 @@
       <c r="M56" s="15">
         <v>36.789971000000001</v>
       </c>
-    </row>
-    <row r="57" spans="1:13">
+      <c r="N56" s="18" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A57" s="8" t="s">
         <v>55</v>
       </c>
@@ -3208,8 +3717,11 @@
       <c r="M57" s="15">
         <v>17.577255000000001</v>
       </c>
-    </row>
-    <row r="58" spans="1:13">
+      <c r="N57" s="18" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A58" s="8" t="s">
         <v>56</v>
       </c>
@@ -3246,8 +3758,11 @@
       <c r="M58" s="15">
         <v>10.361459</v>
       </c>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="18" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A59" s="8" t="s">
         <v>57</v>
       </c>
@@ -3284,8 +3799,11 @@
       <c r="M59" s="15">
         <v>7.9746290000000002</v>
       </c>
-    </row>
-    <row r="60" spans="1:13">
+      <c r="N59" s="18" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A60" s="8" t="s">
         <v>58</v>
       </c>
@@ -3320,8 +3838,11 @@
       <c r="M60" s="15">
         <v>1.3778090000000001</v>
       </c>
-    </row>
-    <row r="61" spans="1:13">
+      <c r="N60" s="18" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A61" s="8" t="s">
         <v>59</v>
       </c>
@@ -3362,8 +3883,11 @@
       <c r="M61" s="15">
         <v>23.358557999999999</v>
       </c>
-    </row>
-    <row r="62" spans="1:13">
+      <c r="N61" s="18" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A62" s="8" t="s">
         <v>60</v>
       </c>
@@ -3404,8 +3928,11 @@
       <c r="M62" s="15">
         <v>31.128926</v>
       </c>
-    </row>
-    <row r="63" spans="1:13">
+      <c r="N62" s="18" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A63" s="8" t="s">
         <v>61</v>
       </c>
@@ -3446,8 +3973,11 @@
       <c r="M63" s="15">
         <v>42.385586000000004</v>
       </c>
-    </row>
-    <row r="64" spans="1:13">
+      <c r="N63" s="18" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A64" s="8" t="s">
         <v>62</v>
       </c>
@@ -3482,8 +4012,11 @@
       <c r="M64" s="15">
         <v>16.017084000000001</v>
       </c>
-    </row>
-    <row r="65" spans="1:13">
+      <c r="N64" s="18" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A65" s="8" t="s">
         <v>63</v>
       </c>
@@ -3524,8 +4057,11 @@
       <c r="M65" s="15">
         <v>25.114878999999998</v>
       </c>
-    </row>
-    <row r="66" spans="1:13">
+      <c r="N65" s="18" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A66" s="8" t="s">
         <v>64</v>
       </c>
@@ -3566,13 +4102,16 @@
       <c r="M66" s="15">
         <v>30.777436000000002</v>
       </c>
-    </row>
-    <row r="67" spans="1:13">
+      <c r="N66" s="18" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A67" s="8" t="s">
         <v>65</v>
       </c>
       <c r="B67" s="9">
-        <v>4.8080825805664062</v>
+        <v>4.8080825805664063</v>
       </c>
       <c r="C67" s="9">
         <f t="shared" ref="C67:C130" si="1">ROUND(B67,0)</f>
@@ -3602,8 +4141,11 @@
       <c r="M67" s="15">
         <v>15.341718</v>
       </c>
-    </row>
-    <row r="68" spans="1:13">
+      <c r="N67" s="18" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A68" s="8" t="s">
         <v>66</v>
       </c>
@@ -3640,8 +4182,11 @@
       <c r="M68" s="15">
         <v>15.228497000000001</v>
       </c>
-    </row>
-    <row r="69" spans="1:13">
+      <c r="N68" s="18" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A69" s="8" t="s">
         <v>67</v>
       </c>
@@ -3678,8 +4223,11 @@
       <c r="M69" s="15">
         <v>15.800242000000001</v>
       </c>
-    </row>
-    <row r="70" spans="1:13">
+      <c r="N69" s="18" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A70" s="8" t="s">
         <v>68</v>
       </c>
@@ -3708,8 +4256,11 @@
       <c r="M70" s="15">
         <v>23.459638000000002</v>
       </c>
-    </row>
-    <row r="71" spans="1:13">
+      <c r="N70" s="18" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A71" s="8" t="s">
         <v>69</v>
       </c>
@@ -3746,8 +4297,9 @@
       <c r="M71" s="15">
         <v>1.5125850000000001</v>
       </c>
-    </row>
-    <row r="72" spans="1:13">
+      <c r="N71" s="18"/>
+    </row>
+    <row r="72" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A72" s="8" t="s">
         <v>70</v>
       </c>
@@ -3784,8 +4336,11 @@
       <c r="M72" s="15">
         <v>25.102250000000002</v>
       </c>
-    </row>
-    <row r="73" spans="1:13">
+      <c r="N72" s="18" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A73" s="8" t="s">
         <v>71</v>
       </c>
@@ -3822,8 +4377,11 @@
       <c r="M73" s="15">
         <v>12.428921000000001</v>
       </c>
-    </row>
-    <row r="74" spans="1:13">
+      <c r="N73" s="18" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A74" s="8" t="s">
         <v>72</v>
       </c>
@@ -3864,8 +4422,11 @@
       <c r="M74" s="15">
         <v>30.234611000000001</v>
       </c>
-    </row>
-    <row r="75" spans="1:13">
+      <c r="N74" s="18" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A75" s="8" t="s">
         <v>73</v>
       </c>
@@ -3902,8 +4463,9 @@
       <c r="M75" s="15">
         <v>13.693778999999999</v>
       </c>
-    </row>
-    <row r="76" spans="1:13">
+      <c r="N75" s="18"/>
+    </row>
+    <row r="76" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A76" s="8" t="s">
         <v>74</v>
       </c>
@@ -3937,8 +4499,11 @@
       <c r="M76" s="15">
         <v>26.536635</v>
       </c>
-    </row>
-    <row r="77" spans="1:13">
+      <c r="N76" s="18" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A77" s="8" t="s">
         <v>75</v>
       </c>
@@ -3973,8 +4538,11 @@
         <v>1.612780331</v>
       </c>
       <c r="M77" s="15"/>
-    </row>
-    <row r="78" spans="1:13">
+      <c r="N77" s="18" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A78" s="8" t="s">
         <v>76</v>
       </c>
@@ -4006,8 +4574,9 @@
       <c r="M78" s="15">
         <v>1.192523</v>
       </c>
-    </row>
-    <row r="79" spans="1:13">
+      <c r="N78" s="18"/>
+    </row>
+    <row r="79" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A79" s="8" t="s">
         <v>77</v>
       </c>
@@ -4048,8 +4617,11 @@
       <c r="M79" s="15">
         <v>29.684875000000002</v>
       </c>
-    </row>
-    <row r="80" spans="1:13">
+      <c r="N79" s="18" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A80" s="8" t="s">
         <v>78</v>
       </c>
@@ -4090,8 +4662,11 @@
       <c r="M80" s="15">
         <v>37.932749000000001</v>
       </c>
-    </row>
-    <row r="81" spans="1:13">
+      <c r="N80" s="18" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A81" s="8" t="s">
         <v>79</v>
       </c>
@@ -4126,8 +4701,11 @@
       <c r="M81" s="15">
         <v>25.286065000000001</v>
       </c>
-    </row>
-    <row r="82" spans="1:13">
+      <c r="N81" s="18" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A82" s="8" t="s">
         <v>80</v>
       </c>
@@ -4162,8 +4740,11 @@
       <c r="M82" s="15">
         <v>10.999344000000001</v>
       </c>
-    </row>
-    <row r="83" spans="1:13">
+      <c r="N82" s="18" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A83" s="8" t="s">
         <v>81</v>
       </c>
@@ -4200,8 +4781,11 @@
       <c r="M83" s="15">
         <v>15.323005</v>
       </c>
-    </row>
-    <row r="84" spans="1:13">
+      <c r="N83" s="18" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A84" s="8" t="s">
         <v>82</v>
       </c>
@@ -4238,8 +4822,11 @@
       <c r="M84" s="15">
         <v>14.916247</v>
       </c>
-    </row>
-    <row r="85" spans="1:13">
+      <c r="N84" s="18" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A85" s="8" t="s">
         <v>83</v>
       </c>
@@ -4280,8 +4867,9 @@
       <c r="M85" s="15">
         <v>31.893222000000002</v>
       </c>
-    </row>
-    <row r="86" spans="1:13">
+      <c r="N85" s="18"/>
+    </row>
+    <row r="86" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A86" s="8" t="s">
         <v>84</v>
       </c>
@@ -4316,8 +4904,11 @@
       <c r="M86" s="15">
         <v>16.519642999999999</v>
       </c>
-    </row>
-    <row r="87" spans="1:13">
+      <c r="N86" s="18" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A87" s="8" t="s">
         <v>85</v>
       </c>
@@ -4355,8 +4946,11 @@
       <c r="M87" s="15">
         <v>18.213287999999999</v>
       </c>
-    </row>
-    <row r="88" spans="1:13">
+      <c r="N87" s="18" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A88" s="8" t="s">
         <v>86</v>
       </c>
@@ -4397,8 +4991,11 @@
       <c r="M88" s="15">
         <v>13.701247</v>
       </c>
-    </row>
-    <row r="89" spans="1:13">
+      <c r="N88" s="18" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A89" s="8" t="s">
         <v>87</v>
       </c>
@@ -4439,8 +5036,11 @@
       <c r="M89" s="15">
         <v>26.432732999999999</v>
       </c>
-    </row>
-    <row r="90" spans="1:13">
+      <c r="N89" s="18" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A90" s="8" t="s">
         <v>88</v>
       </c>
@@ -4474,8 +5074,11 @@
       <c r="M90" s="15">
         <v>20.360968</v>
       </c>
-    </row>
-    <row r="91" spans="1:13">
+      <c r="N90" s="18" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A91" s="8" t="s">
         <v>89</v>
       </c>
@@ -4516,8 +5119,11 @@
       <c r="M91" s="15">
         <v>36.090035</v>
       </c>
-    </row>
-    <row r="92" spans="1:13">
+      <c r="N91" s="18" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A92" s="8" t="s">
         <v>90</v>
       </c>
@@ -4554,8 +5160,11 @@
       <c r="M92" s="15">
         <v>21.448879999999999</v>
       </c>
-    </row>
-    <row r="93" spans="1:13">
+      <c r="N92" s="18" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A93" s="8" t="s">
         <v>91</v>
       </c>
@@ -4592,8 +5201,11 @@
       <c r="M93" s="15">
         <v>20.156713</v>
       </c>
-    </row>
-    <row r="94" spans="1:13">
+      <c r="N93" s="18" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A94" s="8" t="s">
         <v>92</v>
       </c>
@@ -4630,8 +5242,11 @@
       <c r="M94" s="15">
         <v>8.3322769999999995</v>
       </c>
-    </row>
-    <row r="95" spans="1:13">
+      <c r="N94" s="18" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A95" s="8" t="s">
         <v>93</v>
       </c>
@@ -4668,8 +5283,11 @@
       <c r="M95" s="15">
         <v>28.710813000000002</v>
       </c>
-    </row>
-    <row r="96" spans="1:13">
+      <c r="N95" s="18" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A96" s="8" t="s">
         <v>94</v>
       </c>
@@ -4706,8 +5324,11 @@
       <c r="M96" s="15">
         <v>18.687477999999999</v>
       </c>
-    </row>
-    <row r="97" spans="1:13">
+      <c r="N96" s="18" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="97" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A97" s="8" t="s">
         <v>95</v>
       </c>
@@ -4744,8 +5365,11 @@
       <c r="M97" s="15">
         <v>38.400931</v>
       </c>
-    </row>
-    <row r="98" spans="1:13">
+      <c r="N97" s="18" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A98" s="8" t="s">
         <v>96</v>
       </c>
@@ -4786,13 +5410,14 @@
       <c r="M98" s="15">
         <v>32.613869999999999</v>
       </c>
-    </row>
-    <row r="99" spans="1:13">
+      <c r="N98" s="18"/>
+    </row>
+    <row r="99" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A99" s="8" t="s">
         <v>97</v>
       </c>
       <c r="B99" s="9">
-        <v>6.4763565063476562</v>
+        <v>6.4763565063476563</v>
       </c>
       <c r="C99" s="9">
         <f t="shared" si="1"/>
@@ -4820,8 +5445,11 @@
       <c r="M99" s="15">
         <v>23.448450000000001</v>
       </c>
-    </row>
-    <row r="100" spans="1:13">
+      <c r="N99" s="18" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="100" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A100" s="8" t="s">
         <v>98</v>
       </c>
@@ -4858,8 +5486,11 @@
       <c r="M100" s="15">
         <v>13.454078000000001</v>
       </c>
-    </row>
-    <row r="101" spans="1:13">
+      <c r="N100" s="18" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="101" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A101" s="8" t="s">
         <v>99</v>
       </c>
@@ -4896,8 +5527,11 @@
       <c r="M101" s="15">
         <v>7.1707000000000001</v>
       </c>
-    </row>
-    <row r="102" spans="1:13">
+      <c r="N101" s="18" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="102" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A102" s="8" t="s">
         <v>100</v>
       </c>
@@ -4938,8 +5572,11 @@
       <c r="M102" s="15">
         <v>38.709806999999998</v>
       </c>
-    </row>
-    <row r="103" spans="1:13">
+      <c r="N102" s="18" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="103" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A103" s="8" t="s">
         <v>101</v>
       </c>
@@ -4976,8 +5613,11 @@
       <c r="M103" s="15">
         <v>9.9883570000000006</v>
       </c>
-    </row>
-    <row r="104" spans="1:13">
+      <c r="N103" s="18" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="104" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A104" s="8" t="s">
         <v>102</v>
       </c>
@@ -5010,8 +5650,11 @@
       <c r="M104" s="15">
         <v>5.5946610000000003</v>
       </c>
-    </row>
-    <row r="105" spans="1:13">
+      <c r="N104" s="18" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="105" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A105" s="8" t="s">
         <v>103</v>
       </c>
@@ -5048,8 +5691,11 @@
       <c r="M105" s="15">
         <v>15.463361000000001</v>
       </c>
-    </row>
-    <row r="106" spans="1:13">
+      <c r="N105" s="18" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="106" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A106" s="8" t="s">
         <v>104</v>
       </c>
@@ -5086,8 +5732,11 @@
       <c r="M106" s="15">
         <v>10.489746</v>
       </c>
-    </row>
-    <row r="107" spans="1:13">
+      <c r="N106" s="18" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="107" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A107" s="8" t="s">
         <v>105</v>
       </c>
@@ -5124,8 +5773,11 @@
       <c r="M107" s="15">
         <v>13.614037</v>
       </c>
-    </row>
-    <row r="108" spans="1:13">
+      <c r="N107" s="18" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="108" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A108" s="8" t="s">
         <v>106</v>
       </c>
@@ -5162,8 +5814,11 @@
       <c r="M108" s="15">
         <v>13.676774</v>
       </c>
-    </row>
-    <row r="109" spans="1:13">
+      <c r="N108" s="18" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="109" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A109" s="8" t="s">
         <v>107</v>
       </c>
@@ -5204,8 +5859,11 @@
       <c r="M109" s="15">
         <v>33.346711999999997</v>
       </c>
-    </row>
-    <row r="110" spans="1:13">
+      <c r="N109" s="18" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="110" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A110" s="8" t="s">
         <v>108</v>
       </c>
@@ -5246,8 +5904,11 @@
       <c r="M110" s="15">
         <v>34.141741000000003</v>
       </c>
-    </row>
-    <row r="111" spans="1:13">
+      <c r="N110" s="18" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="111" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A111" s="8" t="s">
         <v>109</v>
       </c>
@@ -5288,13 +5949,16 @@
       <c r="M111" s="15">
         <v>26.441125</v>
       </c>
-    </row>
-    <row r="112" spans="1:13">
+      <c r="N111" s="18" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="112" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A112" s="8" t="s">
         <v>110</v>
       </c>
       <c r="B112" s="9">
-        <v>5.5787429809570312</v>
+        <v>5.5787429809570313</v>
       </c>
       <c r="C112" s="9">
         <f t="shared" si="1"/>
@@ -5330,8 +5994,11 @@
       <c r="M112" s="15">
         <v>29.046813</v>
       </c>
-    </row>
-    <row r="113" spans="1:13">
+      <c r="N112" s="18" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="113" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A113" s="8" t="s">
         <v>111</v>
       </c>
@@ -5368,8 +6035,11 @@
       <c r="M113" s="15">
         <v>15.459153000000001</v>
       </c>
-    </row>
-    <row r="114" spans="1:13">
+      <c r="N113" s="18" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="114" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A114" s="8" t="s">
         <v>112</v>
       </c>
@@ -5406,8 +6076,11 @@
       <c r="M114" s="15">
         <v>2.23278</v>
       </c>
-    </row>
-    <row r="115" spans="1:13">
+      <c r="N114" s="18" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="115" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A115" s="8" t="s">
         <v>113</v>
       </c>
@@ -5444,8 +6117,11 @@
       <c r="M115" s="15">
         <v>15.920230999999999</v>
       </c>
-    </row>
-    <row r="116" spans="1:13">
+      <c r="N115" s="18" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="116" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A116" s="8" t="s">
         <v>114</v>
       </c>
@@ -5486,8 +6162,11 @@
       <c r="M116" s="15">
         <v>35.078639000000003</v>
       </c>
-    </row>
-    <row r="117" spans="1:13">
+      <c r="N116" s="18" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="117" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A117" s="8" t="s">
         <v>115</v>
       </c>
@@ -5519,8 +6198,11 @@
       <c r="M117" s="15">
         <v>11.178661</v>
       </c>
-    </row>
-    <row r="118" spans="1:13">
+      <c r="N117" s="18" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="118" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A118" s="8" t="s">
         <v>116</v>
       </c>
@@ -5561,8 +6243,9 @@
       <c r="M118" s="15">
         <v>13.421915</v>
       </c>
-    </row>
-    <row r="119" spans="1:13">
+      <c r="N118" s="18"/>
+    </row>
+    <row r="119" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A119" s="8" t="s">
         <v>117</v>
       </c>
@@ -5603,8 +6286,11 @@
       <c r="M119" s="15">
         <v>32.356543000000002</v>
       </c>
-    </row>
-    <row r="120" spans="1:13">
+      <c r="N119" s="18" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="120" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A120" s="8" t="s">
         <v>118</v>
       </c>
@@ -5645,8 +6331,11 @@
       <c r="M120" s="15">
         <v>36.505336999999997</v>
       </c>
-    </row>
-    <row r="121" spans="1:13">
+      <c r="N120" s="18" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="121" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A121" s="8" t="s">
         <v>119</v>
       </c>
@@ -5687,8 +6376,11 @@
       <c r="M121" s="15">
         <v>29.305698</v>
       </c>
-    </row>
-    <row r="122" spans="1:13">
+      <c r="N121" s="18" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="122" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A122" s="8" t="s">
         <v>120</v>
       </c>
@@ -5729,8 +6421,11 @@
       <c r="M122" s="15">
         <v>26.236792000000001</v>
       </c>
-    </row>
-    <row r="123" spans="1:13">
+      <c r="N122" s="18" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="123" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A123" s="8" t="s">
         <v>121</v>
       </c>
@@ -5758,8 +6453,11 @@
         <v>1.9170053039999999</v>
       </c>
       <c r="M123" s="15"/>
-    </row>
-    <row r="124" spans="1:13">
+      <c r="N123" s="18" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="124" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A124" s="8" t="s">
         <v>122</v>
       </c>
@@ -5800,8 +6498,11 @@
       <c r="M124" s="15">
         <v>33.180988999999997</v>
       </c>
-    </row>
-    <row r="125" spans="1:13">
+      <c r="N124" s="18" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="125" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A125" s="8" t="s">
         <v>123</v>
       </c>
@@ -5838,8 +6539,11 @@
       <c r="M125" s="15">
         <v>12.444495999999999</v>
       </c>
-    </row>
-    <row r="126" spans="1:13">
+      <c r="N125" s="18" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="126" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A126" s="8" t="s">
         <v>124</v>
       </c>
@@ -5876,8 +6580,11 @@
       <c r="M126" s="15">
         <v>44.237478000000003</v>
       </c>
-    </row>
-    <row r="127" spans="1:13">
+      <c r="N126" s="18" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="127" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A127" s="8" t="s">
         <v>125</v>
       </c>
@@ -5918,8 +6625,11 @@
       <c r="M127" s="15">
         <v>27.700901999999999</v>
       </c>
-    </row>
-    <row r="128" spans="1:13">
+      <c r="N127" s="18" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="128" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A128" s="8" t="s">
         <v>126</v>
       </c>
@@ -5948,8 +6658,9 @@
         <v>1.979137336</v>
       </c>
       <c r="M128" s="15"/>
-    </row>
-    <row r="129" spans="1:13">
+      <c r="N128" s="18"/>
+    </row>
+    <row r="129" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A129" s="8" t="s">
         <v>127</v>
       </c>
@@ -5984,8 +6695,11 @@
       <c r="M129" s="15">
         <v>20.6</v>
       </c>
-    </row>
-    <row r="130" spans="1:13">
+      <c r="N129" s="18" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="130" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A130" s="8" t="s">
         <v>128</v>
       </c>
@@ -6022,8 +6736,11 @@
       <c r="M130" s="15">
         <v>11.390269</v>
       </c>
-    </row>
-    <row r="131" spans="1:13">
+      <c r="N130" s="18" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="131" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A131" s="8" t="s">
         <v>129</v>
       </c>
@@ -6064,8 +6781,11 @@
       <c r="M131" s="15">
         <v>17.834917999999998</v>
       </c>
-    </row>
-    <row r="132" spans="1:13">
+      <c r="N131" s="18" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="132" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A132" s="8" t="s">
         <v>130</v>
       </c>
@@ -6102,8 +6822,11 @@
       <c r="M132" s="15">
         <v>18.763441</v>
       </c>
-    </row>
-    <row r="133" spans="1:13">
+      <c r="N132" s="18" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="133" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A133" s="8" t="s">
         <v>131</v>
       </c>
@@ -6138,8 +6861,11 @@
       <c r="M133" s="15">
         <v>26.147864999999999</v>
       </c>
-    </row>
-    <row r="134" spans="1:13">
+      <c r="N133" s="18" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="134" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A134" s="8" t="s">
         <v>132</v>
       </c>
@@ -6176,8 +6902,11 @@
       <c r="M134" s="15">
         <v>29.614932</v>
       </c>
-    </row>
-    <row r="135" spans="1:13">
+      <c r="N134" s="18" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="135" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A135" s="8" t="s">
         <v>133</v>
       </c>
@@ -6214,8 +6943,11 @@
       <c r="M135" s="15">
         <v>25.301887000000001</v>
       </c>
-    </row>
-    <row r="136" spans="1:13">
+      <c r="N135" s="18" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="136" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A136" s="8" t="s">
         <v>134</v>
       </c>
@@ -6250,8 +6982,11 @@
       <c r="M136" s="15">
         <v>20.373964000000001</v>
       </c>
-    </row>
-    <row r="137" spans="1:13">
+      <c r="N136" s="18" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="137" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A137" s="8" t="s">
         <v>135</v>
       </c>
@@ -6288,8 +7023,11 @@
       <c r="M137" s="15">
         <v>12.676283</v>
       </c>
-    </row>
-    <row r="138" spans="1:13">
+      <c r="N137" s="18" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="138" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A138" s="8" t="s">
         <v>136</v>
       </c>
@@ -6326,8 +7064,11 @@
       <c r="M138" s="15">
         <v>30.859074</v>
       </c>
-    </row>
-    <row r="139" spans="1:13">
+      <c r="N138" s="18" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="139" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A139" s="8" t="s">
         <v>137</v>
       </c>
@@ -6364,8 +7105,9 @@
       <c r="M139" s="15">
         <v>9.2430889999999994</v>
       </c>
-    </row>
-    <row r="140" spans="1:13">
+      <c r="N139" s="18"/>
+    </row>
+    <row r="140" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A140" s="8" t="s">
         <v>138</v>
       </c>
@@ -6406,8 +7148,11 @@
       <c r="M140" s="15">
         <v>32.734135000000002</v>
       </c>
-    </row>
-    <row r="141" spans="1:13">
+      <c r="N140" s="18" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="141" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A141" s="8" t="s">
         <v>139</v>
       </c>
@@ -6444,8 +7189,11 @@
       <c r="M141" s="15">
         <v>25.773724000000001</v>
       </c>
-    </row>
-    <row r="142" spans="1:13">
+      <c r="N141" s="18" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="142" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A142" s="8" t="s">
         <v>140</v>
       </c>
@@ -6486,8 +7234,11 @@
       <c r="M142" s="15">
         <v>34.229075999999999</v>
       </c>
-    </row>
-    <row r="143" spans="1:13">
+      <c r="N142" s="18" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="143" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A143" s="8" t="s">
         <v>141</v>
       </c>
@@ -6524,8 +7275,11 @@
       <c r="M143" s="15">
         <v>26.204868999999999</v>
       </c>
-    </row>
-    <row r="144" spans="1:13">
+      <c r="N143" s="18" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="144" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A144" s="8" t="s">
         <v>142</v>
       </c>
@@ -6560,8 +7314,11 @@
       <c r="M144" s="15">
         <v>20.279105000000001</v>
       </c>
-    </row>
-    <row r="145" spans="1:13">
+      <c r="N144" s="18" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="145" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A145" s="8" t="s">
         <v>143</v>
       </c>
@@ -6598,8 +7355,11 @@
       <c r="M145" s="15">
         <v>17.944656999999999</v>
       </c>
-    </row>
-    <row r="146" spans="1:13">
+      <c r="N145" s="18" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="146" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A146" s="8" t="s">
         <v>144</v>
       </c>
@@ -6634,13 +7394,16 @@
       <c r="M146" s="15">
         <v>7.0387729999999999</v>
       </c>
-    </row>
-    <row r="147" spans="1:13">
+      <c r="N146" s="18" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="147" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A147" s="8" t="s">
         <v>145</v>
       </c>
       <c r="B147" s="9">
-        <v>3.9327774047851562</v>
+        <v>3.9327774047851563</v>
       </c>
       <c r="C147" s="9">
         <f t="shared" si="2"/>
@@ -6670,8 +7433,11 @@
       <c r="M147" s="15">
         <v>12.970041</v>
       </c>
-    </row>
-    <row r="148" spans="1:13">
+      <c r="N147" s="18" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="148" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A148" s="8" t="s">
         <v>146</v>
       </c>
@@ -6708,6 +7474,9 @@
       <c r="M148" s="15">
         <v>27.182075999999999</v>
       </c>
+      <c r="N148" s="18" t="s">
+        <v>256</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data_tables/Total_data_cleaned.xlsx
+++ b/data_tables/Total_data_cleaned.xlsx
@@ -1,37 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Simon\Documents\projects\datamining\DataMining-Group23\data_tables\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ulrikaeriksson/Documents/Data_Mining/DataMining-Group23/data_tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17818FF5-08B4-4AED-B436-C5F4BB978910}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F0785A5-EFD7-FC49-9C3C-06175E1673C0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{196242FC-4F62-234C-ABAE-90D7B6224D3F}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="19420" windowHeight="13380" xr2:uid="{196242FC-4F62-234C-ABAE-90D7B6224D3F}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="163">
   <si>
     <t>Afghanistan</t>
   </si>
@@ -516,317 +510,17 @@
     <t>Economic inequality</t>
   </si>
   <si>
-    <t>27.8</t>
-  </si>
-  <si>
-    <t>29.0</t>
-  </si>
-  <si>
-    <t>27.6</t>
-  </si>
-  <si>
-    <t>42.4</t>
-  </si>
-  <si>
-    <t>32.4</t>
-  </si>
-  <si>
-    <t>34.7</t>
-  </si>
-  <si>
-    <t>30.5</t>
-  </si>
-  <si>
-    <t>31.8</t>
-  </si>
-  <si>
-    <t>32.0</t>
-  </si>
-  <si>
-    <t>26.7</t>
-  </si>
-  <si>
-    <t>28.1</t>
-  </si>
-  <si>
-    <t>47.8</t>
-  </si>
-  <si>
-    <t>45.8</t>
-  </si>
-  <si>
-    <t>33.1</t>
-  </si>
-  <si>
-    <t>60.5</t>
-  </si>
-  <si>
-    <t>46.9</t>
-  </si>
-  <si>
-    <t>37.4</t>
-  </si>
-  <si>
-    <t>35.3</t>
-  </si>
-  <si>
-    <t>30.8</t>
-  </si>
-  <si>
-    <t>46.5</t>
-  </si>
-  <si>
-    <t>34.0</t>
-  </si>
-  <si>
-    <t>56.2</t>
-  </si>
-  <si>
-    <t>43.3</t>
-  </si>
-  <si>
-    <t>47.7</t>
-  </si>
-  <si>
-    <t>38.6</t>
-  </si>
-  <si>
-    <t>50.8</t>
-  </si>
-  <si>
-    <t>42.1</t>
-  </si>
-  <si>
-    <t>40.2</t>
-  </si>
-  <si>
-    <t>48.7</t>
-  </si>
-  <si>
-    <t>32.2</t>
-  </si>
-  <si>
-    <t>35.6</t>
-  </si>
-  <si>
-    <t>25.9</t>
-  </si>
-  <si>
-    <t>28.5</t>
-  </si>
-  <si>
-    <t>45.3</t>
-  </si>
-  <si>
-    <t>34.6</t>
-  </si>
-  <si>
-    <t>33.2</t>
-  </si>
-  <si>
-    <t>26.8</t>
-  </si>
-  <si>
-    <t>32.3</t>
-  </si>
-  <si>
-    <t>47.3</t>
-  </si>
-  <si>
-    <t>36.5</t>
-  </si>
-  <si>
-    <t>31.4</t>
-  </si>
-  <si>
-    <t>42.8</t>
-  </si>
-  <si>
-    <t>35.8</t>
-  </si>
-  <si>
-    <t>33.7</t>
-  </si>
-  <si>
-    <t>60.8</t>
-  </si>
-  <si>
-    <t>30.9</t>
-  </si>
-  <si>
-    <t>25.6</t>
-  </si>
-  <si>
-    <t>35.7</t>
-  </si>
-  <si>
-    <t>38.1</t>
-  </si>
-  <si>
-    <t>38.8</t>
-  </si>
-  <si>
-    <t>29.5</t>
-  </si>
-  <si>
-    <t>31.9</t>
-  </si>
-  <si>
-    <t>41.4</t>
-  </si>
-  <si>
-    <t>41.7</t>
-  </si>
-  <si>
-    <t>45.5</t>
-  </si>
-  <si>
-    <t>32.1</t>
-  </si>
-  <si>
-    <t>35.4</t>
-  </si>
-  <si>
-    <t>26.5</t>
-  </si>
-  <si>
-    <t>37.9</t>
-  </si>
-  <si>
-    <t>35.1</t>
-  </si>
-  <si>
-    <t>54.2</t>
-  </si>
-  <si>
-    <t>37.7</t>
-  </si>
-  <si>
-    <t>31.2</t>
-  </si>
-  <si>
-    <t>40.6</t>
-  </si>
-  <si>
-    <t>46.1</t>
-  </si>
-  <si>
-    <t>33.0</t>
-  </si>
-  <si>
-    <t>43.4</t>
-  </si>
-  <si>
-    <t>26.3</t>
-  </si>
-  <si>
-    <t>40.7</t>
-  </si>
-  <si>
-    <t>45.6</t>
-  </si>
-  <si>
-    <t>59.1</t>
-  </si>
-  <si>
-    <t>32.8</t>
-  </si>
-  <si>
-    <t>28.6</t>
-  </si>
-  <si>
-    <t>46.6</t>
-  </si>
-  <si>
-    <t>43.0</t>
-  </si>
-  <si>
-    <t>30.7</t>
-  </si>
-  <si>
-    <t>35.5</t>
-  </si>
-  <si>
-    <t>50.4</t>
-  </si>
-  <si>
-    <t>47.9</t>
-  </si>
-  <si>
-    <t>43.8</t>
-  </si>
-  <si>
-    <t>40.1</t>
-  </si>
-  <si>
-    <t>27.5</t>
-  </si>
-  <si>
-    <t>45.9</t>
-  </si>
-  <si>
-    <t>40.3</t>
-  </si>
-  <si>
-    <t>29.1</t>
-  </si>
-  <si>
-    <t>26.1</t>
-  </si>
-  <si>
-    <t>25.7</t>
-  </si>
-  <si>
-    <t>63.0</t>
-  </si>
-  <si>
-    <t>31.6</t>
-  </si>
-  <si>
-    <t>36.0</t>
-  </si>
-  <si>
-    <t>39.8</t>
-  </si>
-  <si>
-    <t>27.2</t>
-  </si>
-  <si>
-    <t>32.5</t>
-  </si>
-  <si>
-    <t>37.8</t>
-  </si>
-  <si>
-    <t>41.9</t>
-  </si>
-  <si>
-    <t>43.2</t>
-  </si>
-  <si>
-    <t>25.5</t>
-  </si>
-  <si>
-    <t>34.1</t>
-  </si>
-  <si>
-    <t>41.5</t>
-  </si>
-  <si>
-    <t>39.7</t>
-  </si>
-  <si>
-    <t>36.7</t>
-  </si>
-  <si>
-    <t>57.1</t>
+    <t>Indivduals using internet %</t>
+  </si>
+  <si>
+    <t>Total value of export (% of GDP)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -870,7 +564,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -893,14 +587,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF8F9FA"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="4">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -936,28 +624,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFA2A9B1"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFA2A9B1"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFA2A9B1"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFA2A9B1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1000,7 +673,8 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Dålig" xfId="1" builtinId="27"/>
@@ -1317,13 +991,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67CF83BE-F021-5E44-A4B8-2C5D9BB127DA}">
-  <dimension ref="A1:N148"/>
+  <dimension ref="A1:P148"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="O3" sqref="O3"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="12.1640625" style="8" customWidth="1"/>
     <col min="2" max="2" width="17.1640625" style="9" customWidth="1"/>
@@ -1331,13 +1005,14 @@
     <col min="4" max="4" width="21.33203125" style="9" customWidth="1"/>
     <col min="5" max="5" width="10.83203125" style="6" customWidth="1"/>
     <col min="6" max="6" width="18.5" style="6" customWidth="1"/>
-    <col min="7" max="7" width="19.6640625" style="6" customWidth="1"/>
-    <col min="8" max="8" width="20.6640625" style="6" customWidth="1"/>
+    <col min="7" max="7" width="16" style="6" customWidth="1"/>
+    <col min="8" max="8" width="13.83203125" style="6" customWidth="1"/>
     <col min="9" max="9" width="14.6640625" customWidth="1"/>
-    <col min="13" max="13" width="21.58203125" customWidth="1"/>
+    <col min="13" max="13" width="21.5" customWidth="1"/>
+    <col min="14" max="14" width="10.6640625" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:16" ht="34">
       <c r="A1" s="1" t="s">
         <v>147</v>
       </c>
@@ -1377,11 +1052,17 @@
       <c r="M1" s="16" t="s">
         <v>159</v>
       </c>
-      <c r="N1" s="17" t="s">
+      <c r="N1" s="1" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="O1" s="13" t="s">
+        <v>161</v>
+      </c>
+      <c r="P1" s="17" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
       <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
@@ -1415,11 +1096,17 @@
       <c r="M2" s="15">
         <v>9.1248640000000005</v>
       </c>
-      <c r="N2" s="18" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="N2" s="18">
+        <v>27.8</v>
+      </c>
+      <c r="O2">
+        <v>6.39</v>
+      </c>
+      <c r="P2">
+        <v>3.66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
       <c r="A3" s="8" t="s">
         <v>1</v>
       </c>
@@ -1456,11 +1143,17 @@
       <c r="M3" s="15">
         <v>23.52533</v>
       </c>
-      <c r="N3" s="18" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="N3" s="18">
+        <v>29</v>
+      </c>
+      <c r="O3">
+        <v>60.1</v>
+      </c>
+      <c r="P3">
+        <v>17.61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
       <c r="A4" s="8" t="s">
         <v>2</v>
       </c>
@@ -1497,11 +1190,17 @@
       <c r="M4" s="15">
         <v>14.162544</v>
       </c>
-      <c r="N4" s="18" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="N4" s="18">
+        <v>27.6</v>
+      </c>
+      <c r="O4">
+        <v>18.09</v>
+      </c>
+      <c r="P4">
+        <v>29.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
       <c r="A5" s="8" t="s">
         <v>3</v>
       </c>
@@ -1542,11 +1241,17 @@
       <c r="M5" s="15">
         <v>30.661214999999999</v>
       </c>
-      <c r="N5" s="18" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="N5" s="18">
+        <v>42.4</v>
+      </c>
+      <c r="O5">
+        <v>64.7</v>
+      </c>
+      <c r="P5">
+        <v>13.49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
       <c r="A6" s="8" t="s">
         <v>4</v>
       </c>
@@ -1583,11 +1288,17 @@
       <c r="M6" s="15">
         <v>21.761512</v>
       </c>
-      <c r="N6" s="18" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="N6" s="18">
+        <v>32.4</v>
+      </c>
+      <c r="O6">
+        <v>46.3</v>
+      </c>
+      <c r="P6">
+        <v>13.47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
       <c r="A7" s="8" t="s">
         <v>5</v>
       </c>
@@ -1628,11 +1339,17 @@
       <c r="M7" s="15">
         <v>28.578520000000001</v>
       </c>
-      <c r="N7" s="18" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="N7" s="18">
+        <v>34.700000000000003</v>
+      </c>
+      <c r="O7">
+        <v>84.56</v>
+      </c>
+      <c r="P7">
+        <v>16.88</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
       <c r="A8" s="8" t="s">
         <v>6</v>
       </c>
@@ -1673,11 +1390,17 @@
       <c r="M8" s="15">
         <v>41.884256999999998</v>
       </c>
-      <c r="N8" s="18" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="N8" s="18">
+        <v>30.5</v>
+      </c>
+      <c r="O8">
+        <v>81</v>
+      </c>
+      <c r="P8">
+        <v>41.32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
       <c r="A9" s="8" t="s">
         <v>7</v>
       </c>
@@ -1718,11 +1441,17 @@
       <c r="M9" s="15">
         <v>16.506067999999999</v>
       </c>
-      <c r="N9" s="18" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="N9" s="18">
+        <v>31.8</v>
+      </c>
+      <c r="O9">
+        <v>61</v>
+      </c>
+      <c r="P9">
+        <v>39.1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
       <c r="A10" s="8" t="s">
         <v>8</v>
       </c>
@@ -1758,8 +1487,14 @@
         <v>1.0698810000000001</v>
       </c>
       <c r="N10" s="18"/>
-    </row>
-    <row r="11" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="O10">
+        <v>91</v>
+      </c>
+      <c r="P10">
+        <v>109.52</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
       <c r="A11" s="8" t="s">
         <v>9</v>
       </c>
@@ -1796,11 +1531,17 @@
       <c r="M11" s="15">
         <v>8.1908390000000004</v>
       </c>
-      <c r="N11" s="18" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="N11" s="18">
+        <v>32</v>
+      </c>
+      <c r="O11">
+        <v>9.6</v>
+      </c>
+      <c r="P11">
+        <v>17.649999999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
       <c r="A12" s="8" t="s">
         <v>10</v>
       </c>
@@ -1841,11 +1582,17 @@
       <c r="M12" s="15">
         <v>35.748614000000003</v>
       </c>
-      <c r="N12" s="18" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="N12" s="18">
+        <v>26.7</v>
+      </c>
+      <c r="O12">
+        <v>59.02</v>
+      </c>
+      <c r="P12">
+        <v>47.36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
       <c r="A13" s="8" t="s">
         <v>11</v>
       </c>
@@ -1886,11 +1633,17 @@
       <c r="M13" s="15">
         <v>43.875816</v>
       </c>
-      <c r="N13" s="18" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="N13" s="18">
+        <v>28.1</v>
+      </c>
+      <c r="O13">
+        <v>85</v>
+      </c>
+      <c r="P13">
+        <v>86.17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
       <c r="A14" s="8" t="s">
         <v>12</v>
       </c>
@@ -1927,11 +1680,17 @@
       <c r="M14" s="15">
         <v>15.888945</v>
       </c>
-      <c r="N14" s="18" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="N14" s="18">
+        <v>47.8</v>
+      </c>
+      <c r="O14">
+        <v>5.3</v>
+      </c>
+      <c r="P14">
+        <v>20.99</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
       <c r="A15" s="8" t="s">
         <v>13</v>
       </c>
@@ -1970,11 +1729,17 @@
       <c r="M15" s="15">
         <v>26.203921000000001</v>
       </c>
-      <c r="N15" s="18" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="N15" s="18">
+        <v>45.8</v>
+      </c>
+      <c r="O15">
+        <v>39.020000000000003</v>
+      </c>
+      <c r="P15">
+        <v>39.04</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
       <c r="A16" s="8" t="s">
         <v>14</v>
       </c>
@@ -2011,11 +1776,17 @@
       <c r="M16" s="15">
         <v>37.572918999999999</v>
       </c>
-      <c r="N16" s="18" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="N16" s="18">
+        <v>33.1</v>
+      </c>
+      <c r="O16">
+        <v>60.8</v>
+      </c>
+      <c r="P16">
+        <v>31.81</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
       <c r="A17" s="8" t="s">
         <v>15</v>
       </c>
@@ -2052,11 +1823,17 @@
       <c r="M17" s="15">
         <v>20.871931</v>
       </c>
-      <c r="N17" s="18" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="N17" s="18">
+        <v>60.5</v>
+      </c>
+      <c r="O17">
+        <v>18.5</v>
+      </c>
+      <c r="P17">
+        <v>49.12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
       <c r="A18" s="8" t="s">
         <v>16</v>
       </c>
@@ -2097,11 +1874,17 @@
       <c r="M18" s="15">
         <v>33.713017999999998</v>
       </c>
-      <c r="N18" s="18" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="N18" s="18">
+        <v>46.9</v>
+      </c>
+      <c r="O18">
+        <v>57.6</v>
+      </c>
+      <c r="P18">
+        <v>9.98</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
       <c r="A19" s="8" t="s">
         <v>17</v>
       </c>
@@ -2142,11 +1925,17 @@
       <c r="M19" s="15">
         <v>28.800666</v>
       </c>
-      <c r="N19" s="18" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="N19" s="18">
+        <v>37.4</v>
+      </c>
+      <c r="O19">
+        <v>55.49</v>
+      </c>
+      <c r="P19">
+        <v>50.77</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16">
       <c r="A20" s="8" t="s">
         <v>18</v>
       </c>
@@ -2187,11 +1976,17 @@
       <c r="M20" s="15">
         <v>16.652574000000001</v>
       </c>
-      <c r="N20" s="18" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="N20" s="18">
+        <v>35.299999999999997</v>
+      </c>
+      <c r="O20">
+        <v>9.4</v>
+      </c>
+      <c r="P20">
+        <v>19.41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16">
       <c r="A21" s="8" t="s">
         <v>19</v>
       </c>
@@ -2228,11 +2023,17 @@
       <c r="M21" s="15">
         <v>14.825889999999999</v>
       </c>
-      <c r="N21" s="18" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="N21" s="18">
+        <v>30.8</v>
+      </c>
+      <c r="O21">
+        <v>9</v>
+      </c>
+      <c r="P21">
+        <v>69.849999999999994</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16">
       <c r="A22" s="8" t="s">
         <v>20</v>
       </c>
@@ -2267,11 +2068,17 @@
       <c r="M22" s="15">
         <v>13.376192</v>
       </c>
-      <c r="N22" s="18" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="N22" s="18">
+        <v>46.5</v>
+      </c>
+      <c r="O22">
+        <v>11</v>
+      </c>
+      <c r="P22">
+        <v>17.920000000000002</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16">
       <c r="A23" s="8" t="s">
         <v>21</v>
       </c>
@@ -2312,11 +2119,17 @@
       <c r="M23" s="15">
         <v>32.830274000000003</v>
       </c>
-      <c r="N23" s="18" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="N23" s="18">
+        <v>34</v>
+      </c>
+      <c r="O23">
+        <v>87.12</v>
+      </c>
+      <c r="P23">
+        <v>26.61</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16">
       <c r="A24" s="8" t="s">
         <v>22</v>
       </c>
@@ -2351,16 +2164,19 @@
       <c r="M24" s="15">
         <v>9.6534659999999999</v>
       </c>
-      <c r="N24" s="18" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="N24" s="18">
+        <v>56.2</v>
+      </c>
+      <c r="P24">
+        <v>5.92</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16">
       <c r="A25" s="8" t="s">
         <v>23</v>
       </c>
       <c r="B25" s="9">
-        <v>4.5589370727539063</v>
+        <v>4.5589370727539062</v>
       </c>
       <c r="C25" s="9">
         <f t="shared" si="0"/>
@@ -2390,11 +2206,17 @@
       <c r="M25" s="15">
         <v>5.6650309999999999</v>
       </c>
-      <c r="N25" s="18" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="N25" s="18">
+        <v>43.3</v>
+      </c>
+      <c r="O25">
+        <v>2.5</v>
+      </c>
+      <c r="P25">
+        <v>30.17</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16">
       <c r="A26" s="8" t="s">
         <v>24</v>
       </c>
@@ -2431,11 +2253,17 @@
       <c r="M26" s="15">
         <v>17.409112</v>
       </c>
-      <c r="N26" s="18" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="N26" s="18">
+        <v>47.7</v>
+      </c>
+      <c r="O26">
+        <v>72.349999999999994</v>
+      </c>
+      <c r="P26">
+        <v>29.85</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16">
       <c r="A27" s="8" t="s">
         <v>25</v>
       </c>
@@ -2473,11 +2301,17 @@
       <c r="M27" s="15">
         <v>23.790354000000001</v>
       </c>
-      <c r="N27" s="18" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="N27" s="18">
+        <v>38.6</v>
+      </c>
+      <c r="O27">
+        <v>49.3</v>
+      </c>
+      <c r="P27">
+        <v>22.89</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16">
       <c r="A28" s="8" t="s">
         <v>26</v>
       </c>
@@ -2518,11 +2352,17 @@
       <c r="M28" s="15">
         <v>19.211746000000002</v>
       </c>
-      <c r="N28" s="18" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="N28" s="18">
+        <v>50.8</v>
+      </c>
+      <c r="O28">
+        <v>52.57</v>
+      </c>
+      <c r="P28">
+        <v>15.76</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16">
       <c r="A29" s="8" t="s">
         <v>27</v>
       </c>
@@ -2556,11 +2396,17 @@
       <c r="M29" s="15">
         <v>17.503682999999999</v>
       </c>
-      <c r="N29" s="18" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="N29" s="18">
+        <v>42.1</v>
+      </c>
+      <c r="O29">
+        <v>7.11</v>
+      </c>
+      <c r="P29">
+        <v>73.41</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16">
       <c r="A30" s="8" t="s">
         <v>28</v>
       </c>
@@ -2595,11 +2441,17 @@
       <c r="M30" s="15">
         <v>7.1134009999999996</v>
       </c>
-      <c r="N30" s="18" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="N30" s="18">
+        <v>40.200000000000003</v>
+      </c>
+      <c r="O30">
+        <v>3</v>
+      </c>
+      <c r="P30">
+        <v>20.83</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16">
       <c r="A31" s="8" t="s">
         <v>29</v>
       </c>
@@ -2640,11 +2492,17 @@
       <c r="M31" s="15">
         <v>13.854123</v>
       </c>
-      <c r="N31" s="18" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="N31" s="18">
+        <v>48.7</v>
+      </c>
+      <c r="O31">
+        <v>49.41</v>
+      </c>
+      <c r="P31">
+        <v>65.84</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16">
       <c r="A32" s="8" t="s">
         <v>30</v>
       </c>
@@ -2685,11 +2543,17 @@
       <c r="M32" s="15">
         <v>35.163044999999997</v>
       </c>
-      <c r="N32" s="18" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="N32" s="18">
+        <v>32.200000000000003</v>
+      </c>
+      <c r="O32">
+        <v>68.569999999999993</v>
+      </c>
+      <c r="P32">
+        <v>23.94</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16">
       <c r="A33" s="8" t="s">
         <v>31</v>
       </c>
@@ -2730,11 +2594,17 @@
       <c r="M33" s="15">
         <v>23.997837000000001</v>
       </c>
-      <c r="N33" s="18" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="N33" s="18">
+        <v>35.6</v>
+      </c>
+      <c r="O33">
+        <v>69.33</v>
+      </c>
+      <c r="P33">
+        <v>16.059999999999999</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16">
       <c r="A34" s="8" t="s">
         <v>32</v>
       </c>
@@ -2771,11 +2641,17 @@
       <c r="M34" s="15">
         <v>34.068710000000003</v>
       </c>
-      <c r="N34" s="18" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="N34" s="18">
+        <v>25.9</v>
+      </c>
+      <c r="O34">
+        <v>79.709999999999994</v>
+      </c>
+      <c r="P34">
+        <v>83.7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16">
       <c r="A35" s="8" t="s">
         <v>33</v>
       </c>
@@ -2812,11 +2688,17 @@
       <c r="M35" s="15">
         <v>45.43515</v>
       </c>
-      <c r="N35" s="18" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="N35" s="18">
+        <v>28.5</v>
+      </c>
+      <c r="O35">
+        <v>95.99</v>
+      </c>
+      <c r="P35">
+        <v>31.23</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16">
       <c r="A36" s="8" t="s">
         <v>34</v>
       </c>
@@ -2857,11 +2739,17 @@
       <c r="M36" s="15">
         <v>13.509418</v>
       </c>
-      <c r="N36" s="18" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="N36" s="18">
+        <v>45.3</v>
+      </c>
+      <c r="O36">
+        <v>49.58</v>
+      </c>
+      <c r="P36">
+        <v>16.440000000000001</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16">
       <c r="A37" s="8" t="s">
         <v>35</v>
       </c>
@@ -2901,8 +2789,14 @@
       <c r="N37" s="18">
         <v>45</v>
       </c>
-    </row>
-    <row r="38" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="O37">
+        <v>43</v>
+      </c>
+      <c r="P37">
+        <v>27.59</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16">
       <c r="A38" s="8" t="s">
         <v>36</v>
       </c>
@@ -2937,11 +2831,17 @@
         <v>1.446643887</v>
       </c>
       <c r="M38" s="15"/>
-      <c r="N38" s="18" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="N38" s="18">
+        <v>31.8</v>
+      </c>
+      <c r="O38">
+        <v>31.7</v>
+      </c>
+      <c r="P38">
+        <v>10.57</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16">
       <c r="A39" s="8" t="s">
         <v>37</v>
       </c>
@@ -2981,8 +2881,14 @@
       <c r="N39" s="18">
         <v>40</v>
       </c>
-    </row>
-    <row r="40" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="O39">
+        <v>29.7</v>
+      </c>
+      <c r="P39">
+        <v>21.38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16">
       <c r="A40" s="8" t="s">
         <v>38</v>
       </c>
@@ -3023,11 +2929,17 @@
       <c r="M40" s="15">
         <v>33.730350999999999</v>
       </c>
-      <c r="N40" s="18" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="41" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="N40" s="18">
+        <v>34.6</v>
+      </c>
+      <c r="O40">
+        <v>84.24</v>
+      </c>
+      <c r="P40">
+        <v>61.46</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16">
       <c r="A41" s="8" t="s">
         <v>39</v>
       </c>
@@ -3062,11 +2974,17 @@
         <v>2.616682548</v>
       </c>
       <c r="M41" s="15"/>
-      <c r="N41" s="18" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="42" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="N41" s="18">
+        <v>33.200000000000003</v>
+      </c>
+      <c r="O41">
+        <v>2.9</v>
+      </c>
+      <c r="P41">
+        <v>4.68</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16">
       <c r="A42" s="8" t="s">
         <v>40</v>
       </c>
@@ -3107,11 +3025,17 @@
       <c r="M42" s="15">
         <v>44.017195000000001</v>
       </c>
-      <c r="N42" s="18" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="43" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="N42" s="18">
+        <v>26.8</v>
+      </c>
+      <c r="O42">
+        <v>92.38</v>
+      </c>
+      <c r="P42">
+        <v>28.35</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16">
       <c r="A43" s="8" t="s">
         <v>41</v>
       </c>
@@ -3152,11 +3076,17 @@
       <c r="M43" s="15">
         <v>45.277869000000003</v>
       </c>
-      <c r="N43" s="18" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="44" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="N43" s="18">
+        <v>32.299999999999997</v>
+      </c>
+      <c r="O43">
+        <v>83.75</v>
+      </c>
+      <c r="P43">
+        <v>21.14</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16">
       <c r="A44" s="8" t="s">
         <v>42</v>
       </c>
@@ -3191,8 +3121,14 @@
       <c r="N44" s="18">
         <v>38</v>
       </c>
-    </row>
-    <row r="45" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="O44">
+        <v>9.81</v>
+      </c>
+      <c r="P44">
+        <v>51.19</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16">
       <c r="A45" s="8" t="s">
         <v>43</v>
       </c>
@@ -3226,11 +3162,17 @@
       <c r="M45" s="15">
         <v>11.14148</v>
       </c>
-      <c r="N45" s="18" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="46" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="N45" s="18">
+        <v>47.3</v>
+      </c>
+      <c r="O45">
+        <v>15.56</v>
+      </c>
+      <c r="P45">
+        <v>13.04</v>
+      </c>
+    </row>
+    <row r="46" spans="1:16">
       <c r="A46" s="8" t="s">
         <v>44</v>
       </c>
@@ -3271,11 +3213,17 @@
       <c r="M46" s="15">
         <v>25.819448000000001</v>
       </c>
-      <c r="N46" s="18" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="47" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="N46" s="18">
+        <v>36.5</v>
+      </c>
+      <c r="O46">
+        <v>48.9</v>
+      </c>
+      <c r="P46">
+        <v>17.329999999999998</v>
+      </c>
+    </row>
+    <row r="47" spans="1:16">
       <c r="A47" s="8" t="s">
         <v>45</v>
       </c>
@@ -3316,11 +3264,17 @@
       <c r="M47" s="15">
         <v>37.430619999999998</v>
       </c>
-      <c r="N47" s="18" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="48" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="N47" s="18">
+        <v>31.4</v>
+      </c>
+      <c r="O47">
+        <v>86.19</v>
+      </c>
+      <c r="P47">
+        <v>37.61</v>
+      </c>
+    </row>
+    <row r="48" spans="1:16">
       <c r="A48" s="8" t="s">
         <v>46</v>
       </c>
@@ -3361,11 +3315,17 @@
       <c r="M48" s="15">
         <v>12.377316</v>
       </c>
-      <c r="N48" s="18" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="49" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="N48" s="18">
+        <v>42.8</v>
+      </c>
+      <c r="O48">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="P48">
+        <v>25.55</v>
+      </c>
+    </row>
+    <row r="49" spans="1:16">
       <c r="A49" s="8" t="s">
         <v>47</v>
       </c>
@@ -3406,11 +3366,17 @@
       <c r="M49" s="15">
         <v>38.338583999999997</v>
       </c>
-      <c r="N49" s="18" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="50" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="N49" s="18">
+        <v>35.799999999999997</v>
+      </c>
+      <c r="O49">
+        <v>63.21</v>
+      </c>
+      <c r="P49">
+        <v>14.93</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16">
       <c r="A50" s="8" t="s">
         <v>48</v>
       </c>
@@ -3445,11 +3411,17 @@
       <c r="M50" s="15">
         <v>10.78232</v>
       </c>
-      <c r="N50" s="18" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="51" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="N50" s="18">
+        <v>48.7</v>
+      </c>
+      <c r="O50">
+        <v>23.4</v>
+      </c>
+      <c r="P50">
+        <v>19.440000000000001</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16">
       <c r="A51" s="8" t="s">
         <v>49</v>
       </c>
@@ -3484,11 +3456,17 @@
       <c r="M51" s="15">
         <v>14.030989</v>
       </c>
-      <c r="N51" s="18" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="52" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="N51" s="18">
+        <v>33.700000000000003</v>
+      </c>
+      <c r="O51">
+        <v>1.72</v>
+      </c>
+      <c r="P51">
+        <v>37.67</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16">
       <c r="A52" s="8" t="s">
         <v>50</v>
       </c>
@@ -3523,11 +3501,17 @@
       <c r="M52" s="15">
         <v>13.731528000000001</v>
       </c>
-      <c r="N52" s="18" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="53" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="N52" s="18">
+        <v>60.8</v>
+      </c>
+      <c r="O52">
+        <v>11.4</v>
+      </c>
+      <c r="P52">
+        <v>12.38</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16">
       <c r="A53" s="8" t="s">
         <v>51</v>
       </c>
@@ -3567,8 +3551,14 @@
       <c r="N53" s="18">
         <v>50</v>
       </c>
-    </row>
-    <row r="54" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="O53">
+        <v>19.079999999999998</v>
+      </c>
+      <c r="P53">
+        <v>44.73</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16">
       <c r="A54" s="8" t="s">
         <v>52</v>
       </c>
@@ -3596,8 +3586,14 @@
         <v>13.574933</v>
       </c>
       <c r="N54" s="18"/>
-    </row>
-    <row r="55" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="O54">
+        <v>74.56</v>
+      </c>
+      <c r="P54">
+        <v>162.75</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16">
       <c r="A55" s="8" t="s">
         <v>53</v>
       </c>
@@ -3638,11 +3634,17 @@
       <c r="M55" s="15">
         <v>39.148890999999999</v>
       </c>
-      <c r="N55" s="18" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="56" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="N55" s="18">
+        <v>30.9</v>
+      </c>
+      <c r="O55">
+        <v>76.13</v>
+      </c>
+      <c r="P55">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16">
       <c r="A56" s="8" t="s">
         <v>54</v>
       </c>
@@ -3676,11 +3678,17 @@
       <c r="M56" s="15">
         <v>36.789971000000001</v>
       </c>
-      <c r="N56" s="18" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="57" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="N56" s="18">
+        <v>25.6</v>
+      </c>
+      <c r="O56">
+        <v>98.16</v>
+      </c>
+      <c r="P56">
+        <v>31.55</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16">
       <c r="A57" s="8" t="s">
         <v>55</v>
       </c>
@@ -3717,11 +3725,17 @@
       <c r="M57" s="15">
         <v>17.577255000000001</v>
       </c>
-      <c r="N57" s="18" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="58" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="N57" s="18">
+        <v>35.700000000000003</v>
+      </c>
+      <c r="O57">
+        <v>18</v>
+      </c>
+      <c r="P57">
+        <v>15.36</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16">
       <c r="A58" s="8" t="s">
         <v>56</v>
       </c>
@@ -3758,11 +3772,17 @@
       <c r="M58" s="15">
         <v>10.361459</v>
       </c>
-      <c r="N58" s="18" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="59" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="N58" s="18">
+        <v>38.1</v>
+      </c>
+      <c r="O58">
+        <v>17.14</v>
+      </c>
+      <c r="P58">
+        <v>21.86</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16">
       <c r="A59" s="8" t="s">
         <v>57</v>
       </c>
@@ -3799,11 +3819,17 @@
       <c r="M59" s="15">
         <v>7.9746290000000002</v>
       </c>
-      <c r="N59" s="18" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="60" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="N59" s="18">
+        <v>38.799999999999997</v>
+      </c>
+      <c r="O59">
+        <v>39.35</v>
+      </c>
+      <c r="P59">
+        <v>20.25</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16">
       <c r="A60" s="8" t="s">
         <v>58</v>
       </c>
@@ -3838,11 +3864,17 @@
       <c r="M60" s="15">
         <v>1.3778090000000001</v>
       </c>
-      <c r="N60" s="18" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="61" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="N60" s="18">
+        <v>29.5</v>
+      </c>
+      <c r="O60">
+        <v>11.3</v>
+      </c>
+      <c r="P60">
+        <v>37.549999999999997</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16">
       <c r="A61" s="8" t="s">
         <v>59</v>
       </c>
@@ -3883,11 +3915,17 @@
       <c r="M61" s="15">
         <v>23.358557999999999</v>
       </c>
-      <c r="N61" s="18" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="62" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="N61" s="18">
+        <v>31.9</v>
+      </c>
+      <c r="O61">
+        <v>79.69</v>
+      </c>
+      <c r="P61">
+        <v>57.73</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16">
       <c r="A62" s="8" t="s">
         <v>60</v>
       </c>
@@ -3928,11 +3966,17 @@
       <c r="M62" s="15">
         <v>31.128926</v>
       </c>
-      <c r="N62" s="18" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="63" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="N62" s="18">
+        <v>41.4</v>
+      </c>
+      <c r="O62">
+        <v>71.45</v>
+      </c>
+      <c r="P62">
+        <v>22.56</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16">
       <c r="A63" s="8" t="s">
         <v>61</v>
       </c>
@@ -3973,11 +4017,17 @@
       <c r="M63" s="15">
         <v>42.385586000000004</v>
       </c>
-      <c r="N63" s="18" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="64" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="N63" s="18">
+        <v>34.700000000000003</v>
+      </c>
+      <c r="O63">
+        <v>61.96</v>
+      </c>
+      <c r="P63">
+        <v>24.39</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16">
       <c r="A64" s="8" t="s">
         <v>62</v>
       </c>
@@ -4012,11 +4062,17 @@
       <c r="M64" s="15">
         <v>16.017084000000001</v>
       </c>
-      <c r="N64" s="18" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="65" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="N64" s="18">
+        <v>41.7</v>
+      </c>
+      <c r="O64">
+        <v>14.6</v>
+      </c>
+      <c r="P64">
+        <v>37.4</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16">
       <c r="A65" s="8" t="s">
         <v>63</v>
       </c>
@@ -4057,11 +4113,17 @@
       <c r="M65" s="15">
         <v>25.114878999999998</v>
       </c>
-      <c r="N65" s="18" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="66" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="N65" s="18">
+        <v>45.5</v>
+      </c>
+      <c r="O65">
+        <v>40.5</v>
+      </c>
+      <c r="P65">
+        <v>10.43</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16">
       <c r="A66" s="8" t="s">
         <v>64</v>
       </c>
@@ -4102,16 +4164,22 @@
       <c r="M66" s="15">
         <v>30.777436000000002</v>
       </c>
-      <c r="N66" s="18" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="67" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="N66" s="18">
+        <v>32.1</v>
+      </c>
+      <c r="O66">
+        <v>90.58</v>
+      </c>
+      <c r="P66">
+        <v>15.6</v>
+      </c>
+    </row>
+    <row r="67" spans="1:16">
       <c r="A67" s="8" t="s">
         <v>65</v>
       </c>
       <c r="B67" s="9">
-        <v>4.8080825805664063</v>
+        <v>4.8080825805664062</v>
       </c>
       <c r="C67" s="9">
         <f t="shared" ref="C67:C130" si="1">ROUND(B67,0)</f>
@@ -4141,11 +4209,17 @@
       <c r="M67" s="15">
         <v>15.341718</v>
       </c>
-      <c r="N67" s="18" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="68" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="N67" s="18">
+        <v>35.4</v>
+      </c>
+      <c r="O67">
+        <v>44</v>
+      </c>
+      <c r="P67">
+        <v>23.71</v>
+      </c>
+    </row>
+    <row r="68" spans="1:16">
       <c r="A68" s="8" t="s">
         <v>66</v>
       </c>
@@ -4182,11 +4256,17 @@
       <c r="M68" s="15">
         <v>15.228497000000001</v>
       </c>
-      <c r="N68" s="18" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="69" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="N68" s="18">
+        <v>26.5</v>
+      </c>
+      <c r="O68">
+        <v>54.89</v>
+      </c>
+      <c r="P68">
+        <v>32.090000000000003</v>
+      </c>
+    </row>
+    <row r="69" spans="1:16">
       <c r="A69" s="8" t="s">
         <v>67</v>
       </c>
@@ -4223,11 +4303,17 @@
       <c r="M69" s="15">
         <v>15.800242000000001</v>
       </c>
-      <c r="N69" s="18" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="70" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="N69" s="18">
+        <v>47.7</v>
+      </c>
+      <c r="O69">
+        <v>43.4</v>
+      </c>
+      <c r="P69">
+        <v>11.93</v>
+      </c>
+    </row>
+    <row r="70" spans="1:16">
       <c r="A70" s="8" t="s">
         <v>68</v>
       </c>
@@ -4256,11 +4342,11 @@
       <c r="M70" s="15">
         <v>23.459638000000002</v>
       </c>
-      <c r="N70" s="18" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="71" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="N70" s="18">
+        <v>26.5</v>
+      </c>
+    </row>
+    <row r="71" spans="1:16">
       <c r="A71" s="8" t="s">
         <v>69</v>
       </c>
@@ -4298,8 +4384,14 @@
         <v>1.5125850000000001</v>
       </c>
       <c r="N71" s="18"/>
-    </row>
-    <row r="72" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="O71">
+        <v>78.7</v>
+      </c>
+      <c r="P71">
+        <v>57.49</v>
+      </c>
+    </row>
+    <row r="72" spans="1:16">
       <c r="A72" s="8" t="s">
         <v>70</v>
       </c>
@@ -4336,11 +4428,17 @@
       <c r="M72" s="15">
         <v>25.102250000000002</v>
       </c>
-      <c r="N72" s="18" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="73" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="N72" s="18">
+        <v>26.8</v>
+      </c>
+      <c r="O72">
+        <v>28.3</v>
+      </c>
+      <c r="P72">
+        <v>16.59</v>
+      </c>
+    </row>
+    <row r="73" spans="1:16">
       <c r="A73" s="8" t="s">
         <v>71</v>
       </c>
@@ -4377,11 +4475,17 @@
       <c r="M73" s="15">
         <v>12.428921000000001</v>
       </c>
-      <c r="N73" s="18" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="74" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="N73" s="18">
+        <v>37.9</v>
+      </c>
+      <c r="O73">
+        <v>14.26</v>
+      </c>
+      <c r="P73">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="74" spans="1:16">
       <c r="A74" s="8" t="s">
         <v>72</v>
       </c>
@@ -4422,11 +4526,17 @@
       <c r="M74" s="15">
         <v>30.234611000000001</v>
       </c>
-      <c r="N74" s="18" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="75" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="N74" s="18">
+        <v>35.1</v>
+      </c>
+      <c r="O74">
+        <v>75.83</v>
+      </c>
+      <c r="P74">
+        <v>45.97</v>
+      </c>
+    </row>
+    <row r="75" spans="1:16">
       <c r="A75" s="8" t="s">
         <v>73</v>
       </c>
@@ -4464,8 +4574,14 @@
         <v>13.693778999999999</v>
       </c>
       <c r="N75" s="18"/>
-    </row>
-    <row r="76" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="O75">
+        <v>74.7</v>
+      </c>
+      <c r="P75">
+        <v>7.61</v>
+      </c>
+    </row>
+    <row r="76" spans="1:16">
       <c r="A76" s="8" t="s">
         <v>74</v>
       </c>
@@ -4499,11 +4615,17 @@
       <c r="M76" s="15">
         <v>26.536635</v>
       </c>
-      <c r="N76" s="18" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="77" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="N76" s="18">
+        <v>54.2</v>
+      </c>
+      <c r="O76">
+        <v>11</v>
+      </c>
+      <c r="P76">
+        <v>42.4</v>
+      </c>
+    </row>
+    <row r="77" spans="1:16">
       <c r="A77" s="8" t="s">
         <v>75</v>
       </c>
@@ -4538,11 +4660,17 @@
         <v>1.612780331</v>
       </c>
       <c r="M77" s="15"/>
-      <c r="N77" s="18" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="78" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="N77" s="18">
+        <v>33.200000000000003</v>
+      </c>
+      <c r="O77">
+        <v>5.41</v>
+      </c>
+      <c r="P77">
+        <v>48.32</v>
+      </c>
+    </row>
+    <row r="78" spans="1:16">
       <c r="A78" s="8" t="s">
         <v>76</v>
       </c>
@@ -4575,8 +4703,14 @@
         <v>1.192523</v>
       </c>
       <c r="N78" s="18"/>
-    </row>
-    <row r="79" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="O78">
+        <v>17.760000000000002</v>
+      </c>
+      <c r="P78">
+        <v>45.54</v>
+      </c>
+    </row>
+    <row r="79" spans="1:16">
       <c r="A79" s="8" t="s">
         <v>77</v>
       </c>
@@ -4617,11 +4751,17 @@
       <c r="M79" s="15">
         <v>29.684875000000002</v>
       </c>
-      <c r="N79" s="18" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="80" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="N79" s="18">
+        <v>37.700000000000003</v>
+      </c>
+      <c r="O79">
+        <v>72.13</v>
+      </c>
+      <c r="P79">
+        <v>66.94</v>
+      </c>
+    </row>
+    <row r="80" spans="1:16">
       <c r="A80" s="8" t="s">
         <v>78</v>
       </c>
@@ -4662,11 +4802,17 @@
       <c r="M80" s="15">
         <v>37.932749000000001</v>
       </c>
-      <c r="N80" s="18" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="81" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="N80" s="18">
+        <v>31.2</v>
+      </c>
+      <c r="O80">
+        <v>94.67</v>
+      </c>
+      <c r="P80">
+        <v>42.35</v>
+      </c>
+    </row>
+    <row r="81" spans="1:16">
       <c r="A81" s="8" t="s">
         <v>79</v>
       </c>
@@ -4701,11 +4847,14 @@
       <c r="M81" s="15">
         <v>25.286065000000001</v>
       </c>
-      <c r="N81" s="18" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="82" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="N81" s="18">
+        <v>35.6</v>
+      </c>
+      <c r="P81">
+        <v>45.19</v>
+      </c>
+    </row>
+    <row r="82" spans="1:16">
       <c r="A82" s="8" t="s">
         <v>80</v>
       </c>
@@ -4740,11 +4889,17 @@
       <c r="M82" s="15">
         <v>10.999344000000001</v>
       </c>
-      <c r="N82" s="18" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="83" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="N82" s="18">
+        <v>40.6</v>
+      </c>
+      <c r="O82">
+        <v>3.7</v>
+      </c>
+      <c r="P82">
+        <v>20.59</v>
+      </c>
+    </row>
+    <row r="83" spans="1:16">
       <c r="A83" s="8" t="s">
         <v>81</v>
       </c>
@@ -4781,11 +4936,17 @@
       <c r="M83" s="15">
         <v>15.323005</v>
       </c>
-      <c r="N83" s="18" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="84" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="N83" s="18">
+        <v>46.1</v>
+      </c>
+      <c r="O83">
+        <v>5.83</v>
+      </c>
+      <c r="P83">
+        <v>18.329999999999998</v>
+      </c>
+    </row>
+    <row r="84" spans="1:16">
       <c r="A84" s="8" t="s">
         <v>82</v>
       </c>
@@ -4822,11 +4983,17 @@
       <c r="M84" s="15">
         <v>14.916247</v>
       </c>
-      <c r="N84" s="18" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="85" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="N84" s="18">
+        <v>33</v>
+      </c>
+      <c r="O84">
+        <v>7</v>
+      </c>
+      <c r="P84">
+        <v>14.6</v>
+      </c>
+    </row>
+    <row r="85" spans="1:16">
       <c r="A85" s="8" t="s">
         <v>83</v>
       </c>
@@ -4868,8 +5035,14 @@
         <v>31.893222000000002</v>
       </c>
       <c r="N85" s="18"/>
-    </row>
-    <row r="86" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="O85">
+        <v>73.17</v>
+      </c>
+      <c r="P85">
+        <v>66.489999999999995</v>
+      </c>
+    </row>
+    <row r="86" spans="1:16">
       <c r="A86" s="8" t="s">
         <v>84</v>
       </c>
@@ -4904,11 +5077,17 @@
       <c r="M86" s="15">
         <v>16.519642999999999</v>
       </c>
-      <c r="N86" s="18" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="87" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="N86" s="18">
+        <v>32.4</v>
+      </c>
+      <c r="O86">
+        <v>10.7</v>
+      </c>
+      <c r="P86">
+        <v>48.86</v>
+      </c>
+    </row>
+    <row r="87" spans="1:16">
       <c r="A87" s="8" t="s">
         <v>85</v>
       </c>
@@ -4946,11 +5125,17 @@
       <c r="M87" s="15">
         <v>18.213287999999999</v>
       </c>
-      <c r="N87" s="18" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="88" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="N87" s="18">
+        <v>35.799999999999997</v>
+      </c>
+      <c r="O87">
+        <v>41.44</v>
+      </c>
+      <c r="P87">
+        <v>22.48</v>
+      </c>
+    </row>
+    <row r="88" spans="1:16">
       <c r="A88" s="8" t="s">
         <v>86</v>
       </c>
@@ -4991,11 +5176,17 @@
       <c r="M88" s="15">
         <v>13.701247</v>
       </c>
-      <c r="N88" s="18" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="89" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="N88" s="18">
+        <v>43.4</v>
+      </c>
+      <c r="O88">
+        <v>44.39</v>
+      </c>
+      <c r="P88">
+        <v>31.54</v>
+      </c>
+    </row>
+    <row r="89" spans="1:16">
       <c r="A89" s="8" t="s">
         <v>87</v>
       </c>
@@ -5036,11 +5227,17 @@
       <c r="M89" s="15">
         <v>26.432732999999999</v>
       </c>
-      <c r="N89" s="18" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="90" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="N89" s="18">
+        <v>26.3</v>
+      </c>
+      <c r="O89">
+        <v>46.6</v>
+      </c>
+      <c r="P89">
+        <v>33.090000000000003</v>
+      </c>
+    </row>
+    <row r="90" spans="1:16">
       <c r="A90" s="8" t="s">
         <v>88</v>
       </c>
@@ -5074,11 +5271,17 @@
       <c r="M90" s="15">
         <v>20.360968</v>
       </c>
-      <c r="N90" s="18" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="91" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="N90" s="18">
+        <v>32.299999999999997</v>
+      </c>
+      <c r="O90">
+        <v>27</v>
+      </c>
+      <c r="P90">
+        <v>43.44</v>
+      </c>
+    </row>
+    <row r="91" spans="1:16">
       <c r="A91" s="8" t="s">
         <v>89</v>
       </c>
@@ -5119,11 +5322,17 @@
       <c r="M91" s="15">
         <v>36.090035</v>
       </c>
-      <c r="N91" s="18" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="92" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="N91" s="18">
+        <v>31.9</v>
+      </c>
+      <c r="O91">
+        <v>61</v>
+      </c>
+      <c r="P91">
+        <v>9.36</v>
+      </c>
+    </row>
+    <row r="92" spans="1:16">
       <c r="A92" s="8" t="s">
         <v>90</v>
       </c>
@@ -5160,11 +5369,17 @@
       <c r="M92" s="15">
         <v>21.448879999999999</v>
       </c>
-      <c r="N92" s="18" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="93" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="N92" s="18">
+        <v>40.700000000000003</v>
+      </c>
+      <c r="O92">
+        <v>56.8</v>
+      </c>
+      <c r="P92">
+        <v>22.71</v>
+      </c>
+    </row>
+    <row r="93" spans="1:16">
       <c r="A93" s="8" t="s">
         <v>91</v>
       </c>
@@ -5201,11 +5416,17 @@
       <c r="M93" s="15">
         <v>20.156713</v>
       </c>
-      <c r="N93" s="18" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="94" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="N93" s="18">
+        <v>45.6</v>
+      </c>
+      <c r="O93">
+        <v>5.94</v>
+      </c>
+      <c r="P93">
+        <v>33.17</v>
+      </c>
+    </row>
+    <row r="94" spans="1:16">
       <c r="A94" s="8" t="s">
         <v>92</v>
       </c>
@@ -5242,11 +5463,17 @@
       <c r="M94" s="15">
         <v>8.3322769999999995</v>
       </c>
-      <c r="N94" s="18" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="95" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="N94" s="18">
+        <v>38.1</v>
+      </c>
+      <c r="O94">
+        <v>2.1</v>
+      </c>
+      <c r="P94">
+        <v>37.46</v>
+      </c>
+    </row>
+    <row r="95" spans="1:16">
       <c r="A95" s="8" t="s">
         <v>93</v>
       </c>
@@ -5283,11 +5510,17 @@
       <c r="M95" s="15">
         <v>28.710813000000002</v>
       </c>
-      <c r="N95" s="18" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="96" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="N95" s="18">
+        <v>59.1</v>
+      </c>
+      <c r="O95">
+        <v>14.84</v>
+      </c>
+      <c r="P95">
+        <v>37.090000000000003</v>
+      </c>
+    </row>
+    <row r="96" spans="1:16">
       <c r="A96" s="8" t="s">
         <v>94</v>
       </c>
@@ -5324,11 +5557,17 @@
       <c r="M96" s="15">
         <v>18.687477999999999</v>
       </c>
-      <c r="N96" s="18" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="97" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="N96" s="18">
+        <v>32.799999999999997</v>
+      </c>
+      <c r="O96">
+        <v>15.44</v>
+      </c>
+      <c r="P96">
+        <v>4.93</v>
+      </c>
+    </row>
+    <row r="97" spans="1:16">
       <c r="A97" s="8" t="s">
         <v>95</v>
       </c>
@@ -5365,11 +5604,17 @@
       <c r="M97" s="15">
         <v>38.400931</v>
       </c>
-      <c r="N97" s="18" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="98" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="N97" s="18">
+        <v>28.6</v>
+      </c>
+      <c r="O97">
+        <v>93.17</v>
+      </c>
+      <c r="P97">
+        <v>74.739999999999995</v>
+      </c>
+    </row>
+    <row r="98" spans="1:16">
       <c r="A98" s="8" t="s">
         <v>96</v>
       </c>
@@ -5411,13 +5656,19 @@
         <v>32.613869999999999</v>
       </c>
       <c r="N98" s="18"/>
-    </row>
-    <row r="99" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="O98">
+        <v>85.5</v>
+      </c>
+      <c r="P98">
+        <v>21.54</v>
+      </c>
+    </row>
+    <row r="99" spans="1:16">
       <c r="A99" s="8" t="s">
         <v>97</v>
       </c>
       <c r="B99" s="9">
-        <v>6.4763565063476563</v>
+        <v>6.4763565063476562</v>
       </c>
       <c r="C99" s="9">
         <f t="shared" si="1"/>
@@ -5445,11 +5696,17 @@
       <c r="M99" s="15">
         <v>23.448450000000001</v>
       </c>
-      <c r="N99" s="18" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="100" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="N99" s="18">
+        <v>46.6</v>
+      </c>
+      <c r="O99">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="P99">
+        <v>48.12</v>
+      </c>
+    </row>
+    <row r="100" spans="1:16">
       <c r="A100" s="8" t="s">
         <v>98</v>
       </c>
@@ -5486,11 +5743,17 @@
       <c r="M100" s="15">
         <v>13.454078000000001</v>
       </c>
-      <c r="N100" s="18" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="101" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="N100" s="18">
+        <v>34</v>
+      </c>
+      <c r="O100">
+        <v>1.95</v>
+      </c>
+      <c r="P100">
+        <v>18.190000000000001</v>
+      </c>
+    </row>
+    <row r="101" spans="1:16">
       <c r="A101" s="8" t="s">
         <v>99</v>
       </c>
@@ -5527,11 +5790,17 @@
       <c r="M101" s="15">
         <v>7.1707000000000001</v>
       </c>
-      <c r="N101" s="18" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="102" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="N101" s="18">
+        <v>43</v>
+      </c>
+      <c r="O101">
+        <v>42.68</v>
+      </c>
+      <c r="P101">
+        <v>17.64</v>
+      </c>
+    </row>
+    <row r="102" spans="1:16">
       <c r="A102" s="8" t="s">
         <v>100</v>
       </c>
@@ -5572,11 +5841,17 @@
       <c r="M102" s="15">
         <v>38.709806999999998</v>
       </c>
-      <c r="N102" s="18" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="103" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="N102" s="18">
+        <v>26.8</v>
+      </c>
+      <c r="O102">
+        <v>96.3</v>
+      </c>
+      <c r="P102">
+        <v>28.28</v>
+      </c>
+    </row>
+    <row r="103" spans="1:16">
       <c r="A103" s="8" t="s">
         <v>101</v>
       </c>
@@ -5613,11 +5888,17 @@
       <c r="M103" s="15">
         <v>9.9883570000000006</v>
       </c>
-      <c r="N103" s="18" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="104" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="N103" s="18">
+        <v>30.7</v>
+      </c>
+      <c r="O103">
+        <v>13.8</v>
+      </c>
+      <c r="P103">
+        <v>11.68</v>
+      </c>
+    </row>
+    <row r="104" spans="1:16">
       <c r="A104" s="8" t="s">
         <v>102</v>
       </c>
@@ -5650,11 +5931,14 @@
       <c r="M104" s="15">
         <v>5.5946610000000003</v>
       </c>
-      <c r="N104" s="18" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="105" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="N104" s="18">
+        <v>35.5</v>
+      </c>
+      <c r="O104">
+        <v>53.67</v>
+      </c>
+    </row>
+    <row r="105" spans="1:16">
       <c r="A105" s="8" t="s">
         <v>103</v>
       </c>
@@ -5691,11 +5975,17 @@
       <c r="M105" s="15">
         <v>15.463361000000001</v>
       </c>
-      <c r="N105" s="18" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="106" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="N105" s="18">
+        <v>50.4</v>
+      </c>
+      <c r="O105">
+        <v>44.92</v>
+      </c>
+      <c r="P105">
+        <v>13.7</v>
+      </c>
+    </row>
+    <row r="106" spans="1:16">
       <c r="A106" s="8" t="s">
         <v>104</v>
       </c>
@@ -5732,11 +6022,17 @@
       <c r="M106" s="15">
         <v>10.489746</v>
       </c>
-      <c r="N106" s="18" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="107" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="N106" s="18">
+        <v>47.9</v>
+      </c>
+      <c r="O106">
+        <v>43</v>
+      </c>
+      <c r="P106">
+        <v>31.25</v>
+      </c>
+    </row>
+    <row r="107" spans="1:16">
       <c r="A107" s="8" t="s">
         <v>105</v>
       </c>
@@ -5773,11 +6069,17 @@
       <c r="M107" s="15">
         <v>13.614037</v>
       </c>
-      <c r="N107" s="18" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="108" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="N107" s="18">
+        <v>43.8</v>
+      </c>
+      <c r="O107">
+        <v>40.200000000000003</v>
+      </c>
+      <c r="P107">
+        <v>18.920000000000002</v>
+      </c>
+    </row>
+    <row r="108" spans="1:16">
       <c r="A108" s="8" t="s">
         <v>106</v>
       </c>
@@ -5814,11 +6116,17 @@
       <c r="M108" s="15">
         <v>13.676774</v>
       </c>
-      <c r="N108" s="18" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="109" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="N108" s="18">
+        <v>40.1</v>
+      </c>
+      <c r="O108">
+        <v>39.69</v>
+      </c>
+      <c r="P108">
+        <v>27.24</v>
+      </c>
+    </row>
+    <row r="109" spans="1:16">
       <c r="A109" s="8" t="s">
         <v>107</v>
       </c>
@@ -5859,11 +6167,17 @@
       <c r="M109" s="15">
         <v>33.346711999999997</v>
       </c>
-      <c r="N109" s="18" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="110" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="N109" s="18">
+        <v>32.1</v>
+      </c>
+      <c r="O109">
+        <v>66.599999999999994</v>
+      </c>
+      <c r="P109">
+        <v>38.31</v>
+      </c>
+    </row>
+    <row r="110" spans="1:16">
       <c r="A110" s="8" t="s">
         <v>108</v>
       </c>
@@ -5904,11 +6218,17 @@
       <c r="M110" s="15">
         <v>34.141741000000003</v>
       </c>
-      <c r="N110" s="18" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="111" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="N110" s="18">
+        <v>35.6</v>
+      </c>
+      <c r="O110">
+        <v>64.59</v>
+      </c>
+      <c r="P110">
+        <v>27.61</v>
+      </c>
+    </row>
+    <row r="111" spans="1:16">
       <c r="A111" s="8" t="s">
         <v>109</v>
       </c>
@@ -5949,16 +6269,22 @@
       <c r="M111" s="15">
         <v>26.441125</v>
       </c>
-      <c r="N111" s="18" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="112" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="N111" s="18">
+        <v>27.5</v>
+      </c>
+      <c r="O111">
+        <v>54.08</v>
+      </c>
+      <c r="P111">
+        <v>34.44</v>
+      </c>
+    </row>
+    <row r="112" spans="1:16">
       <c r="A112" s="8" t="s">
         <v>110</v>
       </c>
       <c r="B112" s="9">
-        <v>5.5787429809570313</v>
+        <v>5.5787429809570312</v>
       </c>
       <c r="C112" s="9">
         <f t="shared" si="1"/>
@@ -5994,11 +6320,17 @@
       <c r="M112" s="15">
         <v>29.046813</v>
       </c>
-      <c r="N112" s="18" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="113" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="N112" s="18">
+        <v>37.700000000000003</v>
+      </c>
+      <c r="O112">
+        <v>70.52</v>
+      </c>
+      <c r="P112">
+        <v>24.5</v>
+      </c>
+    </row>
+    <row r="113" spans="1:16">
       <c r="A113" s="8" t="s">
         <v>111</v>
       </c>
@@ -6035,11 +6367,17 @@
       <c r="M113" s="15">
         <v>15.459153000000001</v>
       </c>
-      <c r="N113" s="18" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="114" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="N113" s="18">
+        <v>50.4</v>
+      </c>
+      <c r="O113">
+        <v>10.6</v>
+      </c>
+      <c r="P113">
+        <v>5.57</v>
+      </c>
+    </row>
+    <row r="114" spans="1:16">
       <c r="A114" s="8" t="s">
         <v>112</v>
       </c>
@@ -6076,11 +6414,17 @@
       <c r="M114" s="15">
         <v>2.23278</v>
       </c>
-      <c r="N114" s="18" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="115" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="N114" s="18">
+        <v>45.9</v>
+      </c>
+      <c r="O114">
+        <v>63.7</v>
+      </c>
+      <c r="P114">
+        <v>46.39</v>
+      </c>
+    </row>
+    <row r="115" spans="1:16">
       <c r="A115" s="8" t="s">
         <v>113</v>
       </c>
@@ -6117,11 +6461,17 @@
       <c r="M115" s="15">
         <v>15.920230999999999</v>
       </c>
-      <c r="N115" s="18" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="116" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="N115" s="18">
+        <v>40.299999999999997</v>
+      </c>
+      <c r="O115">
+        <v>17.7</v>
+      </c>
+      <c r="P115">
+        <v>17.96</v>
+      </c>
+    </row>
+    <row r="116" spans="1:16">
       <c r="A116" s="8" t="s">
         <v>114</v>
       </c>
@@ -6162,11 +6512,14 @@
       <c r="M116" s="15">
         <v>35.078639000000003</v>
       </c>
-      <c r="N116" s="18" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="117" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="N116" s="18">
+        <v>29.1</v>
+      </c>
+      <c r="O116">
+        <v>53.5</v>
+      </c>
+    </row>
+    <row r="117" spans="1:16">
       <c r="A117" s="8" t="s">
         <v>115</v>
       </c>
@@ -6198,11 +6551,17 @@
       <c r="M117" s="15">
         <v>11.178661</v>
       </c>
-      <c r="N117" s="18" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="118" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="N117" s="18">
+        <v>34</v>
+      </c>
+      <c r="O117">
+        <v>2.1</v>
+      </c>
+      <c r="P117">
+        <v>43.42</v>
+      </c>
+    </row>
+    <row r="118" spans="1:16">
       <c r="A118" s="8" t="s">
         <v>116</v>
       </c>
@@ -6244,8 +6603,14 @@
         <v>13.421915</v>
       </c>
       <c r="N118" s="18"/>
-    </row>
-    <row r="119" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="O118">
+        <v>82</v>
+      </c>
+      <c r="P118">
+        <v>133.76</v>
+      </c>
+    </row>
+    <row r="119" spans="1:16">
       <c r="A119" s="8" t="s">
         <v>117</v>
       </c>
@@ -6286,11 +6651,17 @@
       <c r="M119" s="15">
         <v>32.356543000000002</v>
       </c>
-      <c r="N119" s="18" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="120" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="N119" s="18">
+        <v>26.1</v>
+      </c>
+      <c r="O119">
+        <v>79.98</v>
+      </c>
+      <c r="P119">
+        <v>81.709999999999994</v>
+      </c>
+    </row>
+    <row r="120" spans="1:16">
       <c r="A120" s="8" t="s">
         <v>118</v>
       </c>
@@ -6331,11 +6702,17 @@
       <c r="M120" s="15">
         <v>36.505336999999997</v>
       </c>
-      <c r="N120" s="18" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="121" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="N120" s="18">
+        <v>25.7</v>
+      </c>
+      <c r="O120">
+        <v>71.59</v>
+      </c>
+      <c r="P120">
+        <v>72.790000000000006</v>
+      </c>
+    </row>
+    <row r="121" spans="1:16">
       <c r="A121" s="8" t="s">
         <v>119</v>
       </c>
@@ -6376,11 +6753,17 @@
       <c r="M121" s="15">
         <v>29.305698</v>
       </c>
-      <c r="N121" s="18" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="122" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="N121" s="18">
+        <v>63</v>
+      </c>
+      <c r="O121">
+        <v>49</v>
+      </c>
+      <c r="P121">
+        <v>34.75</v>
+      </c>
+    </row>
+    <row r="122" spans="1:16">
       <c r="A122" s="8" t="s">
         <v>120</v>
       </c>
@@ -6421,11 +6804,17 @@
       <c r="M122" s="15">
         <v>26.236792000000001</v>
       </c>
-      <c r="N122" s="18" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="123" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="N122" s="18">
+        <v>31.6</v>
+      </c>
+      <c r="O122">
+        <v>84.33</v>
+      </c>
+      <c r="P122">
+        <v>41.87</v>
+      </c>
+    </row>
+    <row r="123" spans="1:16">
       <c r="A123" s="8" t="s">
         <v>121</v>
       </c>
@@ -6453,11 +6842,14 @@
         <v>1.9170053039999999</v>
       </c>
       <c r="M123" s="15"/>
-      <c r="N123" s="18" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="124" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="N123" s="18">
+        <v>45.5</v>
+      </c>
+      <c r="O123">
+        <v>15.9</v>
+      </c>
+    </row>
+    <row r="124" spans="1:16">
       <c r="A124" s="8" t="s">
         <v>122</v>
       </c>
@@ -6498,11 +6890,17 @@
       <c r="M124" s="15">
         <v>33.180988999999997</v>
       </c>
-      <c r="N124" s="18" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="125" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="N124" s="18">
+        <v>36</v>
+      </c>
+      <c r="O124">
+        <v>76.19</v>
+      </c>
+      <c r="P124">
+        <v>22.94</v>
+      </c>
+    </row>
+    <row r="125" spans="1:16">
       <c r="A125" s="8" t="s">
         <v>123</v>
       </c>
@@ -6539,11 +6937,17 @@
       <c r="M125" s="15">
         <v>12.444495999999999</v>
       </c>
-      <c r="N125" s="18" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="126" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="N125" s="18">
+        <v>39.799999999999997</v>
+      </c>
+      <c r="O125">
+        <v>25.8</v>
+      </c>
+      <c r="P125">
+        <v>13.62</v>
+      </c>
+    </row>
+    <row r="126" spans="1:16">
       <c r="A126" s="8" t="s">
         <v>124</v>
       </c>
@@ -6580,11 +6984,17 @@
       <c r="M126" s="15">
         <v>44.237478000000003</v>
       </c>
-      <c r="N126" s="18" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="127" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="N126" s="18">
+        <v>27.2</v>
+      </c>
+      <c r="O126">
+        <v>92.52</v>
+      </c>
+      <c r="P126">
+        <v>29.58</v>
+      </c>
+    </row>
+    <row r="127" spans="1:16">
       <c r="A127" s="8" t="s">
         <v>125</v>
       </c>
@@ -6625,11 +7035,17 @@
       <c r="M127" s="15">
         <v>27.700901999999999</v>
       </c>
-      <c r="N127" s="18" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="128" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="N127" s="18">
+        <v>32.5</v>
+      </c>
+      <c r="O127">
+        <v>87</v>
+      </c>
+      <c r="P127">
+        <v>42.51</v>
+      </c>
+    </row>
+    <row r="128" spans="1:16">
       <c r="A128" s="8" t="s">
         <v>126</v>
       </c>
@@ -6659,8 +7075,11 @@
       </c>
       <c r="M128" s="15"/>
       <c r="N128" s="18"/>
-    </row>
-    <row r="129" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="O128">
+        <v>83.99</v>
+      </c>
+    </row>
+    <row r="129" spans="1:16">
       <c r="A129" s="8" t="s">
         <v>127</v>
       </c>
@@ -6695,11 +7114,17 @@
       <c r="M129" s="15">
         <v>20.6</v>
       </c>
-      <c r="N129" s="18" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="130" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="N129" s="18">
+        <v>34</v>
+      </c>
+      <c r="O129">
+        <v>17.489999999999998</v>
+      </c>
+      <c r="P129">
+        <v>8.8000000000000007</v>
+      </c>
+    </row>
+    <row r="130" spans="1:16">
       <c r="A130" s="8" t="s">
         <v>128</v>
       </c>
@@ -6736,11 +7161,17 @@
       <c r="M130" s="15">
         <v>11.390269</v>
       </c>
-      <c r="N130" s="18" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="131" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="N130" s="18">
+        <v>37.799999999999997</v>
+      </c>
+      <c r="O130">
+        <v>4.8600000000000003</v>
+      </c>
+      <c r="P130">
+        <v>8.51</v>
+      </c>
+    </row>
+    <row r="131" spans="1:16">
       <c r="A131" s="8" t="s">
         <v>129</v>
       </c>
@@ -6781,11 +7212,17 @@
       <c r="M131" s="15">
         <v>17.834917999999998</v>
       </c>
-      <c r="N131" s="18" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="132" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="N131" s="18">
+        <v>36.5</v>
+      </c>
+      <c r="O131">
+        <v>34.89</v>
+      </c>
+      <c r="P131">
+        <v>60.39</v>
+      </c>
+    </row>
+    <row r="132" spans="1:16">
       <c r="A132" s="8" t="s">
         <v>130</v>
       </c>
@@ -6822,11 +7259,17 @@
       <c r="M132" s="15">
         <v>18.763441</v>
       </c>
-      <c r="N132" s="18" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="133" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="N132" s="18">
+        <v>43</v>
+      </c>
+      <c r="O132">
+        <v>5.7</v>
+      </c>
+      <c r="P132">
+        <v>43.48</v>
+      </c>
+    </row>
+    <row r="133" spans="1:16">
       <c r="A133" s="8" t="s">
         <v>131</v>
       </c>
@@ -6861,11 +7304,17 @@
       <c r="M133" s="15">
         <v>26.147864999999999</v>
       </c>
-      <c r="N133" s="18" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="134" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="N133" s="18">
+        <v>40.299999999999997</v>
+      </c>
+      <c r="O133">
+        <v>65.099999999999994</v>
+      </c>
+      <c r="P133">
+        <v>69.27</v>
+      </c>
+    </row>
+    <row r="134" spans="1:16">
       <c r="A134" s="8" t="s">
         <v>132</v>
       </c>
@@ -6902,11 +7351,17 @@
       <c r="M134" s="15">
         <v>29.614932</v>
       </c>
-      <c r="N134" s="18" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="135" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="N134" s="18">
+        <v>35.799999999999997</v>
+      </c>
+      <c r="O134">
+        <v>46.16</v>
+      </c>
+      <c r="P134">
+        <v>35.43</v>
+      </c>
+    </row>
+    <row r="135" spans="1:16">
       <c r="A135" s="8" t="s">
         <v>133</v>
       </c>
@@ -6943,11 +7398,17 @@
       <c r="M135" s="15">
         <v>25.301887000000001</v>
       </c>
-      <c r="N135" s="18" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="136" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="N135" s="18">
+        <v>41.9</v>
+      </c>
+      <c r="O135">
+        <v>51.04</v>
+      </c>
+      <c r="P135">
+        <v>20.3</v>
+      </c>
+    </row>
+    <row r="136" spans="1:16">
       <c r="A136" s="8" t="s">
         <v>134</v>
       </c>
@@ -6982,11 +7443,17 @@
       <c r="M136" s="15">
         <v>20.373964000000001</v>
       </c>
-      <c r="N136" s="18" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="137" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="N136" s="18">
+        <v>43.2</v>
+      </c>
+      <c r="O136">
+        <v>12.2</v>
+      </c>
+      <c r="P136">
+        <v>30.72</v>
+      </c>
+    </row>
+    <row r="137" spans="1:16">
       <c r="A137" s="8" t="s">
         <v>135</v>
       </c>
@@ -7023,11 +7490,17 @@
       <c r="M137" s="15">
         <v>12.676283</v>
       </c>
-      <c r="N137" s="18" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="138" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="N137" s="18">
+        <v>42.8</v>
+      </c>
+      <c r="O137">
+        <v>17.71</v>
+      </c>
+      <c r="P137">
+        <v>8.41</v>
+      </c>
+    </row>
+    <row r="138" spans="1:16">
       <c r="A138" s="8" t="s">
         <v>136</v>
       </c>
@@ -7064,11 +7537,17 @@
       <c r="M138" s="15">
         <v>30.859074</v>
       </c>
-      <c r="N138" s="18" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="139" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="N138" s="18">
+        <v>25.5</v>
+      </c>
+      <c r="O138">
+        <v>43.4</v>
+      </c>
+      <c r="P138">
+        <v>44.92</v>
+      </c>
+    </row>
+    <row r="139" spans="1:16">
       <c r="A139" s="8" t="s">
         <v>137</v>
       </c>
@@ -7106,8 +7585,14 @@
         <v>9.2430889999999994</v>
       </c>
       <c r="N139" s="18"/>
-    </row>
-    <row r="140" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="O139">
+        <v>90.4</v>
+      </c>
+      <c r="P139">
+        <v>89.87</v>
+      </c>
+    </row>
+    <row r="140" spans="1:16">
       <c r="A140" s="8" t="s">
         <v>138</v>
       </c>
@@ -7148,11 +7633,17 @@
       <c r="M140" s="15">
         <v>32.734135000000002</v>
       </c>
-      <c r="N140" s="18" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="141" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="N140" s="18">
+        <v>34.1</v>
+      </c>
+      <c r="O140">
+        <v>91.61</v>
+      </c>
+      <c r="P140">
+        <v>15.45</v>
+      </c>
+    </row>
+    <row r="141" spans="1:16">
       <c r="A141" s="8" t="s">
         <v>139</v>
       </c>
@@ -7189,11 +7680,17 @@
       <c r="M141" s="15">
         <v>25.773724000000001</v>
       </c>
-      <c r="N141" s="18" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="142" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="N141" s="18">
+        <v>41.5</v>
+      </c>
+      <c r="O141">
+        <v>87.36</v>
+      </c>
+      <c r="P141">
+        <v>9.34</v>
+      </c>
+    </row>
+    <row r="142" spans="1:16">
       <c r="A142" s="8" t="s">
         <v>140</v>
       </c>
@@ -7234,11 +7731,17 @@
       <c r="M142" s="15">
         <v>34.229075999999999</v>
       </c>
-      <c r="N142" s="18" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="143" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="N142" s="18">
+        <v>39.700000000000003</v>
+      </c>
+      <c r="O142">
+        <v>61.46</v>
+      </c>
+      <c r="P142">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="143" spans="1:16">
       <c r="A143" s="8" t="s">
         <v>141</v>
       </c>
@@ -7275,11 +7778,17 @@
       <c r="M143" s="15">
         <v>26.204868999999999</v>
       </c>
-      <c r="N143" s="18" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="144" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="N143" s="18">
+        <v>36.700000000000003</v>
+      </c>
+      <c r="O143">
+        <v>43.55</v>
+      </c>
+      <c r="P143">
+        <v>21.07</v>
+      </c>
+    </row>
+    <row r="144" spans="1:16">
       <c r="A144" s="8" t="s">
         <v>142</v>
       </c>
@@ -7314,11 +7823,17 @@
       <c r="M144" s="15">
         <v>20.279105000000001</v>
       </c>
-      <c r="N144" s="18" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="145" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="N144" s="18">
+        <v>46.9</v>
+      </c>
+      <c r="O144">
+        <v>57</v>
+      </c>
+      <c r="P144">
+        <v>23.96</v>
+      </c>
+    </row>
+    <row r="145" spans="1:16">
       <c r="A145" s="8" t="s">
         <v>143</v>
       </c>
@@ -7355,11 +7870,17 @@
       <c r="M145" s="15">
         <v>17.944656999999999</v>
       </c>
-      <c r="N145" s="18" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="146" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="N145" s="18">
+        <v>35.299999999999997</v>
+      </c>
+      <c r="O145">
+        <v>48.31</v>
+      </c>
+      <c r="P145">
+        <v>85.95</v>
+      </c>
+    </row>
+    <row r="146" spans="1:16">
       <c r="A146" s="8" t="s">
         <v>144</v>
       </c>
@@ -7394,16 +7915,22 @@
       <c r="M146" s="15">
         <v>7.0387729999999999</v>
       </c>
-      <c r="N146" s="18" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="147" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="N146" s="18">
+        <v>36.700000000000003</v>
+      </c>
+      <c r="O146">
+        <v>22.55</v>
+      </c>
+      <c r="P146">
+        <v>29.56</v>
+      </c>
+    </row>
+    <row r="147" spans="1:16">
       <c r="A147" s="8" t="s">
         <v>145</v>
       </c>
       <c r="B147" s="9">
-        <v>3.9327774047851563</v>
+        <v>3.9327774047851562</v>
       </c>
       <c r="C147" s="9">
         <f t="shared" si="2"/>
@@ -7433,11 +7960,17 @@
       <c r="M147" s="15">
         <v>12.970041</v>
       </c>
-      <c r="N147" s="18" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="148" spans="1:14" ht="16" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="N147" s="18">
+        <v>57.1</v>
+      </c>
+      <c r="O147">
+        <v>17.34</v>
+      </c>
+      <c r="P147">
+        <v>35.72</v>
+      </c>
+    </row>
+    <row r="148" spans="1:16">
       <c r="A148" s="8" t="s">
         <v>146</v>
       </c>
@@ -7474,8 +8007,14 @@
       <c r="M148" s="15">
         <v>27.182075999999999</v>
       </c>
-      <c r="N148" s="18" t="s">
-        <v>256</v>
+      <c r="N148" s="18">
+        <v>43.2</v>
+      </c>
+      <c r="O148">
+        <v>19.89</v>
+      </c>
+      <c r="P148">
+        <v>24.22</v>
       </c>
     </row>
   </sheetData>

--- a/data_tables/Total_data_cleaned.xlsx
+++ b/data_tables/Total_data_cleaned.xlsx
@@ -1,31 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ulrikaeriksson/Documents/Data_Mining/DataMining-Group23/data_tables/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Simon\Documents\projects\datamining\DataMining-Group23\data_tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F0785A5-EFD7-FC49-9C3C-06175E1673C0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{067DB9A7-5A9E-4E8E-8A63-5BC4C34CF2DB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="19420" windowHeight="13380" xr2:uid="{196242FC-4F62-234C-ABAE-90D7B6224D3F}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{196242FC-4F62-234C-ABAE-90D7B6224D3F}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="164">
   <si>
     <t>Afghanistan</t>
   </si>
@@ -514,13 +520,16 @@
   </si>
   <si>
     <t>Total value of export (% of GDP)</t>
+  </si>
+  <si>
+    <t>Arable land</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -991,13 +1000,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67CF83BE-F021-5E44-A4B8-2C5D9BB127DA}">
-  <dimension ref="A1:P148"/>
+  <dimension ref="A1:Q148"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="O7" sqref="O7"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="R1" sqref="R1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="12.1640625" style="8" customWidth="1"/>
     <col min="2" max="2" width="17.1640625" style="9" customWidth="1"/>
@@ -1010,9 +1019,12 @@
     <col min="9" max="9" width="14.6640625" customWidth="1"/>
     <col min="13" max="13" width="21.5" customWidth="1"/>
     <col min="14" max="14" width="10.6640625" style="19"/>
+    <col min="15" max="15" width="24.9140625" customWidth="1"/>
+    <col min="16" max="16" width="26.33203125" customWidth="1"/>
+    <col min="17" max="17" width="14.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="34">
+    <row r="1" spans="1:17" ht="31" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>147</v>
       </c>
@@ -1061,8 +1073,11 @@
       <c r="P1" s="17" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="2" spans="1:16">
+      <c r="Q1" s="17" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
@@ -1105,8 +1120,11 @@
       <c r="P2">
         <v>3.66</v>
       </c>
-    </row>
-    <row r="3" spans="1:16">
+      <c r="Q2">
+        <v>11.838679042980118</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A3" s="8" t="s">
         <v>1</v>
       </c>
@@ -1152,8 +1170,11 @@
       <c r="P3">
         <v>17.61</v>
       </c>
-    </row>
-    <row r="4" spans="1:16">
+      <c r="Q3">
+        <v>22.63868568587478</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A4" s="8" t="s">
         <v>2</v>
       </c>
@@ -1199,8 +1220,11 @@
       <c r="P4">
         <v>29.5</v>
       </c>
-    </row>
-    <row r="5" spans="1:16">
+      <c r="Q4">
+        <v>3.1087357122576353</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A5" s="8" t="s">
         <v>3</v>
       </c>
@@ -1250,8 +1274,11 @@
       <c r="P5">
         <v>13.49</v>
       </c>
-    </row>
-    <row r="6" spans="1:16">
+      <c r="Q5">
+        <v>14.3238729998648</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A6" s="8" t="s">
         <v>4</v>
       </c>
@@ -1297,8 +1324,11 @@
       <c r="P6">
         <v>13.47</v>
       </c>
-    </row>
-    <row r="7" spans="1:16">
+      <c r="Q6">
+        <v>15.679662588566348</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A7" s="8" t="s">
         <v>5</v>
       </c>
@@ -1348,8 +1378,11 @@
       <c r="P7">
         <v>16.88</v>
       </c>
-    </row>
-    <row r="8" spans="1:16">
+      <c r="Q7">
+        <v>5.986463893749626</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A8" s="8" t="s">
         <v>6</v>
       </c>
@@ -1399,8 +1432,11 @@
       <c r="P8">
         <v>41.32</v>
       </c>
-    </row>
-    <row r="9" spans="1:16">
+      <c r="Q8">
+        <v>16.29230665457256</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A9" s="8" t="s">
         <v>7</v>
       </c>
@@ -1450,8 +1486,11 @@
       <c r="P9">
         <v>39.1</v>
       </c>
-    </row>
-    <row r="10" spans="1:16">
+      <c r="Q9">
+        <v>24.180476593685736</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A10" s="8" t="s">
         <v>8</v>
       </c>
@@ -1493,8 +1532,11 @@
       <c r="P10">
         <v>109.52</v>
       </c>
-    </row>
-    <row r="11" spans="1:16">
+      <c r="Q10">
+        <v>2.0565552198981694</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A11" s="8" t="s">
         <v>9</v>
       </c>
@@ -1540,8 +1582,11 @@
       <c r="P11">
         <v>17.649999999999999</v>
       </c>
-    </row>
-    <row r="12" spans="1:16">
+      <c r="Q11">
+        <v>59.646692486267959</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A12" s="8" t="s">
         <v>10</v>
       </c>
@@ -1591,8 +1636,11 @@
       <c r="P12">
         <v>47.36</v>
       </c>
-    </row>
-    <row r="13" spans="1:16">
+      <c r="Q12">
+        <v>28.000667950481215</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A13" s="8" t="s">
         <v>11</v>
       </c>
@@ -1642,8 +1690,11 @@
       <c r="P13">
         <v>86.17</v>
       </c>
-    </row>
-    <row r="14" spans="1:16">
+      <c r="Q13">
+        <v>28.051519960834316</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A14" s="8" t="s">
         <v>12</v>
       </c>
@@ -1689,8 +1740,11 @@
       <c r="P14">
         <v>20.99</v>
       </c>
-    </row>
-    <row r="15" spans="1:16">
+      <c r="Q14">
+        <v>23.944661227385598</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A15" s="8" t="s">
         <v>13</v>
       </c>
@@ -1738,8 +1792,11 @@
       <c r="P15">
         <v>39.04</v>
       </c>
-    </row>
-    <row r="16" spans="1:16">
+      <c r="Q15">
+        <v>4.110588018092864</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A16" s="8" t="s">
         <v>14</v>
       </c>
@@ -1785,8 +1842,11 @@
       <c r="P16">
         <v>31.81</v>
       </c>
-    </row>
-    <row r="17" spans="1:16">
+      <c r="Q16">
+        <v>20.0390625</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A17" s="8" t="s">
         <v>15</v>
       </c>
@@ -1832,8 +1892,11 @@
       <c r="P17">
         <v>49.12</v>
       </c>
-    </row>
-    <row r="18" spans="1:16">
+      <c r="Q17">
+        <v>0.45806646216631558</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A18" s="8" t="s">
         <v>16</v>
       </c>
@@ -1883,8 +1946,11 @@
       <c r="P18">
         <v>9.98</v>
       </c>
-    </row>
-    <row r="19" spans="1:16">
+      <c r="Q18">
+        <v>9.6882799283094077</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A19" s="8" t="s">
         <v>17</v>
       </c>
@@ -1934,8 +2000,11 @@
       <c r="P19">
         <v>50.77</v>
       </c>
-    </row>
-    <row r="20" spans="1:16">
+      <c r="Q19">
+        <v>32.20338983050847</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A20" s="8" t="s">
         <v>18</v>
       </c>
@@ -1985,8 +2054,11 @@
       <c r="P20">
         <v>19.41</v>
       </c>
-    </row>
-    <row r="21" spans="1:16">
+      <c r="Q20">
+        <v>21.929824561403507</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A21" s="8" t="s">
         <v>19</v>
       </c>
@@ -2032,8 +2104,11 @@
       <c r="P21">
         <v>69.849999999999994</v>
       </c>
-    </row>
-    <row r="22" spans="1:16">
+      <c r="Q21">
+        <v>21.527305687740768</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A22" s="8" t="s">
         <v>20</v>
       </c>
@@ -2077,8 +2152,11 @@
       <c r="P22">
         <v>17.920000000000002</v>
       </c>
-    </row>
-    <row r="23" spans="1:16">
+      <c r="Q22">
+        <v>13.115863848871401</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A23" s="8" t="s">
         <v>21</v>
       </c>
@@ -2128,8 +2206,11 @@
       <c r="P23">
         <v>26.61</v>
       </c>
-    </row>
-    <row r="24" spans="1:16">
+      <c r="Q23">
+        <v>4.8128830341639253</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A24" s="8" t="s">
         <v>22</v>
       </c>
@@ -2170,13 +2251,16 @@
       <c r="P24">
         <v>5.92</v>
       </c>
-    </row>
-    <row r="25" spans="1:16">
+      <c r="Q24">
+        <v>2.889338341519792</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A25" s="8" t="s">
         <v>23</v>
       </c>
       <c r="B25" s="9">
-        <v>4.5589370727539062</v>
+        <v>4.5589370727539063</v>
       </c>
       <c r="C25" s="9">
         <f t="shared" si="0"/>
@@ -2215,8 +2299,11 @@
       <c r="P25">
         <v>30.17</v>
       </c>
-    </row>
-    <row r="26" spans="1:16">
+      <c r="Q25">
+        <v>3.8913595933926302</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A26" s="8" t="s">
         <v>24</v>
       </c>
@@ -2262,8 +2349,11 @@
       <c r="P26">
         <v>29.85</v>
       </c>
-    </row>
-    <row r="27" spans="1:16">
+      <c r="Q26">
+        <v>1.7077946819498635</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A27" s="8" t="s">
         <v>25</v>
       </c>
@@ -2310,8 +2400,11 @@
       <c r="P27">
         <v>22.89</v>
       </c>
-    </row>
-    <row r="28" spans="1:16">
+      <c r="Q27">
+        <v>12.664821089430253</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A28" s="8" t="s">
         <v>26</v>
       </c>
@@ -2361,8 +2454,11 @@
       <c r="P28">
         <v>15.76</v>
       </c>
-    </row>
-    <row r="29" spans="1:16">
+      <c r="Q28">
+        <v>1.5219468008886345</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A29" s="8" t="s">
         <v>27</v>
       </c>
@@ -2405,8 +2501,11 @@
       <c r="P29">
         <v>73.41</v>
       </c>
-    </row>
-    <row r="30" spans="1:16">
+      <c r="Q29">
+        <v>1.6105417276720351</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A30" s="8" t="s">
         <v>28</v>
       </c>
@@ -2450,8 +2549,11 @@
       <c r="P30">
         <v>20.83</v>
       </c>
-    </row>
-    <row r="31" spans="1:16">
+      <c r="Q30">
+        <v>3.1318232945898852</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A31" s="8" t="s">
         <v>29</v>
       </c>
@@ -2501,8 +2603,11 @@
       <c r="P31">
         <v>65.84</v>
       </c>
-    </row>
-    <row r="32" spans="1:16">
+      <c r="Q31">
+        <v>4.8472385428907163</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A32" s="8" t="s">
         <v>30</v>
       </c>
@@ -2552,8 +2657,11 @@
       <c r="P32">
         <v>23.94</v>
       </c>
-    </row>
-    <row r="33" spans="1:16">
+      <c r="Q32">
+        <v>15.582558970693352</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A33" s="8" t="s">
         <v>31</v>
       </c>
@@ -2603,8 +2711,11 @@
       <c r="P33">
         <v>16.059999999999999</v>
       </c>
-    </row>
-    <row r="34" spans="1:16">
+      <c r="Q33">
+        <v>9.1590906118417745</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A34" s="8" t="s">
         <v>32</v>
       </c>
@@ -2650,8 +2761,11 @@
       <c r="P34">
         <v>83.7</v>
       </c>
-    </row>
-    <row r="35" spans="1:16">
+      <c r="Q34">
+        <v>32.297332297332296</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A35" s="8" t="s">
         <v>33</v>
       </c>
@@ -2697,8 +2811,11 @@
       <c r="P35">
         <v>31.23</v>
       </c>
-    </row>
-    <row r="36" spans="1:16">
+      <c r="Q35">
+        <v>56.561085972850677</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A36" s="8" t="s">
         <v>34</v>
       </c>
@@ -2748,8 +2865,11 @@
       <c r="P36">
         <v>16.440000000000001</v>
       </c>
-    </row>
-    <row r="37" spans="1:16">
+      <c r="Q36">
+        <v>16.559718484785758</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A37" s="8" t="s">
         <v>35</v>
       </c>
@@ -2795,8 +2915,11 @@
       <c r="P37">
         <v>27.59</v>
       </c>
-    </row>
-    <row r="38" spans="1:16">
+      <c r="Q37">
+        <v>3.929779352552746</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A38" s="8" t="s">
         <v>36</v>
       </c>
@@ -2840,8 +2963,11 @@
       <c r="P38">
         <v>10.57</v>
       </c>
-    </row>
-    <row r="39" spans="1:16">
+      <c r="Q38">
+        <v>2.7995077799299311</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A39" s="8" t="s">
         <v>37</v>
       </c>
@@ -2887,8 +3013,11 @@
       <c r="P39">
         <v>21.38</v>
       </c>
-    </row>
-    <row r="40" spans="1:16">
+      <c r="Q39">
+        <v>35.569498069498067</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A40" s="8" t="s">
         <v>38</v>
       </c>
@@ -2938,8 +3067,11 @@
       <c r="P40">
         <v>61.46</v>
       </c>
-    </row>
-    <row r="41" spans="1:16">
+      <c r="Q40">
+        <v>16.011042097998622</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A41" s="8" t="s">
         <v>39</v>
       </c>
@@ -2983,8 +3115,11 @@
       <c r="P41">
         <v>4.68</v>
       </c>
-    </row>
-    <row r="42" spans="1:16">
+      <c r="Q41">
+        <v>15.119</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A42" s="8" t="s">
         <v>40</v>
       </c>
@@ -3034,8 +3169,11 @@
       <c r="P42">
         <v>28.35</v>
       </c>
-    </row>
-    <row r="43" spans="1:16">
+      <c r="Q42">
+        <v>7.3903458260669286</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A43" s="8" t="s">
         <v>41</v>
       </c>
@@ -3085,8 +3223,11 @@
       <c r="P43">
         <v>21.14</v>
       </c>
-    </row>
-    <row r="44" spans="1:16">
+      <c r="Q43">
+        <v>33.523304758729807</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A44" s="8" t="s">
         <v>42</v>
       </c>
@@ -3127,8 +3268,11 @@
       <c r="P44">
         <v>51.19</v>
       </c>
-    </row>
-    <row r="45" spans="1:16">
+      <c r="Q44">
+        <v>1.2613032172934373</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A45" s="8" t="s">
         <v>43</v>
       </c>
@@ -3171,8 +3315,11 @@
       <c r="P45">
         <v>13.04</v>
       </c>
-    </row>
-    <row r="46" spans="1:16">
+      <c r="Q45">
+        <v>43.478260869565219</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A46" s="8" t="s">
         <v>44</v>
       </c>
@@ -3222,8 +3369,11 @@
       <c r="P46">
         <v>17.329999999999998</v>
       </c>
-    </row>
-    <row r="47" spans="1:16">
+      <c r="Q46">
+        <v>4.9503525687149237</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A47" s="8" t="s">
         <v>45</v>
       </c>
@@ -3273,8 +3423,11 @@
       <c r="P47">
         <v>37.61</v>
       </c>
-    </row>
-    <row r="48" spans="1:16">
+      <c r="Q47">
+        <v>33.67013968399359</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A48" s="8" t="s">
         <v>46</v>
       </c>
@@ -3324,8 +3477,11 @@
       <c r="P48">
         <v>25.55</v>
       </c>
-    </row>
-    <row r="49" spans="1:16">
+      <c r="Q48">
+        <v>20.655708886349654</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A49" s="8" t="s">
         <v>47</v>
       </c>
@@ -3375,8 +3531,11 @@
       <c r="P49">
         <v>14.93</v>
       </c>
-    </row>
-    <row r="50" spans="1:16">
+      <c r="Q49">
+        <v>16.602017067494181</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A50" s="8" t="s">
         <v>48</v>
       </c>
@@ -3420,8 +3579,11 @@
       <c r="P50">
         <v>19.440000000000001</v>
       </c>
-    </row>
-    <row r="51" spans="1:16">
+      <c r="Q50">
+        <v>8.0440462859275854</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A51" s="8" t="s">
         <v>49</v>
       </c>
@@ -3465,8 +3627,11 @@
       <c r="P51">
         <v>37.67</v>
       </c>
-    </row>
-    <row r="52" spans="1:16">
+      <c r="Q51">
+        <v>12.615985674751752</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A52" s="8" t="s">
         <v>50</v>
       </c>
@@ -3510,8 +3675,11 @@
       <c r="P52">
         <v>12.38</v>
       </c>
-    </row>
-    <row r="53" spans="1:16">
+      <c r="Q52">
+        <v>38.824383164005802</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A53" s="8" t="s">
         <v>51</v>
       </c>
@@ -3557,8 +3725,11 @@
       <c r="P53">
         <v>44.73</v>
       </c>
-    </row>
-    <row r="54" spans="1:16">
+      <c r="Q53">
+        <v>9.1160961658772006</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A54" s="8" t="s">
         <v>52</v>
       </c>
@@ -3592,8 +3763,11 @@
       <c r="P54">
         <v>162.75</v>
       </c>
-    </row>
-    <row r="55" spans="1:16">
+      <c r="Q54">
+        <v>2.8571428571428572</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A55" s="8" t="s">
         <v>53</v>
       </c>
@@ -3643,8 +3817,11 @@
       <c r="P55">
         <v>78</v>
       </c>
-    </row>
-    <row r="56" spans="1:16">
+      <c r="Q55">
+        <v>47.763172429029048</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A56" s="8" t="s">
         <v>54</v>
       </c>
@@ -3687,8 +3864,11 @@
       <c r="P56">
         <v>31.55</v>
       </c>
-    </row>
-    <row r="57" spans="1:16">
+      <c r="Q56">
+        <v>1.2069825436408979</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A57" s="8" t="s">
         <v>55</v>
       </c>
@@ -3734,8 +3914,11 @@
       <c r="P57">
         <v>15.36</v>
       </c>
-    </row>
-    <row r="58" spans="1:16">
+      <c r="Q57">
+        <v>52.624622038954797</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A58" s="8" t="s">
         <v>56</v>
       </c>
@@ -3781,8 +3964,11 @@
       <c r="P58">
         <v>21.86</v>
       </c>
-    </row>
-    <row r="59" spans="1:16">
+      <c r="Q58">
+        <v>12.9721733082354</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A59" s="8" t="s">
         <v>57</v>
       </c>
@@ -3828,8 +4014,11 @@
       <c r="P59">
         <v>20.25</v>
       </c>
-    </row>
-    <row r="60" spans="1:16">
+      <c r="Q59">
+        <v>9.017289226159777</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A60" s="8" t="s">
         <v>58</v>
       </c>
@@ -3873,8 +4062,11 @@
       <c r="P60">
         <v>37.549999999999997</v>
       </c>
-    </row>
-    <row r="61" spans="1:16">
+      <c r="Q60">
+        <v>11.517340300604381</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A61" s="8" t="s">
         <v>59</v>
       </c>
@@ -3924,8 +4116,11 @@
       <c r="P61">
         <v>57.73</v>
       </c>
-    </row>
-    <row r="62" spans="1:16">
+      <c r="Q61">
+        <v>6.4740891275947163</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A62" s="8" t="s">
         <v>60</v>
       </c>
@@ -3975,8 +4170,11 @@
       <c r="P62">
         <v>22.56</v>
       </c>
-    </row>
-    <row r="63" spans="1:16">
+      <c r="Q62">
+        <v>13.632162661737524</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A63" s="8" t="s">
         <v>61</v>
       </c>
@@ -4026,8 +4224,11 @@
       <c r="P63">
         <v>24.39</v>
       </c>
-    </row>
-    <row r="64" spans="1:16">
+      <c r="Q63">
+        <v>22.445094172842865</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A64" s="8" t="s">
         <v>62</v>
       </c>
@@ -4071,8 +4272,11 @@
       <c r="P64">
         <v>37.4</v>
       </c>
-    </row>
-    <row r="65" spans="1:16">
+      <c r="Q64">
+        <v>9.1194968553459113</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A65" s="8" t="s">
         <v>63</v>
       </c>
@@ -4122,8 +4326,11 @@
       <c r="P65">
         <v>10.43</v>
       </c>
-    </row>
-    <row r="66" spans="1:16">
+      <c r="Q65">
+        <v>11.080332409972298</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A66" s="8" t="s">
         <v>64</v>
       </c>
@@ -4173,13 +4380,16 @@
       <c r="P66">
         <v>15.6</v>
       </c>
-    </row>
-    <row r="67" spans="1:16">
+      <c r="Q66">
+        <v>11.476848804037743</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A67" s="8" t="s">
         <v>65</v>
       </c>
       <c r="B67" s="9">
-        <v>4.8080825805664062</v>
+        <v>4.8080825805664063</v>
       </c>
       <c r="C67" s="9">
         <f t="shared" ref="C67:C130" si="1">ROUND(B67,0)</f>
@@ -4218,8 +4428,11 @@
       <c r="P67">
         <v>23.71</v>
       </c>
-    </row>
-    <row r="68" spans="1:16">
+      <c r="Q67">
+        <v>2.6724486878445144</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A68" s="8" t="s">
         <v>66</v>
       </c>
@@ -4265,8 +4478,11 @@
       <c r="P68">
         <v>32.090000000000003</v>
       </c>
-    </row>
-    <row r="69" spans="1:16">
+      <c r="Q68">
+        <v>10.888246842241731</v>
+      </c>
+    </row>
+    <row r="69" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A69" s="8" t="s">
         <v>67</v>
       </c>
@@ -4312,8 +4528,11 @@
       <c r="P69">
         <v>11.93</v>
       </c>
-    </row>
-    <row r="70" spans="1:16">
+      <c r="Q69">
+        <v>10.190814210914713</v>
+      </c>
+    </row>
+    <row r="70" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A70" s="8" t="s">
         <v>68</v>
       </c>
@@ -4346,7 +4565,7 @@
         <v>26.5</v>
       </c>
     </row>
-    <row r="71" spans="1:16">
+    <row r="71" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A71" s="8" t="s">
         <v>69</v>
       </c>
@@ -4390,8 +4609,11 @@
       <c r="P71">
         <v>57.49</v>
       </c>
-    </row>
-    <row r="72" spans="1:16">
+      <c r="Q71">
+        <v>0.44893378226711567</v>
+      </c>
+    </row>
+    <row r="72" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A72" s="8" t="s">
         <v>70</v>
       </c>
@@ -4437,8 +4659,11 @@
       <c r="P72">
         <v>16.59</v>
       </c>
-    </row>
-    <row r="73" spans="1:16">
+      <c r="Q72">
+        <v>6.7153284671532854</v>
+      </c>
+    </row>
+    <row r="73" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A73" s="8" t="s">
         <v>71</v>
       </c>
@@ -4484,8 +4709,11 @@
       <c r="P73">
         <v>40</v>
       </c>
-    </row>
-    <row r="74" spans="1:16">
+      <c r="Q73">
+        <v>6.6074523396880416</v>
+      </c>
+    </row>
+    <row r="74" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A74" s="8" t="s">
         <v>72</v>
       </c>
@@ -4535,8 +4763,11 @@
       <c r="P74">
         <v>45.97</v>
       </c>
-    </row>
-    <row r="75" spans="1:16">
+      <c r="Q74">
+        <v>20.714055966548731</v>
+      </c>
+    </row>
+    <row r="75" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A75" s="8" t="s">
         <v>73</v>
       </c>
@@ -4580,8 +4811,11 @@
       <c r="P75">
         <v>7.61</v>
       </c>
-    </row>
-    <row r="76" spans="1:16">
+      <c r="Q75">
+        <v>12.903225806451612</v>
+      </c>
+    </row>
+    <row r="76" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A76" s="8" t="s">
         <v>74</v>
       </c>
@@ -4624,8 +4858,11 @@
       <c r="P76">
         <v>42.4</v>
       </c>
-    </row>
-    <row r="77" spans="1:16">
+      <c r="Q76">
+        <v>11.594202898550725</v>
+      </c>
+    </row>
+    <row r="77" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A77" s="8" t="s">
         <v>75</v>
       </c>
@@ -4669,8 +4906,11 @@
       <c r="P77">
         <v>48.32</v>
       </c>
-    </row>
-    <row r="78" spans="1:16">
+      <c r="Q77">
+        <v>5.191029900332226</v>
+      </c>
+    </row>
+    <row r="78" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A78" s="8" t="s">
         <v>76</v>
       </c>
@@ -4709,8 +4949,11 @@
       <c r="P78">
         <v>45.54</v>
       </c>
-    </row>
-    <row r="79" spans="1:16">
+      <c r="Q78">
+        <v>0.97752821760232789</v>
+      </c>
+    </row>
+    <row r="79" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A79" s="8" t="s">
         <v>77</v>
       </c>
@@ -4760,8 +5003,11 @@
       <c r="P79">
         <v>66.94</v>
       </c>
-    </row>
-    <row r="80" spans="1:16">
+      <c r="Q79">
+        <v>34.203889257236021</v>
+      </c>
+    </row>
+    <row r="80" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A80" s="8" t="s">
         <v>78</v>
       </c>
@@ -4811,8 +5057,11 @@
       <c r="P80">
         <v>42.35</v>
       </c>
-    </row>
-    <row r="81" spans="1:16">
+      <c r="Q80">
+        <v>25.456790374630287</v>
+      </c>
+    </row>
+    <row r="81" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A81" s="8" t="s">
         <v>79</v>
       </c>
@@ -4853,8 +5102,11 @@
       <c r="P81">
         <v>45.19</v>
       </c>
-    </row>
-    <row r="82" spans="1:16">
+      <c r="Q81">
+        <v>6.0158129941560672</v>
+      </c>
+    </row>
+    <row r="82" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A82" s="8" t="s">
         <v>80</v>
       </c>
@@ -4898,8 +5150,11 @@
       <c r="P82">
         <v>20.59</v>
       </c>
-    </row>
-    <row r="83" spans="1:16">
+      <c r="Q82">
+        <v>16.494845360824741</v>
+      </c>
+    </row>
+    <row r="83" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A83" s="8" t="s">
         <v>81</v>
       </c>
@@ -4945,8 +5200,11 @@
       <c r="P83">
         <v>18.329999999999998</v>
       </c>
-    </row>
-    <row r="84" spans="1:16">
+      <c r="Q83">
+        <v>40.305473058973277</v>
+      </c>
+    </row>
+    <row r="84" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A84" s="8" t="s">
         <v>82</v>
       </c>
@@ -4992,8 +5250,11 @@
       <c r="P84">
         <v>14.6</v>
       </c>
-    </row>
-    <row r="85" spans="1:16">
+      <c r="Q84">
+        <v>5.2540997713470849</v>
+      </c>
+    </row>
+    <row r="85" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A85" s="8" t="s">
         <v>83</v>
       </c>
@@ -5041,8 +5302,11 @@
       <c r="P85">
         <v>66.489999999999995</v>
       </c>
-    </row>
-    <row r="86" spans="1:16">
+      <c r="Q85">
+        <v>28.343749046325691</v>
+      </c>
+    </row>
+    <row r="86" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A86" s="8" t="s">
         <v>84</v>
       </c>
@@ -5086,8 +5350,11 @@
       <c r="P86">
         <v>48.86</v>
       </c>
-    </row>
-    <row r="87" spans="1:16">
+      <c r="Q86">
+        <v>0.43659648782380905</v>
+      </c>
+    </row>
+    <row r="87" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A87" s="8" t="s">
         <v>85</v>
       </c>
@@ -5134,8 +5401,11 @@
       <c r="P87">
         <v>22.48</v>
       </c>
-    </row>
-    <row r="88" spans="1:16">
+      <c r="Q87">
+        <v>36.945812807881772</v>
+      </c>
+    </row>
+    <row r="88" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A88" s="8" t="s">
         <v>86</v>
       </c>
@@ -5185,8 +5455,11 @@
       <c r="P88">
         <v>31.54</v>
       </c>
-    </row>
-    <row r="89" spans="1:16">
+      <c r="Q88">
+        <v>11.606265593250855</v>
+      </c>
+    </row>
+    <row r="89" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A89" s="8" t="s">
         <v>87</v>
       </c>
@@ -5236,8 +5509,11 @@
       <c r="P89">
         <v>33.090000000000003</v>
       </c>
-    </row>
-    <row r="90" spans="1:16">
+      <c r="Q89">
+        <v>55.557921825117958</v>
+      </c>
+    </row>
+    <row r="90" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A90" s="8" t="s">
         <v>88</v>
       </c>
@@ -5280,8 +5556,11 @@
       <c r="P90">
         <v>43.44</v>
       </c>
-    </row>
-    <row r="91" spans="1:16">
+      <c r="Q90">
+        <v>0.36509694650160346</v>
+      </c>
+    </row>
+    <row r="91" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A91" s="8" t="s">
         <v>89</v>
       </c>
@@ -5331,8 +5610,11 @@
       <c r="P91">
         <v>9.36</v>
       </c>
-    </row>
-    <row r="92" spans="1:16">
+      <c r="Q91">
+        <v>0.66914498141263945</v>
+      </c>
+    </row>
+    <row r="92" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A92" s="8" t="s">
         <v>90</v>
       </c>
@@ -5378,8 +5660,11 @@
       <c r="P92">
         <v>22.71</v>
       </c>
-    </row>
-    <row r="93" spans="1:16">
+      <c r="Q92">
+        <v>18.216446336544927</v>
+      </c>
+    </row>
+    <row r="93" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A93" s="8" t="s">
         <v>91</v>
       </c>
@@ -5425,8 +5710,11 @@
       <c r="P93">
         <v>33.17</v>
       </c>
-    </row>
-    <row r="94" spans="1:16">
+      <c r="Q93">
+        <v>7.184821587527658</v>
+      </c>
+    </row>
+    <row r="94" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A94" s="8" t="s">
         <v>92</v>
       </c>
@@ -5472,8 +5760,11 @@
       <c r="P94">
         <v>37.46</v>
       </c>
-    </row>
-    <row r="95" spans="1:16">
+      <c r="Q94">
+        <v>16.702394806149321</v>
+      </c>
+    </row>
+    <row r="95" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A95" s="8" t="s">
         <v>93</v>
       </c>
@@ -5519,8 +5810,11 @@
       <c r="P95">
         <v>37.090000000000003</v>
       </c>
-    </row>
-    <row r="96" spans="1:16">
+      <c r="Q95">
+        <v>0.97171106171579891</v>
+      </c>
+    </row>
+    <row r="96" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A96" s="8" t="s">
         <v>94</v>
       </c>
@@ -5566,8 +5860,11 @@
       <c r="P96">
         <v>4.93</v>
       </c>
-    </row>
-    <row r="97" spans="1:16">
+      <c r="Q96">
+        <v>14.745029307093688</v>
+      </c>
+    </row>
+    <row r="97" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A97" s="8" t="s">
         <v>95</v>
       </c>
@@ -5613,8 +5910,11 @@
       <c r="P97">
         <v>74.739999999999995</v>
       </c>
-    </row>
-    <row r="98" spans="1:16">
+      <c r="Q97">
+        <v>30.513505491243691</v>
+      </c>
+    </row>
+    <row r="98" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A98" s="8" t="s">
         <v>96</v>
       </c>
@@ -5662,13 +5962,16 @@
       <c r="P98">
         <v>21.54</v>
       </c>
-    </row>
-    <row r="99" spans="1:16">
+      <c r="Q98">
+        <v>2.1647487752079297</v>
+      </c>
+    </row>
+    <row r="99" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A99" s="8" t="s">
         <v>97</v>
       </c>
       <c r="B99" s="9">
-        <v>6.4763565063476562</v>
+        <v>6.4763565063476563</v>
       </c>
       <c r="C99" s="9">
         <f t="shared" si="1"/>
@@ -5705,8 +6008,11 @@
       <c r="P99">
         <v>48.12</v>
       </c>
-    </row>
-    <row r="100" spans="1:16">
+      <c r="Q99">
+        <v>12.497922552767161</v>
+      </c>
+    </row>
+    <row r="100" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A100" s="8" t="s">
         <v>98</v>
       </c>
@@ -5752,8 +6058,11 @@
       <c r="P100">
         <v>18.190000000000001</v>
       </c>
-    </row>
-    <row r="101" spans="1:16">
+      <c r="Q100">
+        <v>13.262808873450698</v>
+      </c>
+    </row>
+    <row r="101" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A101" s="8" t="s">
         <v>99</v>
       </c>
@@ -5799,8 +6108,11 @@
       <c r="P101">
         <v>17.64</v>
       </c>
-    </row>
-    <row r="102" spans="1:16">
+      <c r="Q101">
+        <v>37.331049551478415</v>
+      </c>
+    </row>
+    <row r="102" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A102" s="8" t="s">
         <v>100</v>
       </c>
@@ -5850,8 +6162,11 @@
       <c r="P102">
         <v>28.28</v>
       </c>
-    </row>
-    <row r="103" spans="1:16">
+      <c r="Q102">
+        <v>2.205092496653259</v>
+      </c>
+    </row>
+    <row r="103" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A103" s="8" t="s">
         <v>101</v>
       </c>
@@ -5897,8 +6212,11 @@
       <c r="P103">
         <v>11.68</v>
       </c>
-    </row>
-    <row r="104" spans="1:16">
+      <c r="Q103">
+        <v>40.265670402656703</v>
+      </c>
+    </row>
+    <row r="104" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A104" s="8" t="s">
         <v>102</v>
       </c>
@@ -5938,7 +6256,7 @@
         <v>53.67</v>
       </c>
     </row>
-    <row r="105" spans="1:16">
+    <row r="105" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A105" s="8" t="s">
         <v>103</v>
       </c>
@@ -5984,8 +6302,11 @@
       <c r="P105">
         <v>13.7</v>
       </c>
-    </row>
-    <row r="106" spans="1:16">
+      <c r="Q105">
+        <v>7.5733118105999457</v>
+      </c>
+    </row>
+    <row r="106" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A106" s="8" t="s">
         <v>104</v>
       </c>
@@ -6031,8 +6352,11 @@
       <c r="P106">
         <v>31.25</v>
       </c>
-    </row>
-    <row r="107" spans="1:16">
+      <c r="Q106">
+        <v>12.081550465643092</v>
+      </c>
+    </row>
+    <row r="107" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A107" s="8" t="s">
         <v>105</v>
       </c>
@@ -6078,8 +6402,11 @@
       <c r="P107">
         <v>18.920000000000002</v>
       </c>
-    </row>
-    <row r="108" spans="1:16">
+      <c r="Q107">
+        <v>2.7406250000000001</v>
+      </c>
+    </row>
+    <row r="108" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A108" s="8" t="s">
         <v>106</v>
       </c>
@@ -6125,8 +6452,11 @@
       <c r="P108">
         <v>27.24</v>
       </c>
-    </row>
-    <row r="109" spans="1:16">
+      <c r="Q108">
+        <v>18.747694268370392</v>
+      </c>
+    </row>
+    <row r="109" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A109" s="8" t="s">
         <v>107</v>
       </c>
@@ -6176,8 +6506,11 @@
       <c r="P109">
         <v>38.31</v>
       </c>
-    </row>
-    <row r="110" spans="1:16">
+      <c r="Q109">
+        <v>35.291812273425002</v>
+      </c>
+    </row>
+    <row r="110" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A110" s="8" t="s">
         <v>108</v>
       </c>
@@ -6227,8 +6560,11 @@
       <c r="P110">
         <v>27.61</v>
       </c>
-    </row>
-    <row r="111" spans="1:16">
+      <c r="Q110">
+        <v>10.68351747945426</v>
+      </c>
+    </row>
+    <row r="111" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A111" s="8" t="s">
         <v>109</v>
       </c>
@@ -6278,13 +6614,16 @@
       <c r="P111">
         <v>34.44</v>
       </c>
-    </row>
-    <row r="112" spans="1:16">
+      <c r="Q111">
+        <v>37.30006954102921</v>
+      </c>
+    </row>
+    <row r="112" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A112" s="8" t="s">
         <v>110</v>
       </c>
       <c r="B112" s="9">
-        <v>5.5787429809570312</v>
+        <v>5.5787429809570313</v>
       </c>
       <c r="C112" s="9">
         <f t="shared" si="1"/>
@@ -6329,8 +6668,11 @@
       <c r="P112">
         <v>24.5</v>
       </c>
-    </row>
-    <row r="113" spans="1:16">
+      <c r="Q112">
+        <v>7.5180312423863649</v>
+      </c>
+    </row>
+    <row r="113" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A113" s="8" t="s">
         <v>111</v>
       </c>
@@ -6376,8 +6718,11 @@
       <c r="P113">
         <v>5.57</v>
       </c>
-    </row>
-    <row r="114" spans="1:16">
+      <c r="Q113">
+        <v>46.684229881308468</v>
+      </c>
+    </row>
+    <row r="114" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A114" s="8" t="s">
         <v>112</v>
       </c>
@@ -6423,8 +6768,11 @@
       <c r="P114">
         <v>46.39</v>
       </c>
-    </row>
-    <row r="115" spans="1:16">
+      <c r="Q114">
+        <v>1.6174425149672742</v>
+      </c>
+    </row>
+    <row r="115" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A115" s="8" t="s">
         <v>113</v>
       </c>
@@ -6470,8 +6818,11 @@
       <c r="P115">
         <v>17.96</v>
       </c>
-    </row>
-    <row r="116" spans="1:16">
+      <c r="Q115">
+        <v>16.620786370955177</v>
+      </c>
+    </row>
+    <row r="116" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A116" s="8" t="s">
         <v>114</v>
       </c>
@@ -6518,8 +6869,11 @@
       <c r="O116">
         <v>53.5</v>
       </c>
-    </row>
-    <row r="117" spans="1:16">
+      <c r="Q116">
+        <v>29.705008003658818</v>
+      </c>
+    </row>
+    <row r="117" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A117" s="8" t="s">
         <v>115</v>
       </c>
@@ -6560,8 +6914,11 @@
       <c r="P117">
         <v>43.42</v>
       </c>
-    </row>
-    <row r="118" spans="1:16">
+      <c r="Q117">
+        <v>21.945137157107229</v>
+      </c>
+    </row>
+    <row r="118" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A118" s="8" t="s">
         <v>116</v>
       </c>
@@ -6609,8 +6966,11 @@
       <c r="P118">
         <v>133.76</v>
       </c>
-    </row>
-    <row r="119" spans="1:16">
+      <c r="Q118">
+        <v>0.78984483826813856</v>
+      </c>
+    </row>
+    <row r="119" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A119" s="8" t="s">
         <v>117</v>
       </c>
@@ -6660,8 +7020,11 @@
       <c r="P119">
         <v>81.709999999999994</v>
       </c>
-    </row>
-    <row r="120" spans="1:16">
+      <c r="Q119">
+        <v>28.015806988352743</v>
+      </c>
+    </row>
+    <row r="120" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A120" s="8" t="s">
         <v>118</v>
       </c>
@@ -6711,8 +7074,11 @@
       <c r="P120">
         <v>72.790000000000006</v>
       </c>
-    </row>
-    <row r="121" spans="1:16">
+      <c r="Q120">
+        <v>9.1291832658336602</v>
+      </c>
+    </row>
+    <row r="121" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A121" s="8" t="s">
         <v>119</v>
       </c>
@@ -6762,8 +7128,11 @@
       <c r="P121">
         <v>34.75</v>
       </c>
-    </row>
-    <row r="122" spans="1:16">
+      <c r="Q121">
+        <v>10.304264316744842</v>
+      </c>
+    </row>
+    <row r="122" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A122" s="8" t="s">
         <v>120</v>
       </c>
@@ -6813,8 +7182,11 @@
       <c r="P122">
         <v>41.87</v>
       </c>
-    </row>
-    <row r="123" spans="1:16">
+      <c r="Q122">
+        <v>14.576002862502321</v>
+      </c>
+    </row>
+    <row r="123" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A123" s="8" t="s">
         <v>121</v>
       </c>
@@ -6849,7 +7221,7 @@
         <v>15.9</v>
       </c>
     </row>
-    <row r="124" spans="1:16">
+    <row r="124" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A124" s="8" t="s">
         <v>122</v>
       </c>
@@ -6899,8 +7271,11 @@
       <c r="P124">
         <v>22.94</v>
       </c>
-    </row>
-    <row r="125" spans="1:16">
+      <c r="Q124">
+        <v>24.695894967158079</v>
+      </c>
+    </row>
+    <row r="125" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A125" s="8" t="s">
         <v>123</v>
       </c>
@@ -6946,8 +7321,11 @@
       <c r="P125">
         <v>13.62</v>
       </c>
-    </row>
-    <row r="126" spans="1:16">
+      <c r="Q125">
+        <v>20.730346037314622</v>
+      </c>
+    </row>
+    <row r="126" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A126" s="8" t="s">
         <v>124</v>
       </c>
@@ -6993,8 +7371,11 @@
       <c r="P126">
         <v>29.58</v>
       </c>
-    </row>
-    <row r="127" spans="1:16">
+      <c r="Q126">
+        <v>6.3209842568467511</v>
+      </c>
+    </row>
+    <row r="127" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A127" s="8" t="s">
         <v>125</v>
       </c>
@@ -7044,8 +7425,11 @@
       <c r="P127">
         <v>42.51</v>
       </c>
-    </row>
-    <row r="128" spans="1:16">
+      <c r="Q127">
+        <v>10.089584025557285</v>
+      </c>
+    </row>
+    <row r="128" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A128" s="8" t="s">
         <v>126</v>
       </c>
@@ -7079,7 +7463,7 @@
         <v>83.99</v>
       </c>
     </row>
-    <row r="129" spans="1:16">
+    <row r="129" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A129" s="8" t="s">
         <v>127</v>
       </c>
@@ -7123,8 +7507,11 @@
       <c r="P129">
         <v>8.8000000000000007</v>
       </c>
-    </row>
-    <row r="130" spans="1:16">
+      <c r="Q129">
+        <v>5.2597449383961381</v>
+      </c>
+    </row>
+    <row r="130" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A130" s="8" t="s">
         <v>128</v>
       </c>
@@ -7170,8 +7557,11 @@
       <c r="P130">
         <v>8.51</v>
       </c>
-    </row>
-    <row r="131" spans="1:16">
+      <c r="Q130">
+        <v>15.240460600587042</v>
+      </c>
+    </row>
+    <row r="131" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A131" s="8" t="s">
         <v>129</v>
       </c>
@@ -7221,8 +7611,11 @@
       <c r="P131">
         <v>60.39</v>
       </c>
-    </row>
-    <row r="132" spans="1:16">
+      <c r="Q131">
+        <v>32.903364716475167</v>
+      </c>
+    </row>
+    <row r="132" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A132" s="8" t="s">
         <v>130</v>
       </c>
@@ -7268,8 +7661,11 @@
       <c r="P132">
         <v>43.48</v>
       </c>
-    </row>
-    <row r="133" spans="1:16">
+      <c r="Q132">
+        <v>48.722191579334435</v>
+      </c>
+    </row>
+    <row r="133" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A133" s="8" t="s">
         <v>131</v>
       </c>
@@ -7313,8 +7709,11 @@
       <c r="P133">
         <v>69.27</v>
       </c>
-    </row>
-    <row r="134" spans="1:16">
+      <c r="Q133">
+        <v>4.8732943469785575</v>
+      </c>
+    </row>
+    <row r="134" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A134" s="8" t="s">
         <v>132</v>
       </c>
@@ -7360,8 +7759,11 @@
       <c r="P134">
         <v>35.43</v>
       </c>
-    </row>
-    <row r="135" spans="1:16">
+      <c r="Q134">
+        <v>18.666323377960865</v>
+      </c>
+    </row>
+    <row r="135" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A135" s="8" t="s">
         <v>133</v>
       </c>
@@ -7407,8 +7809,11 @@
       <c r="P135">
         <v>20.3</v>
       </c>
-    </row>
-    <row r="136" spans="1:16">
+      <c r="Q135">
+        <v>26.481556072398426</v>
+      </c>
+    </row>
+    <row r="136" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A136" s="8" t="s">
         <v>134</v>
       </c>
@@ -7452,8 +7857,11 @@
       <c r="P136">
         <v>30.72</v>
       </c>
-    </row>
-    <row r="137" spans="1:16">
+      <c r="Q136">
+        <v>4.1282744238503613</v>
+      </c>
+    </row>
+    <row r="137" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A137" s="8" t="s">
         <v>135</v>
       </c>
@@ -7499,8 +7907,11 @@
       <c r="P137">
         <v>8.41</v>
       </c>
-    </row>
-    <row r="138" spans="1:16">
+      <c r="Q137">
+        <v>34.410532615200481</v>
+      </c>
+    </row>
+    <row r="138" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A138" s="8" t="s">
         <v>136</v>
       </c>
@@ -7546,8 +7957,11 @@
       <c r="P138">
         <v>44.92</v>
       </c>
-    </row>
-    <row r="139" spans="1:16">
+      <c r="Q138">
+        <v>56.579606069498865</v>
+      </c>
+    </row>
+    <row r="139" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A139" s="8" t="s">
         <v>137</v>
       </c>
@@ -7591,8 +8005,11 @@
       <c r="P139">
         <v>89.87</v>
       </c>
-    </row>
-    <row r="140" spans="1:16">
+      <c r="Q139">
+        <v>0.62658406082793583</v>
+      </c>
+    </row>
+    <row r="140" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A140" s="8" t="s">
         <v>138</v>
       </c>
@@ -7642,8 +8059,11 @@
       <c r="P140">
         <v>15.45</v>
       </c>
-    </row>
-    <row r="141" spans="1:16">
+      <c r="Q140">
+        <v>24.908071614206591</v>
+      </c>
+    </row>
+    <row r="141" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A141" s="8" t="s">
         <v>139</v>
       </c>
@@ -7689,8 +8109,11 @@
       <c r="P141">
         <v>9.34</v>
       </c>
-    </row>
-    <row r="142" spans="1:16">
+      <c r="Q141">
+        <v>16.645403840645777</v>
+      </c>
+    </row>
+    <row r="142" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A142" s="8" t="s">
         <v>140</v>
       </c>
@@ -7740,8 +8163,11 @@
       <c r="P142">
         <v>20</v>
       </c>
-    </row>
-    <row r="143" spans="1:16">
+      <c r="Q142">
+        <v>13.773283611337275</v>
+      </c>
+    </row>
+    <row r="143" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A143" s="8" t="s">
         <v>141</v>
       </c>
@@ -7787,8 +8213,11 @@
       <c r="P143">
         <v>21.07</v>
       </c>
-    </row>
-    <row r="144" spans="1:16">
+      <c r="Q143">
+        <v>10.343206393982134</v>
+      </c>
+    </row>
+    <row r="144" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A144" s="8" t="s">
         <v>142</v>
       </c>
@@ -7832,8 +8261,11 @@
       <c r="P144">
         <v>23.96</v>
       </c>
-    </row>
-    <row r="145" spans="1:16">
+      <c r="Q144">
+        <v>3.0610509608298848</v>
+      </c>
+    </row>
+    <row r="145" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A145" s="8" t="s">
         <v>143</v>
       </c>
@@ -7879,8 +8311,11 @@
       <c r="P145">
         <v>85.95</v>
       </c>
-    </row>
-    <row r="146" spans="1:16">
+      <c r="Q145">
+        <v>22.569097300609538</v>
+      </c>
+    </row>
+    <row r="146" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A146" s="8" t="s">
         <v>144</v>
       </c>
@@ -7924,13 +8359,16 @@
       <c r="P146">
         <v>29.56</v>
       </c>
-    </row>
-    <row r="147" spans="1:16">
+      <c r="Q146">
+        <v>2.3637706687879994</v>
+      </c>
+    </row>
+    <row r="147" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A147" s="8" t="s">
         <v>145</v>
       </c>
       <c r="B147" s="9">
-        <v>3.9327774047851562</v>
+        <v>3.9327774047851563</v>
       </c>
       <c r="C147" s="9">
         <f t="shared" si="2"/>
@@ -7969,8 +8407,11 @@
       <c r="P147">
         <v>35.72</v>
       </c>
-    </row>
-    <row r="148" spans="1:16">
+      <c r="Q147">
+        <v>5.111717940784783</v>
+      </c>
+    </row>
+    <row r="148" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A148" s="8" t="s">
         <v>146</v>
       </c>
@@ -8016,6 +8457,9 @@
       <c r="P148">
         <v>24.22</v>
       </c>
+      <c r="Q148">
+        <v>10.339925035543493</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data_tables/Total_data_cleaned.xlsx
+++ b/data_tables/Total_data_cleaned.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Simon\Documents\projects\datamining\DataMining-Group23\data_tables\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Felix\.RapidMiner\repositories\Local Repository\DataMining-Group23\data_tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{067DB9A7-5A9E-4E8E-8A63-5BC4C34CF2DB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CA08636-CF28-487E-B218-55B6D281908B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{196242FC-4F62-234C-ABAE-90D7B6224D3F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{196242FC-4F62-234C-ABAE-90D7B6224D3F}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -492,18 +492,12 @@
     <t>Smoking</t>
   </si>
   <si>
-    <t>Ratio nuclear family</t>
-  </si>
-  <si>
     <t>Traffic deaths</t>
   </si>
   <si>
     <t>Happiness value rounded</t>
   </si>
   <si>
-    <t>Oneperson household</t>
-  </si>
-  <si>
     <t>Population density</t>
   </si>
   <si>
@@ -523,12 +517,18 @@
   </si>
   <si>
     <t>Arable land</t>
+  </si>
+  <si>
+    <t>Average household size (number of members)</t>
+  </si>
+  <si>
+    <t>1 member (% of households)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -639,7 +639,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -664,9 +664,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
@@ -686,12 +683,40 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Dålig" xfId="1" builtinId="27"/>
+    <cellStyle name="Bad" xfId="1" builtinId="27"/>
     <cellStyle name="Neutral 3" xfId="2" xr:uid="{EE6C5C6E-5A7D-F041-BBE8-1FD8A210AAD9}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{203B69C0-AE03-4EA1-A3E3-CA8A0130E564}">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -704,7 +729,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-tema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1002,82 +1027,80 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67CF83BE-F021-5E44-A4B8-2C5D9BB127DA}">
   <dimension ref="A1:Q148"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="R1" sqref="R1"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:H1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="10.69921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.1640625" style="8" customWidth="1"/>
-    <col min="2" max="2" width="17.1640625" style="9" customWidth="1"/>
+    <col min="1" max="1" width="12.19921875" style="8" customWidth="1"/>
+    <col min="2" max="2" width="17.19921875" style="9" customWidth="1"/>
     <col min="3" max="3" width="22.5" style="6" customWidth="1"/>
-    <col min="4" max="4" width="21.33203125" style="9" customWidth="1"/>
-    <col min="5" max="5" width="10.83203125" style="6" customWidth="1"/>
+    <col min="4" max="4" width="21.296875" style="9" customWidth="1"/>
+    <col min="5" max="5" width="10.796875" style="6" customWidth="1"/>
     <col min="6" max="6" width="18.5" style="6" customWidth="1"/>
-    <col min="7" max="7" width="16" style="6" customWidth="1"/>
-    <col min="8" max="8" width="13.83203125" style="6" customWidth="1"/>
-    <col min="9" max="9" width="14.6640625" customWidth="1"/>
+    <col min="9" max="9" width="14.69921875" customWidth="1"/>
     <col min="13" max="13" width="21.5" customWidth="1"/>
-    <col min="14" max="14" width="10.6640625" style="19"/>
-    <col min="15" max="15" width="24.9140625" customWidth="1"/>
-    <col min="16" max="16" width="26.33203125" customWidth="1"/>
-    <col min="17" max="17" width="14.1640625" customWidth="1"/>
+    <col min="14" max="14" width="10.69921875" style="18"/>
+    <col min="15" max="15" width="24.8984375" customWidth="1"/>
+    <col min="16" max="16" width="26.296875" customWidth="1"/>
+    <col min="17" max="17" width="14.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="31" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="13" t="s">
         <v>150</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="G1" s="16" t="s">
+        <v>162</v>
+      </c>
+      <c r="H1" s="16" t="s">
+        <v>163</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="K1" s="15" t="s">
         <v>155</v>
       </c>
-      <c r="D1" s="14" t="s">
-        <v>151</v>
-      </c>
-      <c r="E1" s="13" t="s">
-        <v>152</v>
-      </c>
-      <c r="F1" s="14" t="s">
-        <v>148</v>
-      </c>
-      <c r="G1" s="10" t="s">
-        <v>153</v>
-      </c>
-      <c r="H1" s="10" t="s">
+      <c r="L1" s="15" t="s">
         <v>156</v>
       </c>
-      <c r="I1" s="13" t="s">
-        <v>154</v>
-      </c>
-      <c r="J1" s="13" t="s">
-        <v>149</v>
-      </c>
-      <c r="K1" s="16" t="s">
+      <c r="M1" s="15" t="s">
         <v>157</v>
       </c>
-      <c r="L1" s="16" t="s">
+      <c r="N1" s="1" t="s">
         <v>158</v>
       </c>
-      <c r="M1" s="16" t="s">
+      <c r="O1" s="12" t="s">
         <v>159</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="P1" s="16" t="s">
         <v>160</v>
       </c>
-      <c r="O1" s="13" t="s">
+      <c r="Q1" s="16" t="s">
         <v>161</v>
       </c>
-      <c r="P1" s="17" t="s">
-        <v>162</v>
-      </c>
-      <c r="Q1" s="17" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
@@ -1091,27 +1114,31 @@
       <c r="D2" s="9">
         <v>97</v>
       </c>
-      <c r="F2" s="11">
+      <c r="F2" s="10">
         <v>34.53</v>
       </c>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
+      <c r="G2">
+        <v>8.0367388563218505</v>
+      </c>
+      <c r="H2">
+        <v>0.189425072120154</v>
+      </c>
       <c r="I2" s="2">
         <v>15.1</v>
       </c>
       <c r="J2" s="6">
         <v>4.7</v>
       </c>
-      <c r="K2" s="15">
+      <c r="K2" s="14">
         <v>54.422205373280597</v>
       </c>
-      <c r="L2" s="15">
+      <c r="L2" s="14">
         <v>1.809624516</v>
       </c>
-      <c r="M2" s="15">
+      <c r="M2" s="14">
         <v>9.1248640000000005</v>
       </c>
-      <c r="N2" s="18">
+      <c r="N2" s="17">
         <v>27.8</v>
       </c>
       <c r="O2">
@@ -1124,7 +1151,7 @@
         <v>11.838679042980118</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" s="8" t="s">
         <v>1</v>
       </c>
@@ -1141,27 +1168,31 @@
       <c r="E3" s="7">
         <v>28.7</v>
       </c>
-      <c r="F3" s="11">
+      <c r="F3" s="10">
         <v>41.32</v>
       </c>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
+      <c r="G3">
+        <v>3.8238029493024999</v>
+      </c>
+      <c r="H3">
+        <v>6.1472678637231599</v>
+      </c>
       <c r="I3" s="3">
         <v>13.6</v>
       </c>
       <c r="J3" s="6">
         <v>6.3</v>
       </c>
-      <c r="K3" s="15">
+      <c r="K3" s="14">
         <v>104.870693430657</v>
       </c>
-      <c r="L3" s="15">
+      <c r="L3" s="14">
         <v>2.3255375310000002</v>
       </c>
-      <c r="M3" s="15">
+      <c r="M3" s="14">
         <v>23.52533</v>
       </c>
-      <c r="N3" s="18">
+      <c r="N3" s="17">
         <v>29</v>
       </c>
       <c r="O3">
@@ -1174,7 +1205,7 @@
         <v>22.63868568587478</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
         <v>2</v>
       </c>
@@ -1191,27 +1222,25 @@
       <c r="E4" s="7">
         <v>15.6</v>
       </c>
-      <c r="F4" s="11">
+      <c r="F4" s="10">
         <v>36.770000000000003</v>
       </c>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
       <c r="I4" s="3">
         <v>23.6</v>
       </c>
       <c r="J4" s="6">
         <v>3.2</v>
       </c>
-      <c r="K4" s="15">
+      <c r="K4" s="14">
         <v>17.347873677280599</v>
       </c>
-      <c r="L4" s="15">
+      <c r="L4" s="14">
         <v>1.485914602</v>
       </c>
-      <c r="M4" s="15">
+      <c r="M4" s="14">
         <v>14.162544</v>
       </c>
-      <c r="N4" s="18">
+      <c r="N4" s="17">
         <v>27.6</v>
       </c>
       <c r="O4">
@@ -1224,7 +1253,7 @@
         <v>3.1087357122576353</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="8" t="s">
         <v>3</v>
       </c>
@@ -1241,14 +1270,14 @@
       <c r="E5" s="7">
         <v>21.8</v>
       </c>
-      <c r="F5" s="11">
+      <c r="F5" s="10">
         <v>34.6</v>
       </c>
-      <c r="G5" s="7">
-        <v>0.7726952624154767</v>
-      </c>
-      <c r="H5" s="7">
-        <v>0.17747603578730406</v>
+      <c r="G5">
+        <v>3.2585900361988398</v>
+      </c>
+      <c r="H5">
+        <v>17.5983390926135</v>
       </c>
       <c r="I5" s="3">
         <v>14</v>
@@ -1256,16 +1285,16 @@
       <c r="J5" s="6">
         <v>9.1999999999999993</v>
       </c>
-      <c r="K5" s="15">
+      <c r="K5" s="14">
         <v>16.176856348362399</v>
       </c>
-      <c r="L5" s="15">
+      <c r="L5" s="14">
         <v>3.1186833850000002</v>
       </c>
-      <c r="M5" s="15">
+      <c r="M5" s="14">
         <v>30.661214999999999</v>
       </c>
-      <c r="N5" s="18">
+      <c r="N5" s="17">
         <v>42.4</v>
       </c>
       <c r="O5">
@@ -1278,7 +1307,7 @@
         <v>14.3238729998648</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
         <v>4</v>
       </c>
@@ -1295,27 +1324,31 @@
       <c r="E6" s="7">
         <v>24.1</v>
       </c>
-      <c r="F6" s="11">
+      <c r="F6" s="10">
         <v>40.18</v>
       </c>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
+      <c r="G6">
+        <v>4.0094705661479404</v>
+      </c>
+      <c r="H6">
+        <v>10.962771357447799</v>
+      </c>
       <c r="I6" s="3">
         <v>17.100000000000001</v>
       </c>
       <c r="J6" s="6">
         <v>6.6</v>
       </c>
-      <c r="K6" s="15">
+      <c r="K6" s="14">
         <v>102.931155602388</v>
       </c>
-      <c r="L6" s="15">
+      <c r="L6" s="14">
         <v>2.3654491160000002</v>
       </c>
-      <c r="M6" s="15">
+      <c r="M6" s="14">
         <v>21.761512</v>
       </c>
-      <c r="N6" s="18">
+      <c r="N6" s="17">
         <v>32.4</v>
       </c>
       <c r="O6">
@@ -1328,7 +1361,7 @@
         <v>15.679662588566348</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
         <v>5</v>
       </c>
@@ -1345,14 +1378,14 @@
       <c r="E7" s="7">
         <v>14.7</v>
       </c>
-      <c r="F7" s="11">
+      <c r="F7" s="10">
         <v>35.299999999999997</v>
       </c>
-      <c r="G7" s="7">
-        <v>0.67406151709815554</v>
-      </c>
-      <c r="H7" s="7">
-        <v>0.23784876598935717</v>
+      <c r="G7">
+        <v>2.5047361436806401</v>
+      </c>
+      <c r="H7">
+        <v>24.337907628059799</v>
       </c>
       <c r="I7" s="3">
         <v>5.6</v>
@@ -1360,16 +1393,16 @@
       <c r="J7" s="6">
         <v>13.2</v>
       </c>
-      <c r="K7" s="15">
+      <c r="K7" s="14">
         <v>3.20202712729261</v>
       </c>
-      <c r="L7" s="15">
+      <c r="L7" s="14">
         <v>3.8037627660000002</v>
       </c>
-      <c r="M7" s="15">
+      <c r="M7" s="14">
         <v>28.578520000000001</v>
       </c>
-      <c r="N7" s="18">
+      <c r="N7" s="17">
         <v>34.700000000000003</v>
       </c>
       <c r="O7">
@@ -1382,7 +1415,7 @@
         <v>5.986463893749626</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
         <v>6</v>
       </c>
@@ -1399,14 +1432,14 @@
       <c r="E8" s="7">
         <v>29.6</v>
       </c>
-      <c r="F8" s="11">
+      <c r="F8" s="10">
         <v>48.2</v>
       </c>
-      <c r="G8" s="7">
-        <v>0.61062728538617705</v>
-      </c>
-      <c r="H8" s="7">
-        <v>0.34972196197094507</v>
+      <c r="G8">
+        <v>2.2651250476104399</v>
+      </c>
+      <c r="H8">
+        <v>36.399034364458899</v>
       </c>
       <c r="I8" s="3">
         <v>5.2</v>
@@ -1414,16 +1447,16 @@
       <c r="J8" s="6">
         <v>15.6</v>
       </c>
-      <c r="K8" s="15">
+      <c r="K8" s="14">
         <v>106.748567066151</v>
       </c>
-      <c r="L8" s="15">
+      <c r="L8" s="14">
         <v>2.8291145819999999</v>
       </c>
-      <c r="M8" s="15">
+      <c r="M8" s="14">
         <v>41.884256999999998</v>
       </c>
-      <c r="N8" s="18">
+      <c r="N8" s="17">
         <v>30.5</v>
       </c>
       <c r="O8">
@@ -1436,7 +1469,7 @@
         <v>16.29230665457256</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
         <v>7</v>
       </c>
@@ -1453,14 +1486,14 @@
       <c r="E9" s="7">
         <v>20.8</v>
       </c>
-      <c r="F9" s="11">
+      <c r="F9" s="10">
         <v>40.380000000000003</v>
       </c>
-      <c r="G9" s="7">
-        <v>0.55916666183177643</v>
-      </c>
-      <c r="H9" s="7">
-        <v>6.7663497967500041E-2</v>
+      <c r="G9">
+        <v>4.1488665589666196</v>
+      </c>
+      <c r="H9">
+        <v>6.5021899726134498</v>
       </c>
       <c r="I9" s="3">
         <v>8.6999999999999993</v>
@@ -1468,16 +1501,16 @@
       <c r="J9" s="6">
         <v>2.6</v>
       </c>
-      <c r="K9" s="15">
+      <c r="K9" s="14">
         <v>119.308868538524</v>
       </c>
-      <c r="L9" s="15">
+      <c r="L9" s="14">
         <v>3.2560069280000001</v>
       </c>
-      <c r="M9" s="15">
+      <c r="M9" s="14">
         <v>16.506067999999999</v>
       </c>
-      <c r="N9" s="18">
+      <c r="N9" s="17">
         <v>31.8</v>
       </c>
       <c r="O9">
@@ -1490,7 +1523,7 @@
         <v>24.180476593685736</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="8" t="s">
         <v>8</v>
       </c>
@@ -1507,25 +1540,23 @@
       <c r="E10" s="7">
         <v>26.4</v>
       </c>
-      <c r="F10" s="11">
+      <c r="F10" s="10">
         <v>26.22</v>
       </c>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
       <c r="I10" s="3"/>
       <c r="J10" s="6">
         <v>5.9</v>
       </c>
-      <c r="K10" s="15">
+      <c r="K10" s="14">
         <v>1935.9066147859901</v>
       </c>
-      <c r="L10" s="15">
+      <c r="L10" s="14">
         <v>1.615647681</v>
       </c>
-      <c r="M10" s="15">
+      <c r="M10" s="14">
         <v>1.0698810000000001</v>
       </c>
-      <c r="N10" s="18"/>
+      <c r="N10" s="17"/>
       <c r="O10">
         <v>91</v>
       </c>
@@ -1536,7 +1567,7 @@
         <v>2.0565552198981694</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="s">
         <v>9</v>
       </c>
@@ -1553,27 +1584,31 @@
       <c r="E11" s="7">
         <v>23</v>
       </c>
-      <c r="F11" s="11">
+      <c r="F11" s="10">
         <v>23.73</v>
       </c>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
+      <c r="G11">
+        <v>4.4697141726574401</v>
+      </c>
+      <c r="H11">
+        <v>1.73848681399728</v>
+      </c>
       <c r="I11" s="3">
         <v>15.3</v>
       </c>
       <c r="J11" s="6">
         <v>5.9</v>
       </c>
-      <c r="K11" s="15">
+      <c r="K11" s="14">
         <v>1265.0361143120499</v>
       </c>
-      <c r="L11" s="15">
+      <c r="L11" s="14">
         <v>2.031842132</v>
       </c>
-      <c r="M11" s="15">
+      <c r="M11" s="14">
         <v>8.1908390000000004</v>
       </c>
-      <c r="N11" s="18">
+      <c r="N11" s="17">
         <v>32</v>
       </c>
       <c r="O11">
@@ -1586,7 +1621,7 @@
         <v>59.646692486267959</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="s">
         <v>10</v>
       </c>
@@ -1603,14 +1638,14 @@
       <c r="E12" s="7">
         <v>26.7</v>
       </c>
-      <c r="F12" s="11">
+      <c r="F12" s="10">
         <v>53.9</v>
       </c>
-      <c r="G12" s="7">
-        <v>0.64803911013014281</v>
-      </c>
-      <c r="H12" s="7">
-        <v>0.27909151095462548</v>
+      <c r="G12">
+        <v>2.4824662985152099</v>
+      </c>
+      <c r="H12">
+        <v>26.997184450577201</v>
       </c>
       <c r="I12" s="3">
         <v>8.9</v>
@@ -1618,16 +1653,16 @@
       <c r="J12" s="6">
         <v>26.2</v>
       </c>
-      <c r="K12" s="15">
+      <c r="K12" s="14">
         <v>46.8575969641713</v>
       </c>
-      <c r="L12" s="15">
+      <c r="L12" s="14">
         <v>5.1028469349999996</v>
       </c>
-      <c r="M12" s="15">
+      <c r="M12" s="14">
         <v>35.748614000000003</v>
       </c>
-      <c r="N12" s="18">
+      <c r="N12" s="17">
         <v>26.7</v>
       </c>
       <c r="O12">
@@ -1640,7 +1675,7 @@
         <v>28.000667950481215</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="s">
         <v>11</v>
       </c>
@@ -1657,14 +1692,14 @@
       <c r="E13" s="7">
         <v>28.2</v>
       </c>
-      <c r="F13" s="11">
+      <c r="F13" s="10">
         <v>50.85</v>
       </c>
-      <c r="G13" s="7">
-        <v>0.63070898039581791</v>
-      </c>
-      <c r="H13" s="7">
-        <v>0.33957257653336015</v>
+      <c r="G13">
+        <v>2.3234556991274</v>
+      </c>
+      <c r="H13">
+        <v>34.047888291349501</v>
       </c>
       <c r="I13" s="3">
         <v>5.8</v>
@@ -1672,16 +1707,16 @@
       <c r="J13" s="6">
         <v>20.7</v>
       </c>
-      <c r="K13" s="15">
+      <c r="K13" s="14">
         <v>375.56367239101701</v>
       </c>
-      <c r="L13" s="15">
+      <c r="L13" s="14">
         <v>2.2844173109999999</v>
       </c>
-      <c r="M13" s="15">
+      <c r="M13" s="14">
         <v>43.875816</v>
       </c>
-      <c r="N13" s="18">
+      <c r="N13" s="17">
         <v>28.1</v>
       </c>
       <c r="O13">
@@ -1694,7 +1729,7 @@
         <v>28.051519960834316</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="8" t="s">
         <v>12</v>
       </c>
@@ -1711,27 +1746,31 @@
       <c r="E14" s="7">
         <v>6.4</v>
       </c>
-      <c r="F14" s="11">
+      <c r="F14" s="10">
         <v>6.48</v>
       </c>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
+      <c r="G14">
+        <v>4.9611351413992599</v>
+      </c>
+      <c r="H14">
+        <v>10.265129723225201</v>
+      </c>
       <c r="I14" s="3">
         <v>27.5</v>
       </c>
       <c r="J14" s="6">
         <v>9.9</v>
       </c>
-      <c r="K14" s="15">
+      <c r="K14" s="14">
         <v>99.110429230223502</v>
       </c>
-      <c r="L14" s="15">
+      <c r="L14" s="14">
         <v>1.6706470899999999</v>
       </c>
-      <c r="M14" s="15">
+      <c r="M14" s="14">
         <v>15.888945</v>
       </c>
-      <c r="N14" s="18">
+      <c r="N14" s="17">
         <v>47.8</v>
       </c>
       <c r="O14">
@@ -1744,7 +1783,7 @@
         <v>23.944661227385598</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="s">
         <v>13</v>
       </c>
@@ -1759,14 +1798,14 @@
         <v>89</v>
       </c>
       <c r="E15" s="7"/>
-      <c r="F15" s="11">
+      <c r="F15" s="10">
         <v>16.5</v>
       </c>
-      <c r="G15" s="7">
-        <v>0.70305290336121529</v>
-      </c>
-      <c r="H15" s="7">
-        <v>0.20408766625594596</v>
+      <c r="G15">
+        <v>3.94455117330223</v>
+      </c>
+      <c r="H15">
+        <v>12.7607530371544</v>
       </c>
       <c r="I15" s="3">
         <v>15.5</v>
@@ -1774,16 +1813,16 @@
       <c r="J15" s="6">
         <v>12.2</v>
       </c>
-      <c r="K15" s="15">
+      <c r="K15" s="14">
         <v>10.2017908243331</v>
       </c>
-      <c r="L15" s="15">
+      <c r="L15" s="14">
         <v>2.434164628</v>
       </c>
-      <c r="M15" s="15">
+      <c r="M15" s="14">
         <v>26.203921000000001</v>
       </c>
-      <c r="N15" s="18">
+      <c r="N15" s="17">
         <v>45.8</v>
       </c>
       <c r="O15">
@@ -1796,7 +1835,7 @@
         <v>4.110588018092864</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="8" t="s">
         <v>14</v>
       </c>
@@ -1813,27 +1852,25 @@
       <c r="E16" s="7">
         <v>38.9</v>
       </c>
-      <c r="F16" s="11">
+      <c r="F16" s="10">
         <v>43.87</v>
       </c>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
       <c r="I16" s="3">
         <v>15.7</v>
       </c>
       <c r="J16" s="6">
         <v>8.8000000000000007</v>
       </c>
-      <c r="K16" s="15">
+      <c r="K16" s="14">
         <v>68.496425781249997</v>
       </c>
-      <c r="L16" s="15">
+      <c r="L16" s="14">
         <v>3.526306038</v>
       </c>
-      <c r="M16" s="15">
+      <c r="M16" s="14">
         <v>37.572918999999999</v>
       </c>
-      <c r="N16" s="18">
+      <c r="N16" s="17">
         <v>33.1</v>
       </c>
       <c r="O16">
@@ -1846,7 +1883,7 @@
         <v>20.0390625</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="8" t="s">
         <v>15</v>
       </c>
@@ -1863,27 +1900,31 @@
       <c r="E17" s="7">
         <v>20</v>
       </c>
-      <c r="F17" s="11">
+      <c r="F17" s="10">
         <v>24.65</v>
       </c>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7"/>
+      <c r="G17">
+        <v>3.5240230156281198</v>
+      </c>
+      <c r="H17">
+        <v>27.8910206378306</v>
+      </c>
       <c r="I17" s="4">
         <v>23.8</v>
       </c>
       <c r="J17" s="6">
         <v>9.3000000000000007</v>
       </c>
-      <c r="K17" s="15">
+      <c r="K17" s="14">
         <v>4.04365570906781</v>
       </c>
-      <c r="L17" s="15">
+      <c r="L17" s="14">
         <v>2.3786810370000002</v>
       </c>
-      <c r="M17" s="15">
+      <c r="M17" s="14">
         <v>20.871931</v>
       </c>
-      <c r="N17" s="18">
+      <c r="N17" s="17">
         <v>60.5</v>
       </c>
       <c r="O17">
@@ -1896,7 +1937,7 @@
         <v>0.45806646216631558</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="8" t="s">
         <v>16</v>
       </c>
@@ -1913,14 +1954,14 @@
       <c r="E18" s="7">
         <v>13.9</v>
       </c>
-      <c r="F18" s="11">
+      <c r="F18" s="10">
         <v>15.78</v>
       </c>
-      <c r="G18" s="7">
-        <v>0.79402422920652682</v>
-      </c>
-      <c r="H18" s="7">
-        <v>0.10681677052567908</v>
+      <c r="G18">
+        <v>3.31148982178934</v>
+      </c>
+      <c r="H18">
+        <v>12.0007554199951</v>
       </c>
       <c r="I18" s="4">
         <v>19.7</v>
@@ -1928,16 +1969,16 @@
       <c r="J18" s="6">
         <v>6.5</v>
       </c>
-      <c r="K18" s="15">
+      <c r="K18" s="14">
         <v>25.040054126875098</v>
       </c>
-      <c r="L18" s="15">
+      <c r="L18" s="14">
         <v>3.730609555</v>
       </c>
-      <c r="M18" s="15">
+      <c r="M18" s="14">
         <v>33.713017999999998</v>
       </c>
-      <c r="N18" s="18">
+      <c r="N18" s="17">
         <v>46.9</v>
       </c>
       <c r="O18">
@@ -1950,7 +1991,7 @@
         <v>9.6882799283094077</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="8" t="s">
         <v>17</v>
       </c>
@@ -1967,14 +2008,14 @@
       <c r="E19" s="7">
         <v>37</v>
       </c>
-      <c r="F19" s="11">
+      <c r="F19" s="10">
         <v>42.7</v>
       </c>
-      <c r="G19" s="7">
-        <v>0.64259509443817231</v>
-      </c>
-      <c r="H19" s="7">
-        <v>0.2679450747670678</v>
+      <c r="G19">
+        <v>2.3376248794905599</v>
+      </c>
+      <c r="H19">
+        <v>30.5274758673599</v>
       </c>
       <c r="I19" s="4">
         <v>10.199999999999999</v>
@@ -1982,16 +2023,16 @@
       <c r="J19" s="6">
         <v>11.5</v>
       </c>
-      <c r="K19" s="15">
+      <c r="K19" s="14">
         <v>65.180462417096507</v>
       </c>
-      <c r="L19" s="15">
+      <c r="L19" s="14">
         <v>2.3871194039999999</v>
       </c>
-      <c r="M19" s="15">
+      <c r="M19" s="14">
         <v>28.800666</v>
       </c>
-      <c r="N19" s="18">
+      <c r="N19" s="17">
         <v>37.4</v>
       </c>
       <c r="O19">
@@ -2004,7 +2045,7 @@
         <v>32.20338983050847</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="8" t="s">
         <v>18</v>
       </c>
@@ -2021,14 +2062,14 @@
       <c r="E20" s="7">
         <v>12.5</v>
       </c>
-      <c r="F20" s="11">
+      <c r="F20" s="10">
         <v>12.35</v>
       </c>
-      <c r="G20" s="7">
-        <v>0.5269642383499864</v>
-      </c>
-      <c r="H20" s="7">
-        <v>5.4792413625374237E-2</v>
+      <c r="G20">
+        <v>5.9244534660988002</v>
+      </c>
+      <c r="H20">
+        <v>6.6402985133369699</v>
       </c>
       <c r="I20" s="4">
         <v>30.5</v>
@@ -2036,16 +2077,16 @@
       <c r="J20" s="6">
         <v>7.7</v>
       </c>
-      <c r="K20" s="15">
+      <c r="K20" s="14">
         <v>70.151250000000005</v>
       </c>
-      <c r="L20" s="15">
+      <c r="L20" s="14">
         <v>1.6203995840000001</v>
       </c>
-      <c r="M20" s="15">
+      <c r="M20" s="14">
         <v>16.652574000000001</v>
       </c>
-      <c r="N20" s="18">
+      <c r="N20" s="17">
         <v>35.299999999999997</v>
       </c>
       <c r="O20">
@@ -2058,7 +2099,7 @@
         <v>21.929824561403507</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="8" t="s">
         <v>19</v>
       </c>
@@ -2075,27 +2116,31 @@
       <c r="E21" s="7">
         <v>17.2</v>
       </c>
-      <c r="F21" s="11">
+      <c r="F21" s="10">
         <v>11.55</v>
       </c>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
+      <c r="G21">
+        <v>4.6118431303246599</v>
+      </c>
+      <c r="H21">
+        <v>3.3723404201091198</v>
+      </c>
       <c r="I21" s="4">
         <v>17.8</v>
       </c>
       <c r="J21" s="6">
         <v>5.3</v>
       </c>
-      <c r="K21" s="15">
+      <c r="K21" s="14">
         <v>90.671725583503303</v>
       </c>
-      <c r="L21" s="15">
+      <c r="L21" s="14">
         <v>1.5939582269999999</v>
       </c>
-      <c r="M21" s="15">
+      <c r="M21" s="14">
         <v>14.825889999999999</v>
       </c>
-      <c r="N21" s="18">
+      <c r="N21" s="17">
         <v>30.8</v>
       </c>
       <c r="O21">
@@ -2108,7 +2153,7 @@
         <v>21.527305687740768</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="8" t="s">
         <v>20</v>
       </c>
@@ -2123,27 +2168,31 @@
         <v>96</v>
       </c>
       <c r="E22" s="7"/>
-      <c r="F22" s="11">
+      <c r="F22" s="10">
         <v>3.87</v>
       </c>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
+      <c r="G22">
+        <v>4.9923419787069401</v>
+      </c>
+      <c r="H22">
+        <v>15.1426914821206</v>
+      </c>
       <c r="I22" s="4">
         <v>30.1</v>
       </c>
       <c r="J22" s="6">
         <v>12.2</v>
       </c>
-      <c r="K22" s="15">
+      <c r="K22" s="14">
         <v>50.884743288697102</v>
       </c>
-      <c r="L22" s="15">
+      <c r="L22" s="14">
         <v>1.8031018350000001</v>
       </c>
-      <c r="M22" s="15">
+      <c r="M22" s="14">
         <v>13.376192</v>
       </c>
-      <c r="N22" s="18">
+      <c r="N22" s="17">
         <v>46.5</v>
       </c>
       <c r="O22">
@@ -2156,7 +2205,7 @@
         <v>13.115863848871401</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="8" t="s">
         <v>21</v>
       </c>
@@ -2173,14 +2222,14 @@
       <c r="E23" s="7">
         <v>14.3</v>
       </c>
-      <c r="F23" s="11">
+      <c r="F23" s="10">
         <v>45.42</v>
       </c>
-      <c r="G23" s="7">
-        <v>0.66994930354024906</v>
-      </c>
-      <c r="H23" s="7">
-        <v>0.27133983945521128</v>
+      <c r="G23">
+        <v>2.4662916037353102</v>
+      </c>
+      <c r="H23">
+        <v>27.4681124002974</v>
       </c>
       <c r="I23" s="4">
         <v>5.8</v>
@@ -2188,16 +2237,16 @@
       <c r="J23" s="6">
         <v>12.5</v>
       </c>
-      <c r="K23" s="15">
+      <c r="K23" s="14">
         <v>4.03673422033956</v>
       </c>
-      <c r="L23" s="15">
+      <c r="L23" s="14">
         <v>3.7945346299999998</v>
       </c>
-      <c r="M23" s="15">
+      <c r="M23" s="14">
         <v>32.830274000000003</v>
       </c>
-      <c r="N23" s="18">
+      <c r="N23" s="17">
         <v>34</v>
       </c>
       <c r="O23">
@@ -2210,7 +2259,7 @@
         <v>4.8128830341639253</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="8" t="s">
         <v>22</v>
       </c>
@@ -2225,27 +2274,25 @@
         <v>94</v>
       </c>
       <c r="E24" s="7"/>
-      <c r="F24" s="11">
+      <c r="F24" s="10">
         <v>4.37</v>
       </c>
-      <c r="G24" s="7"/>
-      <c r="H24" s="7"/>
       <c r="I24" s="4">
         <v>33.6</v>
       </c>
       <c r="J24" s="6">
         <v>7.7</v>
       </c>
-      <c r="K24" s="15">
+      <c r="K24" s="14">
         <v>7.47869915567113</v>
       </c>
-      <c r="L24" s="15">
+      <c r="L24" s="14">
         <v>1.8895983300000001</v>
       </c>
-      <c r="M24" s="15">
+      <c r="M24" s="14">
         <v>9.6534659999999999</v>
       </c>
-      <c r="N24" s="18">
+      <c r="N24" s="17">
         <v>56.2</v>
       </c>
       <c r="P24">
@@ -2255,7 +2302,7 @@
         <v>2.889338341519792</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="8" t="s">
         <v>23</v>
       </c>
@@ -2270,27 +2317,31 @@
         <v>95</v>
       </c>
       <c r="E25" s="7"/>
-      <c r="F25" s="11">
+      <c r="F25" s="10">
         <v>12.1</v>
       </c>
-      <c r="G25" s="7"/>
-      <c r="H25" s="7"/>
+      <c r="G25">
+        <v>5.7771795342327703</v>
+      </c>
+      <c r="H25">
+        <v>7.7322402711949998</v>
+      </c>
       <c r="I25" s="4">
         <v>27.6</v>
       </c>
       <c r="J25" s="6">
         <v>8.8000000000000007</v>
       </c>
-      <c r="K25" s="15">
+      <c r="K25" s="14">
         <v>11.8329050190597</v>
       </c>
-      <c r="L25" s="15">
+      <c r="L25" s="14">
         <v>1.612914776</v>
       </c>
-      <c r="M25" s="15">
+      <c r="M25" s="14">
         <v>5.6650309999999999</v>
       </c>
-      <c r="N25" s="18">
+      <c r="N25" s="17">
         <v>43.3</v>
       </c>
       <c r="O25">
@@ -2303,7 +2354,7 @@
         <v>3.8913595933926302</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="8" t="s">
         <v>24</v>
       </c>
@@ -2320,27 +2371,31 @@
       <c r="E26" s="7">
         <v>37.799999999999997</v>
       </c>
-      <c r="F26" s="11">
+      <c r="F26" s="10">
         <v>33.450000000000003</v>
       </c>
-      <c r="G26" s="7"/>
-      <c r="H26" s="7"/>
+      <c r="G26">
+        <v>3.57642542986666</v>
+      </c>
+      <c r="H26">
+        <v>11.425393677516199</v>
+      </c>
       <c r="I26" s="4">
         <v>12.5</v>
       </c>
       <c r="J26" s="6">
         <v>10.6</v>
       </c>
-      <c r="K26" s="15">
+      <c r="K26" s="14">
         <v>24.2823792385533</v>
       </c>
-      <c r="L26" s="15">
+      <c r="L26" s="14">
         <v>3.461463626</v>
       </c>
-      <c r="M26" s="15">
+      <c r="M26" s="14">
         <v>17.409112</v>
       </c>
-      <c r="N26" s="18">
+      <c r="N26" s="17">
         <v>47.7</v>
       </c>
       <c r="O26">
@@ -2353,7 +2408,7 @@
         <v>1.7077946819498635</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="8" t="s">
         <v>25</v>
       </c>
@@ -2367,14 +2422,14 @@
       <c r="E27" s="7">
         <v>25.6</v>
       </c>
-      <c r="F27" s="11">
+      <c r="F27" s="10">
         <v>39.9</v>
       </c>
-      <c r="G27" s="7">
-        <v>0.65724715682140489</v>
-      </c>
-      <c r="H27" s="7">
-        <v>0.17322207390885053</v>
+      <c r="G27">
+        <v>3.3844078411709302</v>
+      </c>
+      <c r="H27">
+        <v>8.5891613423726305</v>
       </c>
       <c r="I27" s="4">
         <v>18.2</v>
@@ -2382,16 +2437,16 @@
       <c r="J27" s="6">
         <v>9.6999999999999993</v>
       </c>
-      <c r="K27" s="15">
+      <c r="K27" s="14">
         <v>147.67403502115599</v>
       </c>
-      <c r="L27" s="15">
+      <c r="L27" s="14">
         <v>1.9578983599999999</v>
       </c>
-      <c r="M27" s="15">
+      <c r="M27" s="14">
         <v>23.790354000000001</v>
       </c>
-      <c r="N27" s="18">
+      <c r="N27" s="17">
         <v>38.6</v>
       </c>
       <c r="O27">
@@ -2404,7 +2459,7 @@
         <v>12.664821089430253</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="8" t="s">
         <v>26</v>
       </c>
@@ -2421,14 +2476,14 @@
       <c r="E28" s="7">
         <v>9</v>
       </c>
-      <c r="F28" s="11">
+      <c r="F28" s="10">
         <v>4.58</v>
       </c>
-      <c r="G28" s="7">
-        <v>0.56367173690714478</v>
-      </c>
-      <c r="H28" s="7">
-        <v>0.11130160263568879</v>
+      <c r="G28">
+        <v>3.52685205109591</v>
+      </c>
+      <c r="H28">
+        <v>11.125908201501799</v>
       </c>
       <c r="I28" s="4">
         <v>18.5</v>
@@ -2436,16 +2491,16 @@
       <c r="J28" s="6">
         <v>7.2</v>
       </c>
-      <c r="K28" s="15">
+      <c r="K28" s="14">
         <v>44.223177106804897</v>
       </c>
-      <c r="L28" s="15">
+      <c r="L28" s="14">
         <v>2.3728377520000001</v>
       </c>
-      <c r="M28" s="15">
+      <c r="M28" s="14">
         <v>19.211746000000002</v>
       </c>
-      <c r="N28" s="18">
+      <c r="N28" s="17">
         <v>50.8</v>
       </c>
       <c r="O28">
@@ -2458,7 +2513,7 @@
         <v>1.5219468008886345</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="8" t="s">
         <v>27</v>
       </c>
@@ -2472,27 +2527,31 @@
       <c r="E29" s="7">
         <v>26.9</v>
       </c>
-      <c r="F29" s="11">
+      <c r="F29" s="10">
         <v>4.2699999999999996</v>
       </c>
-      <c r="G29" s="7"/>
-      <c r="H29" s="7"/>
+      <c r="G29">
+        <v>4.3074023816909</v>
+      </c>
+      <c r="H29">
+        <v>13.088647954519899</v>
+      </c>
       <c r="I29" s="4">
         <v>27.4</v>
       </c>
       <c r="J29" s="6">
         <v>5.7</v>
       </c>
-      <c r="K29" s="15">
+      <c r="K29" s="14">
         <v>15.404831625183</v>
       </c>
-      <c r="L29" s="15">
+      <c r="L29" s="14">
         <v>1.9430276660000001</v>
       </c>
-      <c r="M29" s="15">
+      <c r="M29" s="14">
         <v>17.503682999999999</v>
       </c>
-      <c r="N29" s="18">
+      <c r="N29" s="17">
         <v>42.1</v>
       </c>
       <c r="O29">
@@ -2505,7 +2564,7 @@
         <v>1.6105417276720351</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="8" t="s">
         <v>28</v>
       </c>
@@ -2520,27 +2579,31 @@
         <v>94</v>
       </c>
       <c r="E30" s="7"/>
-      <c r="F30" s="11">
+      <c r="F30" s="10">
         <v>4.32</v>
       </c>
-      <c r="G30" s="7"/>
-      <c r="H30" s="7"/>
+      <c r="G30">
+        <v>5.3020675050332002</v>
+      </c>
+      <c r="H30">
+        <v>7.2539446332169897</v>
+      </c>
       <c r="I30" s="4">
         <v>33.700000000000003</v>
       </c>
       <c r="J30" s="6">
         <v>5.9</v>
       </c>
-      <c r="K30" s="15">
+      <c r="K30" s="14">
         <v>35.879221014093197</v>
       </c>
-      <c r="L30" s="15">
+      <c r="L30" s="14">
         <v>1.8587189340000001</v>
       </c>
-      <c r="M30" s="15">
+      <c r="M30" s="14">
         <v>7.1134009999999996</v>
       </c>
-      <c r="N30" s="18">
+      <c r="N30" s="17">
         <v>40.200000000000003</v>
       </c>
       <c r="O30">
@@ -2553,7 +2616,7 @@
         <v>3.1318232945898852</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="8" t="s">
         <v>29</v>
       </c>
@@ -2570,14 +2633,14 @@
       <c r="E31" s="7">
         <v>11.9</v>
       </c>
-      <c r="F31" s="11">
+      <c r="F31" s="10">
         <v>9.93</v>
       </c>
-      <c r="G31" s="7">
-        <v>0.87944681446198447</v>
-      </c>
-      <c r="H31" s="7">
-        <v>0.11270908769011004</v>
+      <c r="G31">
+        <v>3.46142664480857</v>
+      </c>
+      <c r="H31">
+        <v>11.226772403879499</v>
       </c>
       <c r="I31" s="4">
         <v>16.7</v>
@@ -2585,16 +2648,16 @@
       <c r="J31" s="6">
         <v>7.9</v>
       </c>
-      <c r="K31" s="15">
+      <c r="K31" s="14">
         <v>96.078515471993697</v>
       </c>
-      <c r="L31" s="15">
+      <c r="L31" s="14">
         <v>1.9148140069999999</v>
       </c>
-      <c r="M31" s="15">
+      <c r="M31" s="14">
         <v>13.854123</v>
       </c>
-      <c r="N31" s="18">
+      <c r="N31" s="17">
         <v>48.7</v>
       </c>
       <c r="O31">
@@ -2607,7 +2670,7 @@
         <v>4.8472385428907163</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="8" t="s">
         <v>30</v>
       </c>
@@ -2624,14 +2687,14 @@
       <c r="E32" s="7">
         <v>37</v>
       </c>
-      <c r="F32" s="11">
+      <c r="F32" s="10">
         <v>45.82</v>
       </c>
-      <c r="G32" s="7">
-        <v>0.69160646973132889</v>
-      </c>
-      <c r="H32" s="7">
-        <v>0.22700760742420525</v>
+      <c r="G32">
+        <v>2.79539616520456</v>
+      </c>
+      <c r="H32">
+        <v>24.5629141601461</v>
       </c>
       <c r="I32" s="4">
         <v>8.1</v>
@@ -2639,16 +2702,16 @@
       <c r="J32" s="6">
         <v>16.5</v>
       </c>
-      <c r="K32" s="15">
+      <c r="K32" s="14">
         <v>73.725875625446704</v>
       </c>
-      <c r="L32" s="15">
+      <c r="L32" s="14">
         <v>2.7405460929999998</v>
       </c>
-      <c r="M32" s="15">
+      <c r="M32" s="14">
         <v>35.163044999999997</v>
       </c>
-      <c r="N32" s="18">
+      <c r="N32" s="17">
         <v>32.200000000000003</v>
       </c>
       <c r="O32">
@@ -2661,7 +2724,7 @@
         <v>15.582558970693352</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A33" s="8" t="s">
         <v>31</v>
       </c>
@@ -2678,14 +2741,14 @@
       <c r="E33" s="7">
         <v>36.4</v>
       </c>
-      <c r="F33" s="11">
+      <c r="F33" s="10">
         <v>35.17</v>
       </c>
-      <c r="G33" s="7">
-        <v>0.72350465964477217</v>
-      </c>
-      <c r="H33" s="7">
-        <v>0.20762954999637254</v>
+      <c r="G33">
+        <v>2.7587405438560602</v>
+      </c>
+      <c r="H33">
+        <v>20.762954999637302</v>
       </c>
       <c r="I33" s="4">
         <v>5.0999999999999996</v>
@@ -2693,16 +2756,16 @@
       <c r="J33" s="6">
         <v>5.3</v>
       </c>
-      <c r="K33" s="15">
+      <c r="K33" s="14">
         <v>127.65703463203501</v>
       </c>
-      <c r="L33" s="15">
+      <c r="L33" s="14">
         <v>1.7680723469999999</v>
       </c>
-      <c r="M33" s="15">
+      <c r="M33" s="14">
         <v>23.997837000000001</v>
       </c>
-      <c r="N33" s="18">
+      <c r="N33" s="17">
         <v>35.6</v>
       </c>
       <c r="O33">
@@ -2715,7 +2778,7 @@
         <v>9.1590906118417745</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="8" t="s">
         <v>32</v>
       </c>
@@ -2732,27 +2795,31 @@
       <c r="E34" s="7">
         <v>34.299999999999997</v>
       </c>
-      <c r="F34" s="11">
+      <c r="F34" s="10">
         <v>50.08</v>
       </c>
-      <c r="G34" s="7"/>
-      <c r="H34" s="7"/>
+      <c r="G34">
+        <v>2.3958593689795098</v>
+      </c>
+      <c r="H34">
+        <v>27.276817405768401</v>
+      </c>
       <c r="I34" s="4">
         <v>5.9</v>
       </c>
       <c r="J34" s="6">
         <v>13.1</v>
       </c>
-      <c r="K34" s="15">
+      <c r="K34" s="14">
         <v>137.17553425722099</v>
       </c>
-      <c r="L34" s="15">
+      <c r="L34" s="14">
         <v>2.7127169690000001</v>
       </c>
-      <c r="M34" s="15">
+      <c r="M34" s="14">
         <v>34.068710000000003</v>
       </c>
-      <c r="N34" s="18">
+      <c r="N34" s="17">
         <v>25.9</v>
       </c>
       <c r="O34">
@@ -2765,7 +2832,7 @@
         <v>32.297332297332296</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" s="8" t="s">
         <v>33</v>
       </c>
@@ -2782,27 +2849,25 @@
       <c r="E35" s="7">
         <v>19.100000000000001</v>
       </c>
-      <c r="F35" s="11">
+      <c r="F35" s="10">
         <v>55.67</v>
       </c>
-      <c r="G35" s="7"/>
-      <c r="H35" s="7"/>
       <c r="I35" s="4">
         <v>4</v>
       </c>
       <c r="J35" s="6">
         <v>12.8</v>
       </c>
-      <c r="K35" s="15">
+      <c r="K35" s="14">
         <v>136.51987601154701</v>
       </c>
-      <c r="L35" s="15">
+      <c r="L35" s="14">
         <v>2.8271041879999999</v>
       </c>
-      <c r="M35" s="15">
+      <c r="M35" s="14">
         <v>45.43515</v>
       </c>
-      <c r="N35" s="18">
+      <c r="N35" s="17">
         <v>28.5</v>
       </c>
       <c r="O35">
@@ -2815,7 +2880,7 @@
         <v>56.561085972850677</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="8" t="s">
         <v>34</v>
       </c>
@@ -2832,14 +2897,14 @@
       <c r="E36" s="7">
         <v>13.7</v>
       </c>
-      <c r="F36" s="11">
+      <c r="F36" s="10">
         <v>18.47</v>
       </c>
-      <c r="G36" s="7">
-        <v>0.83995056407134894</v>
-      </c>
-      <c r="H36" s="7">
-        <v>0.12795062987624567</v>
+      <c r="G36">
+        <v>3.4779335422446098</v>
+      </c>
+      <c r="H36">
+        <v>14.332102779658101</v>
       </c>
       <c r="I36" s="4">
         <v>34.6</v>
@@ -2847,16 +2912,16 @@
       <c r="J36" s="6">
         <v>9.9</v>
       </c>
-      <c r="K36" s="15">
+      <c r="K36" s="14">
         <v>222.87306975781399</v>
       </c>
-      <c r="L36" s="15">
+      <c r="L36" s="14">
         <v>2.1777191999999999</v>
       </c>
-      <c r="M36" s="15">
+      <c r="M36" s="14">
         <v>13.509418</v>
       </c>
-      <c r="N36" s="18">
+      <c r="N36" s="17">
         <v>45.3</v>
       </c>
       <c r="O36">
@@ -2869,7 +2934,7 @@
         <v>16.559718484785758</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="8" t="s">
         <v>35</v>
       </c>
@@ -2886,27 +2951,31 @@
       <c r="E37" s="7">
         <v>7.1</v>
       </c>
-      <c r="F37" s="11">
+      <c r="F37" s="10">
         <v>0.25</v>
       </c>
-      <c r="G37" s="7"/>
-      <c r="H37" s="7"/>
+      <c r="G37">
+        <v>3.77979891294363</v>
+      </c>
+      <c r="H37">
+        <v>12.123486663744799</v>
+      </c>
       <c r="I37" s="4">
         <v>21.3</v>
       </c>
       <c r="J37" s="6">
         <v>7.1</v>
       </c>
-      <c r="K37" s="15">
+      <c r="K37" s="14">
         <v>66.938548880657095</v>
       </c>
-      <c r="L37" s="15">
+      <c r="L37" s="14">
         <v>2.31497332</v>
       </c>
-      <c r="M37" s="15">
+      <c r="M37" s="14">
         <v>14.671663000000001</v>
       </c>
-      <c r="N37" s="18">
+      <c r="N37" s="17">
         <v>45</v>
       </c>
       <c r="O37">
@@ -2919,7 +2988,7 @@
         <v>3.929779352552746</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="8" t="s">
         <v>36</v>
       </c>
@@ -2936,25 +3005,29 @@
       <c r="E38" s="7">
         <v>25.2</v>
       </c>
-      <c r="F38" s="11">
+      <c r="F38" s="10">
         <v>30.05</v>
       </c>
-      <c r="G38" s="7"/>
-      <c r="H38" s="7"/>
+      <c r="G38">
+        <v>4.1308575832092096</v>
+      </c>
+      <c r="H38">
+        <v>6.4785949658702897</v>
+      </c>
       <c r="I38" s="4">
         <v>9.6999999999999993</v>
       </c>
       <c r="J38" s="6">
         <v>4</v>
       </c>
-      <c r="K38" s="15">
+      <c r="K38" s="14">
         <v>97.999046662313503</v>
       </c>
-      <c r="L38" s="15">
+      <c r="L38" s="14">
         <v>1.446643887</v>
       </c>
-      <c r="M38" s="15"/>
-      <c r="N38" s="18">
+      <c r="M38" s="14"/>
+      <c r="N38" s="17">
         <v>31.8</v>
       </c>
       <c r="O38">
@@ -2967,7 +3040,7 @@
         <v>2.7995077799299311</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" s="8" t="s">
         <v>37</v>
       </c>
@@ -2984,27 +3057,31 @@
       <c r="E39" s="7">
         <v>9.9</v>
       </c>
-      <c r="F39" s="11">
+      <c r="F39" s="10">
         <v>13.68</v>
       </c>
-      <c r="G39" s="7"/>
-      <c r="H39" s="7"/>
+      <c r="G39">
+        <v>4.0699771697616702</v>
+      </c>
+      <c r="H39">
+        <v>8.8227135978606395</v>
+      </c>
       <c r="I39" s="4">
         <v>22.2</v>
       </c>
       <c r="J39" s="6">
         <v>13.7</v>
       </c>
-      <c r="K39" s="15">
+      <c r="K39" s="14">
         <v>307.81143822393801</v>
       </c>
-      <c r="L39" s="15">
+      <c r="L39" s="14">
         <v>3.0883517739999999</v>
       </c>
-      <c r="M39" s="15">
+      <c r="M39" s="14">
         <v>17.381668999999999</v>
       </c>
-      <c r="N39" s="18">
+      <c r="N39" s="17">
         <v>40</v>
       </c>
       <c r="O39">
@@ -3017,7 +3094,7 @@
         <v>35.569498069498067</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="8" t="s">
         <v>38</v>
       </c>
@@ -3034,14 +3111,14 @@
       <c r="E40" s="7">
         <v>31.3</v>
       </c>
-      <c r="F40" s="11">
+      <c r="F40" s="10">
         <v>59.43</v>
       </c>
-      <c r="G40" s="7">
-        <v>0.61769076550149549</v>
-      </c>
-      <c r="H40" s="7">
-        <v>0.33520475391220245</v>
+      <c r="G40">
+        <v>2.2975175724185601</v>
+      </c>
+      <c r="H40">
+        <v>33.902919788016199</v>
       </c>
       <c r="I40" s="4">
         <v>6.1</v>
@@ -3049,16 +3126,16 @@
       <c r="J40" s="6">
         <v>17.8</v>
       </c>
-      <c r="K40" s="15">
+      <c r="K40" s="14">
         <v>31.032790752535998</v>
       </c>
-      <c r="L40" s="15">
+      <c r="L40" s="14">
         <v>5.4835234560000004</v>
       </c>
-      <c r="M40" s="15">
+      <c r="M40" s="14">
         <v>33.730350999999999</v>
       </c>
-      <c r="N40" s="18">
+      <c r="N40" s="17">
         <v>34.6</v>
       </c>
       <c r="O40">
@@ -3071,7 +3148,7 @@
         <v>16.011042097998622</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A41" s="8" t="s">
         <v>39</v>
       </c>
@@ -3088,25 +3165,29 @@
       <c r="E41" s="7">
         <v>4.4000000000000004</v>
       </c>
-      <c r="F41" s="11">
+      <c r="F41" s="10">
         <v>9.02</v>
       </c>
-      <c r="G41" s="7"/>
-      <c r="H41" s="7"/>
+      <c r="G41">
+        <v>4.6145778397678496</v>
+      </c>
+      <c r="H41">
+        <v>7.5212164041356102</v>
+      </c>
       <c r="I41" s="4">
         <v>26.7</v>
       </c>
       <c r="J41" s="6">
         <v>7.2</v>
       </c>
-      <c r="K41" s="15">
+      <c r="K41" s="14">
         <v>104.957438</v>
       </c>
-      <c r="L41" s="15">
+      <c r="L41" s="14">
         <v>2.616682548</v>
       </c>
-      <c r="M41" s="15"/>
-      <c r="N41" s="18">
+      <c r="M41" s="14"/>
+      <c r="N41" s="17">
         <v>33.200000000000003</v>
       </c>
       <c r="O41">
@@ -3119,7 +3200,7 @@
         <v>15.119</v>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A42" s="8" t="s">
         <v>40</v>
       </c>
@@ -3136,14 +3217,14 @@
       <c r="E42" s="7">
         <v>20.399999999999999</v>
       </c>
-      <c r="F42" s="11">
+      <c r="F42" s="10">
         <v>60.17</v>
       </c>
-      <c r="G42" s="7">
-        <v>0.56341308932652845</v>
-      </c>
-      <c r="H42" s="7">
-        <v>0.41005014588934169</v>
+      <c r="G42">
+        <v>2.0749590985642801</v>
+      </c>
+      <c r="H42">
+        <v>41.005014588934202</v>
       </c>
       <c r="I42" s="4">
         <v>4.7</v>
@@ -3151,16 +3232,16 @@
       <c r="J42" s="6">
         <v>15.9</v>
       </c>
-      <c r="K42" s="15">
+      <c r="K42" s="14">
         <v>18.1358484978117</v>
       </c>
-      <c r="L42" s="15">
+      <c r="L42" s="14">
         <v>4.0242325509999999</v>
       </c>
-      <c r="M42" s="15">
+      <c r="M42" s="14">
         <v>44.017195000000001</v>
       </c>
-      <c r="N42" s="18">
+      <c r="N42" s="17">
         <v>26.8</v>
       </c>
       <c r="O42">
@@ -3173,7 +3254,7 @@
         <v>7.3903458260669286</v>
       </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A43" s="8" t="s">
         <v>41</v>
       </c>
@@ -3190,14 +3271,14 @@
       <c r="E43" s="7">
         <v>32.700000000000003</v>
       </c>
-      <c r="F43" s="11">
+      <c r="F43" s="10">
         <v>48.85</v>
       </c>
-      <c r="G43" s="7">
-        <v>0.61570360080349607</v>
-      </c>
-      <c r="H43" s="7">
-        <v>0.35455939513927548</v>
+      <c r="G43">
+        <v>2.2628282394029502</v>
+      </c>
+      <c r="H43">
+        <v>34.09893845533</v>
       </c>
       <c r="I43" s="4">
         <v>5.5</v>
@@ -3205,16 +3286,16 @@
       <c r="J43" s="6">
         <v>17.7</v>
       </c>
-      <c r="K43" s="15">
+      <c r="K43" s="14">
         <v>122.57837631516</v>
       </c>
-      <c r="L43" s="15">
+      <c r="L43" s="14">
         <v>2.7333169019999999</v>
       </c>
-      <c r="M43" s="15">
+      <c r="M43" s="14">
         <v>45.277869000000003</v>
       </c>
-      <c r="N43" s="18">
+      <c r="N43" s="17">
         <v>32.299999999999997</v>
       </c>
       <c r="O43">
@@ -3227,7 +3308,7 @@
         <v>33.523304758729807</v>
       </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A44" s="8" t="s">
         <v>42</v>
       </c>
@@ -3239,27 +3320,31 @@
         <v>5</v>
       </c>
       <c r="E44" s="7"/>
-      <c r="F44" s="11">
+      <c r="F44" s="10">
         <v>0.38</v>
       </c>
-      <c r="G44" s="7"/>
-      <c r="H44" s="7"/>
+      <c r="G44">
+        <v>4.0975978134522197</v>
+      </c>
+      <c r="H44">
+        <v>22.422013555968</v>
+      </c>
       <c r="I44" s="4">
         <v>23.2</v>
       </c>
       <c r="J44" s="6">
         <v>7.1</v>
       </c>
-      <c r="K44" s="15">
+      <c r="K44" s="14">
         <v>7.8594209647999396</v>
       </c>
-      <c r="L44" s="15">
+      <c r="L44" s="14">
         <v>2.0146800420000002</v>
       </c>
-      <c r="M44" s="15">
+      <c r="M44" s="14">
         <v>20.494221</v>
       </c>
-      <c r="N44" s="18">
+      <c r="N44" s="17">
         <v>38</v>
       </c>
       <c r="O44">
@@ -3272,7 +3357,7 @@
         <v>1.2613032172934373</v>
       </c>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A45" s="8" t="s">
         <v>43</v>
       </c>
@@ -3286,27 +3371,31 @@
       <c r="E45" s="7">
         <v>15.5</v>
       </c>
-      <c r="F45" s="11">
+      <c r="F45" s="10">
         <v>13.45</v>
       </c>
-      <c r="G45" s="7"/>
-      <c r="H45" s="7"/>
+      <c r="G45">
+        <v>8.2296813888947593</v>
+      </c>
+      <c r="H45">
+        <v>8.3851459966180606</v>
+      </c>
       <c r="I45" s="4">
         <v>29.7</v>
       </c>
       <c r="J45" s="6">
         <v>5.0999999999999996</v>
       </c>
-      <c r="K45" s="15">
+      <c r="K45" s="14">
         <v>207.56600790513801</v>
       </c>
-      <c r="L45" s="15">
+      <c r="L45" s="14">
         <v>1.576080782</v>
       </c>
-      <c r="M45" s="15">
+      <c r="M45" s="14">
         <v>11.14148</v>
       </c>
-      <c r="N45" s="18">
+      <c r="N45" s="17">
         <v>47.3</v>
       </c>
       <c r="O45">
@@ -3319,7 +3408,7 @@
         <v>43.478260869565219</v>
       </c>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" s="8" t="s">
         <v>44</v>
       </c>
@@ -3336,14 +3425,14 @@
       <c r="E46" s="7">
         <v>28.8</v>
       </c>
-      <c r="F46" s="11">
+      <c r="F46" s="10">
         <v>42.25</v>
       </c>
-      <c r="G46" s="7">
-        <v>0.63570083817822465</v>
-      </c>
-      <c r="H46" s="7">
-        <v>0.17476322547138509</v>
+      <c r="G46">
+        <v>3.5164757818394801</v>
+      </c>
+      <c r="H46">
+        <v>16.300663310697399</v>
       </c>
       <c r="I46" s="4">
         <v>15.3</v>
@@ -3351,16 +3440,16 @@
       <c r="J46" s="6">
         <v>8.1999999999999993</v>
       </c>
-      <c r="K46" s="15">
+      <c r="K46" s="14">
         <v>65.032016515623397</v>
       </c>
-      <c r="L46" s="15">
+      <c r="L46" s="14">
         <v>2.4086422789999999</v>
       </c>
-      <c r="M46" s="15">
+      <c r="M46" s="14">
         <v>25.819448000000001</v>
       </c>
-      <c r="N46" s="18">
+      <c r="N46" s="17">
         <v>36.5</v>
       </c>
       <c r="O46">
@@ -3373,7 +3462,7 @@
         <v>4.9503525687149237</v>
       </c>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A47" s="8" t="s">
         <v>45</v>
       </c>
@@ -3390,14 +3479,14 @@
       <c r="E47" s="7">
         <v>30.6</v>
       </c>
-      <c r="F47" s="11">
+      <c r="F47" s="10">
         <v>52.52</v>
       </c>
-      <c r="G47" s="7">
-        <v>0.59044744707976637</v>
-      </c>
-      <c r="H47" s="7">
-        <v>0.37270031780218027</v>
+      <c r="G47">
+        <v>2.13881151612819</v>
+      </c>
+      <c r="H47">
+        <v>37.270031780217998</v>
       </c>
       <c r="I47" s="4">
         <v>4.0999999999999996</v>
@@ -3405,16 +3494,16 @@
       <c r="J47" s="6">
         <v>13.6</v>
       </c>
-      <c r="K47" s="15">
+      <c r="K47" s="14">
         <v>237.016337059329</v>
       </c>
-      <c r="L47" s="15">
+      <c r="L47" s="14">
         <v>2.827630079</v>
       </c>
-      <c r="M47" s="15">
+      <c r="M47" s="14">
         <v>37.430619999999998</v>
       </c>
-      <c r="N47" s="18">
+      <c r="N47" s="17">
         <v>31.4</v>
       </c>
       <c r="O47">
@@ -3427,7 +3516,7 @@
         <v>33.67013968399359</v>
       </c>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A48" s="8" t="s">
         <v>46</v>
       </c>
@@ -3444,14 +3533,14 @@
       <c r="E48" s="7">
         <v>3.9</v>
       </c>
-      <c r="F48" s="11">
+      <c r="F48" s="10">
         <v>5.55</v>
       </c>
-      <c r="G48" s="7">
-        <v>0.82427728156021729</v>
-      </c>
-      <c r="H48" s="7">
-        <v>0.17572271843978274</v>
+      <c r="G48">
+        <v>3.4928861200744699</v>
+      </c>
+      <c r="H48">
+        <v>25.877679819777601</v>
       </c>
       <c r="I48" s="4">
         <v>24.9</v>
@@ -3459,16 +3548,16 @@
       <c r="J48" s="6">
         <v>5.4</v>
       </c>
-      <c r="K48" s="15">
+      <c r="K48" s="14">
         <v>126.71894611936401</v>
       </c>
-      <c r="L48" s="15">
+      <c r="L48" s="14">
         <v>1.6884604519999999</v>
       </c>
-      <c r="M48" s="15">
+      <c r="M48" s="14">
         <v>12.377316</v>
       </c>
-      <c r="N48" s="18">
+      <c r="N48" s="17">
         <v>42.8</v>
       </c>
       <c r="O48">
@@ -3481,7 +3570,7 @@
         <v>20.655708886349654</v>
       </c>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A49" s="8" t="s">
         <v>47</v>
       </c>
@@ -3498,14 +3587,14 @@
       <c r="E49" s="7">
         <v>43.4</v>
       </c>
-      <c r="F49" s="11">
+      <c r="F49" s="10">
         <v>37.97</v>
       </c>
-      <c r="G49" s="7">
-        <v>0.73604024896899678</v>
-      </c>
-      <c r="H49" s="7">
-        <v>0.19748433027907494</v>
+      <c r="G49">
+        <v>2.5554993905152599</v>
+      </c>
+      <c r="H49">
+        <v>25.743958361550199</v>
       </c>
       <c r="I49" s="4">
         <v>9.1999999999999993</v>
@@ -3513,16 +3602,16 @@
       <c r="J49" s="6">
         <v>5</v>
       </c>
-      <c r="K49" s="15">
+      <c r="K49" s="14">
         <v>83.478828549263</v>
       </c>
-      <c r="L49" s="15">
+      <c r="L49" s="14">
         <v>1.8782843119999999</v>
       </c>
-      <c r="M49" s="15">
+      <c r="M49" s="14">
         <v>38.338583999999997</v>
       </c>
-      <c r="N49" s="18">
+      <c r="N49" s="17">
         <v>35.799999999999997</v>
       </c>
       <c r="O49">
@@ -3535,7 +3624,7 @@
         <v>16.602017067494181</v>
       </c>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A50" s="8" t="s">
         <v>48</v>
       </c>
@@ -3550,27 +3639,31 @@
         <v>88</v>
       </c>
       <c r="E50" s="7"/>
-      <c r="F50" s="11">
+      <c r="F50" s="10">
         <v>14.6</v>
       </c>
-      <c r="G50" s="7"/>
-      <c r="H50" s="7"/>
+      <c r="G50">
+        <v>4.8057137645585399</v>
+      </c>
+      <c r="H50">
+        <v>4.3269587846942299</v>
+      </c>
       <c r="I50" s="4">
         <v>16.600000000000001</v>
       </c>
       <c r="J50" s="6">
         <v>2.7</v>
       </c>
-      <c r="K50" s="15">
+      <c r="K50" s="14">
         <v>157.83410787607301</v>
       </c>
-      <c r="L50" s="15">
+      <c r="L50" s="14">
         <v>3.162466411</v>
       </c>
-      <c r="M50" s="15">
+      <c r="M50" s="14">
         <v>10.78232</v>
       </c>
-      <c r="N50" s="18">
+      <c r="N50" s="17">
         <v>48.7</v>
       </c>
       <c r="O50">
@@ -3583,7 +3676,7 @@
         <v>8.0440462859275854</v>
       </c>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A51" s="8" t="s">
         <v>49</v>
       </c>
@@ -3598,27 +3691,31 @@
         <v>97</v>
       </c>
       <c r="E51" s="7"/>
-      <c r="F51" s="11">
+      <c r="F51" s="10">
         <v>9.52</v>
       </c>
-      <c r="G51" s="7"/>
-      <c r="H51" s="7"/>
+      <c r="G51">
+        <v>6.2508190391038401</v>
+      </c>
+      <c r="H51">
+        <v>4.5314941806175897</v>
+      </c>
       <c r="I51" s="4">
         <v>28.2</v>
       </c>
       <c r="J51" s="6">
         <v>6.3</v>
       </c>
-      <c r="K51" s="15">
+      <c r="K51" s="14">
         <v>51.754745238482798</v>
       </c>
-      <c r="L51" s="15">
+      <c r="L51" s="14">
         <v>1.590701079</v>
       </c>
-      <c r="M51" s="15">
+      <c r="M51" s="14">
         <v>14.030989</v>
       </c>
-      <c r="N51" s="18">
+      <c r="N51" s="17">
         <v>33.700000000000003</v>
       </c>
       <c r="O51">
@@ -3631,7 +3728,7 @@
         <v>12.615985674751752</v>
       </c>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A52" s="8" t="s">
         <v>50</v>
       </c>
@@ -3648,25 +3745,29 @@
       <c r="E52" s="7">
         <v>12.7</v>
       </c>
-      <c r="F52" s="11">
+      <c r="F52" s="10">
         <v>18.53</v>
       </c>
-      <c r="G52" s="7"/>
-      <c r="H52" s="7"/>
+      <c r="G52">
+        <v>4.4284968415282302</v>
+      </c>
+      <c r="H52">
+        <v>9.8858769232348198</v>
+      </c>
       <c r="I52" s="4"/>
       <c r="J52" s="6">
         <v>11.7</v>
       </c>
-      <c r="K52" s="15">
+      <c r="K52" s="14">
         <v>398.448076923077</v>
       </c>
-      <c r="L52" s="15">
+      <c r="L52" s="14">
         <v>2.334270047</v>
       </c>
-      <c r="M52" s="15">
+      <c r="M52" s="14">
         <v>13.731528000000001</v>
       </c>
-      <c r="N52" s="18">
+      <c r="N52" s="17">
         <v>60.8</v>
       </c>
       <c r="O52">
@@ -3679,7 +3780,7 @@
         <v>38.824383164005802</v>
       </c>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A53" s="8" t="s">
         <v>51</v>
       </c>
@@ -3696,27 +3797,31 @@
       <c r="E53" s="7">
         <v>2</v>
       </c>
-      <c r="F53" s="11">
+      <c r="F53" s="10">
         <v>14.1</v>
       </c>
-      <c r="G53" s="7"/>
-      <c r="H53" s="7"/>
+      <c r="G53">
+        <v>4.4674915344187101</v>
+      </c>
+      <c r="H53">
+        <v>6.6876921607219701</v>
+      </c>
       <c r="I53" s="4">
         <v>16.7</v>
       </c>
       <c r="J53" s="6">
         <v>2.9</v>
       </c>
-      <c r="K53" s="15">
+      <c r="K53" s="14">
         <v>82.805138975779798</v>
       </c>
-      <c r="L53" s="15">
+      <c r="L53" s="14">
         <v>2.1300707230000002</v>
       </c>
-      <c r="M53" s="15">
+      <c r="M53" s="14">
         <v>22.421873000000001</v>
       </c>
-      <c r="N53" s="18">
+      <c r="N53" s="17">
         <v>50</v>
       </c>
       <c r="O53">
@@ -3729,7 +3834,7 @@
         <v>9.1160961658772006</v>
       </c>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A54" s="8" t="s">
         <v>52</v>
       </c>
@@ -3744,19 +3849,23 @@
         <v>24</v>
       </c>
       <c r="E54" s="7"/>
-      <c r="F54" s="11"/>
-      <c r="G54" s="7"/>
-      <c r="H54" s="7"/>
+      <c r="F54" s="10"/>
+      <c r="G54">
+        <v>2.9093509951891199</v>
+      </c>
+      <c r="H54">
+        <v>17.058792736900902</v>
+      </c>
       <c r="I54" s="4"/>
       <c r="J54" s="6"/>
-      <c r="K54" s="15">
+      <c r="K54" s="14">
         <v>7039.7142857142899</v>
       </c>
-      <c r="L54" s="15"/>
-      <c r="M54" s="15">
+      <c r="L54" s="14"/>
+      <c r="M54" s="14">
         <v>13.574933</v>
       </c>
-      <c r="N54" s="18"/>
+      <c r="N54" s="17"/>
       <c r="O54">
         <v>74.56</v>
       </c>
@@ -3767,7 +3876,7 @@
         <v>2.8571428571428572</v>
       </c>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A55" s="8" t="s">
         <v>53</v>
       </c>
@@ -3784,14 +3893,14 @@
       <c r="E55" s="7">
         <v>30.6</v>
       </c>
-      <c r="F55" s="11">
+      <c r="F55" s="10">
         <v>47.47</v>
       </c>
-      <c r="G55" s="7">
-        <v>0.65609149127617683</v>
-      </c>
-      <c r="H55" s="7">
-        <v>0.29253351672416456</v>
+      <c r="G55">
+        <v>2.3600954282097502</v>
+      </c>
+      <c r="H55">
+        <v>32.230390963532798</v>
       </c>
       <c r="I55" s="4">
         <v>7.8</v>
@@ -3799,16 +3908,16 @@
       <c r="J55" s="6">
         <v>19.100000000000001</v>
       </c>
-      <c r="K55" s="15">
+      <c r="K55" s="14">
         <v>108.042936043301</v>
       </c>
-      <c r="L55" s="15">
+      <c r="L55" s="14">
         <v>2.6101259950000002</v>
       </c>
-      <c r="M55" s="15">
+      <c r="M55" s="14">
         <v>39.148890999999999</v>
       </c>
-      <c r="N55" s="18">
+      <c r="N55" s="17">
         <v>30.9</v>
       </c>
       <c r="O55">
@@ -3821,7 +3930,7 @@
         <v>47.763172429029048</v>
       </c>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A56" s="8" t="s">
         <v>54</v>
       </c>
@@ -3835,27 +3944,25 @@
       <c r="E56" s="7">
         <v>14.7</v>
       </c>
-      <c r="F56" s="11">
+      <c r="F56" s="10">
         <v>64.13</v>
       </c>
-      <c r="G56" s="7"/>
-      <c r="H56" s="7"/>
       <c r="I56" s="4">
         <v>6.6</v>
       </c>
       <c r="J56" s="6">
         <v>14</v>
       </c>
-      <c r="K56" s="15">
+      <c r="K56" s="14">
         <v>3.40432917705736</v>
       </c>
-      <c r="L56" s="15">
+      <c r="L56" s="14">
         <v>2.1393359009999999</v>
       </c>
-      <c r="M56" s="15">
+      <c r="M56" s="14">
         <v>36.789971000000001</v>
       </c>
-      <c r="N56" s="18">
+      <c r="N56" s="17">
         <v>25.6</v>
       </c>
       <c r="O56">
@@ -3868,7 +3975,7 @@
         <v>1.2069825436408979</v>
       </c>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A57" s="8" t="s">
         <v>55</v>
       </c>
@@ -3885,27 +3992,31 @@
       <c r="E57" s="7">
         <v>11.5</v>
       </c>
-      <c r="F57" s="11">
+      <c r="F57" s="10">
         <v>28.6</v>
       </c>
-      <c r="G57" s="7"/>
-      <c r="H57" s="7"/>
+      <c r="G57">
+        <v>4.5721889921643397</v>
+      </c>
+      <c r="H57">
+        <v>4.1076471332099898</v>
+      </c>
       <c r="I57" s="4">
         <v>22.6</v>
       </c>
       <c r="J57" s="6">
         <v>16.3</v>
       </c>
-      <c r="K57" s="15">
+      <c r="K57" s="14">
         <v>450.41861670461702</v>
       </c>
-      <c r="L57" s="15">
+      <c r="L57" s="14">
         <v>1.7448725620000001</v>
       </c>
-      <c r="M57" s="15">
+      <c r="M57" s="14">
         <v>17.577255000000001</v>
       </c>
-      <c r="N57" s="18">
+      <c r="N57" s="17">
         <v>35.700000000000003</v>
       </c>
       <c r="O57">
@@ -3918,7 +4029,7 @@
         <v>52.624622038954797</v>
       </c>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A58" s="8" t="s">
         <v>56</v>
       </c>
@@ -3935,27 +4046,31 @@
       <c r="E58" s="7">
         <v>39.4</v>
       </c>
-      <c r="F58" s="11">
+      <c r="F58" s="10">
         <v>6.2</v>
       </c>
-      <c r="G58" s="7"/>
-      <c r="H58" s="7"/>
+      <c r="G58">
+        <v>3.9922815471164199</v>
+      </c>
+      <c r="H58">
+        <v>6.9637149256103896</v>
+      </c>
       <c r="I58" s="4">
         <v>12.2</v>
       </c>
       <c r="J58" s="6">
         <v>3.4</v>
       </c>
-      <c r="K58" s="15">
+      <c r="K58" s="14">
         <v>145.72518809651299</v>
       </c>
-      <c r="L58" s="15">
+      <c r="L58" s="14">
         <v>1.2969102939999999</v>
       </c>
-      <c r="M58" s="15">
+      <c r="M58" s="14">
         <v>10.361459</v>
       </c>
-      <c r="N58" s="18">
+      <c r="N58" s="17">
         <v>38.1</v>
       </c>
       <c r="O58">
@@ -3968,7 +4083,7 @@
         <v>12.9721733082354</v>
       </c>
     </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A59" s="8" t="s">
         <v>57</v>
       </c>
@@ -3985,27 +4100,31 @@
       <c r="E59" s="7">
         <v>11</v>
       </c>
-      <c r="F59" s="11">
+      <c r="F59" s="10">
         <v>35.68</v>
       </c>
-      <c r="G59" s="7"/>
-      <c r="H59" s="7"/>
+      <c r="G59">
+        <v>3.4929601052144399</v>
+      </c>
+      <c r="H59">
+        <v>7.2035714523007597</v>
+      </c>
       <c r="I59" s="4">
         <v>20.5</v>
       </c>
       <c r="J59" s="6">
         <v>4.0999999999999996</v>
       </c>
-      <c r="K59" s="15">
+      <c r="K59" s="14">
         <v>49.831029740416</v>
       </c>
-      <c r="L59" s="15">
+      <c r="L59" s="14">
         <v>1.7879851849999999</v>
       </c>
-      <c r="M59" s="15">
+      <c r="M59" s="14">
         <v>7.9746290000000002</v>
       </c>
-      <c r="N59" s="18">
+      <c r="N59" s="17">
         <v>38.799999999999997</v>
       </c>
       <c r="O59">
@@ -4018,7 +4137,7 @@
         <v>9.017289226159777</v>
       </c>
     </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A60" s="8" t="s">
         <v>58</v>
       </c>
@@ -4033,27 +4152,25 @@
         <v>84</v>
       </c>
       <c r="E60" s="7"/>
-      <c r="F60" s="11">
+      <c r="F60" s="10">
         <v>33.33</v>
       </c>
-      <c r="G60" s="7"/>
-      <c r="H60" s="7"/>
       <c r="I60" s="4">
         <v>20.7</v>
       </c>
       <c r="J60" s="6">
         <v>3</v>
       </c>
-      <c r="K60" s="15">
+      <c r="K60" s="14">
         <v>88.125386811567495</v>
       </c>
-      <c r="L60" s="15">
+      <c r="L60" s="14">
         <v>2.1814031009999999</v>
       </c>
-      <c r="M60" s="15">
+      <c r="M60" s="14">
         <v>1.3778090000000001</v>
       </c>
-      <c r="N60" s="18">
+      <c r="N60" s="17">
         <v>29.5</v>
       </c>
       <c r="O60">
@@ -4066,7 +4183,7 @@
         <v>11.517340300604381</v>
       </c>
     </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A61" s="8" t="s">
         <v>59</v>
       </c>
@@ -4083,14 +4200,14 @@
       <c r="E61" s="7">
         <v>24.3</v>
       </c>
-      <c r="F61" s="11">
+      <c r="F61" s="10">
         <v>53.33</v>
       </c>
-      <c r="G61" s="7">
-        <v>0.69506676244257581</v>
-      </c>
-      <c r="H61" s="7">
-        <v>0.22644920185860873</v>
+      <c r="G61">
+        <v>2.81323141323141</v>
+      </c>
+      <c r="H61">
+        <v>22.189462189462201</v>
       </c>
       <c r="I61" s="4">
         <v>4.0999999999999996</v>
@@ -4098,16 +4215,16 @@
       <c r="J61" s="6">
         <v>11.5</v>
       </c>
-      <c r="K61" s="15">
+      <c r="K61" s="14">
         <v>69.873827841486403</v>
       </c>
-      <c r="L61" s="15">
+      <c r="L61" s="14">
         <v>3.2364014619999999</v>
       </c>
-      <c r="M61" s="15">
+      <c r="M61" s="14">
         <v>23.358557999999999</v>
       </c>
-      <c r="N61" s="18">
+      <c r="N61" s="17">
         <v>31.9</v>
       </c>
       <c r="O61">
@@ -4120,7 +4237,7 @@
         <v>6.4740891275947163</v>
       </c>
     </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A62" s="8" t="s">
         <v>60</v>
       </c>
@@ -4137,14 +4254,14 @@
       <c r="E62" s="7">
         <v>25.2</v>
       </c>
-      <c r="F62" s="11">
+      <c r="F62" s="10">
         <v>31.78</v>
       </c>
-      <c r="G62" s="7">
-        <v>0.72476004463721133</v>
-      </c>
-      <c r="H62" s="7">
-        <v>0.2095586561487961</v>
+      <c r="G62">
+        <v>3.1419453923882301</v>
+      </c>
+      <c r="H62">
+        <v>21.008758150672001</v>
       </c>
       <c r="I62" s="4">
         <v>4.2</v>
@@ -4152,16 +4269,16 @@
       <c r="J62" s="6">
         <v>5.4</v>
       </c>
-      <c r="K62" s="15">
+      <c r="K62" s="14">
         <v>402.60628465804098</v>
       </c>
-      <c r="L62" s="15">
+      <c r="L62" s="14">
         <v>1.3260031560000001</v>
       </c>
-      <c r="M62" s="15">
+      <c r="M62" s="14">
         <v>31.128926</v>
       </c>
-      <c r="N62" s="18">
+      <c r="N62" s="17">
         <v>41.4</v>
       </c>
       <c r="O62">
@@ -4174,7 +4291,7 @@
         <v>13.632162661737524</v>
       </c>
     </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A63" s="8" t="s">
         <v>61</v>
       </c>
@@ -4191,14 +4308,14 @@
       <c r="E63" s="7">
         <v>23.7</v>
       </c>
-      <c r="F63" s="11">
+      <c r="F63" s="10">
         <v>41.9</v>
       </c>
-      <c r="G63" s="7">
-        <v>0.67798145991544345</v>
-      </c>
-      <c r="H63" s="7">
-        <v>0.28208180000526467</v>
+      <c r="G63">
+        <v>2.5892810587452599</v>
+      </c>
+      <c r="H63">
+        <v>24.9691550981936</v>
       </c>
       <c r="I63" s="4">
         <v>5.6</v>
@@ -4206,16 +4323,16 @@
       <c r="J63" s="6">
         <v>8.1999999999999993</v>
       </c>
-      <c r="K63" s="15">
+      <c r="K63" s="14">
         <v>205.85916910314799</v>
       </c>
-      <c r="L63" s="15">
+      <c r="L63" s="14">
         <v>1.683797108</v>
       </c>
-      <c r="M63" s="15">
+      <c r="M63" s="14">
         <v>42.385586000000004</v>
       </c>
-      <c r="N63" s="18">
+      <c r="N63" s="17">
         <v>34.700000000000003</v>
       </c>
       <c r="O63">
@@ -4228,7 +4345,7 @@
         <v>22.445094172842865</v>
       </c>
     </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A64" s="8" t="s">
         <v>62</v>
       </c>
@@ -4243,27 +4360,31 @@
         <v>88</v>
       </c>
       <c r="E64" s="7"/>
-      <c r="F64" s="11">
+      <c r="F64" s="10">
         <v>6.82</v>
       </c>
-      <c r="G64" s="7"/>
-      <c r="H64" s="7"/>
+      <c r="G64">
+        <v>5.0900631110499699</v>
+      </c>
+      <c r="H64">
+        <v>12.1771464548734</v>
+      </c>
       <c r="I64" s="4">
         <v>23.6</v>
       </c>
       <c r="J64" s="6">
         <v>14.5</v>
       </c>
-      <c r="K64" s="15">
+      <c r="K64" s="14">
         <v>76.3985849056604</v>
       </c>
-      <c r="L64" s="15">
+      <c r="L64" s="14">
         <v>1.720200808</v>
       </c>
-      <c r="M64" s="15">
+      <c r="M64" s="14">
         <v>16.017084000000001</v>
       </c>
-      <c r="N64" s="18">
+      <c r="N64" s="17">
         <v>41.7</v>
       </c>
       <c r="O64">
@@ -4276,7 +4397,7 @@
         <v>9.1194968553459113</v>
       </c>
     </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A65" s="8" t="s">
         <v>63</v>
       </c>
@@ -4293,14 +4414,14 @@
       <c r="E65" s="7">
         <v>16.8</v>
       </c>
-      <c r="F65" s="11">
+      <c r="F65" s="10">
         <v>17.98</v>
       </c>
-      <c r="G65" s="7">
-        <v>0.65214231435084935</v>
-      </c>
-      <c r="H65" s="7">
-        <v>0.28171933653675846</v>
+      <c r="G65">
+        <v>3.44598668248031</v>
+      </c>
+      <c r="H65">
+        <v>23.3016076207638</v>
       </c>
       <c r="I65" s="4">
         <v>13.6</v>
@@ -4308,16 +4429,16 @@
       <c r="J65" s="6">
         <v>2.2000000000000002</v>
       </c>
-      <c r="K65" s="15">
+      <c r="K65" s="14">
         <v>266.878947368421</v>
       </c>
-      <c r="L65" s="15">
+      <c r="L65" s="14">
         <v>2.3290716069999999</v>
       </c>
-      <c r="M65" s="15">
+      <c r="M65" s="14">
         <v>25.114878999999998</v>
       </c>
-      <c r="N65" s="18">
+      <c r="N65" s="17">
         <v>45.5</v>
       </c>
       <c r="O65">
@@ -4330,7 +4451,7 @@
         <v>11.080332409972298</v>
       </c>
     </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A66" s="8" t="s">
         <v>64</v>
       </c>
@@ -4347,14 +4468,14 @@
       <c r="E66" s="7">
         <v>22.1</v>
       </c>
-      <c r="F66" s="11">
+      <c r="F66" s="10">
         <v>35.68</v>
       </c>
-      <c r="G66" s="7">
-        <v>0.57052850377832665</v>
-      </c>
-      <c r="H66" s="7">
-        <v>0.31126821200205151</v>
+      <c r="G66">
+        <v>2.4216824108541299</v>
+      </c>
+      <c r="H66">
+        <v>32.376080408612999</v>
       </c>
       <c r="I66" s="4">
         <v>4.0999999999999996</v>
@@ -4362,16 +4483,16 @@
       <c r="J66" s="6">
         <v>18.5</v>
       </c>
-      <c r="K66" s="15">
+      <c r="K66" s="14">
         <v>347.77758667983301</v>
       </c>
-      <c r="L66" s="15">
+      <c r="L66" s="14">
         <v>1.5638960449999999</v>
       </c>
-      <c r="M66" s="15">
+      <c r="M66" s="14">
         <v>30.777436000000002</v>
       </c>
-      <c r="N66" s="18">
+      <c r="N66" s="17">
         <v>32.1</v>
       </c>
       <c r="O66">
@@ -4384,7 +4505,7 @@
         <v>11.476848804037743</v>
       </c>
     </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A67" s="8" t="s">
         <v>65</v>
       </c>
@@ -4399,27 +4520,31 @@
         <v>96</v>
       </c>
       <c r="E67" s="7"/>
-      <c r="F67" s="11">
+      <c r="F67" s="10">
         <v>31.93</v>
       </c>
-      <c r="G67" s="7"/>
-      <c r="H67" s="7"/>
+      <c r="G67">
+        <v>5.0689345119236604</v>
+      </c>
+      <c r="H67">
+        <v>4.3504259659374496</v>
+      </c>
       <c r="I67" s="4">
         <v>24.4</v>
       </c>
       <c r="J67" s="6">
         <v>2.9</v>
       </c>
-      <c r="K67" s="15">
+      <c r="K67" s="14">
         <v>109.285345798603</v>
       </c>
-      <c r="L67" s="15">
+      <c r="L67" s="14">
         <v>1.61326719</v>
       </c>
-      <c r="M67" s="15">
+      <c r="M67" s="14">
         <v>15.341718</v>
       </c>
-      <c r="N67" s="18">
+      <c r="N67" s="17">
         <v>35.4</v>
       </c>
       <c r="O67">
@@ -4432,7 +4557,7 @@
         <v>2.6724486878445144</v>
       </c>
     </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A68" s="8" t="s">
         <v>66</v>
       </c>
@@ -4449,27 +4574,31 @@
       <c r="E68" s="7">
         <v>24</v>
       </c>
-      <c r="F68" s="11">
+      <c r="F68" s="10">
         <v>51.17</v>
       </c>
-      <c r="G68" s="7"/>
-      <c r="H68" s="7"/>
+      <c r="G68">
+        <v>3.4966278887343298</v>
+      </c>
+      <c r="H68">
+        <v>14.5702439500892</v>
+      </c>
       <c r="I68" s="4">
         <v>17.600000000000001</v>
       </c>
       <c r="J68" s="6">
         <v>22.5</v>
       </c>
-      <c r="K68" s="15">
+      <c r="K68" s="14">
         <v>6.6813520020743002</v>
       </c>
-      <c r="L68" s="15">
+      <c r="L68" s="14">
         <v>3.3750323070000001</v>
       </c>
-      <c r="M68" s="15">
+      <c r="M68" s="14">
         <v>15.228497000000001</v>
       </c>
-      <c r="N68" s="18">
+      <c r="N68" s="17">
         <v>26.5</v>
       </c>
       <c r="O68">
@@ -4482,7 +4611,7 @@
         <v>10.888246842241731</v>
       </c>
     </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A69" s="8" t="s">
         <v>67</v>
       </c>
@@ -4499,27 +4628,31 @@
       <c r="E69" s="7">
         <v>10.7</v>
       </c>
-      <c r="F69" s="11">
+      <c r="F69" s="10">
         <v>1.28</v>
       </c>
-      <c r="G69" s="7"/>
-      <c r="H69" s="7"/>
+      <c r="G69">
+        <v>3.6388238064867799</v>
+      </c>
+      <c r="H69">
+        <v>21.6013743112299</v>
+      </c>
       <c r="I69" s="4">
         <v>27.8</v>
       </c>
       <c r="J69" s="6">
         <v>3.2</v>
       </c>
-      <c r="K69" s="15">
+      <c r="K69" s="14">
         <v>87.324493094844897</v>
       </c>
-      <c r="L69" s="15">
+      <c r="L69" s="14">
         <v>1.5311732680000001</v>
       </c>
-      <c r="M69" s="15">
+      <c r="M69" s="14">
         <v>15.800242000000001</v>
       </c>
-      <c r="N69" s="18">
+      <c r="N69" s="17">
         <v>47.7</v>
       </c>
       <c r="O69">
@@ -4532,7 +4665,7 @@
         <v>10.190814210914713</v>
       </c>
     </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A70" s="8" t="s">
         <v>68</v>
       </c>
@@ -4547,25 +4680,23 @@
         <v>90</v>
       </c>
       <c r="E70" s="7"/>
-      <c r="F70" s="11">
+      <c r="F70" s="10">
         <v>42.67</v>
       </c>
-      <c r="G70" s="7"/>
-      <c r="H70" s="7"/>
       <c r="I70" s="4"/>
       <c r="J70" s="6"/>
-      <c r="K70" s="15">
+      <c r="K70" s="14">
         <v>168.154679893451</v>
       </c>
-      <c r="L70" s="15"/>
-      <c r="M70" s="15">
+      <c r="L70" s="14"/>
+      <c r="M70" s="14">
         <v>23.459638000000002</v>
       </c>
-      <c r="N70" s="18">
+      <c r="N70" s="17">
         <v>26.5</v>
       </c>
     </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A71" s="8" t="s">
         <v>69</v>
       </c>
@@ -4582,27 +4713,25 @@
       <c r="E71" s="7">
         <v>22.5</v>
       </c>
-      <c r="F71" s="11">
+      <c r="F71" s="10">
         <v>29.37</v>
       </c>
-      <c r="G71" s="7"/>
-      <c r="H71" s="7"/>
       <c r="I71" s="4">
         <v>17.600000000000001</v>
       </c>
       <c r="J71" s="6">
         <v>2.2999999999999998</v>
       </c>
-      <c r="K71" s="15">
+      <c r="K71" s="14">
         <v>232.12839506172801</v>
       </c>
-      <c r="L71" s="15">
+      <c r="L71" s="14">
         <v>1.5134735370000001</v>
       </c>
-      <c r="M71" s="15">
+      <c r="M71" s="14">
         <v>1.5125850000000001</v>
       </c>
-      <c r="N71" s="18"/>
+      <c r="N71" s="17"/>
       <c r="O71">
         <v>78.7</v>
       </c>
@@ -4613,7 +4742,7 @@
         <v>0.44893378226711567</v>
       </c>
     </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A72" s="8" t="s">
         <v>70</v>
       </c>
@@ -4630,27 +4759,31 @@
       <c r="E72" s="7">
         <v>26.5</v>
       </c>
-      <c r="F72" s="11">
+      <c r="F72" s="10">
         <v>42.87</v>
       </c>
-      <c r="G72" s="7"/>
-      <c r="H72" s="7"/>
+      <c r="G72">
+        <v>4.2144782030305201</v>
+      </c>
+      <c r="H72">
+        <v>8.20524896027338</v>
+      </c>
       <c r="I72" s="4">
         <v>15.4</v>
       </c>
       <c r="J72" s="6">
         <v>8.3000000000000007</v>
       </c>
-      <c r="K72" s="15">
+      <c r="K72" s="14">
         <v>32.333159541188699</v>
       </c>
-      <c r="L72" s="15">
+      <c r="L72" s="14">
         <v>3.336949615</v>
       </c>
-      <c r="M72" s="15">
+      <c r="M72" s="14">
         <v>25.102250000000002</v>
       </c>
-      <c r="N72" s="18">
+      <c r="N72" s="17">
         <v>26.8</v>
       </c>
       <c r="O72">
@@ -4663,7 +4796,7 @@
         <v>6.7153284671532854</v>
       </c>
     </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A73" s="8" t="s">
         <v>71</v>
       </c>
@@ -4680,27 +4813,25 @@
       <c r="E73" s="7">
         <v>28.9</v>
       </c>
-      <c r="F73" s="11">
+      <c r="F73" s="10">
         <v>17.97</v>
       </c>
-      <c r="G73" s="7"/>
-      <c r="H73" s="7"/>
       <c r="I73" s="4">
         <v>16.600000000000001</v>
       </c>
       <c r="J73" s="6">
         <v>8.6</v>
       </c>
-      <c r="K73" s="15">
+      <c r="K73" s="14">
         <v>29.714731369150801</v>
       </c>
-      <c r="L73" s="15">
+      <c r="L73" s="14">
         <v>1.6259996080000001</v>
       </c>
-      <c r="M73" s="15">
+      <c r="M73" s="14">
         <v>12.428921000000001</v>
       </c>
-      <c r="N73" s="18">
+      <c r="N73" s="17">
         <v>37.9</v>
       </c>
       <c r="O73">
@@ -4713,7 +4844,7 @@
         <v>6.6074523396880416</v>
       </c>
     </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A74" s="8" t="s">
         <v>72</v>
       </c>
@@ -4730,14 +4861,14 @@
       <c r="E74" s="7">
         <v>37</v>
       </c>
-      <c r="F74" s="11">
+      <c r="F74" s="10">
         <v>56.93</v>
       </c>
-      <c r="G74" s="7">
-        <v>0.61725320282846097</v>
-      </c>
-      <c r="H74" s="7">
-        <v>0.2985930469708078</v>
+      <c r="G74">
+        <v>2.37726020355352</v>
+      </c>
+      <c r="H74">
+        <v>34.4151063649146</v>
       </c>
       <c r="I74" s="4">
         <v>9.3000000000000007</v>
@@ -4745,16 +4876,16 @@
       <c r="J74" s="6">
         <v>21.2</v>
       </c>
-      <c r="K74" s="15">
+      <c r="K74" s="14">
         <v>31.2116436153104</v>
       </c>
-      <c r="L74" s="15">
+      <c r="L74" s="14">
         <v>4.7946621010000001</v>
       </c>
-      <c r="M74" s="15">
+      <c r="M74" s="14">
         <v>30.234611000000001</v>
       </c>
-      <c r="N74" s="18">
+      <c r="N74" s="17">
         <v>35.1</v>
       </c>
       <c r="O74">
@@ -4767,7 +4898,7 @@
         <v>20.714055966548731</v>
       </c>
     </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A75" s="8" t="s">
         <v>73</v>
       </c>
@@ -4784,27 +4915,25 @@
       <c r="E75" s="7">
         <v>33.799999999999997</v>
       </c>
-      <c r="F75" s="11">
+      <c r="F75" s="10">
         <v>33.880000000000003</v>
       </c>
-      <c r="G75" s="7"/>
-      <c r="H75" s="7"/>
       <c r="I75" s="4">
         <v>18.100000000000001</v>
       </c>
       <c r="J75" s="6">
         <v>3.3</v>
       </c>
-      <c r="K75" s="15">
+      <c r="K75" s="14">
         <v>594.56080156402697</v>
       </c>
-      <c r="L75" s="15">
+      <c r="L75" s="14">
         <v>1.6208092970000001</v>
       </c>
-      <c r="M75" s="15">
+      <c r="M75" s="14">
         <v>13.693778999999999</v>
       </c>
-      <c r="N75" s="18"/>
+      <c r="N75" s="17"/>
       <c r="O75">
         <v>74.7</v>
       </c>
@@ -4815,7 +4944,7 @@
         <v>12.903225806451612</v>
       </c>
     </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A76" s="8" t="s">
         <v>74</v>
       </c>
@@ -4829,27 +4958,31 @@
       <c r="E76" s="7">
         <v>26.7</v>
       </c>
-      <c r="F76" s="11">
+      <c r="F76" s="10">
         <v>29.3</v>
       </c>
-      <c r="G76" s="7"/>
-      <c r="H76" s="7"/>
+      <c r="G76">
+        <v>3.34493465723311</v>
+      </c>
+      <c r="H76">
+        <v>20.6634232854394</v>
+      </c>
       <c r="I76" s="4">
         <v>28.9</v>
       </c>
       <c r="J76" s="6">
         <v>21.2</v>
       </c>
-      <c r="K76" s="15">
+      <c r="K76" s="14">
         <v>73.561890645586303</v>
       </c>
-      <c r="L76" s="15">
+      <c r="L76" s="14">
         <v>2.270169144</v>
       </c>
-      <c r="M76" s="15">
+      <c r="M76" s="14">
         <v>26.536635</v>
       </c>
-      <c r="N76" s="18">
+      <c r="N76" s="17">
         <v>54.2</v>
       </c>
       <c r="O76">
@@ -4862,7 +4995,7 @@
         <v>11.594202898550725</v>
       </c>
     </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A77" s="8" t="s">
         <v>75</v>
       </c>
@@ -4879,25 +5012,29 @@
       <c r="E77" s="7">
         <v>9.8000000000000007</v>
       </c>
-      <c r="F77" s="11">
+      <c r="F77" s="10">
         <v>6.3</v>
       </c>
-      <c r="G77" s="7"/>
-      <c r="H77" s="7"/>
+      <c r="G77">
+        <v>4.94573145418242</v>
+      </c>
+      <c r="H77">
+        <v>9.6654283116666395</v>
+      </c>
       <c r="I77" s="4">
         <v>35.9</v>
       </c>
       <c r="J77" s="6">
         <v>6.8</v>
       </c>
-      <c r="K77" s="15">
+      <c r="K77" s="14">
         <v>49.126931063122903</v>
       </c>
-      <c r="L77" s="15">
+      <c r="L77" s="14">
         <v>1.612780331</v>
       </c>
-      <c r="M77" s="15"/>
-      <c r="N77" s="18">
+      <c r="M77" s="14"/>
+      <c r="N77" s="17">
         <v>33.200000000000003</v>
       </c>
       <c r="O77">
@@ -4910,7 +5047,7 @@
         <v>5.191029900332226</v>
       </c>
     </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A78" s="8" t="s">
         <v>76</v>
       </c>
@@ -4922,27 +5059,25 @@
         <v>6</v>
       </c>
       <c r="E78" s="7"/>
-      <c r="F78" s="11">
+      <c r="F78" s="10">
         <v>32.9</v>
       </c>
-      <c r="G78" s="7"/>
-      <c r="H78" s="7"/>
       <c r="I78" s="4">
         <v>26.1</v>
       </c>
       <c r="J78" s="6">
         <v>5.2</v>
       </c>
-      <c r="K78" s="15">
+      <c r="K78" s="14">
         <v>3.6228878002205098</v>
       </c>
-      <c r="L78" s="15">
+      <c r="L78" s="14">
         <v>1.546907963</v>
       </c>
-      <c r="M78" s="15">
+      <c r="M78" s="14">
         <v>1.192523</v>
       </c>
-      <c r="N78" s="18"/>
+      <c r="N78" s="17"/>
       <c r="O78">
         <v>17.760000000000002</v>
       </c>
@@ -4953,7 +5088,7 @@
         <v>0.97752821760232789</v>
       </c>
     </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A79" s="8" t="s">
         <v>77</v>
       </c>
@@ -4970,14 +5105,14 @@
       <c r="E79" s="7">
         <v>28.8</v>
       </c>
-      <c r="F79" s="11">
+      <c r="F79" s="10">
         <v>54.68</v>
       </c>
-      <c r="G79" s="7">
-        <v>0.63653872389527699</v>
-      </c>
-      <c r="H79" s="7">
-        <v>0.30111022955312633</v>
+      <c r="G79">
+        <v>2.3825265363966102</v>
+      </c>
+      <c r="H79">
+        <v>31.673394796562199</v>
       </c>
       <c r="I79" s="4">
         <v>8</v>
@@ -4985,16 +5120,16 @@
       <c r="J79" s="6">
         <v>31.9</v>
       </c>
-      <c r="K79" s="15">
+      <c r="K79" s="14">
         <v>45.1352114924182</v>
       </c>
-      <c r="L79" s="15">
+      <c r="L79" s="14">
         <v>4.5945722770000001</v>
       </c>
-      <c r="M79" s="15">
+      <c r="M79" s="14">
         <v>29.684875000000002</v>
       </c>
-      <c r="N79" s="18">
+      <c r="N79" s="17">
         <v>37.700000000000003</v>
       </c>
       <c r="O79">
@@ -5007,7 +5142,7 @@
         <v>34.203889257236021</v>
       </c>
     </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A80" s="8" t="s">
         <v>78</v>
       </c>
@@ -5024,14 +5159,14 @@
       <c r="E80" s="7">
         <v>23.5</v>
       </c>
-      <c r="F80" s="11">
+      <c r="F80" s="10">
         <v>49.6</v>
       </c>
-      <c r="G80" s="7">
-        <v>0.57946443554767102</v>
-      </c>
-      <c r="H80" s="7">
-        <v>0.33336849423441134</v>
+      <c r="G80">
+        <v>2.4130606765276998</v>
+      </c>
+      <c r="H80">
+        <v>33.336849423441102</v>
       </c>
       <c r="I80" s="4">
         <v>6.3</v>
@@ -5039,16 +5174,16 @@
       <c r="J80" s="6">
         <v>13.5</v>
       </c>
-      <c r="K80" s="15">
+      <c r="K80" s="14">
         <v>231.44749034749</v>
       </c>
-      <c r="L80" s="15">
+      <c r="L80" s="14">
         <v>2.3455869890000001</v>
       </c>
-      <c r="M80" s="15">
+      <c r="M80" s="14">
         <v>37.932749000000001</v>
       </c>
-      <c r="N80" s="18">
+      <c r="N80" s="17">
         <v>31.2</v>
       </c>
       <c r="O80">
@@ -5061,7 +5196,7 @@
         <v>25.456790374630287</v>
       </c>
     </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A81" s="8" t="s">
         <v>79</v>
       </c>
@@ -5076,27 +5211,25 @@
         <v>76</v>
       </c>
       <c r="E81" s="7"/>
-      <c r="F81" s="11">
+      <c r="F81" s="10">
         <v>42</v>
       </c>
-      <c r="G81" s="7"/>
-      <c r="H81" s="7"/>
       <c r="I81" s="4">
         <v>6.4</v>
       </c>
       <c r="J81" s="6">
         <v>7.9</v>
       </c>
-      <c r="K81" s="15">
+      <c r="K81" s="14">
         <v>82.599524187153094</v>
       </c>
-      <c r="L81" s="15">
+      <c r="L81" s="14">
         <v>2.269450236</v>
       </c>
-      <c r="M81" s="15">
+      <c r="M81" s="14">
         <v>25.286065000000001</v>
       </c>
-      <c r="N81" s="18">
+      <c r="N81" s="17">
         <v>35.6</v>
       </c>
       <c r="P81">
@@ -5106,7 +5239,7 @@
         <v>6.0158129941560672</v>
       </c>
     </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A82" s="8" t="s">
         <v>80</v>
       </c>
@@ -5121,27 +5254,31 @@
         <v>93</v>
       </c>
       <c r="E82" s="7"/>
-      <c r="F82" s="11">
+      <c r="F82" s="10">
         <v>18.93</v>
       </c>
-      <c r="G82" s="7"/>
-      <c r="H82" s="7"/>
+      <c r="G82">
+        <v>4.9492635062293804</v>
+      </c>
+      <c r="H82">
+        <v>5.3385004015964901</v>
+      </c>
       <c r="I82" s="4">
         <v>28.6</v>
       </c>
       <c r="J82" s="6">
         <v>3.9</v>
       </c>
-      <c r="K82" s="15">
+      <c r="K82" s="14">
         <v>43.951349260914398</v>
       </c>
-      <c r="L82" s="15">
+      <c r="L82" s="14">
         <v>1.9295615370000001</v>
       </c>
-      <c r="M82" s="15">
+      <c r="M82" s="14">
         <v>10.999344000000001</v>
       </c>
-      <c r="N82" s="18">
+      <c r="N82" s="17">
         <v>40.6</v>
       </c>
       <c r="O82">
@@ -5154,7 +5291,7 @@
         <v>16.494845360824741</v>
       </c>
     </row>
-    <row r="83" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A83" s="8" t="s">
         <v>81</v>
       </c>
@@ -5171,27 +5308,31 @@
       <c r="E83" s="7">
         <v>14.5</v>
       </c>
-      <c r="F83" s="11">
+      <c r="F83" s="10">
         <v>13.98</v>
       </c>
-      <c r="G83" s="7"/>
-      <c r="H83" s="7"/>
+      <c r="G83">
+        <v>4.5089180901256203</v>
+      </c>
+      <c r="H83">
+        <v>6.4466569309838304</v>
+      </c>
       <c r="I83" s="4">
         <v>31</v>
       </c>
       <c r="J83" s="6">
         <v>3.7</v>
       </c>
-      <c r="K83" s="15">
+      <c r="K83" s="14">
         <v>197.519134493</v>
       </c>
-      <c r="L83" s="15">
+      <c r="L83" s="14">
         <v>2.0067722699999999</v>
       </c>
-      <c r="M83" s="15">
+      <c r="M83" s="14">
         <v>15.323005</v>
       </c>
-      <c r="N83" s="18">
+      <c r="N83" s="17">
         <v>46.1</v>
       </c>
       <c r="O83">
@@ -5204,7 +5345,7 @@
         <v>40.305473058973277</v>
       </c>
     </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A84" s="8" t="s">
         <v>82</v>
       </c>
@@ -5221,27 +5362,31 @@
       <c r="E84" s="7">
         <v>12.3</v>
       </c>
-      <c r="F84" s="11">
+      <c r="F84" s="10">
         <v>12.65</v>
       </c>
-      <c r="G84" s="7"/>
-      <c r="H84" s="7"/>
+      <c r="G84">
+        <v>5.6685934691248399</v>
+      </c>
+      <c r="H84">
+        <v>3.2060615438680098</v>
+      </c>
       <c r="I84" s="4">
         <v>23.1</v>
       </c>
       <c r="J84" s="6">
         <v>4.8</v>
       </c>
-      <c r="K84" s="15">
+      <c r="K84" s="14">
         <v>15.195977675607899</v>
       </c>
-      <c r="L84" s="15">
+      <c r="L84" s="14">
         <v>1.5667934619999999</v>
       </c>
-      <c r="M84" s="15">
+      <c r="M84" s="14">
         <v>14.916247</v>
       </c>
-      <c r="N84" s="18">
+      <c r="N84" s="17">
         <v>33</v>
       </c>
       <c r="O84">
@@ -5254,7 +5399,7 @@
         <v>5.2540997713470849</v>
       </c>
     </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A85" s="8" t="s">
         <v>83</v>
       </c>
@@ -5271,14 +5416,14 @@
       <c r="E85" s="7">
         <v>25.5</v>
       </c>
-      <c r="F85" s="11">
+      <c r="F85" s="10">
         <v>35.880000000000003</v>
       </c>
-      <c r="G85" s="7">
-        <v>0.26743762741481408</v>
-      </c>
-      <c r="H85" s="7">
-        <v>0.19118289486457626</v>
+      <c r="G85">
+        <v>2.6721554733360402</v>
+      </c>
+      <c r="H85">
+        <v>22.640510400188301</v>
       </c>
       <c r="I85" s="4">
         <v>6.1</v>
@@ -5286,16 +5431,16 @@
       <c r="J85" s="6">
         <v>7.5</v>
       </c>
-      <c r="K85" s="15">
+      <c r="K85" s="14">
         <v>1454.0374999999999</v>
       </c>
-      <c r="L85" s="15">
+      <c r="L85" s="14">
         <v>1.9806688539999999</v>
       </c>
-      <c r="M85" s="15">
+      <c r="M85" s="14">
         <v>31.893222000000002</v>
       </c>
-      <c r="N85" s="18"/>
+      <c r="N85" s="17"/>
       <c r="O85">
         <v>73.17</v>
       </c>
@@ -5306,7 +5451,7 @@
         <v>28.343749046325691</v>
       </c>
     </row>
-    <row r="86" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A86" s="8" t="s">
         <v>84</v>
       </c>
@@ -5321,27 +5466,25 @@
         <v>98</v>
       </c>
       <c r="E86" s="7"/>
-      <c r="F86" s="11">
+      <c r="F86" s="10">
         <v>18.100000000000001</v>
       </c>
-      <c r="G86" s="7"/>
-      <c r="H86" s="7"/>
       <c r="I86" s="4">
         <v>24.7</v>
       </c>
       <c r="J86" s="6">
         <v>4.4000000000000004</v>
       </c>
-      <c r="K86" s="15">
+      <c r="K86" s="14">
         <v>4.2885262442999901</v>
       </c>
-      <c r="L86" s="15">
+      <c r="L86" s="14">
         <v>1.6035010940000001</v>
       </c>
-      <c r="M86" s="15">
+      <c r="M86" s="14">
         <v>16.519642999999999</v>
       </c>
-      <c r="N86" s="18">
+      <c r="N86" s="17">
         <v>32.4</v>
       </c>
       <c r="O86">
@@ -5354,7 +5497,7 @@
         <v>0.43659648782380905</v>
       </c>
     </row>
-    <row r="87" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A87" s="8" t="s">
         <v>85</v>
       </c>
@@ -5368,14 +5511,14 @@
       <c r="E87" s="7">
         <v>21.6</v>
       </c>
-      <c r="F87" s="11">
+      <c r="F87" s="10">
         <v>20.149999999999999</v>
       </c>
-      <c r="G87" s="7">
-        <v>0.73833506572562346</v>
-      </c>
-      <c r="H87" s="7">
-        <v>9.9748468124938983E-2</v>
+      <c r="G87">
+        <v>3.47529761733847</v>
+      </c>
+      <c r="H87">
+        <v>9.9748468124938992</v>
       </c>
       <c r="I87" s="4">
         <v>13.7</v>
@@ -5383,16 +5526,16 @@
       <c r="J87" s="6">
         <v>7.8</v>
       </c>
-      <c r="K87" s="15">
+      <c r="K87" s="14">
         <v>622.96206896551701</v>
       </c>
-      <c r="L87" s="15">
+      <c r="L87" s="14">
         <v>1.831791645</v>
       </c>
-      <c r="M87" s="15">
+      <c r="M87" s="14">
         <v>18.213287999999999</v>
       </c>
-      <c r="N87" s="18">
+      <c r="N87" s="17">
         <v>35.799999999999997</v>
       </c>
       <c r="O87">
@@ -5405,7 +5548,7 @@
         <v>36.945812807881772</v>
       </c>
     </row>
-    <row r="88" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A88" s="8" t="s">
         <v>86</v>
       </c>
@@ -5422,14 +5565,14 @@
       <c r="E88" s="7">
         <v>14</v>
       </c>
-      <c r="F88" s="11">
+      <c r="F88" s="10">
         <v>19.43</v>
       </c>
-      <c r="G88" s="7">
-        <v>0.89232719110453251</v>
-      </c>
-      <c r="H88" s="7">
-        <v>7.6896925172022471E-2</v>
+      <c r="G88">
+        <v>3.7401749708323599</v>
+      </c>
+      <c r="H88">
+        <v>10.080217905205</v>
       </c>
       <c r="I88" s="4">
         <v>13.1</v>
@@ -5437,16 +5580,16 @@
       <c r="J88" s="6">
         <v>5.0999999999999996</v>
       </c>
-      <c r="K88" s="15">
+      <c r="K88" s="14">
         <v>66.443723346793902</v>
       </c>
-      <c r="L88" s="15">
+      <c r="L88" s="14">
         <v>2.1725092840000002</v>
       </c>
-      <c r="M88" s="15">
+      <c r="M88" s="14">
         <v>13.701247</v>
       </c>
-      <c r="N88" s="18">
+      <c r="N88" s="17">
         <v>43.4</v>
       </c>
       <c r="O88">
@@ -5459,7 +5602,7 @@
         <v>11.606265593250855</v>
       </c>
     </row>
-    <row r="89" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A89" s="8" t="s">
         <v>87</v>
       </c>
@@ -5476,14 +5619,14 @@
       <c r="E89" s="7">
         <v>24.2</v>
       </c>
-      <c r="F89" s="11">
+      <c r="F89" s="10">
         <v>47</v>
       </c>
-      <c r="G89" s="7">
-        <v>0.6757333193728241</v>
-      </c>
-      <c r="H89" s="7">
-        <v>0.22372065021071644</v>
+      <c r="G89">
+        <v>2.8199115948819702</v>
+      </c>
+      <c r="H89">
+        <v>20.026377959564002</v>
       </c>
       <c r="I89" s="4">
         <v>9.6999999999999993</v>
@@ -5491,16 +5634,16 @@
       <c r="J89" s="6">
         <v>15.9</v>
       </c>
-      <c r="K89" s="15">
+      <c r="K89" s="14">
         <v>123.654509353119</v>
       </c>
-      <c r="L89" s="15">
+      <c r="L89" s="14">
         <v>4.3550731010000003</v>
       </c>
-      <c r="M89" s="15">
+      <c r="M89" s="14">
         <v>26.432732999999999</v>
       </c>
-      <c r="N89" s="18">
+      <c r="N89" s="17">
         <v>26.3</v>
       </c>
       <c r="O89">
@@ -5513,7 +5656,7 @@
         <v>55.557921825117958</v>
       </c>
     </row>
-    <row r="90" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A90" s="8" t="s">
         <v>88</v>
       </c>
@@ -5527,27 +5670,31 @@
       <c r="E90" s="7">
         <v>25.6</v>
       </c>
-      <c r="F90" s="11">
+      <c r="F90" s="10">
         <v>47.92</v>
       </c>
-      <c r="G90" s="7"/>
-      <c r="H90" s="7"/>
+      <c r="G90">
+        <v>4.32143522139053</v>
+      </c>
+      <c r="H90">
+        <v>6.6063382117454301</v>
+      </c>
       <c r="I90" s="4">
         <v>16.5</v>
       </c>
       <c r="J90" s="6">
         <v>13</v>
       </c>
-      <c r="K90" s="15">
+      <c r="K90" s="14">
         <v>1.9797413682123599</v>
       </c>
-      <c r="L90" s="15">
+      <c r="L90" s="14">
         <v>4.1221787049999996</v>
       </c>
-      <c r="M90" s="15">
+      <c r="M90" s="14">
         <v>20.360968</v>
       </c>
-      <c r="N90" s="18">
+      <c r="N90" s="17">
         <v>32.299999999999997</v>
       </c>
       <c r="O90">
@@ -5560,7 +5707,7 @@
         <v>0.36509694650160346</v>
       </c>
     </row>
-    <row r="91" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A91" s="8" t="s">
         <v>89</v>
       </c>
@@ -5577,14 +5724,14 @@
       <c r="E91" s="7">
         <v>45.9</v>
       </c>
-      <c r="F91" s="11">
+      <c r="F91" s="10">
         <v>42.43</v>
       </c>
-      <c r="G91" s="7">
-        <v>0.75241622538259068</v>
-      </c>
-      <c r="H91" s="7">
-        <v>0.18126632057510847</v>
+      <c r="G91">
+        <v>3.2140115063305599</v>
+      </c>
+      <c r="H91">
+        <v>18.1266320575108</v>
       </c>
       <c r="I91" s="4">
         <v>10.7</v>
@@ -5592,16 +5739,16 @@
       <c r="J91" s="6">
         <v>10.3</v>
       </c>
-      <c r="K91" s="15">
+      <c r="K91" s="14">
         <v>46.280371747211902</v>
       </c>
-      <c r="L91" s="15">
+      <c r="L91" s="14">
         <v>2.471931482</v>
       </c>
-      <c r="M91" s="15">
+      <c r="M91" s="14">
         <v>36.090035</v>
       </c>
-      <c r="N91" s="18">
+      <c r="N91" s="17">
         <v>31.9</v>
       </c>
       <c r="O91">
@@ -5614,7 +5761,7 @@
         <v>0.66914498141263945</v>
       </c>
     </row>
-    <row r="92" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A92" s="8" t="s">
         <v>90</v>
       </c>
@@ -5631,27 +5778,31 @@
       <c r="E92" s="7">
         <v>23.4</v>
       </c>
-      <c r="F92" s="11">
+      <c r="F92" s="10">
         <v>34.03</v>
       </c>
-      <c r="G92" s="7"/>
-      <c r="H92" s="7"/>
+      <c r="G92">
+        <v>5.2361663882698997</v>
+      </c>
+      <c r="H92">
+        <v>5.8802340651695602</v>
+      </c>
       <c r="I92" s="4">
         <v>19.600000000000001</v>
       </c>
       <c r="J92" s="6">
         <v>2.9</v>
       </c>
-      <c r="K92" s="15">
+      <c r="K92" s="14">
         <v>80.079722159982097</v>
       </c>
-      <c r="L92" s="15">
+      <c r="L92" s="14">
         <v>1.3015604540000001</v>
       </c>
-      <c r="M92" s="15">
+      <c r="M92" s="14">
         <v>21.448879999999999</v>
       </c>
-      <c r="N92" s="18">
+      <c r="N92" s="17">
         <v>40.700000000000003</v>
       </c>
       <c r="O92">
@@ -5664,7 +5815,7 @@
         <v>18.216446336544927</v>
       </c>
     </row>
-    <row r="93" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A93" s="8" t="s">
         <v>91</v>
       </c>
@@ -5681,27 +5832,31 @@
       <c r="E93" s="7">
         <v>16.600000000000001</v>
       </c>
-      <c r="F93" s="11">
+      <c r="F93" s="10">
         <v>25.97</v>
       </c>
-      <c r="G93" s="7"/>
-      <c r="H93" s="7"/>
+      <c r="G93">
+        <v>4.3663628454440397</v>
+      </c>
+      <c r="H93">
+        <v>9.84770069541133</v>
+      </c>
       <c r="I93" s="4">
         <v>30.1</v>
       </c>
       <c r="J93" s="6">
         <v>4.9000000000000004</v>
       </c>
-      <c r="K93" s="15">
+      <c r="K93" s="14">
         <v>37.728367964597297</v>
       </c>
-      <c r="L93" s="15">
+      <c r="L93" s="14">
         <v>1.960396129</v>
       </c>
-      <c r="M93" s="15">
+      <c r="M93" s="14">
         <v>20.156713</v>
       </c>
-      <c r="N93" s="18">
+      <c r="N93" s="17">
         <v>45.6</v>
       </c>
       <c r="O93">
@@ -5714,7 +5869,7 @@
         <v>7.184821587527658</v>
       </c>
     </row>
-    <row r="94" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A94" s="8" t="s">
         <v>92</v>
       </c>
@@ -5731,27 +5886,31 @@
       <c r="E94" s="7">
         <v>20.3</v>
       </c>
-      <c r="F94" s="11">
+      <c r="F94" s="10">
         <v>19.75</v>
       </c>
-      <c r="G94" s="7"/>
-      <c r="H94" s="7"/>
+      <c r="G94">
+        <v>4.2237942680967704</v>
+      </c>
+      <c r="H94">
+        <v>5.3544983965731197</v>
+      </c>
       <c r="I94" s="5">
         <v>19.899999999999999</v>
       </c>
       <c r="J94" s="6">
         <v>7.8</v>
       </c>
-      <c r="K94" s="15">
+      <c r="K94" s="14">
         <v>81.721395541128203</v>
       </c>
-      <c r="L94" s="15">
+      <c r="L94" s="14">
         <v>1.503220129</v>
       </c>
-      <c r="M94" s="15">
+      <c r="M94" s="14">
         <v>8.3322769999999995</v>
       </c>
-      <c r="N94" s="18">
+      <c r="N94" s="17">
         <v>38.1</v>
       </c>
       <c r="O94">
@@ -5764,7 +5923,7 @@
         <v>16.702394806149321</v>
       </c>
     </row>
-    <row r="95" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A95" s="8" t="s">
         <v>93</v>
       </c>
@@ -5781,27 +5940,31 @@
       <c r="E95" s="7">
         <v>21.4</v>
       </c>
-      <c r="F95" s="11">
+      <c r="F95" s="10">
         <v>22.57</v>
       </c>
-      <c r="G95" s="7"/>
-      <c r="H95" s="7"/>
+      <c r="G95">
+        <v>4.2382239682248004</v>
+      </c>
+      <c r="H95">
+        <v>17.446370434939599</v>
+      </c>
       <c r="I95" s="4">
         <v>30.4</v>
       </c>
       <c r="J95" s="6">
         <v>8.6999999999999993</v>
       </c>
-      <c r="K95" s="15">
+      <c r="K95" s="14">
         <v>3.0776445723863999</v>
       </c>
-      <c r="L95" s="15">
+      <c r="L95" s="14">
         <v>2.2975601029999999</v>
       </c>
-      <c r="M95" s="15">
+      <c r="M95" s="14">
         <v>28.710813000000002</v>
       </c>
-      <c r="N95" s="18">
+      <c r="N95" s="17">
         <v>59.1</v>
       </c>
       <c r="O95">
@@ -5814,7 +5977,7 @@
         <v>0.97171106171579891</v>
       </c>
     </row>
-    <row r="96" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A96" s="8" t="s">
         <v>94</v>
       </c>
@@ -5831,27 +5994,31 @@
       <c r="E96" s="7">
         <v>22.8</v>
       </c>
-      <c r="F96" s="11">
+      <c r="F96" s="10">
         <v>27.7</v>
       </c>
-      <c r="G96" s="7"/>
-      <c r="H96" s="7"/>
+      <c r="G96">
+        <v>4.2393644425714196</v>
+      </c>
+      <c r="H96">
+        <v>6.4479717392958404</v>
+      </c>
       <c r="I96" s="4">
         <v>15.9</v>
       </c>
       <c r="J96" s="6">
         <v>8.8000000000000007</v>
       </c>
-      <c r="K96" s="15">
+      <c r="K96" s="14">
         <v>204.42970352284601</v>
       </c>
-      <c r="L96" s="15">
+      <c r="L96" s="14">
         <v>2.0671706080000001</v>
       </c>
-      <c r="M96" s="15">
+      <c r="M96" s="14">
         <v>18.687477999999999</v>
       </c>
-      <c r="N96" s="18">
+      <c r="N96" s="17">
         <v>32.799999999999997</v>
       </c>
       <c r="O96">
@@ -5864,7 +6031,7 @@
         <v>14.745029307093688</v>
       </c>
     </row>
-    <row r="97" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A97" s="8" t="s">
         <v>95</v>
       </c>
@@ -5881,27 +6048,31 @@
       <c r="E97" s="7">
         <v>25.8</v>
       </c>
-      <c r="F97" s="11">
+      <c r="F97" s="10">
         <v>52.37</v>
       </c>
-      <c r="G97" s="7"/>
-      <c r="H97" s="7"/>
+      <c r="G97">
+        <v>2.2263915622436099</v>
+      </c>
+      <c r="H97">
+        <v>35.107265135106601</v>
+      </c>
       <c r="I97" s="4">
         <v>3.8</v>
       </c>
       <c r="J97" s="6">
         <v>12.6</v>
       </c>
-      <c r="K97" s="15">
+      <c r="K97" s="14">
         <v>508.544197091125</v>
       </c>
-      <c r="L97" s="15">
+      <c r="L97" s="14">
         <v>1.8695020659999999</v>
       </c>
-      <c r="M97" s="15">
+      <c r="M97" s="14">
         <v>38.400931</v>
       </c>
-      <c r="N97" s="18">
+      <c r="N97" s="17">
         <v>28.6</v>
       </c>
       <c r="O97">
@@ -5914,7 +6085,7 @@
         <v>30.513505491243691</v>
       </c>
     </row>
-    <row r="98" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A98" s="8" t="s">
         <v>96</v>
       </c>
@@ -5931,14 +6102,14 @@
       <c r="E98" s="7">
         <v>16</v>
       </c>
-      <c r="F98" s="11">
+      <c r="F98" s="10">
         <v>41.28</v>
       </c>
-      <c r="G98" s="7">
-        <v>0.67419344283523264</v>
-      </c>
-      <c r="H98" s="7">
-        <v>0.22711560913767428</v>
+      <c r="G98">
+        <v>2.6979730347539101</v>
+      </c>
+      <c r="H98">
+        <v>22.4443696333425</v>
       </c>
       <c r="I98" s="4">
         <v>7.8</v>
@@ -5946,16 +6117,16 @@
       <c r="J98" s="6">
         <v>12.1</v>
       </c>
-      <c r="K98" s="15">
+      <c r="K98" s="14">
         <v>18.206296760472402</v>
       </c>
-      <c r="L98" s="15">
+      <c r="L98" s="14">
         <v>3.7186145019999999</v>
       </c>
-      <c r="M98" s="15">
+      <c r="M98" s="14">
         <v>32.613869999999999</v>
       </c>
-      <c r="N98" s="18"/>
+      <c r="N98" s="17"/>
       <c r="O98">
         <v>85.5</v>
       </c>
@@ -5966,7 +6137,7 @@
         <v>2.1647487752079297</v>
       </c>
     </row>
-    <row r="99" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A99" s="8" t="s">
         <v>97</v>
       </c>
@@ -5981,25 +6152,29 @@
         <v>84</v>
       </c>
       <c r="E99" s="7"/>
-      <c r="F99" s="11">
+      <c r="F99" s="10">
         <v>12.13</v>
       </c>
-      <c r="G99" s="7"/>
-      <c r="H99" s="7"/>
+      <c r="G99">
+        <v>4.9198766448943596</v>
+      </c>
+      <c r="H99">
+        <v>4.58559197042542</v>
+      </c>
       <c r="I99" s="4"/>
       <c r="J99" s="6">
         <v>12.2</v>
       </c>
-      <c r="K99" s="15">
+      <c r="K99" s="14">
         <v>51.666785773641401</v>
       </c>
-      <c r="L99" s="15">
+      <c r="L99" s="14">
         <v>2.3588229690000002</v>
       </c>
-      <c r="M99" s="15">
+      <c r="M99" s="14">
         <v>23.448450000000001</v>
       </c>
-      <c r="N99" s="18">
+      <c r="N99" s="17">
         <v>46.6</v>
       </c>
       <c r="O99">
@@ -6012,7 +6187,7 @@
         <v>12.497922552767161</v>
       </c>
     </row>
-    <row r="100" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A100" s="8" t="s">
         <v>98</v>
       </c>
@@ -6029,27 +6204,31 @@
       <c r="E100" s="7">
         <v>7.7</v>
       </c>
-      <c r="F100" s="11">
+      <c r="F100" s="10">
         <v>13.52</v>
       </c>
-      <c r="G100" s="7"/>
-      <c r="H100" s="7"/>
+      <c r="G100">
+        <v>5.91684917249255</v>
+      </c>
+      <c r="H100">
+        <v>3.192584473213</v>
+      </c>
       <c r="I100" s="4">
         <v>26.2</v>
       </c>
       <c r="J100" s="6">
         <v>4.5999999999999996</v>
       </c>
-      <c r="K100" s="15">
+      <c r="K100" s="14">
         <v>16.9553548590827</v>
       </c>
-      <c r="L100" s="15">
+      <c r="L100" s="14">
         <v>1.559410481</v>
       </c>
-      <c r="M100" s="15">
+      <c r="M100" s="14">
         <v>13.454078000000001</v>
       </c>
-      <c r="N100" s="18">
+      <c r="N100" s="17">
         <v>34</v>
       </c>
       <c r="O100">
@@ -6062,7 +6241,7 @@
         <v>13.262808873450698</v>
       </c>
     </row>
-    <row r="101" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A101" s="8" t="s">
         <v>99</v>
       </c>
@@ -6079,27 +6258,31 @@
       <c r="E101" s="7">
         <v>5.8</v>
       </c>
-      <c r="F101" s="12">
+      <c r="F101" s="11">
         <v>9.07</v>
       </c>
-      <c r="G101" s="7"/>
-      <c r="H101" s="7"/>
+      <c r="G101">
+        <v>4.9014286643141203</v>
+      </c>
+      <c r="H101">
+        <v>11.5074729636627</v>
+      </c>
       <c r="I101" s="4">
         <v>21.4</v>
       </c>
       <c r="J101" s="6">
         <v>9.5</v>
       </c>
-      <c r="K101" s="15">
+      <c r="K101" s="14">
         <v>209.587833371762</v>
       </c>
-      <c r="L101" s="15">
+      <c r="L101" s="14">
         <v>1.6105036260000001</v>
       </c>
-      <c r="M101" s="15">
+      <c r="M101" s="14">
         <v>7.1707000000000001</v>
       </c>
-      <c r="N101" s="18">
+      <c r="N101" s="17">
         <v>43</v>
       </c>
       <c r="O101">
@@ -6112,7 +6295,7 @@
         <v>37.331049551478415</v>
       </c>
     </row>
-    <row r="102" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A102" s="8" t="s">
         <v>100</v>
       </c>
@@ -6129,14 +6312,14 @@
       <c r="E102" s="7">
         <v>20.2</v>
       </c>
-      <c r="F102" s="11">
+      <c r="F102" s="10">
         <v>59.95</v>
       </c>
-      <c r="G102" s="7">
-        <v>0.59589306350026605</v>
-      </c>
-      <c r="H102" s="7">
-        <v>0.38700895597127266</v>
+      <c r="G102">
+        <v>2.2154372612291202</v>
+      </c>
+      <c r="H102">
+        <v>39.580945718163903</v>
       </c>
       <c r="I102" s="4">
         <v>2.7</v>
@@ -6144,16 +6327,16 @@
       <c r="J102" s="6">
         <v>12.2</v>
       </c>
-      <c r="K102" s="15">
+      <c r="K102" s="14">
         <v>14.4621363742146</v>
       </c>
-      <c r="L102" s="15">
+      <c r="L102" s="14">
         <v>2.8172961070000002</v>
       </c>
-      <c r="M102" s="15">
+      <c r="M102" s="14">
         <v>38.709806999999998</v>
       </c>
-      <c r="N102" s="18">
+      <c r="N102" s="17">
         <v>26.8</v>
       </c>
       <c r="O102">
@@ -6166,7 +6349,7 @@
         <v>2.205092496653259</v>
       </c>
     </row>
-    <row r="103" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A103" s="8" t="s">
         <v>101</v>
       </c>
@@ -6183,27 +6366,31 @@
       <c r="E103" s="7">
         <v>20.100000000000001</v>
       </c>
-      <c r="F103" s="11">
+      <c r="F103" s="10">
         <v>33.72</v>
       </c>
-      <c r="G103" s="7"/>
-      <c r="H103" s="7"/>
+      <c r="G103">
+        <v>6.8044786624803502</v>
+      </c>
+      <c r="H103">
+        <v>1.07946408378278</v>
+      </c>
       <c r="I103" s="4">
         <v>14.3</v>
       </c>
       <c r="J103" s="6">
         <v>2.9</v>
       </c>
-      <c r="K103" s="15">
+      <c r="K103" s="14">
         <v>255.57279343088399</v>
       </c>
-      <c r="L103" s="15">
+      <c r="L103" s="14">
         <v>2.3859996830000001</v>
       </c>
-      <c r="M103" s="15">
+      <c r="M103" s="14">
         <v>9.9883570000000006</v>
       </c>
-      <c r="N103" s="18">
+      <c r="N103" s="17">
         <v>30.7</v>
       </c>
       <c r="O103">
@@ -6216,7 +6403,7 @@
         <v>40.265670402656703</v>
       </c>
     </row>
-    <row r="104" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A104" s="8" t="s">
         <v>102</v>
       </c>
@@ -6231,32 +6418,32 @@
         <v>93</v>
       </c>
       <c r="E104" s="7"/>
-      <c r="F104" s="11"/>
-      <c r="G104" s="7">
-        <v>0.77436807631994276</v>
-      </c>
-      <c r="H104" s="7">
-        <v>3.4395405474907097E-2</v>
+      <c r="F104" s="10"/>
+      <c r="G104">
+        <v>5.4765066381737801</v>
+      </c>
+      <c r="H104">
+        <v>4.36599565865553</v>
       </c>
       <c r="I104" s="4"/>
       <c r="J104" s="6"/>
-      <c r="K104" s="15">
+      <c r="K104" s="14">
         <v>778.20215946843905</v>
       </c>
-      <c r="L104" s="15">
+      <c r="L104" s="14">
         <v>1.651153146</v>
       </c>
-      <c r="M104" s="15">
+      <c r="M104" s="14">
         <v>5.5946610000000003</v>
       </c>
-      <c r="N104" s="18">
+      <c r="N104" s="17">
         <v>35.5</v>
       </c>
       <c r="O104">
         <v>53.67</v>
       </c>
     </row>
-    <row r="105" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A105" s="8" t="s">
         <v>103</v>
       </c>
@@ -6273,27 +6460,31 @@
       <c r="E105" s="7">
         <v>6.1</v>
       </c>
-      <c r="F105" s="11">
+      <c r="F105" s="10">
         <v>8.98</v>
       </c>
-      <c r="G105" s="7"/>
-      <c r="H105" s="7"/>
+      <c r="G105">
+        <v>3.6700825940654598</v>
+      </c>
+      <c r="H105">
+        <v>14.6615391338548</v>
+      </c>
       <c r="I105" s="4">
         <v>14.3</v>
       </c>
       <c r="J105" s="6">
         <v>4.3</v>
       </c>
-      <c r="K105" s="15">
+      <c r="K105" s="14">
         <v>55.132997040624197</v>
       </c>
-      <c r="L105" s="15">
+      <c r="L105" s="14">
         <v>1.9408513249999999</v>
       </c>
-      <c r="M105" s="15">
+      <c r="M105" s="14">
         <v>15.463361000000001</v>
       </c>
-      <c r="N105" s="18">
+      <c r="N105" s="17">
         <v>50.4</v>
       </c>
       <c r="O105">
@@ -6306,7 +6497,7 @@
         <v>7.5733118105999457</v>
       </c>
     </row>
-    <row r="106" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A106" s="8" t="s">
         <v>104</v>
       </c>
@@ -6323,27 +6514,31 @@
       <c r="E106" s="7">
         <v>13.4</v>
       </c>
-      <c r="F106" s="11">
+      <c r="F106" s="10">
         <v>25.27</v>
       </c>
-      <c r="G106" s="7"/>
-      <c r="H106" s="7"/>
+      <c r="G106">
+        <v>4.6324420742250796</v>
+      </c>
+      <c r="H106">
+        <v>8.0886769443584896</v>
+      </c>
       <c r="I106" s="4">
         <v>22.7</v>
       </c>
       <c r="J106" s="6">
         <v>9.5</v>
       </c>
-      <c r="K106" s="15">
+      <c r="K106" s="14">
         <v>17.1439642587465</v>
       </c>
-      <c r="L106" s="15">
+      <c r="L106" s="14">
         <v>2.919371215</v>
       </c>
-      <c r="M106" s="15">
+      <c r="M106" s="14">
         <v>10.489746</v>
       </c>
-      <c r="N106" s="18">
+      <c r="N106" s="17">
         <v>47.9</v>
       </c>
       <c r="O106">
@@ -6356,7 +6551,7 @@
         <v>12.081550465643092</v>
       </c>
     </row>
-    <row r="107" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A107" s="8" t="s">
         <v>105</v>
       </c>
@@ -6373,27 +6568,31 @@
       <c r="E107" s="7">
         <v>4.8</v>
       </c>
-      <c r="F107" s="11">
+      <c r="F107" s="10">
         <v>12.03</v>
       </c>
-      <c r="G107" s="7"/>
-      <c r="H107" s="7"/>
+      <c r="G107">
+        <v>3.7521822789402401</v>
+      </c>
+      <c r="H107">
+        <v>12.9060496171469</v>
+      </c>
       <c r="I107" s="4">
         <v>13.5</v>
       </c>
       <c r="J107" s="6">
         <v>4.9000000000000004</v>
       </c>
-      <c r="K107" s="15">
+      <c r="K107" s="14">
         <v>25.129285156249999</v>
       </c>
-      <c r="L107" s="15">
+      <c r="L107" s="14">
         <v>1.979901752</v>
       </c>
-      <c r="M107" s="15">
+      <c r="M107" s="14">
         <v>13.614037</v>
       </c>
-      <c r="N107" s="18">
+      <c r="N107" s="17">
         <v>43.8</v>
       </c>
       <c r="O107">
@@ -6406,7 +6605,7 @@
         <v>2.7406250000000001</v>
       </c>
     </row>
-    <row r="108" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A108" s="8" t="s">
         <v>106</v>
       </c>
@@ -6423,27 +6622,31 @@
       <c r="E108" s="7">
         <v>24.3</v>
       </c>
-      <c r="F108" s="11">
+      <c r="F108" s="10">
         <v>14.58</v>
       </c>
-      <c r="G108" s="7"/>
-      <c r="H108" s="7"/>
+      <c r="G108">
+        <v>4.7420389623737602</v>
+      </c>
+      <c r="H108">
+        <v>4.9678691835089701</v>
+      </c>
       <c r="I108" s="4">
         <v>12.3</v>
       </c>
       <c r="J108" s="6">
         <v>3.2</v>
       </c>
-      <c r="K108" s="15">
+      <c r="K108" s="14">
         <v>351.873394372338</v>
       </c>
-      <c r="L108" s="15">
+      <c r="L108" s="14">
         <v>1.566442484</v>
       </c>
-      <c r="M108" s="15">
+      <c r="M108" s="14">
         <v>13.676774</v>
       </c>
-      <c r="N108" s="18">
+      <c r="N108" s="17">
         <v>40.1</v>
       </c>
       <c r="O108">
@@ -6456,7 +6659,7 @@
         <v>18.747694268370392</v>
       </c>
     </row>
-    <row r="109" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A109" s="8" t="s">
         <v>107</v>
       </c>
@@ -6473,14 +6676,14 @@
       <c r="E109" s="7">
         <v>28</v>
       </c>
-      <c r="F109" s="11">
+      <c r="F109" s="10">
         <v>52.23</v>
       </c>
-      <c r="G109" s="7">
-        <v>0.67638425763860099</v>
-      </c>
-      <c r="H109" s="7">
-        <v>0.2441372054024559</v>
+      <c r="G109">
+        <v>2.80621007003925</v>
+      </c>
+      <c r="H109">
+        <v>20.6717045345817</v>
       </c>
       <c r="I109" s="4">
         <v>9.6999999999999993</v>
@@ -6488,16 +6691,16 @@
       <c r="J109" s="6">
         <v>16.2</v>
       </c>
-      <c r="K109" s="15">
+      <c r="K109" s="14">
         <v>124.027045298671</v>
       </c>
-      <c r="L109" s="15">
+      <c r="L109" s="14">
         <v>2.7536132470000001</v>
       </c>
-      <c r="M109" s="15">
+      <c r="M109" s="14">
         <v>33.346711999999997</v>
       </c>
-      <c r="N109" s="18">
+      <c r="N109" s="17">
         <v>32.1</v>
       </c>
       <c r="O109">
@@ -6510,7 +6713,7 @@
         <v>35.291812273425002</v>
       </c>
     </row>
-    <row r="110" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A110" s="8" t="s">
         <v>108</v>
       </c>
@@ -6527,14 +6730,14 @@
       <c r="E110" s="7">
         <v>22.7</v>
       </c>
-      <c r="F110" s="11">
+      <c r="F110" s="10">
         <v>38.700000000000003</v>
       </c>
-      <c r="G110" s="7">
-        <v>0.75657454828349091</v>
-      </c>
-      <c r="H110" s="7">
-        <v>0.19476149339728219</v>
+      <c r="G110">
+        <v>2.6107194075643498</v>
+      </c>
+      <c r="H110">
+        <v>20.729251510321198</v>
       </c>
       <c r="I110" s="4">
         <v>7.4</v>
@@ -6542,16 +6745,16 @@
       <c r="J110" s="6">
         <v>14</v>
       </c>
-      <c r="K110" s="15">
+      <c r="K110" s="14">
         <v>112.37070028928601</v>
       </c>
-      <c r="L110" s="15">
+      <c r="L110" s="14">
         <v>1.9087955809999999</v>
       </c>
-      <c r="M110" s="15">
+      <c r="M110" s="14">
         <v>34.141741000000003</v>
       </c>
-      <c r="N110" s="18">
+      <c r="N110" s="17">
         <v>35.6</v>
       </c>
       <c r="O110">
@@ -6564,7 +6767,7 @@
         <v>10.68351747945426</v>
       </c>
     </row>
-    <row r="111" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A111" s="8" t="s">
         <v>109</v>
       </c>
@@ -6581,14 +6784,14 @@
       <c r="E111" s="7">
         <v>29.7</v>
       </c>
-      <c r="F111" s="11">
+      <c r="F111" s="10">
         <v>44.42</v>
       </c>
-      <c r="G111" s="7">
-        <v>0.32741327939288051</v>
-      </c>
-      <c r="H111" s="7">
-        <v>0.13123713247933777</v>
+      <c r="G111">
+        <v>2.92065610587747</v>
+      </c>
+      <c r="H111">
+        <v>18.8834670280431</v>
       </c>
       <c r="I111" s="4">
         <v>10.3</v>
@@ -6596,16 +6799,16 @@
       <c r="J111" s="6">
         <v>10.4</v>
       </c>
-      <c r="K111" s="15">
+      <c r="K111" s="14">
         <v>85.129255041724605</v>
       </c>
-      <c r="L111" s="15">
+      <c r="L111" s="14">
         <v>2.0628492619999999</v>
       </c>
-      <c r="M111" s="15">
+      <c r="M111" s="14">
         <v>26.441125</v>
       </c>
-      <c r="N111" s="18">
+      <c r="N111" s="17">
         <v>27.5</v>
       </c>
       <c r="O111">
@@ -6618,7 +6821,7 @@
         <v>37.30006954102921</v>
       </c>
     </row>
-    <row r="112" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A112" s="8" t="s">
         <v>110</v>
       </c>
@@ -6635,14 +6838,14 @@
       <c r="E112" s="7">
         <v>39.299999999999997</v>
       </c>
-      <c r="F112" s="11">
+      <c r="F112" s="10">
         <v>55.75</v>
       </c>
-      <c r="G112" s="7">
-        <v>0.68517328565229041</v>
-      </c>
-      <c r="H112" s="7">
-        <v>0.22274981443758582</v>
+      <c r="G112">
+        <v>2.7082218591338201</v>
+      </c>
+      <c r="H112">
+        <v>22.274981443758598</v>
       </c>
       <c r="I112" s="4">
         <v>18</v>
@@ -6650,16 +6853,16 @@
       <c r="J112" s="6">
         <v>31</v>
       </c>
-      <c r="K112" s="15">
+      <c r="K112" s="14">
         <v>8.8231172379093206</v>
       </c>
-      <c r="L112" s="15">
+      <c r="L112" s="14">
         <v>5.9328232779999999</v>
       </c>
-      <c r="M112" s="15">
+      <c r="M112" s="14">
         <v>29.046813</v>
       </c>
-      <c r="N112" s="18">
+      <c r="N112" s="17">
         <v>37.700000000000003</v>
       </c>
       <c r="O112">
@@ -6672,7 +6875,7 @@
         <v>7.5180312423863649</v>
       </c>
     </row>
-    <row r="113" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A113" s="8" t="s">
         <v>111</v>
       </c>
@@ -6689,27 +6892,31 @@
       <c r="E113" s="7">
         <v>12.3</v>
       </c>
-      <c r="F113" s="11">
+      <c r="F113" s="10">
         <v>1.93</v>
       </c>
-      <c r="G113" s="7"/>
-      <c r="H113" s="7"/>
+      <c r="G113">
+        <v>4.2592924568413499</v>
+      </c>
+      <c r="H113">
+        <v>8.1513547603455798</v>
+      </c>
       <c r="I113" s="4">
         <v>29.7</v>
       </c>
       <c r="J113" s="6">
         <v>6.7</v>
       </c>
-      <c r="K113" s="15">
+      <c r="K113" s="14">
         <v>494.86854479124401</v>
       </c>
-      <c r="L113" s="15">
+      <c r="L113" s="14">
         <v>2.7858125299999998</v>
       </c>
-      <c r="M113" s="15">
+      <c r="M113" s="14">
         <v>15.459153000000001</v>
       </c>
-      <c r="N113" s="18">
+      <c r="N113" s="17">
         <v>50.4</v>
       </c>
       <c r="O113">
@@ -6722,7 +6929,7 @@
         <v>46.684229881308468</v>
       </c>
     </row>
-    <row r="114" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A114" s="8" t="s">
         <v>112</v>
       </c>
@@ -6739,27 +6946,25 @@
       <c r="E114" s="7">
         <v>15.6</v>
       </c>
-      <c r="F114" s="11">
+      <c r="F114" s="10">
         <v>24.63</v>
       </c>
-      <c r="G114" s="7"/>
-      <c r="H114" s="7"/>
       <c r="I114" s="4">
         <v>28.8</v>
       </c>
       <c r="J114" s="6">
         <v>3.2</v>
       </c>
-      <c r="K114" s="15">
+      <c r="K114" s="14">
         <v>15.322308332829399</v>
       </c>
-      <c r="L114" s="15">
+      <c r="L114" s="14">
         <v>1.4580674179999999</v>
       </c>
-      <c r="M114" s="15">
+      <c r="M114" s="14">
         <v>2.23278</v>
       </c>
-      <c r="N114" s="18">
+      <c r="N114" s="17">
         <v>45.9</v>
       </c>
       <c r="O114">
@@ -6772,7 +6977,7 @@
         <v>1.6174425149672742</v>
       </c>
     </row>
-    <row r="115" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A115" s="8" t="s">
         <v>113</v>
       </c>
@@ -6789,27 +6994,31 @@
       <c r="E115" s="7">
         <v>8.1999999999999993</v>
       </c>
-      <c r="F115" s="11">
+      <c r="F115" s="10">
         <v>14.68</v>
       </c>
-      <c r="G115" s="7"/>
-      <c r="H115" s="7"/>
+      <c r="G115">
+        <v>8.3062047774780297</v>
+      </c>
+      <c r="H115">
+        <v>8.3785239782870402</v>
+      </c>
       <c r="I115" s="4">
         <v>23.4</v>
       </c>
       <c r="J115" s="6">
         <v>6</v>
       </c>
-      <c r="K115" s="15">
+      <c r="K115" s="14">
         <v>82.327777489222498</v>
       </c>
-      <c r="L115" s="15">
+      <c r="L115" s="14">
         <v>1.6261849719999999</v>
       </c>
-      <c r="M115" s="15">
+      <c r="M115" s="14">
         <v>15.920230999999999</v>
       </c>
-      <c r="N115" s="18">
+      <c r="N115" s="17">
         <v>40.299999999999997</v>
       </c>
       <c r="O115">
@@ -6822,7 +7031,7 @@
         <v>16.620786370955177</v>
       </c>
     </row>
-    <row r="116" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A116" s="8" t="s">
         <v>114</v>
       </c>
@@ -6839,14 +7048,14 @@
       <c r="E116" s="7">
         <v>38.9</v>
       </c>
-      <c r="F116" s="11">
+      <c r="F116" s="10">
         <v>44.82</v>
       </c>
-      <c r="G116" s="7">
-        <v>0.68138295366251178</v>
-      </c>
-      <c r="H116" s="7">
-        <v>0.21166418716745364</v>
+      <c r="G116">
+        <v>2.87916488134907</v>
+      </c>
+      <c r="H116">
+        <v>22.3268670670601</v>
       </c>
       <c r="I116" s="4">
         <v>7.4</v>
@@ -6854,16 +7063,16 @@
       <c r="J116" s="6">
         <v>15.6</v>
       </c>
-      <c r="K116" s="15">
+      <c r="K116" s="14">
         <v>80.291195975302998</v>
       </c>
-      <c r="L116" s="15">
+      <c r="L116" s="14">
         <v>2.3197503199999998</v>
       </c>
-      <c r="M116" s="15">
+      <c r="M116" s="14">
         <v>35.078639000000003</v>
       </c>
-      <c r="N116" s="18">
+      <c r="N116" s="17">
         <v>29.1</v>
       </c>
       <c r="O116">
@@ -6873,7 +7082,7 @@
         <v>29.705008003658818</v>
       </c>
     </row>
-    <row r="117" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A117" s="8" t="s">
         <v>115</v>
       </c>
@@ -6887,25 +7096,29 @@
       <c r="E117" s="7">
         <v>24.8</v>
       </c>
-      <c r="F117" s="11">
+      <c r="F117" s="10">
         <v>8.48</v>
       </c>
-      <c r="G117" s="7"/>
-      <c r="H117" s="7"/>
+      <c r="G117">
+        <v>5.8990749876049096</v>
+      </c>
+      <c r="H117">
+        <v>3.9976892562619701</v>
+      </c>
       <c r="I117" s="4"/>
       <c r="J117" s="6">
         <v>9.6999999999999993</v>
       </c>
-      <c r="K117" s="15">
+      <c r="K117" s="14">
         <v>104.699528955389</v>
       </c>
-      <c r="L117" s="15">
+      <c r="L117" s="14">
         <v>1.6294331559999999</v>
       </c>
-      <c r="M117" s="15">
+      <c r="M117" s="14">
         <v>11.178661</v>
       </c>
-      <c r="N117" s="18">
+      <c r="N117" s="17">
         <v>34</v>
       </c>
       <c r="O117">
@@ -6918,7 +7131,7 @@
         <v>21.945137157107229</v>
       </c>
     </row>
-    <row r="118" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A118" s="8" t="s">
         <v>116</v>
       </c>
@@ -6935,14 +7148,14 @@
       <c r="E118" s="7">
         <v>16.5</v>
       </c>
-      <c r="F118" s="11">
+      <c r="F118" s="10">
         <v>1.28</v>
       </c>
-      <c r="G118" s="7">
-        <v>0.78787681767677009</v>
-      </c>
-      <c r="H118" s="7">
-        <v>0.10444636367606173</v>
+      <c r="G118">
+        <v>3.2914348296565201</v>
+      </c>
+      <c r="H118">
+        <v>12.206436749511299</v>
       </c>
       <c r="I118" s="4">
         <v>2.8</v>
@@ -6950,16 +7163,16 @@
       <c r="J118" s="6">
         <v>9.9</v>
       </c>
-      <c r="K118" s="15">
+      <c r="K118" s="14">
         <v>7915.7306064880104</v>
       </c>
-      <c r="L118" s="15">
+      <c r="L118" s="14">
         <v>1.530099412</v>
       </c>
-      <c r="M118" s="15">
+      <c r="M118" s="14">
         <v>13.421915</v>
       </c>
-      <c r="N118" s="18"/>
+      <c r="N118" s="17"/>
       <c r="O118">
         <v>82</v>
       </c>
@@ -6970,7 +7183,7 @@
         <v>0.78984483826813856</v>
       </c>
     </row>
-    <row r="119" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A119" s="8" t="s">
         <v>117</v>
       </c>
@@ -6987,14 +7200,8 @@
       <c r="E119" s="7">
         <v>30.1</v>
       </c>
-      <c r="F119" s="11">
+      <c r="F119" s="10">
         <v>48.13</v>
-      </c>
-      <c r="G119" s="7">
-        <v>0.64271615369199031</v>
-      </c>
-      <c r="H119" s="7">
-        <v>0.24790669709863042</v>
       </c>
       <c r="I119" s="4">
         <v>6.1</v>
@@ -7002,16 +7209,16 @@
       <c r="J119" s="6">
         <v>12.8</v>
       </c>
-      <c r="K119" s="15">
+      <c r="K119" s="14">
         <v>113.12839495903199</v>
       </c>
-      <c r="L119" s="15">
+      <c r="L119" s="14">
         <v>2.992271423</v>
       </c>
-      <c r="M119" s="15">
+      <c r="M119" s="14">
         <v>32.356543000000002</v>
       </c>
-      <c r="N119" s="18">
+      <c r="N119" s="17">
         <v>26.1</v>
       </c>
       <c r="O119">
@@ -7024,7 +7231,7 @@
         <v>28.015806988352743</v>
       </c>
     </row>
-    <row r="120" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A120" s="8" t="s">
         <v>118</v>
       </c>
@@ -7041,14 +7248,14 @@
       <c r="E120" s="7">
         <v>22.5</v>
       </c>
-      <c r="F120" s="11">
+      <c r="F120" s="10">
         <v>46.05</v>
       </c>
-      <c r="G120" s="7">
-        <v>0.65714088328058951</v>
-      </c>
-      <c r="H120" s="7">
-        <v>0.27719099660685487</v>
+      <c r="G120">
+        <v>2.8227603438251299</v>
+      </c>
+      <c r="H120">
+        <v>20.8966481763754</v>
       </c>
       <c r="I120" s="4">
         <v>6.4</v>
@@ -7056,16 +7263,16 @@
       <c r="J120" s="6">
         <v>18.600000000000001</v>
       </c>
-      <c r="K120" s="15">
+      <c r="K120" s="14">
         <v>102.61906653426</v>
       </c>
-      <c r="L120" s="15">
+      <c r="L120" s="14">
         <v>2.8881774459999998</v>
       </c>
-      <c r="M120" s="15">
+      <c r="M120" s="14">
         <v>36.505336999999997</v>
       </c>
-      <c r="N120" s="18">
+      <c r="N120" s="17">
         <v>25.7</v>
       </c>
       <c r="O120">
@@ -7078,7 +7285,7 @@
         <v>9.1291832658336602</v>
       </c>
     </row>
-    <row r="121" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A121" s="8" t="s">
         <v>119</v>
       </c>
@@ -7095,14 +7302,14 @@
       <c r="E121" s="7">
         <v>20.3</v>
       </c>
-      <c r="F121" s="11">
+      <c r="F121" s="10">
         <v>33.92</v>
       </c>
-      <c r="G121" s="7">
-        <v>0.37298323611670037</v>
-      </c>
-      <c r="H121" s="7">
-        <v>0.27572912142655565</v>
+      <c r="G121">
+        <v>3.24346805490097</v>
+      </c>
+      <c r="H121">
+        <v>26.801934676544999</v>
       </c>
       <c r="I121" s="4">
         <v>25.9</v>
@@ -7110,16 +7317,16 @@
       <c r="J121" s="6">
         <v>11.6</v>
       </c>
-      <c r="K121" s="15">
+      <c r="K121" s="14">
         <v>46.754285337444003</v>
       </c>
-      <c r="L121" s="15">
+      <c r="L121" s="14">
         <v>2.1691135539999999</v>
       </c>
-      <c r="M121" s="15">
+      <c r="M121" s="14">
         <v>29.305698</v>
       </c>
-      <c r="N121" s="18">
+      <c r="N121" s="17">
         <v>63</v>
       </c>
       <c r="O121">
@@ -7132,7 +7339,7 @@
         <v>10.304264316744842</v>
       </c>
     </row>
-    <row r="122" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A122" s="8" t="s">
         <v>120</v>
       </c>
@@ -7149,14 +7356,11 @@
       <c r="E122" s="7">
         <v>23.3</v>
       </c>
-      <c r="F122" s="11">
+      <c r="F122" s="10">
         <v>37.549999999999997</v>
       </c>
-      <c r="G122" s="7">
-        <v>0.6430968306971383</v>
-      </c>
-      <c r="H122" s="7">
-        <v>0.22009025914517155</v>
+      <c r="H122">
+        <v>23.888714398899801</v>
       </c>
       <c r="I122" s="4">
         <v>9.8000000000000007</v>
@@ -7164,16 +7368,16 @@
       <c r="J122" s="6">
         <v>26.9</v>
       </c>
-      <c r="K122" s="15">
+      <c r="K122" s="14">
         <v>527.96677267131702</v>
       </c>
-      <c r="L122" s="15">
+      <c r="L122" s="14">
         <v>3.1578342109999999</v>
       </c>
-      <c r="M122" s="15">
+      <c r="M122" s="14">
         <v>26.236792000000001</v>
       </c>
-      <c r="N122" s="18">
+      <c r="N122" s="17">
         <v>31.6</v>
       </c>
       <c r="O122">
@@ -7186,7 +7390,7 @@
         <v>14.576002862502321</v>
       </c>
     </row>
-    <row r="123" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A123" s="8" t="s">
         <v>121</v>
       </c>
@@ -7198,30 +7402,34 @@
         <v>3</v>
       </c>
       <c r="E123" s="7"/>
-      <c r="F123" s="11">
+      <c r="F123" s="10">
         <v>4.8499999999999996</v>
       </c>
-      <c r="G123" s="7"/>
-      <c r="H123" s="7"/>
+      <c r="G123">
+        <v>5.9479727880002997</v>
+      </c>
+      <c r="H123">
+        <v>4.3278114895990196</v>
+      </c>
       <c r="I123" s="4">
         <v>29.9</v>
       </c>
       <c r="J123" s="6">
         <v>3.7</v>
       </c>
-      <c r="K123" s="15"/>
-      <c r="L123" s="15">
+      <c r="K123" s="14"/>
+      <c r="L123" s="14">
         <v>1.9170053039999999</v>
       </c>
-      <c r="M123" s="15"/>
-      <c r="N123" s="18">
+      <c r="M123" s="14"/>
+      <c r="N123" s="17">
         <v>45.5</v>
       </c>
       <c r="O123">
         <v>15.9</v>
       </c>
     </row>
-    <row r="124" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A124" s="8" t="s">
         <v>122</v>
       </c>
@@ -7238,14 +7446,14 @@
       <c r="E124" s="7">
         <v>29.3</v>
       </c>
-      <c r="F124" s="11">
+      <c r="F124" s="10">
         <v>40.380000000000003</v>
       </c>
-      <c r="G124" s="7">
-        <v>0.72821385295403196</v>
-      </c>
-      <c r="H124" s="7">
-        <v>0.20275870400923537</v>
+      <c r="G124">
+        <v>2.8615200483817098</v>
+      </c>
+      <c r="H124">
+        <v>20.275629124322101</v>
       </c>
       <c r="I124" s="4">
         <v>4.0999999999999996</v>
@@ -7253,16 +7461,16 @@
       <c r="J124" s="6">
         <v>8.6999999999999993</v>
       </c>
-      <c r="K124" s="15">
+      <c r="K124" s="14">
         <v>93.1049519201935</v>
       </c>
-      <c r="L124" s="15">
+      <c r="L124" s="14">
         <v>2.2706885099999998</v>
       </c>
-      <c r="M124" s="15">
+      <c r="M124" s="14">
         <v>33.180988999999997</v>
       </c>
-      <c r="N124" s="18">
+      <c r="N124" s="17">
         <v>36</v>
       </c>
       <c r="O124">
@@ -7275,7 +7483,7 @@
         <v>24.695894967158079</v>
       </c>
     </row>
-    <row r="125" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A125" s="8" t="s">
         <v>123</v>
       </c>
@@ -7292,27 +7500,25 @@
       <c r="E125" s="7">
         <v>13</v>
       </c>
-      <c r="F125" s="11">
+      <c r="F125" s="10">
         <v>6.9</v>
       </c>
-      <c r="G125" s="7"/>
-      <c r="H125" s="7"/>
       <c r="I125" s="4">
         <v>14.9</v>
       </c>
       <c r="J125" s="6">
         <v>14.6</v>
       </c>
-      <c r="K125" s="15">
+      <c r="K125" s="14">
         <v>341.95503109551902</v>
       </c>
-      <c r="L125" s="15">
+      <c r="L125" s="14">
         <v>1.5497655269999999</v>
       </c>
-      <c r="M125" s="15">
+      <c r="M125" s="14">
         <v>12.444495999999999</v>
       </c>
-      <c r="N125" s="18">
+      <c r="N125" s="17">
         <v>39.799999999999997</v>
       </c>
       <c r="O125">
@@ -7325,7 +7531,7 @@
         <v>20.730346037314622</v>
       </c>
     </row>
-    <row r="126" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A126" s="8" t="s">
         <v>124</v>
       </c>
@@ -7342,27 +7548,25 @@
       <c r="E126" s="7">
         <v>18.8</v>
       </c>
-      <c r="F126" s="11">
+      <c r="F126" s="10">
         <v>59.32</v>
       </c>
-      <c r="G126" s="7"/>
-      <c r="H126" s="7"/>
       <c r="I126" s="4">
         <v>2.8</v>
       </c>
       <c r="J126" s="6">
         <v>14.8</v>
       </c>
-      <c r="K126" s="15">
+      <c r="K126" s="14">
         <v>24.717645036949701</v>
       </c>
-      <c r="L126" s="15">
+      <c r="L126" s="14">
         <v>2.4664065709999998</v>
       </c>
-      <c r="M126" s="15">
+      <c r="M126" s="14">
         <v>44.237478000000003</v>
       </c>
-      <c r="N126" s="18">
+      <c r="N126" s="17">
         <v>27.2</v>
       </c>
       <c r="O126">
@@ -7375,7 +7579,7 @@
         <v>6.3209842568467511</v>
       </c>
     </row>
-    <row r="127" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A127" s="8" t="s">
         <v>125</v>
       </c>
@@ -7392,14 +7596,14 @@
       <c r="E127" s="7">
         <v>25.7</v>
       </c>
-      <c r="F127" s="11">
+      <c r="F127" s="10">
         <v>46.95</v>
       </c>
-      <c r="G127" s="7">
-        <v>0.61659517769633998</v>
-      </c>
-      <c r="H127" s="7">
-        <v>0.35978633876431237</v>
+      <c r="G127">
+        <v>2.2128824637337701</v>
+      </c>
+      <c r="H127">
+        <v>37.505457085479797</v>
       </c>
       <c r="I127" s="4">
         <v>2.7</v>
@@ -7407,16 +7611,16 @@
       <c r="J127" s="6">
         <v>17.2</v>
       </c>
-      <c r="K127" s="15">
+      <c r="K127" s="14">
         <v>214.242762425347</v>
       </c>
-      <c r="L127" s="15">
+      <c r="L127" s="14">
         <v>2.396185547</v>
       </c>
-      <c r="M127" s="15">
+      <c r="M127" s="14">
         <v>27.700901999999999</v>
       </c>
-      <c r="N127" s="18">
+      <c r="N127" s="17">
         <v>32.5</v>
       </c>
       <c r="O127">
@@ -7429,7 +7633,7 @@
         <v>10.089584025557285</v>
       </c>
     </row>
-    <row r="128" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A128" s="8" t="s">
         <v>126</v>
       </c>
@@ -7444,26 +7648,24 @@
         <v>45</v>
       </c>
       <c r="E128" s="7"/>
-      <c r="F128" s="11">
+      <c r="F128" s="10">
         <v>25.03</v>
       </c>
-      <c r="G128" s="7"/>
-      <c r="H128" s="7"/>
       <c r="I128" s="4">
         <v>26.5</v>
       </c>
       <c r="J128" s="6"/>
-      <c r="K128" s="15"/>
-      <c r="L128" s="15">
+      <c r="K128" s="14"/>
+      <c r="L128" s="14">
         <v>1.979137336</v>
       </c>
-      <c r="M128" s="15"/>
-      <c r="N128" s="18"/>
+      <c r="M128" s="14"/>
+      <c r="N128" s="17"/>
       <c r="O128">
         <v>83.99</v>
       </c>
     </row>
-    <row r="129" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A129" s="8" t="s">
         <v>127</v>
       </c>
@@ -7478,27 +7680,31 @@
         <v>85</v>
       </c>
       <c r="E129" s="7"/>
-      <c r="F129" s="11">
+      <c r="F129" s="10">
         <v>38.53</v>
       </c>
-      <c r="G129" s="7"/>
-      <c r="H129" s="7"/>
+      <c r="G129">
+        <v>6.2705799674902396</v>
+      </c>
+      <c r="H129">
+        <v>2.9592907429550501</v>
+      </c>
       <c r="I129" s="4">
         <v>18.100000000000001</v>
       </c>
       <c r="J129" s="6">
         <v>2.5</v>
       </c>
-      <c r="K129" s="15">
+      <c r="K129" s="14">
         <v>64.281289179023801</v>
       </c>
-      <c r="L129" s="15">
+      <c r="L129" s="14">
         <v>2.5833153879999999</v>
       </c>
-      <c r="M129" s="15">
+      <c r="M129" s="14">
         <v>20.6</v>
       </c>
-      <c r="N129" s="18">
+      <c r="N129" s="17">
         <v>34</v>
       </c>
       <c r="O129">
@@ -7511,7 +7717,7 @@
         <v>5.2597449383961381</v>
       </c>
     </row>
-    <row r="130" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A130" s="8" t="s">
         <v>128</v>
       </c>
@@ -7528,27 +7734,31 @@
       <c r="E130" s="7">
         <v>14.8</v>
       </c>
-      <c r="F130" s="11">
+      <c r="F130" s="10">
         <v>6.17</v>
       </c>
-      <c r="G130" s="7"/>
-      <c r="H130" s="7"/>
+      <c r="G130">
+        <v>4.8515478517615502</v>
+      </c>
+      <c r="H130">
+        <v>9.6321931518388393</v>
+      </c>
       <c r="I130" s="4">
         <v>29.2</v>
       </c>
       <c r="J130" s="6">
         <v>5.4</v>
       </c>
-      <c r="K130" s="15">
+      <c r="K130" s="14">
         <v>64.698599006547795</v>
       </c>
-      <c r="L130" s="15">
+      <c r="L130" s="14">
         <v>2.0172102519999999</v>
       </c>
-      <c r="M130" s="15">
+      <c r="M130" s="14">
         <v>11.390269</v>
       </c>
-      <c r="N130" s="18">
+      <c r="N130" s="17">
         <v>37.799999999999997</v>
       </c>
       <c r="O130">
@@ -7561,7 +7771,7 @@
         <v>15.240460600587042</v>
       </c>
     </row>
-    <row r="131" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A131" s="8" t="s">
         <v>129</v>
       </c>
@@ -7578,14 +7788,14 @@
       <c r="E131" s="7">
         <v>19.899999999999999</v>
       </c>
-      <c r="F131" s="11">
+      <c r="F131" s="10">
         <v>13.75</v>
       </c>
-      <c r="G131" s="7">
-        <v>0.47336490505086098</v>
-      </c>
-      <c r="H131" s="7">
-        <v>0.18362842385612677</v>
+      <c r="G131">
+        <v>3.6937840960351802</v>
+      </c>
+      <c r="H131">
+        <v>8.6987429564403502</v>
       </c>
       <c r="I131" s="4">
         <v>32.700000000000003</v>
@@ -7593,16 +7803,16 @@
       <c r="J131" s="6">
         <v>14.4</v>
       </c>
-      <c r="K131" s="15">
+      <c r="K131" s="14">
         <v>135.13185421519299</v>
       </c>
-      <c r="L131" s="15">
+      <c r="L131" s="14">
         <v>1.7415079250000001</v>
       </c>
-      <c r="M131" s="15">
+      <c r="M131" s="14">
         <v>17.834917999999998</v>
       </c>
-      <c r="N131" s="18">
+      <c r="N131" s="17">
         <v>36.5</v>
       </c>
       <c r="O131">
@@ -7615,7 +7825,7 @@
         <v>32.903364716475167</v>
       </c>
     </row>
-    <row r="132" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A132" s="8" t="s">
         <v>130</v>
       </c>
@@ -7632,27 +7842,31 @@
       <c r="E132" s="7">
         <v>7.4</v>
       </c>
-      <c r="F132" s="11">
+      <c r="F132" s="10">
         <v>6.12</v>
       </c>
-      <c r="G132" s="7"/>
-      <c r="H132" s="7"/>
+      <c r="G132">
+        <v>4.5513104055187199</v>
+      </c>
+      <c r="H132">
+        <v>15.651100887626299</v>
+      </c>
       <c r="I132" s="4">
         <v>29.2</v>
       </c>
       <c r="J132" s="6">
         <v>9.6</v>
       </c>
-      <c r="K132" s="15">
+      <c r="K132" s="14">
         <v>143.36631733774601</v>
       </c>
-      <c r="L132" s="15">
+      <c r="L132" s="14">
         <v>1.660319265</v>
       </c>
-      <c r="M132" s="15">
+      <c r="M132" s="14">
         <v>18.763441</v>
       </c>
-      <c r="N132" s="18">
+      <c r="N132" s="17">
         <v>43</v>
       </c>
       <c r="O132">
@@ -7665,7 +7879,7 @@
         <v>48.722191579334435</v>
       </c>
     </row>
-    <row r="133" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A133" s="8" t="s">
         <v>131</v>
       </c>
@@ -7680,27 +7894,31 @@
         <v>92</v>
       </c>
       <c r="E133" s="7"/>
-      <c r="F133" s="11">
+      <c r="F133" s="10">
         <v>10.67</v>
       </c>
-      <c r="G133" s="7"/>
-      <c r="H133" s="7"/>
+      <c r="G133">
+        <v>3.29086780304119</v>
+      </c>
+      <c r="H133">
+        <v>19.2100951450171</v>
+      </c>
       <c r="I133" s="4">
         <v>12.1</v>
       </c>
       <c r="J133" s="6">
         <v>13.6</v>
       </c>
-      <c r="K133" s="15">
+      <c r="K133" s="14">
         <v>266.885964912281</v>
       </c>
-      <c r="L133" s="15">
+      <c r="L133" s="14">
         <v>2.3274293319999999</v>
       </c>
-      <c r="M133" s="15">
+      <c r="M133" s="14">
         <v>26.147864999999999</v>
       </c>
-      <c r="N133" s="18">
+      <c r="N133" s="17">
         <v>40.299999999999997</v>
       </c>
       <c r="O133">
@@ -7713,7 +7931,7 @@
         <v>4.8732943469785575</v>
       </c>
     </row>
-    <row r="134" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A134" s="8" t="s">
         <v>132</v>
       </c>
@@ -7730,27 +7948,25 @@
       <c r="E134" s="7">
         <v>32.700000000000003</v>
       </c>
-      <c r="F134" s="11">
+      <c r="F134" s="10">
         <v>36.799999999999997</v>
       </c>
-      <c r="G134" s="7"/>
-      <c r="H134" s="7"/>
       <c r="I134" s="4">
         <v>22.8</v>
       </c>
       <c r="J134" s="6">
         <v>3.4</v>
       </c>
-      <c r="K134" s="15">
+      <c r="K134" s="14">
         <v>74.228417868177104</v>
       </c>
-      <c r="L134" s="15">
+      <c r="L134" s="14">
         <v>1.466407341</v>
       </c>
-      <c r="M134" s="15">
+      <c r="M134" s="14">
         <v>29.614932</v>
       </c>
-      <c r="N134" s="18">
+      <c r="N134" s="17">
         <v>35.799999999999997</v>
       </c>
       <c r="O134">
@@ -7763,7 +7979,7 @@
         <v>18.666323377960865</v>
       </c>
     </row>
-    <row r="135" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A135" s="8" t="s">
         <v>133</v>
       </c>
@@ -7780,27 +7996,31 @@
       <c r="E135" s="7">
         <v>27.2</v>
       </c>
-      <c r="F135" s="11">
+      <c r="F135" s="10">
         <v>39.869999999999997</v>
       </c>
-      <c r="G135" s="7"/>
-      <c r="H135" s="7"/>
+      <c r="G135">
+        <v>4.07131378673696</v>
+      </c>
+      <c r="H135">
+        <v>6.3709110577942303</v>
+      </c>
       <c r="I135" s="4">
         <v>12.3</v>
       </c>
       <c r="J135" s="6">
         <v>7.3</v>
       </c>
-      <c r="K135" s="15">
+      <c r="K135" s="14">
         <v>104.914075594766</v>
       </c>
-      <c r="L135" s="15">
+      <c r="L135" s="14">
         <v>1.7250975909999999</v>
       </c>
-      <c r="M135" s="15">
+      <c r="M135" s="14">
         <v>25.301887000000001</v>
       </c>
-      <c r="N135" s="18">
+      <c r="N135" s="17">
         <v>41.9</v>
       </c>
       <c r="O135">
@@ -7813,7 +8033,7 @@
         <v>26.481556072398426</v>
       </c>
     </row>
-    <row r="136" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A136" s="8" t="s">
         <v>134</v>
       </c>
@@ -7828,27 +8048,25 @@
         <v>80</v>
       </c>
       <c r="E136" s="7"/>
-      <c r="F136" s="11">
+      <c r="F136" s="10">
         <v>37.93</v>
       </c>
-      <c r="G136" s="7"/>
-      <c r="H136" s="7"/>
       <c r="I136" s="4">
         <v>14.5</v>
       </c>
       <c r="J136" s="6">
         <v>6.7</v>
       </c>
-      <c r="K136" s="15">
+      <c r="K136" s="14">
         <v>12.2530483263465</v>
       </c>
-      <c r="L136" s="15">
+      <c r="L136" s="14">
         <v>2.7327663169999998</v>
       </c>
-      <c r="M136" s="15">
+      <c r="M136" s="14">
         <v>20.373964000000001</v>
       </c>
-      <c r="N136" s="18">
+      <c r="N136" s="17">
         <v>43.2</v>
       </c>
       <c r="O136">
@@ -7861,7 +8079,7 @@
         <v>4.1282744238503613</v>
       </c>
     </row>
-    <row r="137" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A137" s="8" t="s">
         <v>135</v>
       </c>
@@ -7878,27 +8096,31 @@
       <c r="E137" s="7">
         <v>10</v>
       </c>
-      <c r="F137" s="11">
+      <c r="F137" s="10">
         <v>0.3</v>
       </c>
-      <c r="G137" s="7"/>
-      <c r="H137" s="7"/>
+      <c r="G137">
+        <v>4.5343375628240601</v>
+      </c>
+      <c r="H137">
+        <v>13.6801283192429</v>
+      </c>
       <c r="I137" s="4">
         <v>29</v>
       </c>
       <c r="J137" s="6">
         <v>9.9</v>
       </c>
-      <c r="K137" s="15">
+      <c r="K137" s="14">
         <v>213.75901655695199</v>
       </c>
-      <c r="L137" s="15">
+      <c r="L137" s="14">
         <v>1.7230074019999999</v>
       </c>
-      <c r="M137" s="15">
+      <c r="M137" s="14">
         <v>12.676283</v>
       </c>
-      <c r="N137" s="18">
+      <c r="N137" s="17">
         <v>42.8</v>
       </c>
       <c r="O137">
@@ -7911,7 +8133,7 @@
         <v>34.410532615200481</v>
       </c>
     </row>
-    <row r="138" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A138" s="8" t="s">
         <v>136</v>
       </c>
@@ -7928,27 +8150,31 @@
       <c r="E138" s="7">
         <v>28.9</v>
       </c>
-      <c r="F138" s="11">
+      <c r="F138" s="10">
         <v>50.45</v>
       </c>
-      <c r="G138" s="7"/>
-      <c r="H138" s="7"/>
+      <c r="G138">
+        <v>2.4582984193627602</v>
+      </c>
+      <c r="H138">
+        <v>27.897566743807001</v>
+      </c>
       <c r="I138" s="4">
         <v>13.7</v>
       </c>
       <c r="J138" s="6">
         <v>22.4</v>
       </c>
-      <c r="K138" s="15">
+      <c r="K138" s="14">
         <v>77.389837559771493</v>
       </c>
-      <c r="L138" s="15">
+      <c r="L138" s="14">
         <v>5.1017697169999998</v>
       </c>
-      <c r="M138" s="15">
+      <c r="M138" s="14">
         <v>30.859074</v>
       </c>
-      <c r="N138" s="18">
+      <c r="N138" s="17">
         <v>25.5</v>
       </c>
       <c r="O138">
@@ -7961,7 +8187,7 @@
         <v>56.579606069498865</v>
       </c>
     </row>
-    <row r="139" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A139" s="8" t="s">
         <v>137</v>
       </c>
@@ -7978,27 +8204,25 @@
       <c r="E139" s="7">
         <v>28.9</v>
       </c>
-      <c r="F139" s="11">
+      <c r="F139" s="10">
         <v>24.47</v>
       </c>
-      <c r="G139" s="7"/>
-      <c r="H139" s="7"/>
       <c r="I139" s="4">
         <v>18.100000000000001</v>
       </c>
       <c r="J139" s="6">
         <v>2.8</v>
       </c>
-      <c r="K139" s="15">
+      <c r="K139" s="14">
         <v>112.44192583732099</v>
       </c>
-      <c r="L139" s="15">
+      <c r="L139" s="14">
         <v>1.751084868</v>
       </c>
-      <c r="M139" s="15">
+      <c r="M139" s="14">
         <v>9.2430889999999994</v>
       </c>
-      <c r="N139" s="18"/>
+      <c r="N139" s="17"/>
       <c r="O139">
         <v>90.4</v>
       </c>
@@ -8009,7 +8233,7 @@
         <v>0.62658406082793583</v>
       </c>
     </row>
-    <row r="140" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A140" s="8" t="s">
         <v>138</v>
       </c>
@@ -8026,14 +8250,14 @@
       <c r="E140" s="7">
         <v>22.3</v>
       </c>
-      <c r="F140" s="11">
+      <c r="F140" s="10">
         <v>51.5</v>
       </c>
-      <c r="G140" s="7">
-        <v>0.61449009185958636</v>
-      </c>
-      <c r="H140" s="7">
-        <v>0.30583766884440627</v>
+      <c r="G140">
+        <v>2.2653598482396502</v>
+      </c>
+      <c r="H140">
+        <v>33.010054247025202</v>
       </c>
       <c r="I140" s="4">
         <v>3.1</v>
@@ -8041,16 +8265,16 @@
       <c r="J140" s="6">
         <v>8.9</v>
       </c>
-      <c r="K140" s="15">
+      <c r="K140" s="14">
         <v>272.89824742694202</v>
       </c>
-      <c r="L140" s="15">
+      <c r="L140" s="14">
         <v>2.8989730470000001</v>
       </c>
-      <c r="M140" s="15">
+      <c r="M140" s="14">
         <v>32.734135000000002</v>
       </c>
-      <c r="N140" s="18">
+      <c r="N140" s="17">
         <v>34.1</v>
       </c>
       <c r="O140">
@@ -8063,7 +8287,7 @@
         <v>24.908071614206591</v>
       </c>
     </row>
-    <row r="141" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A141" s="8" t="s">
         <v>139</v>
       </c>
@@ -8080,27 +8304,31 @@
       <c r="E141" s="7">
         <v>21.8</v>
       </c>
-      <c r="F141" s="11">
+      <c r="F141" s="10">
         <v>38.880000000000003</v>
       </c>
-      <c r="G141" s="7"/>
-      <c r="H141" s="7"/>
+      <c r="G141">
+        <v>2.5197485693251198</v>
+      </c>
+      <c r="H141">
+        <v>27.448182690720799</v>
+      </c>
       <c r="I141" s="4">
         <v>12.4</v>
       </c>
       <c r="J141" s="6">
         <v>15.3</v>
       </c>
-      <c r="K141" s="15">
+      <c r="K141" s="14">
         <v>35.607764593732398</v>
       </c>
-      <c r="L141" s="15">
+      <c r="L141" s="14">
         <v>5.4680782109999999</v>
       </c>
-      <c r="M141" s="15">
+      <c r="M141" s="14">
         <v>25.773724000000001</v>
       </c>
-      <c r="N141" s="18">
+      <c r="N141" s="17">
         <v>41.5</v>
       </c>
       <c r="O141">
@@ -8113,7 +8341,7 @@
         <v>16.645403840645777</v>
       </c>
     </row>
-    <row r="142" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A142" s="8" t="s">
         <v>140</v>
       </c>
@@ -8130,14 +8358,14 @@
       <c r="E142" s="7">
         <v>16.8</v>
       </c>
-      <c r="F142" s="11">
+      <c r="F142" s="10">
         <v>34.880000000000003</v>
       </c>
-      <c r="G142" s="7">
-        <v>0.59277662743910242</v>
-      </c>
-      <c r="H142" s="7">
-        <v>0.23274470227697427</v>
+      <c r="G142">
+        <v>2.7812603590557798</v>
+      </c>
+      <c r="H142">
+        <v>23.523561944972698</v>
       </c>
       <c r="I142" s="4">
         <v>13.4</v>
@@ -8145,16 +8373,16 @@
       <c r="J142" s="6">
         <v>18.399999999999999</v>
       </c>
-      <c r="K142" s="15">
+      <c r="K142" s="14">
         <v>19.750599931436401</v>
       </c>
-      <c r="L142" s="15">
+      <c r="L142" s="14">
         <v>2.0612895770000002</v>
       </c>
-      <c r="M142" s="15">
+      <c r="M142" s="14">
         <v>34.229075999999999</v>
       </c>
-      <c r="N142" s="18">
+      <c r="N142" s="17">
         <v>39.700000000000003</v>
       </c>
       <c r="O142">
@@ -8167,7 +8395,7 @@
         <v>13.773283611337275</v>
       </c>
     </row>
-    <row r="143" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A143" s="8" t="s">
         <v>141</v>
       </c>
@@ -8184,27 +8412,25 @@
       <c r="E143" s="7">
         <v>12.6</v>
       </c>
-      <c r="F143" s="11">
+      <c r="F143" s="10">
         <v>41.27</v>
       </c>
-      <c r="G143" s="7"/>
-      <c r="H143" s="7"/>
       <c r="I143" s="4">
         <v>11.5</v>
       </c>
       <c r="J143" s="6">
         <v>7.4</v>
       </c>
-      <c r="K143" s="15">
+      <c r="K143" s="14">
         <v>76.133521391631405</v>
       </c>
-      <c r="L143" s="15">
+      <c r="L143" s="14">
         <v>2.3188884989999998</v>
       </c>
-      <c r="M143" s="15">
+      <c r="M143" s="14">
         <v>26.204868999999999</v>
       </c>
-      <c r="N143" s="18">
+      <c r="N143" s="17">
         <v>36.700000000000003</v>
       </c>
       <c r="O143">
@@ -8217,7 +8443,7 @@
         <v>10.343206393982134</v>
       </c>
     </row>
-    <row r="144" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A144" s="8" t="s">
         <v>142</v>
       </c>
@@ -8232,27 +8458,31 @@
         <v>79</v>
       </c>
       <c r="E144" s="7"/>
-      <c r="F144" s="11">
+      <c r="F144" s="10">
         <v>10.5</v>
       </c>
-      <c r="G144" s="7"/>
-      <c r="H144" s="7"/>
+      <c r="G144">
+        <v>4.3313616222191396</v>
+      </c>
+      <c r="H144">
+        <v>7.5620099657344602</v>
+      </c>
       <c r="I144" s="4">
         <v>33.700000000000003</v>
       </c>
       <c r="J144" s="6">
         <v>3.7</v>
       </c>
-      <c r="K144" s="15">
+      <c r="K144" s="14">
         <v>36.253120571396202</v>
       </c>
-      <c r="L144" s="15">
+      <c r="L144" s="14">
         <v>1.878402629</v>
       </c>
-      <c r="M144" s="15">
+      <c r="M144" s="14">
         <v>20.279105000000001</v>
       </c>
-      <c r="N144" s="18">
+      <c r="N144" s="17">
         <v>46.9</v>
       </c>
       <c r="O144">
@@ -8265,7 +8495,7 @@
         <v>3.0610509608298848</v>
       </c>
     </row>
-    <row r="145" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A145" s="8" t="s">
         <v>143</v>
       </c>
@@ -8282,27 +8512,31 @@
       <c r="E145" s="7">
         <v>22.8</v>
       </c>
-      <c r="F145" s="11">
+      <c r="F145" s="10">
         <v>21.03</v>
       </c>
-      <c r="G145" s="7"/>
-      <c r="H145" s="7"/>
+      <c r="G145">
+        <v>3.78309935825152</v>
+      </c>
+      <c r="H145">
+        <v>7.2818237057439301</v>
+      </c>
       <c r="I145" s="4">
         <v>26.4</v>
       </c>
       <c r="J145" s="6">
         <v>7.3</v>
       </c>
-      <c r="K145" s="15">
+      <c r="K145" s="14">
         <v>308.12655206888797</v>
       </c>
-      <c r="L145" s="15">
+      <c r="L145" s="14">
         <v>2.3690779389999999</v>
       </c>
-      <c r="M145" s="15">
+      <c r="M145" s="14">
         <v>17.944656999999999</v>
       </c>
-      <c r="N145" s="18">
+      <c r="N145" s="17">
         <v>35.299999999999997</v>
       </c>
       <c r="O145">
@@ -8315,7 +8549,7 @@
         <v>22.569097300609538</v>
       </c>
     </row>
-    <row r="146" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A146" s="8" t="s">
         <v>144</v>
       </c>
@@ -8332,25 +8566,29 @@
       <c r="E146" s="7">
         <v>18.399999999999999</v>
       </c>
-      <c r="F146" s="11">
+      <c r="F146" s="10">
         <v>15.33</v>
       </c>
-      <c r="G146" s="7"/>
-      <c r="H146" s="7"/>
+      <c r="G146">
+        <v>6.67268064092928</v>
+      </c>
+      <c r="H146">
+        <v>1.86661884765236</v>
+      </c>
       <c r="I146" s="4"/>
       <c r="J146" s="6">
         <v>8.5</v>
       </c>
-      <c r="K146" s="15">
+      <c r="K146" s="14">
         <v>53.507623539216198</v>
       </c>
-      <c r="L146" s="15">
+      <c r="L146" s="14">
         <v>1.404976709</v>
       </c>
-      <c r="M146" s="15">
+      <c r="M146" s="14">
         <v>7.0387729999999999</v>
       </c>
-      <c r="N146" s="18">
+      <c r="N146" s="17">
         <v>36.700000000000003</v>
       </c>
       <c r="O146">
@@ -8363,7 +8601,7 @@
         <v>2.3637706687879994</v>
       </c>
     </row>
-    <row r="147" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A147" s="8" t="s">
         <v>145</v>
       </c>
@@ -8380,25 +8618,29 @@
       <c r="E147" s="7">
         <v>13.8</v>
       </c>
-      <c r="F147" s="11">
+      <c r="F147" s="10">
         <v>15.42</v>
       </c>
-      <c r="G147" s="7"/>
-      <c r="H147" s="7"/>
+      <c r="G147">
+        <v>5.1307888553671104</v>
+      </c>
+      <c r="H147">
+        <v>7.1719909603049397</v>
+      </c>
       <c r="I147" s="4"/>
       <c r="J147" s="6">
         <v>6.1</v>
       </c>
-      <c r="K147" s="15">
+      <c r="K147" s="14">
         <v>22.9948344745019</v>
       </c>
-      <c r="L147" s="15">
+      <c r="L147" s="14">
         <v>2.1439141730000002</v>
       </c>
-      <c r="M147" s="15">
+      <c r="M147" s="14">
         <v>12.970041</v>
       </c>
-      <c r="N147" s="18">
+      <c r="N147" s="17">
         <v>57.1</v>
       </c>
       <c r="O147">
@@ -8411,7 +8653,7 @@
         <v>5.111717940784783</v>
       </c>
     </row>
-    <row r="148" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A148" s="8" t="s">
         <v>146</v>
       </c>
@@ -8428,27 +8670,31 @@
       <c r="E148" s="7">
         <v>15.8</v>
       </c>
-      <c r="F148" s="11">
+      <c r="F148" s="10">
         <v>17.850000000000001</v>
       </c>
-      <c r="G148" s="7"/>
-      <c r="H148" s="7"/>
+      <c r="G148">
+        <v>4.0771793327345298</v>
+      </c>
+      <c r="H148">
+        <v>12.3734757506249</v>
+      </c>
       <c r="I148" s="4">
         <v>34.700000000000003</v>
       </c>
       <c r="J148" s="6">
         <v>10.7</v>
       </c>
-      <c r="K148" s="15">
+      <c r="K148" s="14">
         <v>42.729492051182604</v>
       </c>
-      <c r="L148" s="15">
+      <c r="L148" s="14">
         <v>2.3203841710000002</v>
       </c>
-      <c r="M148" s="15">
+      <c r="M148" s="14">
         <v>27.182075999999999</v>
       </c>
-      <c r="N148" s="18">
+      <c r="N148" s="17">
         <v>43.2</v>
       </c>
       <c r="O148">

--- a/data_tables/Total_data_cleaned.xlsx
+++ b/data_tables/Total_data_cleaned.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Felix\.RapidMiner\repositories\Local Repository\DataMining-Group23\data_tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CA08636-CF28-487E-B218-55B6D281908B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31699B69-7E47-422B-A13A-11973FBD1A8D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{196242FC-4F62-234C-ABAE-90D7B6224D3F}"/>
   </bookViews>
@@ -1027,8 +1027,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67CF83BE-F021-5E44-A4B8-2C5D9BB127DA}">
   <dimension ref="A1:Q148"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:H1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A123" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J146" sqref="J146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.69921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -2852,6 +2852,12 @@
       <c r="F35" s="10">
         <v>55.67</v>
       </c>
+      <c r="G35" s="9">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="H35">
+        <v>39.5</v>
+      </c>
       <c r="I35" s="4">
         <v>4</v>
       </c>
@@ -7551,6 +7557,12 @@
       <c r="F126" s="10">
         <v>59.32</v>
       </c>
+      <c r="G126" s="9">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="H126">
+        <v>39.5</v>
+      </c>
       <c r="I126" s="4">
         <v>2.8</v>
       </c>

--- a/data_tables/Total_data_cleaned.xlsx
+++ b/data_tables/Total_data_cleaned.xlsx
@@ -1,37 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Felix\.RapidMiner\repositories\Local Repository\DataMining-Group23\data_tables\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ulrikaeriksson/Documents/Data_Mining/DataMining-Group23/data_tables/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31699B69-7E47-422B-A13A-11973FBD1A8D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25E5621A-ABB9-2B41-B7E7-1CD0826E63F7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{196242FC-4F62-234C-ABAE-90D7B6224D3F}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16420" activeTab="1" xr2:uid="{196242FC-4F62-234C-ABAE-90D7B6224D3F}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
+    <sheet name="Blad2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Blad2!$A$1:$R$139</definedName>
+  </definedNames>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="165">
   <si>
     <t>Afghanistan</t>
   </si>
@@ -524,12 +522,15 @@
   <si>
     <t>1 member (% of households)</t>
   </si>
+  <si>
+    <t>Antal saknade värden</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -573,7 +574,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -593,6 +594,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -639,7 +646,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -681,9 +688,28 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Bad" xfId="1" builtinId="27"/>
+    <cellStyle name="Dålig" xfId="1" builtinId="27"/>
     <cellStyle name="Neutral 3" xfId="2" xr:uid="{EE6C5C6E-5A7D-F041-BBE8-1FD8A210AAD9}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
@@ -729,7 +755,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-tema">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1027,27 +1053,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67CF83BE-F021-5E44-A4B8-2C5D9BB127DA}">
   <dimension ref="A1:Q148"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A123" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J146" sqref="J146"/>
+    <sheetView topLeftCell="A63" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A81" sqref="A81:XFD81"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.69921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="12.19921875" style="8" customWidth="1"/>
-    <col min="2" max="2" width="17.19921875" style="9" customWidth="1"/>
-    <col min="3" max="3" width="22.5" style="6" customWidth="1"/>
-    <col min="4" max="4" width="21.296875" style="9" customWidth="1"/>
-    <col min="5" max="5" width="10.796875" style="6" customWidth="1"/>
-    <col min="6" max="6" width="18.5" style="6" customWidth="1"/>
-    <col min="9" max="9" width="14.69921875" customWidth="1"/>
-    <col min="13" max="13" width="21.5" customWidth="1"/>
-    <col min="14" max="14" width="10.69921875" style="18"/>
-    <col min="15" max="15" width="24.8984375" customWidth="1"/>
-    <col min="16" max="16" width="26.296875" customWidth="1"/>
-    <col min="17" max="17" width="14.19921875" customWidth="1"/>
+    <col min="1" max="1" width="12.1640625" style="8" customWidth="1"/>
+    <col min="2" max="2" width="17.1640625" style="9" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" style="6" customWidth="1"/>
+    <col min="4" max="4" width="10" style="9" customWidth="1"/>
+    <col min="5" max="5" width="7.6640625" style="6" customWidth="1"/>
+    <col min="6" max="6" width="8.6640625" style="6" customWidth="1"/>
+    <col min="9" max="9" width="10.1640625" customWidth="1"/>
+    <col min="10" max="10" width="8" customWidth="1"/>
+    <col min="13" max="13" width="8" customWidth="1"/>
+    <col min="14" max="14" width="10.6640625" style="18"/>
+    <col min="15" max="15" width="12" customWidth="1"/>
+    <col min="16" max="16" width="11.6640625" customWidth="1"/>
+    <col min="17" max="17" width="14.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17">
       <c r="A1" s="1" t="s">
         <v>147</v>
       </c>
@@ -1100,7 +1127,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17">
       <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
@@ -1151,7 +1178,7 @@
         <v>11.838679042980118</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17">
       <c r="A3" s="8" t="s">
         <v>1</v>
       </c>
@@ -1205,7 +1232,7 @@
         <v>22.63868568587478</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17">
       <c r="A4" s="8" t="s">
         <v>2</v>
       </c>
@@ -1253,7 +1280,7 @@
         <v>3.1087357122576353</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17">
       <c r="A5" s="8" t="s">
         <v>3</v>
       </c>
@@ -1307,7 +1334,7 @@
         <v>14.3238729998648</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17">
       <c r="A6" s="8" t="s">
         <v>4</v>
       </c>
@@ -1361,7 +1388,7 @@
         <v>15.679662588566348</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17">
       <c r="A7" s="8" t="s">
         <v>5</v>
       </c>
@@ -1415,7 +1442,7 @@
         <v>5.986463893749626</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17">
       <c r="A8" s="8" t="s">
         <v>6</v>
       </c>
@@ -1469,7 +1496,7 @@
         <v>16.29230665457256</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17">
       <c r="A9" s="8" t="s">
         <v>7</v>
       </c>
@@ -1523,51 +1550,51 @@
         <v>24.180476593685736</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A10" s="8" t="s">
+    <row r="10" spans="1:17" s="23" customFormat="1">
+      <c r="A10" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="9">
+      <c r="B10" s="20">
         <v>6.227320671081543</v>
       </c>
-      <c r="C10" s="9">
+      <c r="C10" s="20">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="D10" s="9">
+      <c r="D10" s="20">
         <v>94</v>
       </c>
-      <c r="E10" s="7">
+      <c r="E10" s="21">
         <v>26.4</v>
       </c>
-      <c r="F10" s="10">
+      <c r="F10" s="22">
         <v>26.22</v>
       </c>
-      <c r="I10" s="3"/>
-      <c r="J10" s="6">
+      <c r="I10" s="24"/>
+      <c r="J10" s="25">
         <v>5.9</v>
       </c>
-      <c r="K10" s="14">
+      <c r="K10" s="26">
         <v>1935.9066147859901</v>
       </c>
-      <c r="L10" s="14">
+      <c r="L10" s="26">
         <v>1.615647681</v>
       </c>
-      <c r="M10" s="14">
+      <c r="M10" s="26">
         <v>1.0698810000000001</v>
       </c>
-      <c r="N10" s="17"/>
-      <c r="O10">
+      <c r="N10" s="27"/>
+      <c r="O10" s="23">
         <v>91</v>
       </c>
-      <c r="P10">
+      <c r="P10" s="23">
         <v>109.52</v>
       </c>
-      <c r="Q10">
+      <c r="Q10" s="23">
         <v>2.0565552198981694</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17">
       <c r="A11" s="8" t="s">
         <v>9</v>
       </c>
@@ -1621,7 +1648,7 @@
         <v>59.646692486267959</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17">
       <c r="A12" s="8" t="s">
         <v>10</v>
       </c>
@@ -1675,7 +1702,7 @@
         <v>28.000667950481215</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17">
       <c r="A13" s="8" t="s">
         <v>11</v>
       </c>
@@ -1729,7 +1756,7 @@
         <v>28.051519960834316</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17">
       <c r="A14" s="8" t="s">
         <v>12</v>
       </c>
@@ -1783,7 +1810,7 @@
         <v>23.944661227385598</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:17">
       <c r="A15" s="8" t="s">
         <v>13</v>
       </c>
@@ -1835,7 +1862,7 @@
         <v>4.110588018092864</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:17">
       <c r="A16" s="8" t="s">
         <v>14</v>
       </c>
@@ -1883,7 +1910,7 @@
         <v>20.0390625</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:17">
       <c r="A17" s="8" t="s">
         <v>15</v>
       </c>
@@ -1937,7 +1964,7 @@
         <v>0.45806646216631558</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:17">
       <c r="A18" s="8" t="s">
         <v>16</v>
       </c>
@@ -1991,7 +2018,7 @@
         <v>9.6882799283094077</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:17">
       <c r="A19" s="8" t="s">
         <v>17</v>
       </c>
@@ -2045,7 +2072,7 @@
         <v>32.20338983050847</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:17">
       <c r="A20" s="8" t="s">
         <v>18</v>
       </c>
@@ -2099,7 +2126,7 @@
         <v>21.929824561403507</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:17">
       <c r="A21" s="8" t="s">
         <v>19</v>
       </c>
@@ -2153,7 +2180,7 @@
         <v>21.527305687740768</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:17">
       <c r="A22" s="8" t="s">
         <v>20</v>
       </c>
@@ -2205,7 +2232,7 @@
         <v>13.115863848871401</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:17">
       <c r="A23" s="8" t="s">
         <v>21</v>
       </c>
@@ -2259,55 +2286,55 @@
         <v>4.8128830341639253</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A24" s="8" t="s">
+    <row r="24" spans="1:17" s="23" customFormat="1">
+      <c r="A24" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="B24" s="9">
+      <c r="B24" s="20">
         <v>3.4758620262145996</v>
       </c>
-      <c r="C24" s="9">
+      <c r="C24" s="20">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="D24" s="9">
+      <c r="D24" s="20">
         <v>94</v>
       </c>
-      <c r="E24" s="7"/>
-      <c r="F24" s="10">
+      <c r="E24" s="21"/>
+      <c r="F24" s="22">
         <v>4.37</v>
       </c>
-      <c r="I24" s="4">
+      <c r="I24" s="24">
         <v>33.6</v>
       </c>
-      <c r="J24" s="6">
+      <c r="J24" s="25">
         <v>7.7</v>
       </c>
-      <c r="K24" s="14">
+      <c r="K24" s="26">
         <v>7.47869915567113</v>
       </c>
-      <c r="L24" s="14">
+      <c r="L24" s="26">
         <v>1.8895983300000001</v>
       </c>
-      <c r="M24" s="14">
+      <c r="M24" s="26">
         <v>9.6534659999999999</v>
       </c>
-      <c r="N24" s="17">
+      <c r="N24" s="27">
         <v>56.2</v>
       </c>
-      <c r="P24">
+      <c r="P24" s="23">
         <v>5.92</v>
       </c>
-      <c r="Q24">
+      <c r="Q24" s="23">
         <v>2.889338341519792</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:17">
       <c r="A25" s="8" t="s">
         <v>23</v>
       </c>
       <c r="B25" s="9">
-        <v>4.5589370727539063</v>
+        <v>4.5589370727539062</v>
       </c>
       <c r="C25" s="9">
         <f t="shared" si="0"/>
@@ -2354,7 +2381,7 @@
         <v>3.8913595933926302</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:17">
       <c r="A26" s="8" t="s">
         <v>24</v>
       </c>
@@ -2408,7 +2435,7 @@
         <v>1.7077946819498635</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:17">
       <c r="A27" s="8" t="s">
         <v>25</v>
       </c>
@@ -2459,7 +2486,7 @@
         <v>12.664821089430253</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:17">
       <c r="A28" s="8" t="s">
         <v>26</v>
       </c>
@@ -2513,7 +2540,7 @@
         <v>1.5219468008886345</v>
       </c>
     </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:17">
       <c r="A29" s="8" t="s">
         <v>27</v>
       </c>
@@ -2564,7 +2591,7 @@
         <v>1.6105417276720351</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:17">
       <c r="A30" s="8" t="s">
         <v>28</v>
       </c>
@@ -2616,7 +2643,7 @@
         <v>3.1318232945898852</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:17">
       <c r="A31" s="8" t="s">
         <v>29</v>
       </c>
@@ -2670,7 +2697,7 @@
         <v>4.8472385428907163</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:17">
       <c r="A32" s="8" t="s">
         <v>30</v>
       </c>
@@ -2724,7 +2751,7 @@
         <v>15.582558970693352</v>
       </c>
     </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:17">
       <c r="A33" s="8" t="s">
         <v>31</v>
       </c>
@@ -2778,7 +2805,7 @@
         <v>9.1590906118417745</v>
       </c>
     </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:17">
       <c r="A34" s="8" t="s">
         <v>32</v>
       </c>
@@ -2832,7 +2859,7 @@
         <v>32.297332297332296</v>
       </c>
     </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:17">
       <c r="A35" s="8" t="s">
         <v>33</v>
       </c>
@@ -2886,7 +2913,7 @@
         <v>56.561085972850677</v>
       </c>
     </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:17">
       <c r="A36" s="8" t="s">
         <v>34</v>
       </c>
@@ -2940,7 +2967,7 @@
         <v>16.559718484785758</v>
       </c>
     </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:17">
       <c r="A37" s="8" t="s">
         <v>35</v>
       </c>
@@ -2994,7 +3021,7 @@
         <v>3.929779352552746</v>
       </c>
     </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:17">
       <c r="A38" s="8" t="s">
         <v>36</v>
       </c>
@@ -3046,7 +3073,7 @@
         <v>2.7995077799299311</v>
       </c>
     </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:17">
       <c r="A39" s="8" t="s">
         <v>37</v>
       </c>
@@ -3100,7 +3127,7 @@
         <v>35.569498069498067</v>
       </c>
     </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:17">
       <c r="A40" s="8" t="s">
         <v>38</v>
       </c>
@@ -3154,7 +3181,7 @@
         <v>16.011042097998622</v>
       </c>
     </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:17">
       <c r="A41" s="8" t="s">
         <v>39</v>
       </c>
@@ -3206,7 +3233,7 @@
         <v>15.119</v>
       </c>
     </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:17">
       <c r="A42" s="8" t="s">
         <v>40</v>
       </c>
@@ -3260,7 +3287,7 @@
         <v>7.3903458260669286</v>
       </c>
     </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:17">
       <c r="A43" s="8" t="s">
         <v>41</v>
       </c>
@@ -3314,7 +3341,7 @@
         <v>33.523304758729807</v>
       </c>
     </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:17">
       <c r="A44" s="8" t="s">
         <v>42</v>
       </c>
@@ -3363,7 +3390,7 @@
         <v>1.2613032172934373</v>
       </c>
     </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:17">
       <c r="A45" s="8" t="s">
         <v>43</v>
       </c>
@@ -3414,7 +3441,7 @@
         <v>43.478260869565219</v>
       </c>
     </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:17">
       <c r="A46" s="8" t="s">
         <v>44</v>
       </c>
@@ -3468,7 +3495,7 @@
         <v>4.9503525687149237</v>
       </c>
     </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:17">
       <c r="A47" s="8" t="s">
         <v>45</v>
       </c>
@@ -3522,7 +3549,7 @@
         <v>33.67013968399359</v>
       </c>
     </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:17">
       <c r="A48" s="8" t="s">
         <v>46</v>
       </c>
@@ -3576,7 +3603,7 @@
         <v>20.655708886349654</v>
       </c>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:17">
       <c r="A49" s="8" t="s">
         <v>47</v>
       </c>
@@ -3630,7 +3657,7 @@
         <v>16.602017067494181</v>
       </c>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:17">
       <c r="A50" s="8" t="s">
         <v>48</v>
       </c>
@@ -3682,7 +3709,7 @@
         <v>8.0440462859275854</v>
       </c>
     </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:17">
       <c r="A51" s="8" t="s">
         <v>49</v>
       </c>
@@ -3734,7 +3761,7 @@
         <v>12.615985674751752</v>
       </c>
     </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:17">
       <c r="A52" s="8" t="s">
         <v>50</v>
       </c>
@@ -3786,7 +3813,7 @@
         <v>38.824383164005802</v>
       </c>
     </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:17">
       <c r="A53" s="8" t="s">
         <v>51</v>
       </c>
@@ -3840,49 +3867,49 @@
         <v>9.1160961658772006</v>
       </c>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A54" s="8" t="s">
+    <row r="54" spans="1:17" s="23" customFormat="1">
+      <c r="A54" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="B54" s="9">
+      <c r="B54" s="20">
         <v>5.3624749183654785</v>
       </c>
-      <c r="C54" s="9">
+      <c r="C54" s="20">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="D54" s="9">
+      <c r="D54" s="20">
         <v>24</v>
       </c>
-      <c r="E54" s="7"/>
-      <c r="F54" s="10"/>
-      <c r="G54">
+      <c r="E54" s="21"/>
+      <c r="F54" s="22"/>
+      <c r="G54" s="23">
         <v>2.9093509951891199</v>
       </c>
-      <c r="H54">
+      <c r="H54" s="23">
         <v>17.058792736900902</v>
       </c>
-      <c r="I54" s="4"/>
-      <c r="J54" s="6"/>
-      <c r="K54" s="14">
+      <c r="I54" s="24"/>
+      <c r="J54" s="25"/>
+      <c r="K54" s="26">
         <v>7039.7142857142899</v>
       </c>
-      <c r="L54" s="14"/>
-      <c r="M54" s="14">
+      <c r="L54" s="26"/>
+      <c r="M54" s="26">
         <v>13.574933</v>
       </c>
-      <c r="N54" s="17"/>
-      <c r="O54">
+      <c r="N54" s="27"/>
+      <c r="O54" s="23">
         <v>74.56</v>
       </c>
-      <c r="P54">
+      <c r="P54" s="23">
         <v>162.75</v>
       </c>
-      <c r="Q54">
+      <c r="Q54" s="23">
         <v>2.8571428571428572</v>
       </c>
     </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:17">
       <c r="A55" s="8" t="s">
         <v>53</v>
       </c>
@@ -3936,7 +3963,7 @@
         <v>47.763172429029048</v>
       </c>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:17">
       <c r="A56" s="8" t="s">
         <v>54</v>
       </c>
@@ -3981,7 +4008,7 @@
         <v>1.2069825436408979</v>
       </c>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:17">
       <c r="A57" s="8" t="s">
         <v>55</v>
       </c>
@@ -4035,7 +4062,7 @@
         <v>52.624622038954797</v>
       </c>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:17">
       <c r="A58" s="8" t="s">
         <v>56</v>
       </c>
@@ -4089,7 +4116,7 @@
         <v>12.9721733082354</v>
       </c>
     </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:17">
       <c r="A59" s="8" t="s">
         <v>57</v>
       </c>
@@ -4143,7 +4170,7 @@
         <v>9.017289226159777</v>
       </c>
     </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:17">
       <c r="A60" s="8" t="s">
         <v>58</v>
       </c>
@@ -4189,7 +4216,7 @@
         <v>11.517340300604381</v>
       </c>
     </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:17">
       <c r="A61" s="8" t="s">
         <v>59</v>
       </c>
@@ -4243,7 +4270,7 @@
         <v>6.4740891275947163</v>
       </c>
     </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:17">
       <c r="A62" s="8" t="s">
         <v>60</v>
       </c>
@@ -4297,7 +4324,7 @@
         <v>13.632162661737524</v>
       </c>
     </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:17">
       <c r="A63" s="8" t="s">
         <v>61</v>
       </c>
@@ -4351,7 +4378,7 @@
         <v>22.445094172842865</v>
       </c>
     </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:17">
       <c r="A64" s="8" t="s">
         <v>62</v>
       </c>
@@ -4403,7 +4430,7 @@
         <v>9.1194968553459113</v>
       </c>
     </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:17">
       <c r="A65" s="8" t="s">
         <v>63</v>
       </c>
@@ -4457,7 +4484,7 @@
         <v>11.080332409972298</v>
       </c>
     </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:17">
       <c r="A66" s="8" t="s">
         <v>64</v>
       </c>
@@ -4511,12 +4538,12 @@
         <v>11.476848804037743</v>
       </c>
     </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:17">
       <c r="A67" s="8" t="s">
         <v>65</v>
       </c>
       <c r="B67" s="9">
-        <v>4.8080825805664063</v>
+        <v>4.8080825805664062</v>
       </c>
       <c r="C67" s="9">
         <f t="shared" ref="C67:C130" si="1">ROUND(B67,0)</f>
@@ -4563,7 +4590,7 @@
         <v>2.6724486878445144</v>
       </c>
     </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:17">
       <c r="A68" s="8" t="s">
         <v>66</v>
       </c>
@@ -4617,7 +4644,7 @@
         <v>10.888246842241731</v>
       </c>
     </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:17">
       <c r="A69" s="8" t="s">
         <v>67</v>
       </c>
@@ -4671,38 +4698,38 @@
         <v>10.190814210914713</v>
       </c>
     </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A70" s="8" t="s">
+    <row r="70" spans="1:17" s="23" customFormat="1">
+      <c r="A70" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="B70" s="9">
+      <c r="B70" s="20">
         <v>6.1491999626159668</v>
       </c>
-      <c r="C70" s="9">
+      <c r="C70" s="20">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="D70" s="9">
+      <c r="D70" s="20">
         <v>90</v>
       </c>
-      <c r="E70" s="7"/>
-      <c r="F70" s="10">
+      <c r="E70" s="21"/>
+      <c r="F70" s="22">
         <v>42.67</v>
       </c>
-      <c r="I70" s="4"/>
-      <c r="J70" s="6"/>
-      <c r="K70" s="14">
+      <c r="I70" s="24"/>
+      <c r="J70" s="25"/>
+      <c r="K70" s="26">
         <v>168.154679893451</v>
       </c>
-      <c r="L70" s="14"/>
-      <c r="M70" s="14">
+      <c r="L70" s="26"/>
+      <c r="M70" s="26">
         <v>23.459638000000002</v>
       </c>
-      <c r="N70" s="17">
+      <c r="N70" s="27">
         <v>26.5</v>
       </c>
     </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:17">
       <c r="A71" s="8" t="s">
         <v>69</v>
       </c>
@@ -4748,7 +4775,7 @@
         <v>0.44893378226711567</v>
       </c>
     </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:17">
       <c r="A72" s="8" t="s">
         <v>70</v>
       </c>
@@ -4802,7 +4829,7 @@
         <v>6.7153284671532854</v>
       </c>
     </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:17">
       <c r="A73" s="8" t="s">
         <v>71</v>
       </c>
@@ -4850,7 +4877,7 @@
         <v>6.6074523396880416</v>
       </c>
     </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:17">
       <c r="A74" s="8" t="s">
         <v>72</v>
       </c>
@@ -4904,7 +4931,7 @@
         <v>20.714055966548731</v>
       </c>
     </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:17">
       <c r="A75" s="8" t="s">
         <v>73</v>
       </c>
@@ -4950,7 +4977,7 @@
         <v>12.903225806451612</v>
       </c>
     </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:17">
       <c r="A76" s="8" t="s">
         <v>74</v>
       </c>
@@ -5001,7 +5028,7 @@
         <v>11.594202898550725</v>
       </c>
     </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:17">
       <c r="A77" s="8" t="s">
         <v>75</v>
       </c>
@@ -5053,48 +5080,49 @@
         <v>5.191029900332226</v>
       </c>
     </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A78" s="8" t="s">
+    <row r="78" spans="1:17" s="23" customFormat="1">
+      <c r="A78" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="B78" s="9">
+      <c r="B78" s="20">
         <v>5.6468524932861328</v>
       </c>
-      <c r="C78" s="9">
+      <c r="C78" s="20">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="E78" s="7"/>
-      <c r="F78" s="10">
+      <c r="D78" s="20"/>
+      <c r="E78" s="21"/>
+      <c r="F78" s="22">
         <v>32.9</v>
       </c>
-      <c r="I78" s="4">
+      <c r="I78" s="24">
         <v>26.1</v>
       </c>
-      <c r="J78" s="6">
+      <c r="J78" s="25">
         <v>5.2</v>
       </c>
-      <c r="K78" s="14">
+      <c r="K78" s="26">
         <v>3.6228878002205098</v>
       </c>
-      <c r="L78" s="14">
+      <c r="L78" s="26">
         <v>1.546907963</v>
       </c>
-      <c r="M78" s="14">
+      <c r="M78" s="26">
         <v>1.192523</v>
       </c>
-      <c r="N78" s="17"/>
-      <c r="O78">
+      <c r="N78" s="27"/>
+      <c r="O78" s="23">
         <v>17.760000000000002</v>
       </c>
-      <c r="P78">
+      <c r="P78" s="23">
         <v>45.54</v>
       </c>
-      <c r="Q78">
+      <c r="Q78" s="23">
         <v>0.97752821760232789</v>
       </c>
     </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:17">
       <c r="A79" s="8" t="s">
         <v>77</v>
       </c>
@@ -5148,7 +5176,7 @@
         <v>34.203889257236021</v>
       </c>
     </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:17">
       <c r="A80" s="8" t="s">
         <v>78</v>
       </c>
@@ -5202,50 +5230,50 @@
         <v>25.456790374630287</v>
       </c>
     </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A81" s="8" t="s">
+    <row r="81" spans="1:17" s="23" customFormat="1">
+      <c r="A81" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="B81" s="9">
+      <c r="B81" s="20">
         <v>5.2338666915893555</v>
       </c>
-      <c r="C81" s="9">
+      <c r="C81" s="20">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="D81" s="9">
+      <c r="D81" s="20">
         <v>76</v>
       </c>
-      <c r="E81" s="7"/>
-      <c r="F81" s="10">
+      <c r="E81" s="21"/>
+      <c r="F81" s="22">
         <v>42</v>
       </c>
-      <c r="I81" s="4">
+      <c r="I81" s="24">
         <v>6.4</v>
       </c>
-      <c r="J81" s="6">
+      <c r="J81" s="25">
         <v>7.9</v>
       </c>
-      <c r="K81" s="14">
+      <c r="K81" s="26">
         <v>82.599524187153094</v>
       </c>
-      <c r="L81" s="14">
+      <c r="L81" s="26">
         <v>2.269450236</v>
       </c>
-      <c r="M81" s="14">
+      <c r="M81" s="26">
         <v>25.286065000000001</v>
       </c>
-      <c r="N81" s="17">
+      <c r="N81" s="27">
         <v>35.6</v>
       </c>
-      <c r="P81">
+      <c r="P81" s="23">
         <v>45.19</v>
       </c>
-      <c r="Q81">
+      <c r="Q81" s="23">
         <v>6.0158129941560672</v>
       </c>
     </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:17">
       <c r="A82" s="8" t="s">
         <v>80</v>
       </c>
@@ -5297,7 +5325,7 @@
         <v>16.494845360824741</v>
       </c>
     </row>
-    <row r="83" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:17">
       <c r="A83" s="8" t="s">
         <v>81</v>
       </c>
@@ -5351,7 +5379,7 @@
         <v>40.305473058973277</v>
       </c>
     </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:17">
       <c r="A84" s="8" t="s">
         <v>82</v>
       </c>
@@ -5405,7 +5433,7 @@
         <v>5.2540997713470849</v>
       </c>
     </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:17">
       <c r="A85" s="8" t="s">
         <v>83</v>
       </c>
@@ -5457,7 +5485,7 @@
         <v>28.343749046325691</v>
       </c>
     </row>
-    <row r="86" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:17">
       <c r="A86" s="8" t="s">
         <v>84</v>
       </c>
@@ -5503,7 +5531,7 @@
         <v>0.43659648782380905</v>
       </c>
     </row>
-    <row r="87" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:17">
       <c r="A87" s="8" t="s">
         <v>85</v>
       </c>
@@ -5554,7 +5582,7 @@
         <v>36.945812807881772</v>
       </c>
     </row>
-    <row r="88" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:17">
       <c r="A88" s="8" t="s">
         <v>86</v>
       </c>
@@ -5608,7 +5636,7 @@
         <v>11.606265593250855</v>
       </c>
     </row>
-    <row r="89" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:17">
       <c r="A89" s="8" t="s">
         <v>87</v>
       </c>
@@ -5662,7 +5690,7 @@
         <v>55.557921825117958</v>
       </c>
     </row>
-    <row r="90" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:17">
       <c r="A90" s="8" t="s">
         <v>88</v>
       </c>
@@ -5713,7 +5741,7 @@
         <v>0.36509694650160346</v>
       </c>
     </row>
-    <row r="91" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:17">
       <c r="A91" s="8" t="s">
         <v>89</v>
       </c>
@@ -5767,7 +5795,7 @@
         <v>0.66914498141263945</v>
       </c>
     </row>
-    <row r="92" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:17">
       <c r="A92" s="8" t="s">
         <v>90</v>
       </c>
@@ -5821,7 +5849,7 @@
         <v>18.216446336544927</v>
       </c>
     </row>
-    <row r="93" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:17">
       <c r="A93" s="8" t="s">
         <v>91</v>
       </c>
@@ -5875,7 +5903,7 @@
         <v>7.184821587527658</v>
       </c>
     </row>
-    <row r="94" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:17">
       <c r="A94" s="8" t="s">
         <v>92</v>
       </c>
@@ -5929,7 +5957,7 @@
         <v>16.702394806149321</v>
       </c>
     </row>
-    <row r="95" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:17">
       <c r="A95" s="8" t="s">
         <v>93</v>
       </c>
@@ -5983,7 +6011,7 @@
         <v>0.97171106171579891</v>
       </c>
     </row>
-    <row r="96" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:17">
       <c r="A96" s="8" t="s">
         <v>94</v>
       </c>
@@ -6037,7 +6065,7 @@
         <v>14.745029307093688</v>
       </c>
     </row>
-    <row r="97" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:17">
       <c r="A97" s="8" t="s">
         <v>95</v>
       </c>
@@ -6091,7 +6119,7 @@
         <v>30.513505491243691</v>
       </c>
     </row>
-    <row r="98" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:17">
       <c r="A98" s="8" t="s">
         <v>96</v>
       </c>
@@ -6143,12 +6171,12 @@
         <v>2.1647487752079297</v>
       </c>
     </row>
-    <row r="99" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:17">
       <c r="A99" s="8" t="s">
         <v>97</v>
       </c>
       <c r="B99" s="9">
-        <v>6.4763565063476563</v>
+        <v>6.4763565063476562</v>
       </c>
       <c r="C99" s="9">
         <f t="shared" si="1"/>
@@ -6193,7 +6221,7 @@
         <v>12.497922552767161</v>
       </c>
     </row>
-    <row r="100" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:17">
       <c r="A100" s="8" t="s">
         <v>98</v>
       </c>
@@ -6247,7 +6275,7 @@
         <v>13.262808873450698</v>
       </c>
     </row>
-    <row r="101" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:17">
       <c r="A101" s="8" t="s">
         <v>99</v>
       </c>
@@ -6301,7 +6329,7 @@
         <v>37.331049551478415</v>
       </c>
     </row>
-    <row r="102" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:17">
       <c r="A102" s="8" t="s">
         <v>100</v>
       </c>
@@ -6355,7 +6383,7 @@
         <v>2.205092496653259</v>
       </c>
     </row>
-    <row r="103" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:17">
       <c r="A103" s="8" t="s">
         <v>101</v>
       </c>
@@ -6409,47 +6437,47 @@
         <v>40.265670402656703</v>
       </c>
     </row>
-    <row r="104" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A104" s="8" t="s">
+    <row r="104" spans="1:17" s="23" customFormat="1">
+      <c r="A104" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="B104" s="9">
+      <c r="B104" s="20">
         <v>4.6281328201293945</v>
       </c>
-      <c r="C104" s="9">
+      <c r="C104" s="20">
         <f t="shared" si="1"/>
         <v>5</v>
       </c>
-      <c r="D104" s="9">
+      <c r="D104" s="20">
         <v>93</v>
       </c>
-      <c r="E104" s="7"/>
-      <c r="F104" s="10"/>
-      <c r="G104">
+      <c r="E104" s="21"/>
+      <c r="F104" s="22"/>
+      <c r="G104" s="23">
         <v>5.4765066381737801</v>
       </c>
-      <c r="H104">
+      <c r="H104" s="23">
         <v>4.36599565865553</v>
       </c>
-      <c r="I104" s="4"/>
-      <c r="J104" s="6"/>
-      <c r="K104" s="14">
+      <c r="I104" s="24"/>
+      <c r="J104" s="25"/>
+      <c r="K104" s="26">
         <v>778.20215946843905</v>
       </c>
-      <c r="L104" s="14">
+      <c r="L104" s="26">
         <v>1.651153146</v>
       </c>
-      <c r="M104" s="14">
+      <c r="M104" s="26">
         <v>5.5946610000000003</v>
       </c>
-      <c r="N104" s="17">
+      <c r="N104" s="27">
         <v>35.5</v>
       </c>
-      <c r="O104">
+      <c r="O104" s="23">
         <v>53.67</v>
       </c>
     </row>
-    <row r="105" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:17">
       <c r="A105" s="8" t="s">
         <v>103</v>
       </c>
@@ -6503,7 +6531,7 @@
         <v>7.5733118105999457</v>
       </c>
     </row>
-    <row r="106" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:17">
       <c r="A106" s="8" t="s">
         <v>104</v>
       </c>
@@ -6557,7 +6585,7 @@
         <v>12.081550465643092</v>
       </c>
     </row>
-    <row r="107" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:17">
       <c r="A107" s="8" t="s">
         <v>105</v>
       </c>
@@ -6611,7 +6639,7 @@
         <v>2.7406250000000001</v>
       </c>
     </row>
-    <row r="108" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:17">
       <c r="A108" s="8" t="s">
         <v>106</v>
       </c>
@@ -6665,7 +6693,7 @@
         <v>18.747694268370392</v>
       </c>
     </row>
-    <row r="109" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:17">
       <c r="A109" s="8" t="s">
         <v>107</v>
       </c>
@@ -6719,7 +6747,7 @@
         <v>35.291812273425002</v>
       </c>
     </row>
-    <row r="110" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:17">
       <c r="A110" s="8" t="s">
         <v>108</v>
       </c>
@@ -6773,7 +6801,7 @@
         <v>10.68351747945426</v>
       </c>
     </row>
-    <row r="111" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:17">
       <c r="A111" s="8" t="s">
         <v>109</v>
       </c>
@@ -6827,12 +6855,12 @@
         <v>37.30006954102921</v>
       </c>
     </row>
-    <row r="112" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:17">
       <c r="A112" s="8" t="s">
         <v>110</v>
       </c>
       <c r="B112" s="9">
-        <v>5.5787429809570313</v>
+        <v>5.5787429809570312</v>
       </c>
       <c r="C112" s="9">
         <f t="shared" si="1"/>
@@ -6881,7 +6909,7 @@
         <v>7.5180312423863649</v>
       </c>
     </row>
-    <row r="113" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:17">
       <c r="A113" s="8" t="s">
         <v>111</v>
       </c>
@@ -6935,7 +6963,7 @@
         <v>46.684229881308468</v>
       </c>
     </row>
-    <row r="114" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:17">
       <c r="A114" s="8" t="s">
         <v>112</v>
       </c>
@@ -6983,7 +7011,7 @@
         <v>1.6174425149672742</v>
       </c>
     </row>
-    <row r="115" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:17">
       <c r="A115" s="8" t="s">
         <v>113</v>
       </c>
@@ -7037,7 +7065,7 @@
         <v>16.620786370955177</v>
       </c>
     </row>
-    <row r="116" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:17">
       <c r="A116" s="8" t="s">
         <v>114</v>
       </c>
@@ -7088,7 +7116,7 @@
         <v>29.705008003658818</v>
       </c>
     </row>
-    <row r="117" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:17">
       <c r="A117" s="8" t="s">
         <v>115</v>
       </c>
@@ -7137,7 +7165,7 @@
         <v>21.945137157107229</v>
       </c>
     </row>
-    <row r="118" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:17">
       <c r="A118" s="8" t="s">
         <v>116</v>
       </c>
@@ -7189,7 +7217,7 @@
         <v>0.78984483826813856</v>
       </c>
     </row>
-    <row r="119" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:17">
       <c r="A119" s="8" t="s">
         <v>117</v>
       </c>
@@ -7237,7 +7265,7 @@
         <v>28.015806988352743</v>
       </c>
     </row>
-    <row r="120" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:17">
       <c r="A120" s="8" t="s">
         <v>118</v>
       </c>
@@ -7291,7 +7319,7 @@
         <v>9.1291832658336602</v>
       </c>
     </row>
-    <row r="121" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:17">
       <c r="A121" s="8" t="s">
         <v>119</v>
       </c>
@@ -7345,7 +7373,7 @@
         <v>10.304264316744842</v>
       </c>
     </row>
-    <row r="122" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:17">
       <c r="A122" s="8" t="s">
         <v>120</v>
       </c>
@@ -7396,46 +7424,47 @@
         <v>14.576002862502321</v>
       </c>
     </row>
-    <row r="123" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A123" s="8" t="s">
+    <row r="123" spans="1:17" s="23" customFormat="1">
+      <c r="A123" s="19" t="s">
         <v>121</v>
       </c>
-      <c r="B123" s="9">
+      <c r="B123" s="20">
         <v>2.8166224956512451</v>
       </c>
-      <c r="C123" s="9">
+      <c r="C123" s="20">
         <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="E123" s="7"/>
-      <c r="F123" s="10">
+      <c r="D123" s="20"/>
+      <c r="E123" s="21"/>
+      <c r="F123" s="22">
         <v>4.8499999999999996</v>
       </c>
-      <c r="G123">
+      <c r="G123" s="23">
         <v>5.9479727880002997</v>
       </c>
-      <c r="H123">
+      <c r="H123" s="23">
         <v>4.3278114895990196</v>
       </c>
-      <c r="I123" s="4">
+      <c r="I123" s="24">
         <v>29.9</v>
       </c>
-      <c r="J123" s="6">
+      <c r="J123" s="25">
         <v>3.7</v>
       </c>
-      <c r="K123" s="14"/>
-      <c r="L123" s="14">
+      <c r="K123" s="26"/>
+      <c r="L123" s="26">
         <v>1.9170053039999999</v>
       </c>
-      <c r="M123" s="14"/>
-      <c r="N123" s="17">
+      <c r="M123" s="26"/>
+      <c r="N123" s="27">
         <v>45.5</v>
       </c>
-      <c r="O123">
+      <c r="O123" s="23">
         <v>15.9</v>
       </c>
     </row>
-    <row r="124" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:17">
       <c r="A124" s="8" t="s">
         <v>122</v>
       </c>
@@ -7489,7 +7518,7 @@
         <v>24.695894967158079</v>
       </c>
     </row>
-    <row r="125" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:17">
       <c r="A125" s="8" t="s">
         <v>123</v>
       </c>
@@ -7537,7 +7566,7 @@
         <v>20.730346037314622</v>
       </c>
     </row>
-    <row r="126" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:17">
       <c r="A126" s="8" t="s">
         <v>124</v>
       </c>
@@ -7591,7 +7620,7 @@
         <v>6.3209842568467511</v>
       </c>
     </row>
-    <row r="127" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:17">
       <c r="A127" s="8" t="s">
         <v>125</v>
       </c>
@@ -7645,39 +7674,39 @@
         <v>10.089584025557285</v>
       </c>
     </row>
-    <row r="128" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A128" s="8" t="s">
+    <row r="128" spans="1:17" s="23" customFormat="1">
+      <c r="A128" s="19" t="s">
         <v>126</v>
       </c>
-      <c r="B128" s="9">
+      <c r="B128" s="20">
         <v>6.3594508171081543</v>
       </c>
-      <c r="C128" s="9">
+      <c r="C128" s="20">
         <f t="shared" si="1"/>
         <v>6</v>
       </c>
-      <c r="D128" s="9">
+      <c r="D128" s="20">
         <v>45</v>
       </c>
-      <c r="E128" s="7"/>
-      <c r="F128" s="10">
+      <c r="E128" s="21"/>
+      <c r="F128" s="22">
         <v>25.03</v>
       </c>
-      <c r="I128" s="4">
+      <c r="I128" s="24">
         <v>26.5</v>
       </c>
-      <c r="J128" s="6"/>
-      <c r="K128" s="14"/>
-      <c r="L128" s="14">
+      <c r="J128" s="25"/>
+      <c r="K128" s="26"/>
+      <c r="L128" s="26">
         <v>1.979137336</v>
       </c>
-      <c r="M128" s="14"/>
-      <c r="N128" s="17"/>
-      <c r="O128">
+      <c r="M128" s="26"/>
+      <c r="N128" s="27"/>
+      <c r="O128" s="23">
         <v>83.99</v>
       </c>
     </row>
-    <row r="129" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:17">
       <c r="A129" s="8" t="s">
         <v>127</v>
       </c>
@@ -7729,7 +7758,7 @@
         <v>5.2597449383961381</v>
       </c>
     </row>
-    <row r="130" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:17">
       <c r="A130" s="8" t="s">
         <v>128</v>
       </c>
@@ -7783,7 +7812,7 @@
         <v>15.240460600587042</v>
       </c>
     </row>
-    <row r="131" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:17">
       <c r="A131" s="8" t="s">
         <v>129</v>
       </c>
@@ -7837,7 +7866,7 @@
         <v>32.903364716475167</v>
       </c>
     </row>
-    <row r="132" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:17">
       <c r="A132" s="8" t="s">
         <v>130</v>
       </c>
@@ -7891,7 +7920,7 @@
         <v>48.722191579334435</v>
       </c>
     </row>
-    <row r="133" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:17">
       <c r="A133" s="8" t="s">
         <v>131</v>
       </c>
@@ -7943,7 +7972,7 @@
         <v>4.8732943469785575</v>
       </c>
     </row>
-    <row r="134" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:17">
       <c r="A134" s="8" t="s">
         <v>132</v>
       </c>
@@ -7991,7 +8020,7 @@
         <v>18.666323377960865</v>
       </c>
     </row>
-    <row r="135" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:17">
       <c r="A135" s="8" t="s">
         <v>133</v>
       </c>
@@ -8045,7 +8074,7 @@
         <v>26.481556072398426</v>
       </c>
     </row>
-    <row r="136" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:17">
       <c r="A136" s="8" t="s">
         <v>134</v>
       </c>
@@ -8091,7 +8120,7 @@
         <v>4.1282744238503613</v>
       </c>
     </row>
-    <row r="137" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:17">
       <c r="A137" s="8" t="s">
         <v>135</v>
       </c>
@@ -8145,7 +8174,7 @@
         <v>34.410532615200481</v>
       </c>
     </row>
-    <row r="138" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:17">
       <c r="A138" s="8" t="s">
         <v>136</v>
       </c>
@@ -8199,7 +8228,7 @@
         <v>56.579606069498865</v>
       </c>
     </row>
-    <row r="139" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:17">
       <c r="A139" s="8" t="s">
         <v>137</v>
       </c>
@@ -8245,7 +8274,7 @@
         <v>0.62658406082793583</v>
       </c>
     </row>
-    <row r="140" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:17">
       <c r="A140" s="8" t="s">
         <v>138</v>
       </c>
@@ -8299,7 +8328,7 @@
         <v>24.908071614206591</v>
       </c>
     </row>
-    <row r="141" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:17">
       <c r="A141" s="8" t="s">
         <v>139</v>
       </c>
@@ -8353,7 +8382,7 @@
         <v>16.645403840645777</v>
       </c>
     </row>
-    <row r="142" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:17">
       <c r="A142" s="8" t="s">
         <v>140</v>
       </c>
@@ -8407,7 +8436,7 @@
         <v>13.773283611337275</v>
       </c>
     </row>
-    <row r="143" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:17">
       <c r="A143" s="8" t="s">
         <v>141</v>
       </c>
@@ -8455,7 +8484,7 @@
         <v>10.343206393982134</v>
       </c>
     </row>
-    <row r="144" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:17">
       <c r="A144" s="8" t="s">
         <v>142</v>
       </c>
@@ -8507,7 +8536,7 @@
         <v>3.0610509608298848</v>
       </c>
     </row>
-    <row r="145" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:17">
       <c r="A145" s="8" t="s">
         <v>143</v>
       </c>
@@ -8561,7 +8590,7 @@
         <v>22.569097300609538</v>
       </c>
     </row>
-    <row r="146" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:17">
       <c r="A146" s="8" t="s">
         <v>144</v>
       </c>
@@ -8613,12 +8642,12 @@
         <v>2.3637706687879994</v>
       </c>
     </row>
-    <row r="147" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:17">
       <c r="A147" s="8" t="s">
         <v>145</v>
       </c>
       <c r="B147" s="9">
-        <v>3.9327774047851563</v>
+        <v>3.9327774047851562</v>
       </c>
       <c r="C147" s="9">
         <f t="shared" si="2"/>
@@ -8665,7 +8694,7 @@
         <v>5.111717940784783</v>
       </c>
     </row>
-    <row r="148" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:17">
       <c r="A148" s="8" t="s">
         <v>146</v>
       </c>
@@ -8722,4 +8751,7977 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{354878E8-0036-5A48-937D-F051C43C578D}">
+  <dimension ref="A1:R140"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A112" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="A141" sqref="A141"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="12.1640625" style="8" customWidth="1"/>
+    <col min="2" max="2" width="17.1640625" style="9" customWidth="1"/>
+    <col min="3" max="3" width="9.6640625" style="6" customWidth="1"/>
+    <col min="4" max="4" width="10" style="9" customWidth="1"/>
+    <col min="5" max="5" width="7.6640625" style="6" customWidth="1"/>
+    <col min="6" max="6" width="8.6640625" style="6" customWidth="1"/>
+    <col min="9" max="9" width="10.1640625" customWidth="1"/>
+    <col min="10" max="10" width="8" customWidth="1"/>
+    <col min="13" max="13" width="8" customWidth="1"/>
+    <col min="14" max="14" width="10.6640625" style="18"/>
+    <col min="15" max="15" width="12" customWidth="1"/>
+    <col min="16" max="16" width="11.6640625" customWidth="1"/>
+    <col min="17" max="17" width="14.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:18">
+      <c r="A1" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>150</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>154</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>148</v>
+      </c>
+      <c r="G1" s="16" t="s">
+        <v>162</v>
+      </c>
+      <c r="H1" s="16" t="s">
+        <v>163</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="K1" s="15" t="s">
+        <v>155</v>
+      </c>
+      <c r="L1" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="M1" s="15" t="s">
+        <v>157</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="O1" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="P1" s="16" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q1" s="16" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
+      <c r="A2" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="9">
+        <v>2.6617181301116899</v>
+      </c>
+      <c r="C2" s="9">
+        <f>ROUND(B2,0)</f>
+        <v>3</v>
+      </c>
+      <c r="D2" s="9">
+        <v>97</v>
+      </c>
+      <c r="F2" s="10">
+        <v>34.53</v>
+      </c>
+      <c r="G2">
+        <v>8.0367388563218505</v>
+      </c>
+      <c r="H2">
+        <v>0.189425072120154</v>
+      </c>
+      <c r="I2" s="2">
+        <v>15.1</v>
+      </c>
+      <c r="J2" s="6">
+        <v>4.7</v>
+      </c>
+      <c r="K2" s="14">
+        <v>54.422205373280597</v>
+      </c>
+      <c r="L2" s="14">
+        <v>1.809624516</v>
+      </c>
+      <c r="M2" s="14">
+        <v>9.1248640000000005</v>
+      </c>
+      <c r="N2" s="17">
+        <v>27.8</v>
+      </c>
+      <c r="O2">
+        <v>6.39</v>
+      </c>
+      <c r="P2">
+        <v>3.66</v>
+      </c>
+      <c r="Q2">
+        <v>11.838679042980118</v>
+      </c>
+      <c r="R2">
+        <f>14-COUNT(D2:Q2)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
+      <c r="A3" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="9">
+        <v>4.6395483016967773</v>
+      </c>
+      <c r="C3" s="9">
+        <f t="shared" ref="C3" si="0">ROUND(B3,0)</f>
+        <v>5</v>
+      </c>
+      <c r="D3" s="9">
+        <v>39</v>
+      </c>
+      <c r="E3" s="7">
+        <v>28.7</v>
+      </c>
+      <c r="F3" s="10">
+        <v>41.32</v>
+      </c>
+      <c r="G3">
+        <v>3.8238029493024999</v>
+      </c>
+      <c r="H3">
+        <v>6.1472678637231599</v>
+      </c>
+      <c r="I3" s="3">
+        <v>13.6</v>
+      </c>
+      <c r="J3" s="6">
+        <v>6.3</v>
+      </c>
+      <c r="K3" s="14">
+        <v>104.870693430657</v>
+      </c>
+      <c r="L3" s="14">
+        <v>2.3255375310000002</v>
+      </c>
+      <c r="M3" s="14">
+        <v>23.52533</v>
+      </c>
+      <c r="N3" s="17">
+        <v>29</v>
+      </c>
+      <c r="O3">
+        <v>60.1</v>
+      </c>
+      <c r="P3">
+        <v>17.61</v>
+      </c>
+      <c r="Q3">
+        <v>22.63868568587478</v>
+      </c>
+      <c r="R3">
+        <f t="shared" ref="R3" si="1">14-COUNT(D3:Q3)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
+      <c r="A4" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="9">
+        <v>6.039330005645752</v>
+      </c>
+      <c r="C4" s="9">
+        <f>ROUND(B4,0)</f>
+        <v>6</v>
+      </c>
+      <c r="D4" s="9">
+        <v>65</v>
+      </c>
+      <c r="E4" s="7">
+        <v>21.8</v>
+      </c>
+      <c r="F4" s="10">
+        <v>34.6</v>
+      </c>
+      <c r="G4">
+        <v>3.2585900361988398</v>
+      </c>
+      <c r="H4">
+        <v>17.5983390926135</v>
+      </c>
+      <c r="I4" s="3">
+        <v>14</v>
+      </c>
+      <c r="J4" s="6">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="K4" s="14">
+        <v>16.176856348362399</v>
+      </c>
+      <c r="L4" s="14">
+        <v>3.1186833850000002</v>
+      </c>
+      <c r="M4" s="14">
+        <v>30.661214999999999</v>
+      </c>
+      <c r="N4" s="17">
+        <v>42.4</v>
+      </c>
+      <c r="O4">
+        <v>64.7</v>
+      </c>
+      <c r="P4">
+        <v>13.49</v>
+      </c>
+      <c r="Q4">
+        <v>14.3238729998648</v>
+      </c>
+      <c r="R4">
+        <f>14-COUNT(D4:Q4)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
+      <c r="A5" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="9">
+        <v>4.2877364158630371</v>
+      </c>
+      <c r="C5" s="9">
+        <f>ROUND(B5,0)</f>
+        <v>4</v>
+      </c>
+      <c r="D5" s="9">
+        <v>73</v>
+      </c>
+      <c r="E5" s="7">
+        <v>24.1</v>
+      </c>
+      <c r="F5" s="10">
+        <v>40.18</v>
+      </c>
+      <c r="G5">
+        <v>4.0094705661479404</v>
+      </c>
+      <c r="H5">
+        <v>10.962771357447799</v>
+      </c>
+      <c r="I5" s="3">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="J5" s="6">
+        <v>6.6</v>
+      </c>
+      <c r="K5" s="14">
+        <v>102.931155602388</v>
+      </c>
+      <c r="L5" s="14">
+        <v>2.3654491160000002</v>
+      </c>
+      <c r="M5" s="14">
+        <v>21.761512</v>
+      </c>
+      <c r="N5" s="17">
+        <v>32.4</v>
+      </c>
+      <c r="O5">
+        <v>46.3</v>
+      </c>
+      <c r="P5">
+        <v>13.47</v>
+      </c>
+      <c r="Q5">
+        <v>15.679662588566348</v>
+      </c>
+      <c r="R5">
+        <f>14-COUNT(D5:Q5)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
+      <c r="A6" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="9">
+        <v>7.2570376396179199</v>
+      </c>
+      <c r="C6" s="9">
+        <f>ROUND(B6,0)</f>
+        <v>7</v>
+      </c>
+      <c r="D6" s="9">
+        <v>32</v>
+      </c>
+      <c r="E6" s="7">
+        <v>14.7</v>
+      </c>
+      <c r="F6" s="10">
+        <v>35.299999999999997</v>
+      </c>
+      <c r="G6">
+        <v>2.5047361436806401</v>
+      </c>
+      <c r="H6">
+        <v>24.337907628059799</v>
+      </c>
+      <c r="I6" s="3">
+        <v>5.6</v>
+      </c>
+      <c r="J6" s="6">
+        <v>13.2</v>
+      </c>
+      <c r="K6" s="14">
+        <v>3.20202712729261</v>
+      </c>
+      <c r="L6" s="14">
+        <v>3.8037627660000002</v>
+      </c>
+      <c r="M6" s="14">
+        <v>28.578520000000001</v>
+      </c>
+      <c r="N6" s="17">
+        <v>34.700000000000003</v>
+      </c>
+      <c r="O6">
+        <v>84.56</v>
+      </c>
+      <c r="P6">
+        <v>16.88</v>
+      </c>
+      <c r="Q6">
+        <v>5.986463893749626</v>
+      </c>
+      <c r="R6">
+        <f>14-COUNT(D6:Q6)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
+      <c r="A7" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="9">
+        <v>7.2937278747558594</v>
+      </c>
+      <c r="C7" s="9">
+        <f>ROUND(B7,0)</f>
+        <v>7</v>
+      </c>
+      <c r="D7" s="9">
+        <v>55</v>
+      </c>
+      <c r="E7" s="7">
+        <v>29.6</v>
+      </c>
+      <c r="F7" s="10">
+        <v>48.2</v>
+      </c>
+      <c r="G7">
+        <v>2.2651250476104399</v>
+      </c>
+      <c r="H7">
+        <v>36.399034364458899</v>
+      </c>
+      <c r="I7" s="3">
+        <v>5.2</v>
+      </c>
+      <c r="J7" s="6">
+        <v>15.6</v>
+      </c>
+      <c r="K7" s="14">
+        <v>106.748567066151</v>
+      </c>
+      <c r="L7" s="14">
+        <v>2.8291145819999999</v>
+      </c>
+      <c r="M7" s="14">
+        <v>41.884256999999998</v>
+      </c>
+      <c r="N7" s="17">
+        <v>30.5</v>
+      </c>
+      <c r="O7">
+        <v>81</v>
+      </c>
+      <c r="P7">
+        <v>41.32</v>
+      </c>
+      <c r="Q7">
+        <v>16.29230665457256</v>
+      </c>
+      <c r="R7">
+        <f>14-COUNT(D7:Q7)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
+      <c r="A8" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="9">
+        <v>5.1522793769836426</v>
+      </c>
+      <c r="C8" s="9">
+        <f>ROUND(B8,0)</f>
+        <v>5</v>
+      </c>
+      <c r="D8" s="9">
+        <v>50</v>
+      </c>
+      <c r="E8" s="7">
+        <v>20.8</v>
+      </c>
+      <c r="F8" s="10">
+        <v>40.380000000000003</v>
+      </c>
+      <c r="G8">
+        <v>4.1488665589666196</v>
+      </c>
+      <c r="H8">
+        <v>6.5021899726134498</v>
+      </c>
+      <c r="I8" s="3">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="J8" s="6">
+        <v>2.6</v>
+      </c>
+      <c r="K8" s="14">
+        <v>119.308868538524</v>
+      </c>
+      <c r="L8" s="14">
+        <v>3.2560069280000001</v>
+      </c>
+      <c r="M8" s="14">
+        <v>16.506067999999999</v>
+      </c>
+      <c r="N8" s="17">
+        <v>31.8</v>
+      </c>
+      <c r="O8">
+        <v>61</v>
+      </c>
+      <c r="P8">
+        <v>39.1</v>
+      </c>
+      <c r="Q8">
+        <v>24.180476593685736</v>
+      </c>
+      <c r="R8">
+        <f>14-COUNT(D8:Q8)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
+      <c r="A9" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="9">
+        <v>4.3097710609436035</v>
+      </c>
+      <c r="C9" s="9">
+        <f>ROUND(B9,0)</f>
+        <v>4</v>
+      </c>
+      <c r="D9" s="9">
+        <v>100</v>
+      </c>
+      <c r="E9" s="7">
+        <v>23</v>
+      </c>
+      <c r="F9" s="10">
+        <v>23.73</v>
+      </c>
+      <c r="G9">
+        <v>4.4697141726574401</v>
+      </c>
+      <c r="H9">
+        <v>1.73848681399728</v>
+      </c>
+      <c r="I9" s="3">
+        <v>15.3</v>
+      </c>
+      <c r="J9" s="6">
+        <v>5.9</v>
+      </c>
+      <c r="K9" s="14">
+        <v>1265.0361143120499</v>
+      </c>
+      <c r="L9" s="14">
+        <v>2.031842132</v>
+      </c>
+      <c r="M9" s="14">
+        <v>8.1908390000000004</v>
+      </c>
+      <c r="N9" s="17">
+        <v>32</v>
+      </c>
+      <c r="O9">
+        <v>9.6</v>
+      </c>
+      <c r="P9">
+        <v>17.649999999999999</v>
+      </c>
+      <c r="Q9">
+        <v>59.646692486267959</v>
+      </c>
+      <c r="R9">
+        <f>14-COUNT(D9:Q9)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
+      <c r="A10" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="9">
+        <v>5.552915096282959</v>
+      </c>
+      <c r="C10" s="9">
+        <f>ROUND(B10,0)</f>
+        <v>6</v>
+      </c>
+      <c r="D10" s="9">
+        <v>34</v>
+      </c>
+      <c r="E10" s="7">
+        <v>26.7</v>
+      </c>
+      <c r="F10" s="10">
+        <v>53.9</v>
+      </c>
+      <c r="G10">
+        <v>2.4824662985152099</v>
+      </c>
+      <c r="H10">
+        <v>26.997184450577201</v>
+      </c>
+      <c r="I10" s="3">
+        <v>8.9</v>
+      </c>
+      <c r="J10" s="6">
+        <v>26.2</v>
+      </c>
+      <c r="K10" s="14">
+        <v>46.8575969641713</v>
+      </c>
+      <c r="L10" s="14">
+        <v>5.1028469349999996</v>
+      </c>
+      <c r="M10" s="14">
+        <v>35.748614000000003</v>
+      </c>
+      <c r="N10" s="17">
+        <v>26.7</v>
+      </c>
+      <c r="O10">
+        <v>59.02</v>
+      </c>
+      <c r="P10">
+        <v>47.36</v>
+      </c>
+      <c r="Q10">
+        <v>28.000667950481215</v>
+      </c>
+      <c r="R10">
+        <f>14-COUNT(D10:Q10)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
+      <c r="A11" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="9">
+        <v>6.9283475875854492</v>
+      </c>
+      <c r="C11" s="9">
+        <f>ROUND(B11,0)</f>
+        <v>7</v>
+      </c>
+      <c r="D11" s="9">
+        <v>33</v>
+      </c>
+      <c r="E11" s="7">
+        <v>28.2</v>
+      </c>
+      <c r="F11" s="10">
+        <v>50.85</v>
+      </c>
+      <c r="G11">
+        <v>2.3234556991274</v>
+      </c>
+      <c r="H11">
+        <v>34.047888291349501</v>
+      </c>
+      <c r="I11" s="3">
+        <v>5.8</v>
+      </c>
+      <c r="J11" s="6">
+        <v>20.7</v>
+      </c>
+      <c r="K11" s="14">
+        <v>375.56367239101701</v>
+      </c>
+      <c r="L11" s="14">
+        <v>2.2844173109999999</v>
+      </c>
+      <c r="M11" s="14">
+        <v>43.875816</v>
+      </c>
+      <c r="N11" s="17">
+        <v>28.1</v>
+      </c>
+      <c r="O11">
+        <v>85</v>
+      </c>
+      <c r="P11">
+        <v>86.17</v>
+      </c>
+      <c r="Q11">
+        <v>28.051519960834316</v>
+      </c>
+      <c r="R11">
+        <f>14-COUNT(D11:Q11)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
+      <c r="A12" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="9">
+        <v>4.8531808853149414</v>
+      </c>
+      <c r="C12" s="9">
+        <f>ROUND(B12,0)</f>
+        <v>5</v>
+      </c>
+      <c r="D12" s="9">
+        <v>93</v>
+      </c>
+      <c r="E12" s="7">
+        <v>6.4</v>
+      </c>
+      <c r="F12" s="10">
+        <v>6.48</v>
+      </c>
+      <c r="G12">
+        <v>4.9611351413992599</v>
+      </c>
+      <c r="H12">
+        <v>10.265129723225201</v>
+      </c>
+      <c r="I12" s="3">
+        <v>27.5</v>
+      </c>
+      <c r="J12" s="6">
+        <v>9.9</v>
+      </c>
+      <c r="K12" s="14">
+        <v>99.110429230223502</v>
+      </c>
+      <c r="L12" s="14">
+        <v>1.6706470899999999</v>
+      </c>
+      <c r="M12" s="14">
+        <v>15.888945</v>
+      </c>
+      <c r="N12" s="17">
+        <v>47.8</v>
+      </c>
+      <c r="O12">
+        <v>5.3</v>
+      </c>
+      <c r="P12">
+        <v>20.99</v>
+      </c>
+      <c r="Q12">
+        <v>23.944661227385598</v>
+      </c>
+      <c r="R12">
+        <f>14-COUNT(D12:Q12)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
+      <c r="A13" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B13" s="9">
+        <v>5.6505527496337891</v>
+      </c>
+      <c r="C13" s="9">
+        <f>ROUND(B13,0)</f>
+        <v>6</v>
+      </c>
+      <c r="D13" s="9">
+        <v>89</v>
+      </c>
+      <c r="E13" s="7"/>
+      <c r="F13" s="10">
+        <v>16.5</v>
+      </c>
+      <c r="G13">
+        <v>3.94455117330223</v>
+      </c>
+      <c r="H13">
+        <v>12.7607530371544</v>
+      </c>
+      <c r="I13" s="3">
+        <v>15.5</v>
+      </c>
+      <c r="J13" s="6">
+        <v>12.2</v>
+      </c>
+      <c r="K13" s="14">
+        <v>10.2017908243331</v>
+      </c>
+      <c r="L13" s="14">
+        <v>2.434164628</v>
+      </c>
+      <c r="M13" s="14">
+        <v>26.203921000000001</v>
+      </c>
+      <c r="N13" s="17">
+        <v>45.8</v>
+      </c>
+      <c r="O13">
+        <v>39.020000000000003</v>
+      </c>
+      <c r="P13">
+        <v>39.04</v>
+      </c>
+      <c r="Q13">
+        <v>4.110588018092864</v>
+      </c>
+      <c r="R13">
+        <f>14-COUNT(D13:Q13)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
+      <c r="A14" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="9">
+        <v>3.5048811435699463</v>
+      </c>
+      <c r="C14" s="9">
+        <f>ROUND(B14,0)</f>
+        <v>4</v>
+      </c>
+      <c r="D14" s="9">
+        <v>77</v>
+      </c>
+      <c r="E14" s="7">
+        <v>20</v>
+      </c>
+      <c r="F14" s="10">
+        <v>24.65</v>
+      </c>
+      <c r="G14">
+        <v>3.5240230156281198</v>
+      </c>
+      <c r="H14">
+        <v>27.8910206378306</v>
+      </c>
+      <c r="I14" s="4">
+        <v>23.8</v>
+      </c>
+      <c r="J14" s="6">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="K14" s="14">
+        <v>4.04365570906781</v>
+      </c>
+      <c r="L14" s="14">
+        <v>2.3786810370000002</v>
+      </c>
+      <c r="M14" s="14">
+        <v>20.871931</v>
+      </c>
+      <c r="N14" s="17">
+        <v>60.5</v>
+      </c>
+      <c r="O14">
+        <v>18.5</v>
+      </c>
+      <c r="P14">
+        <v>49.12</v>
+      </c>
+      <c r="Q14">
+        <v>0.45806646216631558</v>
+      </c>
+      <c r="R14">
+        <f>14-COUNT(D14:Q14)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
+      <c r="A15" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="9">
+        <v>6.3329291343688965</v>
+      </c>
+      <c r="C15" s="9">
+        <f>ROUND(B15,0)</f>
+        <v>6</v>
+      </c>
+      <c r="D15" s="9">
+        <v>87</v>
+      </c>
+      <c r="E15" s="7">
+        <v>13.9</v>
+      </c>
+      <c r="F15" s="10">
+        <v>15.78</v>
+      </c>
+      <c r="G15">
+        <v>3.31148982178934</v>
+      </c>
+      <c r="H15">
+        <v>12.0007554199951</v>
+      </c>
+      <c r="I15" s="4">
+        <v>19.7</v>
+      </c>
+      <c r="J15" s="6">
+        <v>6.5</v>
+      </c>
+      <c r="K15" s="14">
+        <v>25.040054126875098</v>
+      </c>
+      <c r="L15" s="14">
+        <v>3.730609555</v>
+      </c>
+      <c r="M15" s="14">
+        <v>33.713017999999998</v>
+      </c>
+      <c r="N15" s="17">
+        <v>46.9</v>
+      </c>
+      <c r="O15">
+        <v>57.6</v>
+      </c>
+      <c r="P15">
+        <v>9.98</v>
+      </c>
+      <c r="Q15">
+        <v>9.6882799283094077</v>
+      </c>
+      <c r="R15">
+        <f>14-COUNT(D15:Q15)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
+      <c r="A16" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="9">
+        <v>5.0969018936157227</v>
+      </c>
+      <c r="C16" s="9">
+        <f>ROUND(B16,0)</f>
+        <v>5</v>
+      </c>
+      <c r="D16" s="9">
+        <v>34</v>
+      </c>
+      <c r="E16" s="7">
+        <v>37</v>
+      </c>
+      <c r="F16" s="10">
+        <v>42.7</v>
+      </c>
+      <c r="G16">
+        <v>2.3376248794905599</v>
+      </c>
+      <c r="H16">
+        <v>30.5274758673599</v>
+      </c>
+      <c r="I16" s="4">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="J16" s="6">
+        <v>11.5</v>
+      </c>
+      <c r="K16" s="14">
+        <v>65.180462417096507</v>
+      </c>
+      <c r="L16" s="14">
+        <v>2.3871194039999999</v>
+      </c>
+      <c r="M16" s="14">
+        <v>28.800666</v>
+      </c>
+      <c r="N16" s="17">
+        <v>37.4</v>
+      </c>
+      <c r="O16">
+        <v>55.49</v>
+      </c>
+      <c r="P16">
+        <v>50.77</v>
+      </c>
+      <c r="Q16">
+        <v>32.20338983050847</v>
+      </c>
+      <c r="R16">
+        <f>14-COUNT(D16:Q16)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
+      <c r="A17" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="9">
+        <v>4.6468911170959473</v>
+      </c>
+      <c r="C17" s="9">
+        <f>ROUND(B17,0)</f>
+        <v>5</v>
+      </c>
+      <c r="D17" s="9">
+        <v>88</v>
+      </c>
+      <c r="E17" s="7">
+        <v>12.5</v>
+      </c>
+      <c r="F17" s="10">
+        <v>12.35</v>
+      </c>
+      <c r="G17">
+        <v>5.9244534660988002</v>
+      </c>
+      <c r="H17">
+        <v>6.6402985133369699</v>
+      </c>
+      <c r="I17" s="4">
+        <v>30.5</v>
+      </c>
+      <c r="J17" s="6">
+        <v>7.7</v>
+      </c>
+      <c r="K17" s="14">
+        <v>70.151250000000005</v>
+      </c>
+      <c r="L17" s="14">
+        <v>1.6203995840000001</v>
+      </c>
+      <c r="M17" s="14">
+        <v>16.652574000000001</v>
+      </c>
+      <c r="N17" s="17">
+        <v>35.299999999999997</v>
+      </c>
+      <c r="O17">
+        <v>9.4</v>
+      </c>
+      <c r="P17">
+        <v>19.41</v>
+      </c>
+      <c r="Q17">
+        <v>21.929824561403507</v>
+      </c>
+      <c r="R17">
+        <f>14-COUNT(D17:Q17)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
+      <c r="A18" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" s="9">
+        <v>4.5858421325683594</v>
+      </c>
+      <c r="C18" s="9">
+        <f>ROUND(B18,0)</f>
+        <v>5</v>
+      </c>
+      <c r="D18" s="9">
+        <v>96</v>
+      </c>
+      <c r="E18" s="7">
+        <v>17.2</v>
+      </c>
+      <c r="F18" s="10">
+        <v>11.55</v>
+      </c>
+      <c r="G18">
+        <v>4.6118431303246599</v>
+      </c>
+      <c r="H18">
+        <v>3.3723404201091198</v>
+      </c>
+      <c r="I18" s="4">
+        <v>17.8</v>
+      </c>
+      <c r="J18" s="6">
+        <v>5.3</v>
+      </c>
+      <c r="K18" s="14">
+        <v>90.671725583503303</v>
+      </c>
+      <c r="L18" s="14">
+        <v>1.5939582269999999</v>
+      </c>
+      <c r="M18" s="14">
+        <v>14.825889999999999</v>
+      </c>
+      <c r="N18" s="17">
+        <v>30.8</v>
+      </c>
+      <c r="O18">
+        <v>9</v>
+      </c>
+      <c r="P18">
+        <v>69.849999999999994</v>
+      </c>
+      <c r="Q18">
+        <v>21.527305687740768</v>
+      </c>
+      <c r="R18">
+        <f>14-COUNT(D18:Q18)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
+      <c r="A19" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19" s="9">
+        <v>5.0740513801574707</v>
+      </c>
+      <c r="C19" s="9">
+        <f>ROUND(B19,0)</f>
+        <v>5</v>
+      </c>
+      <c r="D19" s="9">
+        <v>96</v>
+      </c>
+      <c r="E19" s="7"/>
+      <c r="F19" s="10">
+        <v>3.87</v>
+      </c>
+      <c r="G19">
+        <v>4.9923419787069401</v>
+      </c>
+      <c r="H19">
+        <v>15.1426914821206</v>
+      </c>
+      <c r="I19" s="4">
+        <v>30.1</v>
+      </c>
+      <c r="J19" s="6">
+        <v>12.2</v>
+      </c>
+      <c r="K19" s="14">
+        <v>50.884743288697102</v>
+      </c>
+      <c r="L19" s="14">
+        <v>1.8031018350000001</v>
+      </c>
+      <c r="M19" s="14">
+        <v>13.376192</v>
+      </c>
+      <c r="N19" s="17">
+        <v>46.5</v>
+      </c>
+      <c r="O19">
+        <v>11</v>
+      </c>
+      <c r="P19">
+        <v>17.920000000000002</v>
+      </c>
+      <c r="Q19">
+        <v>13.115863848871401</v>
+      </c>
+      <c r="R19">
+        <f>14-COUNT(D19:Q19)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
+      <c r="A20" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B20" s="9">
+        <v>7.4148683547973633</v>
+      </c>
+      <c r="C20" s="9">
+        <f>ROUND(B20,0)</f>
+        <v>7</v>
+      </c>
+      <c r="D20" s="9">
+        <v>42</v>
+      </c>
+      <c r="E20" s="7">
+        <v>14.3</v>
+      </c>
+      <c r="F20" s="10">
+        <v>45.42</v>
+      </c>
+      <c r="G20">
+        <v>2.4662916037353102</v>
+      </c>
+      <c r="H20">
+        <v>27.4681124002974</v>
+      </c>
+      <c r="I20" s="4">
+        <v>5.8</v>
+      </c>
+      <c r="J20" s="6">
+        <v>12.5</v>
+      </c>
+      <c r="K20" s="14">
+        <v>4.03673422033956</v>
+      </c>
+      <c r="L20" s="14">
+        <v>3.7945346299999998</v>
+      </c>
+      <c r="M20" s="14">
+        <v>32.830274000000003</v>
+      </c>
+      <c r="N20" s="17">
+        <v>34</v>
+      </c>
+      <c r="O20">
+        <v>87.12</v>
+      </c>
+      <c r="P20">
+        <v>26.61</v>
+      </c>
+      <c r="Q20">
+        <v>4.8128830341639253</v>
+      </c>
+      <c r="R20">
+        <f>14-COUNT(D20:Q20)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
+      <c r="A21" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" s="9">
+        <v>4.5589370727539062</v>
+      </c>
+      <c r="C21" s="9">
+        <f>ROUND(B21,0)</f>
+        <v>5</v>
+      </c>
+      <c r="D21" s="9">
+        <v>95</v>
+      </c>
+      <c r="E21" s="7"/>
+      <c r="F21" s="10">
+        <v>12.1</v>
+      </c>
+      <c r="G21">
+        <v>5.7771795342327703</v>
+      </c>
+      <c r="H21">
+        <v>7.7322402711949998</v>
+      </c>
+      <c r="I21" s="4">
+        <v>27.6</v>
+      </c>
+      <c r="J21" s="6">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="K21" s="14">
+        <v>11.8329050190597</v>
+      </c>
+      <c r="L21" s="14">
+        <v>1.612914776</v>
+      </c>
+      <c r="M21" s="14">
+        <v>5.6650309999999999</v>
+      </c>
+      <c r="N21" s="17">
+        <v>43.3</v>
+      </c>
+      <c r="O21">
+        <v>2.5</v>
+      </c>
+      <c r="P21">
+        <v>30.17</v>
+      </c>
+      <c r="Q21">
+        <v>3.8913595933926302</v>
+      </c>
+      <c r="R21">
+        <f>14-COUNT(D21:Q21)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
+      <c r="A22" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" s="9">
+        <v>6.3201193809509277</v>
+      </c>
+      <c r="C22" s="9">
+        <f>ROUND(B22,0)</f>
+        <v>6</v>
+      </c>
+      <c r="D22" s="9">
+        <v>70</v>
+      </c>
+      <c r="E22" s="7">
+        <v>37.799999999999997</v>
+      </c>
+      <c r="F22" s="10">
+        <v>33.450000000000003</v>
+      </c>
+      <c r="G22">
+        <v>3.57642542986666</v>
+      </c>
+      <c r="H22">
+        <v>11.425393677516199</v>
+      </c>
+      <c r="I22" s="4">
+        <v>12.5</v>
+      </c>
+      <c r="J22" s="6">
+        <v>10.6</v>
+      </c>
+      <c r="K22" s="14">
+        <v>24.2823792385533</v>
+      </c>
+      <c r="L22" s="14">
+        <v>3.461463626</v>
+      </c>
+      <c r="M22" s="14">
+        <v>17.409112</v>
+      </c>
+      <c r="N22" s="17">
+        <v>47.7</v>
+      </c>
+      <c r="O22">
+        <v>72.349999999999994</v>
+      </c>
+      <c r="P22">
+        <v>29.85</v>
+      </c>
+      <c r="Q22">
+        <v>1.7077946819498635</v>
+      </c>
+      <c r="R22">
+        <f>14-COUNT(D22:Q22)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
+      <c r="A23" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" s="9">
+        <v>5.0990614891052246</v>
+      </c>
+      <c r="C23" s="9">
+        <f>ROUND(B23,0)</f>
+        <v>5</v>
+      </c>
+      <c r="E23" s="7">
+        <v>25.6</v>
+      </c>
+      <c r="F23" s="10">
+        <v>39.9</v>
+      </c>
+      <c r="G23">
+        <v>3.3844078411709302</v>
+      </c>
+      <c r="H23">
+        <v>8.5891613423726305</v>
+      </c>
+      <c r="I23" s="4">
+        <v>18.2</v>
+      </c>
+      <c r="J23" s="6">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="K23" s="14">
+        <v>147.67403502115599</v>
+      </c>
+      <c r="L23" s="14">
+        <v>1.9578983599999999</v>
+      </c>
+      <c r="M23" s="14">
+        <v>23.790354000000001</v>
+      </c>
+      <c r="N23" s="17">
+        <v>38.6</v>
+      </c>
+      <c r="O23">
+        <v>49.3</v>
+      </c>
+      <c r="P23">
+        <v>22.89</v>
+      </c>
+      <c r="Q23">
+        <v>12.664821089430253</v>
+      </c>
+      <c r="R23">
+        <f>14-COUNT(D23:Q23)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
+      <c r="A24" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24" s="9">
+        <v>6.1573419570922852</v>
+      </c>
+      <c r="C24" s="9">
+        <f>ROUND(B24,0)</f>
+        <v>6</v>
+      </c>
+      <c r="D24" s="9">
+        <v>83</v>
+      </c>
+      <c r="E24" s="7">
+        <v>9</v>
+      </c>
+      <c r="F24" s="10">
+        <v>4.58</v>
+      </c>
+      <c r="G24">
+        <v>3.52685205109591</v>
+      </c>
+      <c r="H24">
+        <v>11.125908201501799</v>
+      </c>
+      <c r="I24" s="4">
+        <v>18.5</v>
+      </c>
+      <c r="J24" s="6">
+        <v>7.2</v>
+      </c>
+      <c r="K24" s="14">
+        <v>44.223177106804897</v>
+      </c>
+      <c r="L24" s="14">
+        <v>2.3728377520000001</v>
+      </c>
+      <c r="M24" s="14">
+        <v>19.211746000000002</v>
+      </c>
+      <c r="N24" s="17">
+        <v>50.8</v>
+      </c>
+      <c r="O24">
+        <v>52.57</v>
+      </c>
+      <c r="P24">
+        <v>15.76</v>
+      </c>
+      <c r="Q24">
+        <v>1.5219468008886345</v>
+      </c>
+      <c r="R24">
+        <f>14-COUNT(D24:Q24)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
+      <c r="A25" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25" s="9">
+        <v>4.8839912414550781</v>
+      </c>
+      <c r="C25" s="9">
+        <f>ROUND(B25,0)</f>
+        <v>5</v>
+      </c>
+      <c r="E25" s="7">
+        <v>26.9</v>
+      </c>
+      <c r="F25" s="10">
+        <v>4.2699999999999996</v>
+      </c>
+      <c r="G25">
+        <v>4.3074023816909</v>
+      </c>
+      <c r="H25">
+        <v>13.088647954519899</v>
+      </c>
+      <c r="I25" s="4">
+        <v>27.4</v>
+      </c>
+      <c r="J25" s="6">
+        <v>5.7</v>
+      </c>
+      <c r="K25" s="14">
+        <v>15.404831625183</v>
+      </c>
+      <c r="L25" s="14">
+        <v>1.9430276660000001</v>
+      </c>
+      <c r="M25" s="14">
+        <v>17.503682999999999</v>
+      </c>
+      <c r="N25" s="17">
+        <v>42.1</v>
+      </c>
+      <c r="O25">
+        <v>7.11</v>
+      </c>
+      <c r="P25">
+        <v>73.41</v>
+      </c>
+      <c r="Q25">
+        <v>1.6105417276720351</v>
+      </c>
+      <c r="R25">
+        <f>14-COUNT(D25:Q25)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18">
+      <c r="A26" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B26" s="9">
+        <v>4.3110332489013672</v>
+      </c>
+      <c r="C26" s="9">
+        <f>ROUND(B26,0)</f>
+        <v>4</v>
+      </c>
+      <c r="D26" s="9">
+        <v>94</v>
+      </c>
+      <c r="E26" s="7"/>
+      <c r="F26" s="10">
+        <v>4.32</v>
+      </c>
+      <c r="G26">
+        <v>5.3020675050332002</v>
+      </c>
+      <c r="H26">
+        <v>7.2539446332169897</v>
+      </c>
+      <c r="I26" s="4">
+        <v>33.700000000000003</v>
+      </c>
+      <c r="J26" s="6">
+        <v>5.9</v>
+      </c>
+      <c r="K26" s="14">
+        <v>35.879221014093197</v>
+      </c>
+      <c r="L26" s="14">
+        <v>1.8587189340000001</v>
+      </c>
+      <c r="M26" s="14">
+        <v>7.1134009999999996</v>
+      </c>
+      <c r="N26" s="17">
+        <v>40.200000000000003</v>
+      </c>
+      <c r="O26">
+        <v>3</v>
+      </c>
+      <c r="P26">
+        <v>20.83</v>
+      </c>
+      <c r="Q26">
+        <v>3.1318232945898852</v>
+      </c>
+      <c r="R26">
+        <f>14-COUNT(D26:Q26)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18">
+      <c r="A27" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B27" s="9">
+        <v>7.2251815795898438</v>
+      </c>
+      <c r="C27" s="9">
+        <f>ROUND(B27,0)</f>
+        <v>7</v>
+      </c>
+      <c r="D27" s="9">
+        <v>79</v>
+      </c>
+      <c r="E27" s="7">
+        <v>11.9</v>
+      </c>
+      <c r="F27" s="10">
+        <v>9.93</v>
+      </c>
+      <c r="G27">
+        <v>3.46142664480857</v>
+      </c>
+      <c r="H27">
+        <v>11.226772403879499</v>
+      </c>
+      <c r="I27" s="4">
+        <v>16.7</v>
+      </c>
+      <c r="J27" s="6">
+        <v>7.9</v>
+      </c>
+      <c r="K27" s="14">
+        <v>96.078515471993697</v>
+      </c>
+      <c r="L27" s="14">
+        <v>1.9148140069999999</v>
+      </c>
+      <c r="M27" s="14">
+        <v>13.854123</v>
+      </c>
+      <c r="N27" s="17">
+        <v>48.7</v>
+      </c>
+      <c r="O27">
+        <v>49.41</v>
+      </c>
+      <c r="P27">
+        <v>65.84</v>
+      </c>
+      <c r="Q27">
+        <v>4.8472385428907163</v>
+      </c>
+      <c r="R27">
+        <f>14-COUNT(D27:Q27)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18">
+      <c r="A28" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B28" s="9">
+        <v>5.3431658744812012</v>
+      </c>
+      <c r="C28" s="9">
+        <f>ROUND(B28,0)</f>
+        <v>5</v>
+      </c>
+      <c r="D28" s="9">
+        <v>70</v>
+      </c>
+      <c r="E28" s="7">
+        <v>37</v>
+      </c>
+      <c r="F28" s="10">
+        <v>45.82</v>
+      </c>
+      <c r="G28">
+        <v>2.79539616520456</v>
+      </c>
+      <c r="H28">
+        <v>24.5629141601461</v>
+      </c>
+      <c r="I28" s="4">
+        <v>8.1</v>
+      </c>
+      <c r="J28" s="6">
+        <v>16.5</v>
+      </c>
+      <c r="K28" s="14">
+        <v>73.725875625446704</v>
+      </c>
+      <c r="L28" s="14">
+        <v>2.7405460929999998</v>
+      </c>
+      <c r="M28" s="14">
+        <v>35.163044999999997</v>
+      </c>
+      <c r="N28" s="17">
+        <v>32.200000000000003</v>
+      </c>
+      <c r="O28">
+        <v>68.569999999999993</v>
+      </c>
+      <c r="P28">
+        <v>23.94</v>
+      </c>
+      <c r="Q28">
+        <v>15.582558970693352</v>
+      </c>
+      <c r="R28">
+        <f>14-COUNT(D28:Q28)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:18">
+      <c r="A29" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B29" s="9">
+        <v>6.0620512962341309</v>
+      </c>
+      <c r="C29" s="9">
+        <f>ROUND(B29,0)</f>
+        <v>6</v>
+      </c>
+      <c r="D29" s="9">
+        <v>75</v>
+      </c>
+      <c r="E29" s="7">
+        <v>36.4</v>
+      </c>
+      <c r="F29" s="10">
+        <v>35.17</v>
+      </c>
+      <c r="G29">
+        <v>2.7587405438560602</v>
+      </c>
+      <c r="H29">
+        <v>20.762954999637302</v>
+      </c>
+      <c r="I29" s="4">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="J29" s="6">
+        <v>5.3</v>
+      </c>
+      <c r="K29" s="14">
+        <v>127.65703463203501</v>
+      </c>
+      <c r="L29" s="14">
+        <v>1.7680723469999999</v>
+      </c>
+      <c r="M29" s="14">
+        <v>23.997837000000001</v>
+      </c>
+      <c r="N29" s="17">
+        <v>35.6</v>
+      </c>
+      <c r="O29">
+        <v>69.33</v>
+      </c>
+      <c r="P29">
+        <v>16.059999999999999</v>
+      </c>
+      <c r="Q29">
+        <v>9.1590906118417745</v>
+      </c>
+      <c r="R29">
+        <f>14-COUNT(D29:Q29)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18">
+      <c r="A30" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B30" s="9">
+        <v>6.7895679473876953</v>
+      </c>
+      <c r="C30" s="9">
+        <f>ROUND(B30,0)</f>
+        <v>7</v>
+      </c>
+      <c r="D30" s="9">
+        <v>21</v>
+      </c>
+      <c r="E30" s="7">
+        <v>34.299999999999997</v>
+      </c>
+      <c r="F30" s="10">
+        <v>50.08</v>
+      </c>
+      <c r="G30">
+        <v>2.3958593689795098</v>
+      </c>
+      <c r="H30">
+        <v>27.276817405768401</v>
+      </c>
+      <c r="I30" s="4">
+        <v>5.9</v>
+      </c>
+      <c r="J30" s="6">
+        <v>13.1</v>
+      </c>
+      <c r="K30" s="14">
+        <v>137.17553425722099</v>
+      </c>
+      <c r="L30" s="14">
+        <v>2.7127169690000001</v>
+      </c>
+      <c r="M30" s="14">
+        <v>34.068710000000003</v>
+      </c>
+      <c r="N30" s="17">
+        <v>25.9</v>
+      </c>
+      <c r="O30">
+        <v>79.709999999999994</v>
+      </c>
+      <c r="P30">
+        <v>83.7</v>
+      </c>
+      <c r="Q30">
+        <v>32.297332297332296</v>
+      </c>
+      <c r="R30">
+        <f>14-COUNT(D30:Q30)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:18">
+      <c r="A31" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B31" s="9">
+        <v>7.5937023162841797</v>
+      </c>
+      <c r="C31" s="9">
+        <f>ROUND(B31,0)</f>
+        <v>8</v>
+      </c>
+      <c r="D31" s="9">
+        <v>19</v>
+      </c>
+      <c r="E31" s="7">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="F31" s="10">
+        <v>55.67</v>
+      </c>
+      <c r="G31" s="9">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="H31">
+        <v>39.5</v>
+      </c>
+      <c r="I31" s="4">
+        <v>4</v>
+      </c>
+      <c r="J31" s="6">
+        <v>12.8</v>
+      </c>
+      <c r="K31" s="14">
+        <v>136.51987601154701</v>
+      </c>
+      <c r="L31" s="14">
+        <v>2.8271041879999999</v>
+      </c>
+      <c r="M31" s="14">
+        <v>45.43515</v>
+      </c>
+      <c r="N31" s="17">
+        <v>28.5</v>
+      </c>
+      <c r="O31">
+        <v>95.99</v>
+      </c>
+      <c r="P31">
+        <v>31.23</v>
+      </c>
+      <c r="Q31">
+        <v>56.561085972850677</v>
+      </c>
+      <c r="R31">
+        <f>14-COUNT(D31:Q31)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18">
+      <c r="A32" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="B32" s="9">
+        <v>5.6052026748657227</v>
+      </c>
+      <c r="C32" s="9">
+        <f>ROUND(B32,0)</f>
+        <v>6</v>
+      </c>
+      <c r="D32" s="9">
+        <v>87</v>
+      </c>
+      <c r="E32" s="7">
+        <v>13.7</v>
+      </c>
+      <c r="F32" s="10">
+        <v>18.47</v>
+      </c>
+      <c r="G32">
+        <v>3.4779335422446098</v>
+      </c>
+      <c r="H32">
+        <v>14.332102779658101</v>
+      </c>
+      <c r="I32" s="4">
+        <v>34.6</v>
+      </c>
+      <c r="J32" s="6">
+        <v>9.9</v>
+      </c>
+      <c r="K32" s="14">
+        <v>222.87306975781399</v>
+      </c>
+      <c r="L32" s="14">
+        <v>2.1777191999999999</v>
+      </c>
+      <c r="M32" s="14">
+        <v>13.509418</v>
+      </c>
+      <c r="N32" s="17">
+        <v>45.3</v>
+      </c>
+      <c r="O32">
+        <v>49.58</v>
+      </c>
+      <c r="P32">
+        <v>16.440000000000001</v>
+      </c>
+      <c r="Q32">
+        <v>16.559718484785758</v>
+      </c>
+      <c r="R32">
+        <f>14-COUNT(D32:Q32)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18">
+      <c r="A33" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B33" s="9">
+        <v>5.8395185470581055</v>
+      </c>
+      <c r="C33" s="9">
+        <f>ROUND(B33,0)</f>
+        <v>6</v>
+      </c>
+      <c r="D33" s="9">
+        <v>82</v>
+      </c>
+      <c r="E33" s="7">
+        <v>7.1</v>
+      </c>
+      <c r="F33" s="10">
+        <v>0.25</v>
+      </c>
+      <c r="G33">
+        <v>3.77979891294363</v>
+      </c>
+      <c r="H33">
+        <v>12.123486663744799</v>
+      </c>
+      <c r="I33" s="4">
+        <v>21.3</v>
+      </c>
+      <c r="J33" s="6">
+        <v>7.1</v>
+      </c>
+      <c r="K33" s="14">
+        <v>66.938548880657095</v>
+      </c>
+      <c r="L33" s="14">
+        <v>2.31497332</v>
+      </c>
+      <c r="M33" s="14">
+        <v>14.671663000000001</v>
+      </c>
+      <c r="N33" s="17">
+        <v>45</v>
+      </c>
+      <c r="O33">
+        <v>43</v>
+      </c>
+      <c r="P33">
+        <v>27.59</v>
+      </c>
+      <c r="Q33">
+        <v>3.929779352552746</v>
+      </c>
+      <c r="R33">
+        <f>14-COUNT(D33:Q33)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18">
+      <c r="A34" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B34" s="9">
+        <v>3.9293441772460938</v>
+      </c>
+      <c r="C34" s="9">
+        <f>ROUND(B34,0)</f>
+        <v>4</v>
+      </c>
+      <c r="D34" s="9">
+        <v>97</v>
+      </c>
+      <c r="E34" s="7">
+        <v>25.2</v>
+      </c>
+      <c r="F34" s="10">
+        <v>30.05</v>
+      </c>
+      <c r="G34">
+        <v>4.1308575832092096</v>
+      </c>
+      <c r="H34">
+        <v>6.4785949658702897</v>
+      </c>
+      <c r="I34" s="4">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="J34" s="6">
+        <v>4</v>
+      </c>
+      <c r="K34" s="14">
+        <v>97.999046662313503</v>
+      </c>
+      <c r="L34" s="14">
+        <v>1.446643887</v>
+      </c>
+      <c r="M34" s="14"/>
+      <c r="N34" s="17">
+        <v>31.8</v>
+      </c>
+      <c r="O34">
+        <v>31.7</v>
+      </c>
+      <c r="P34">
+        <v>10.57</v>
+      </c>
+      <c r="Q34">
+        <v>2.7995077799299311</v>
+      </c>
+      <c r="R34">
+        <f>14-COUNT(D34:Q34)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18">
+      <c r="A35" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B35" s="9">
+        <v>6.3393182754516602</v>
+      </c>
+      <c r="C35" s="9">
+        <f>ROUND(B35,0)</f>
+        <v>6</v>
+      </c>
+      <c r="D35" s="9">
+        <v>83</v>
+      </c>
+      <c r="E35" s="7">
+        <v>9.9</v>
+      </c>
+      <c r="F35" s="10">
+        <v>13.68</v>
+      </c>
+      <c r="G35">
+        <v>4.0699771697616702</v>
+      </c>
+      <c r="H35">
+        <v>8.8227135978606395</v>
+      </c>
+      <c r="I35" s="4">
+        <v>22.2</v>
+      </c>
+      <c r="J35" s="6">
+        <v>13.7</v>
+      </c>
+      <c r="K35" s="14">
+        <v>307.81143822393801</v>
+      </c>
+      <c r="L35" s="14">
+        <v>3.0883517739999999</v>
+      </c>
+      <c r="M35" s="14">
+        <v>17.381668999999999</v>
+      </c>
+      <c r="N35" s="17">
+        <v>40</v>
+      </c>
+      <c r="O35">
+        <v>29.7</v>
+      </c>
+      <c r="P35">
+        <v>21.38</v>
+      </c>
+      <c r="Q35">
+        <v>35.569498069498067</v>
+      </c>
+      <c r="R35">
+        <f>14-COUNT(D35:Q35)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18">
+      <c r="A36" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B36" s="9">
+        <v>5.9383959770202637</v>
+      </c>
+      <c r="C36" s="9">
+        <f>ROUND(B36,0)</f>
+        <v>6</v>
+      </c>
+      <c r="D36" s="9">
+        <v>16</v>
+      </c>
+      <c r="E36" s="7">
+        <v>31.3</v>
+      </c>
+      <c r="F36" s="10">
+        <v>59.43</v>
+      </c>
+      <c r="G36">
+        <v>2.2975175724185601</v>
+      </c>
+      <c r="H36">
+        <v>33.902919788016199</v>
+      </c>
+      <c r="I36" s="4">
+        <v>6.1</v>
+      </c>
+      <c r="J36" s="6">
+        <v>17.8</v>
+      </c>
+      <c r="K36" s="14">
+        <v>31.032790752535998</v>
+      </c>
+      <c r="L36" s="14">
+        <v>5.4835234560000004</v>
+      </c>
+      <c r="M36" s="14">
+        <v>33.730350999999999</v>
+      </c>
+      <c r="N36" s="17">
+        <v>34.6</v>
+      </c>
+      <c r="O36">
+        <v>84.24</v>
+      </c>
+      <c r="P36">
+        <v>61.46</v>
+      </c>
+      <c r="Q36">
+        <v>16.011042097998622</v>
+      </c>
+      <c r="R36">
+        <f>14-COUNT(D36:Q36)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18">
+      <c r="A37" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="B37" s="9">
+        <v>4.1803154945373535</v>
+      </c>
+      <c r="C37" s="9">
+        <f>ROUND(B37,0)</f>
+        <v>4</v>
+      </c>
+      <c r="D37" s="9">
+        <v>100</v>
+      </c>
+      <c r="E37" s="7">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="F37" s="10">
+        <v>9.02</v>
+      </c>
+      <c r="G37">
+        <v>4.6145778397678496</v>
+      </c>
+      <c r="H37">
+        <v>7.5212164041356102</v>
+      </c>
+      <c r="I37" s="4">
+        <v>26.7</v>
+      </c>
+      <c r="J37" s="6">
+        <v>7.2</v>
+      </c>
+      <c r="K37" s="14">
+        <v>104.957438</v>
+      </c>
+      <c r="L37" s="14">
+        <v>2.616682548</v>
+      </c>
+      <c r="M37" s="14"/>
+      <c r="N37" s="17">
+        <v>33.200000000000003</v>
+      </c>
+      <c r="O37">
+        <v>2.9</v>
+      </c>
+      <c r="P37">
+        <v>4.68</v>
+      </c>
+      <c r="Q37">
+        <v>15.119</v>
+      </c>
+      <c r="R37">
+        <f>14-COUNT(D37:Q37)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18">
+      <c r="A38" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="B38" s="9">
+        <v>7.7882518768310547</v>
+      </c>
+      <c r="C38" s="9">
+        <f>ROUND(B38,0)</f>
+        <v>8</v>
+      </c>
+      <c r="D38" s="9">
+        <v>28</v>
+      </c>
+      <c r="E38" s="7">
+        <v>20.399999999999999</v>
+      </c>
+      <c r="F38" s="10">
+        <v>60.17</v>
+      </c>
+      <c r="G38">
+        <v>2.0749590985642801</v>
+      </c>
+      <c r="H38">
+        <v>41.005014588934202</v>
+      </c>
+      <c r="I38" s="4">
+        <v>4.7</v>
+      </c>
+      <c r="J38" s="6">
+        <v>15.9</v>
+      </c>
+      <c r="K38" s="14">
+        <v>18.1358484978117</v>
+      </c>
+      <c r="L38" s="14">
+        <v>4.0242325509999999</v>
+      </c>
+      <c r="M38" s="14">
+        <v>44.017195000000001</v>
+      </c>
+      <c r="N38" s="17">
+        <v>26.8</v>
+      </c>
+      <c r="O38">
+        <v>92.38</v>
+      </c>
+      <c r="P38">
+        <v>28.35</v>
+      </c>
+      <c r="Q38">
+        <v>7.3903458260669286</v>
+      </c>
+      <c r="R38">
+        <f>14-COUNT(D38:Q38)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18">
+      <c r="A39" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="B39" s="9">
+        <v>6.6352224349975586</v>
+      </c>
+      <c r="C39" s="9">
+        <f>ROUND(B39,0)</f>
+        <v>7</v>
+      </c>
+      <c r="D39" s="9">
+        <v>30</v>
+      </c>
+      <c r="E39" s="7">
+        <v>32.700000000000003</v>
+      </c>
+      <c r="F39" s="10">
+        <v>48.85</v>
+      </c>
+      <c r="G39">
+        <v>2.2628282394029502</v>
+      </c>
+      <c r="H39">
+        <v>34.09893845533</v>
+      </c>
+      <c r="I39" s="4">
+        <v>5.5</v>
+      </c>
+      <c r="J39" s="6">
+        <v>17.7</v>
+      </c>
+      <c r="K39" s="14">
+        <v>122.57837631516</v>
+      </c>
+      <c r="L39" s="14">
+        <v>2.7333169019999999</v>
+      </c>
+      <c r="M39" s="14">
+        <v>45.277869000000003</v>
+      </c>
+      <c r="N39" s="17">
+        <v>32.299999999999997</v>
+      </c>
+      <c r="O39">
+        <v>83.75</v>
+      </c>
+      <c r="P39">
+        <v>21.14</v>
+      </c>
+      <c r="Q39">
+        <v>33.523304758729807</v>
+      </c>
+      <c r="R39">
+        <f>14-COUNT(D39:Q39)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18">
+      <c r="A40" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="B40" s="9">
+        <v>7.4762139320373535</v>
+      </c>
+      <c r="C40" s="9">
+        <f>ROUND(B40,0)</f>
+        <v>7</v>
+      </c>
+      <c r="E40" s="7">
+        <v>14.7</v>
+      </c>
+      <c r="F40" s="10">
+        <v>64.13</v>
+      </c>
+      <c r="I40" s="4">
+        <v>6.6</v>
+      </c>
+      <c r="J40" s="6">
+        <v>14</v>
+      </c>
+      <c r="K40" s="14">
+        <v>3.40432917705736</v>
+      </c>
+      <c r="L40" s="14">
+        <v>2.1393359009999999</v>
+      </c>
+      <c r="M40" s="14">
+        <v>36.789971000000001</v>
+      </c>
+      <c r="N40" s="17">
+        <v>25.6</v>
+      </c>
+      <c r="O40">
+        <v>98.16</v>
+      </c>
+      <c r="P40">
+        <v>31.55</v>
+      </c>
+      <c r="Q40">
+        <v>1.2069825436408979</v>
+      </c>
+      <c r="R40">
+        <f>14-COUNT(D40:Q40)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18">
+      <c r="A41" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B41" s="9">
+        <v>4.1179389953613281</v>
+      </c>
+      <c r="C41" s="9">
+        <f>ROUND(B41,0)</f>
+        <v>4</v>
+      </c>
+      <c r="E41" s="7">
+        <v>15.5</v>
+      </c>
+      <c r="F41" s="10">
+        <v>13.45</v>
+      </c>
+      <c r="G41">
+        <v>8.2296813888947593</v>
+      </c>
+      <c r="H41">
+        <v>8.3851459966180606</v>
+      </c>
+      <c r="I41" s="4">
+        <v>29.7</v>
+      </c>
+      <c r="J41" s="6">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="K41" s="14">
+        <v>207.56600790513801</v>
+      </c>
+      <c r="L41" s="14">
+        <v>1.576080782</v>
+      </c>
+      <c r="M41" s="14">
+        <v>11.14148</v>
+      </c>
+      <c r="N41" s="17">
+        <v>47.3</v>
+      </c>
+      <c r="O41">
+        <v>15.56</v>
+      </c>
+      <c r="P41">
+        <v>13.04</v>
+      </c>
+      <c r="Q41">
+        <v>43.478260869565219</v>
+      </c>
+      <c r="R41">
+        <f>14-COUNT(D41:Q41)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18">
+      <c r="A42" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B42" s="9">
+        <v>4.4507746696472168</v>
+      </c>
+      <c r="C42" s="9">
+        <f>ROUND(B42,0)</f>
+        <v>4</v>
+      </c>
+      <c r="D42" s="9">
+        <v>81</v>
+      </c>
+      <c r="E42" s="7">
+        <v>28.8</v>
+      </c>
+      <c r="F42" s="10">
+        <v>42.25</v>
+      </c>
+      <c r="G42">
+        <v>3.5164757818394801</v>
+      </c>
+      <c r="H42">
+        <v>16.300663310697399</v>
+      </c>
+      <c r="I42" s="4">
+        <v>15.3</v>
+      </c>
+      <c r="J42" s="6">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="K42" s="14">
+        <v>65.032016515623397</v>
+      </c>
+      <c r="L42" s="14">
+        <v>2.4086422789999999</v>
+      </c>
+      <c r="M42" s="14">
+        <v>25.819448000000001</v>
+      </c>
+      <c r="N42" s="17">
+        <v>36.5</v>
+      </c>
+      <c r="O42">
+        <v>48.9</v>
+      </c>
+      <c r="P42">
+        <v>17.329999999999998</v>
+      </c>
+      <c r="Q42">
+        <v>4.9503525687149237</v>
+      </c>
+      <c r="R42">
+        <f>14-COUNT(D42:Q42)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:18">
+      <c r="A43" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B43" s="9">
+        <v>7.0743246078491211</v>
+      </c>
+      <c r="C43" s="9">
+        <f>ROUND(B43,0)</f>
+        <v>7</v>
+      </c>
+      <c r="D43" s="9">
+        <v>40</v>
+      </c>
+      <c r="E43" s="7">
+        <v>30.6</v>
+      </c>
+      <c r="F43" s="10">
+        <v>52.52</v>
+      </c>
+      <c r="G43">
+        <v>2.13881151612819</v>
+      </c>
+      <c r="H43">
+        <v>37.270031780217998</v>
+      </c>
+      <c r="I43" s="4">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="J43" s="6">
+        <v>13.6</v>
+      </c>
+      <c r="K43" s="14">
+        <v>237.016337059329</v>
+      </c>
+      <c r="L43" s="14">
+        <v>2.827630079</v>
+      </c>
+      <c r="M43" s="14">
+        <v>37.430619999999998</v>
+      </c>
+      <c r="N43" s="17">
+        <v>31.4</v>
+      </c>
+      <c r="O43">
+        <v>86.19</v>
+      </c>
+      <c r="P43">
+        <v>37.61</v>
+      </c>
+      <c r="Q43">
+        <v>33.67013968399359</v>
+      </c>
+      <c r="R43">
+        <f>14-COUNT(D43:Q43)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18">
+      <c r="A44" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B44" s="9">
+        <v>5.4813108444213867</v>
+      </c>
+      <c r="C44" s="9">
+        <f>ROUND(B44,0)</f>
+        <v>5</v>
+      </c>
+      <c r="D44" s="9">
+        <v>95</v>
+      </c>
+      <c r="E44" s="7">
+        <v>3.9</v>
+      </c>
+      <c r="F44" s="10">
+        <v>5.55</v>
+      </c>
+      <c r="G44">
+        <v>3.4928861200744699</v>
+      </c>
+      <c r="H44">
+        <v>25.877679819777601</v>
+      </c>
+      <c r="I44" s="4">
+        <v>24.9</v>
+      </c>
+      <c r="J44" s="6">
+        <v>5.4</v>
+      </c>
+      <c r="K44" s="14">
+        <v>126.71894611936401</v>
+      </c>
+      <c r="L44" s="14">
+        <v>1.6884604519999999</v>
+      </c>
+      <c r="M44" s="14">
+        <v>12.377316</v>
+      </c>
+      <c r="N44" s="17">
+        <v>42.8</v>
+      </c>
+      <c r="O44">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="P44">
+        <v>25.55</v>
+      </c>
+      <c r="Q44">
+        <v>20.655708886349654</v>
+      </c>
+      <c r="R44">
+        <f>14-COUNT(D44:Q44)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18">
+      <c r="A45" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B45" s="9">
+        <v>5.1482415199279785</v>
+      </c>
+      <c r="C45" s="9">
+        <f>ROUND(B45,0)</f>
+        <v>5</v>
+      </c>
+      <c r="D45" s="9">
+        <v>71</v>
+      </c>
+      <c r="E45" s="7">
+        <v>43.4</v>
+      </c>
+      <c r="F45" s="10">
+        <v>37.97</v>
+      </c>
+      <c r="G45">
+        <v>2.5554993905152599</v>
+      </c>
+      <c r="H45">
+        <v>25.743958361550199</v>
+      </c>
+      <c r="I45" s="4">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="J45" s="6">
+        <v>5</v>
+      </c>
+      <c r="K45" s="14">
+        <v>83.478828549263</v>
+      </c>
+      <c r="L45" s="14">
+        <v>1.8782843119999999</v>
+      </c>
+      <c r="M45" s="14">
+        <v>38.338583999999997</v>
+      </c>
+      <c r="N45" s="17">
+        <v>35.799999999999997</v>
+      </c>
+      <c r="O45">
+        <v>63.21</v>
+      </c>
+      <c r="P45">
+        <v>14.93</v>
+      </c>
+      <c r="Q45">
+        <v>16.602017067494181</v>
+      </c>
+      <c r="R45">
+        <f>14-COUNT(D45:Q45)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18">
+      <c r="A46" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B46" s="9">
+        <v>6.3251185417175293</v>
+      </c>
+      <c r="C46" s="9">
+        <f>ROUND(B46,0)</f>
+        <v>6</v>
+      </c>
+      <c r="D46" s="9">
+        <v>88</v>
+      </c>
+      <c r="E46" s="7"/>
+      <c r="F46" s="10">
+        <v>14.6</v>
+      </c>
+      <c r="G46">
+        <v>4.8057137645585399</v>
+      </c>
+      <c r="H46">
+        <v>4.3269587846942299</v>
+      </c>
+      <c r="I46" s="4">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="J46" s="6">
+        <v>2.7</v>
+      </c>
+      <c r="K46" s="14">
+        <v>157.83410787607301</v>
+      </c>
+      <c r="L46" s="14">
+        <v>3.162466411</v>
+      </c>
+      <c r="M46" s="14">
+        <v>10.78232</v>
+      </c>
+      <c r="N46" s="17">
+        <v>48.7</v>
+      </c>
+      <c r="O46">
+        <v>23.4</v>
+      </c>
+      <c r="P46">
+        <v>19.440000000000001</v>
+      </c>
+      <c r="Q46">
+        <v>8.0440462859275854</v>
+      </c>
+      <c r="R46">
+        <f>14-COUNT(D46:Q46)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18">
+      <c r="A47" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="B47" s="9">
+        <v>4.8737225532531738</v>
+      </c>
+      <c r="C47" s="9">
+        <f>ROUND(B47,0)</f>
+        <v>5</v>
+      </c>
+      <c r="D47" s="9">
+        <v>97</v>
+      </c>
+      <c r="E47" s="7"/>
+      <c r="F47" s="10">
+        <v>9.52</v>
+      </c>
+      <c r="G47">
+        <v>6.2508190391038401</v>
+      </c>
+      <c r="H47">
+        <v>4.5314941806175897</v>
+      </c>
+      <c r="I47" s="4">
+        <v>28.2</v>
+      </c>
+      <c r="J47" s="6">
+        <v>6.3</v>
+      </c>
+      <c r="K47" s="14">
+        <v>51.754745238482798</v>
+      </c>
+      <c r="L47" s="14">
+        <v>1.590701079</v>
+      </c>
+      <c r="M47" s="14">
+        <v>14.030989</v>
+      </c>
+      <c r="N47" s="17">
+        <v>33.700000000000003</v>
+      </c>
+      <c r="O47">
+        <v>1.72</v>
+      </c>
+      <c r="P47">
+        <v>37.67</v>
+      </c>
+      <c r="Q47">
+        <v>12.615985674751752</v>
+      </c>
+      <c r="R47">
+        <f>14-COUNT(D47:Q47)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18">
+      <c r="A48" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B48" s="9">
+        <v>3.8238656520843506</v>
+      </c>
+      <c r="C48" s="9">
+        <f>ROUND(B48,0)</f>
+        <v>4</v>
+      </c>
+      <c r="D48" s="9">
+        <v>75</v>
+      </c>
+      <c r="E48" s="7">
+        <v>12.7</v>
+      </c>
+      <c r="F48" s="10">
+        <v>18.53</v>
+      </c>
+      <c r="G48">
+        <v>4.4284968415282302</v>
+      </c>
+      <c r="H48">
+        <v>9.8858769232348198</v>
+      </c>
+      <c r="I48" s="4"/>
+      <c r="J48" s="6">
+        <v>11.7</v>
+      </c>
+      <c r="K48" s="14">
+        <v>398.448076923077</v>
+      </c>
+      <c r="L48" s="14">
+        <v>2.334270047</v>
+      </c>
+      <c r="M48" s="14">
+        <v>13.731528000000001</v>
+      </c>
+      <c r="N48" s="17">
+        <v>60.8</v>
+      </c>
+      <c r="O48">
+        <v>11.4</v>
+      </c>
+      <c r="P48">
+        <v>12.38</v>
+      </c>
+      <c r="Q48">
+        <v>38.824383164005802</v>
+      </c>
+      <c r="R48">
+        <f>14-COUNT(D48:Q48)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:18">
+      <c r="A49" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B49" s="9">
+        <v>6.0199856758117676</v>
+      </c>
+      <c r="C49" s="9">
+        <f>ROUND(B49,0)</f>
+        <v>6</v>
+      </c>
+      <c r="D49" s="9">
+        <v>84</v>
+      </c>
+      <c r="E49" s="7">
+        <v>2</v>
+      </c>
+      <c r="F49" s="10">
+        <v>14.1</v>
+      </c>
+      <c r="G49">
+        <v>4.4674915344187101</v>
+      </c>
+      <c r="H49">
+        <v>6.6876921607219701</v>
+      </c>
+      <c r="I49" s="4">
+        <v>16.7</v>
+      </c>
+      <c r="J49" s="6">
+        <v>2.9</v>
+      </c>
+      <c r="K49" s="14">
+        <v>82.805138975779798</v>
+      </c>
+      <c r="L49" s="14">
+        <v>2.1300707230000002</v>
+      </c>
+      <c r="M49" s="14">
+        <v>22.421873000000001</v>
+      </c>
+      <c r="N49" s="17">
+        <v>50</v>
+      </c>
+      <c r="O49">
+        <v>19.079999999999998</v>
+      </c>
+      <c r="P49">
+        <v>44.73</v>
+      </c>
+      <c r="Q49">
+        <v>9.1160961658772006</v>
+      </c>
+      <c r="R49">
+        <f>14-COUNT(D49:Q49)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18">
+      <c r="A50" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="B50" s="9">
+        <v>4.4623990058898926</v>
+      </c>
+      <c r="C50" s="9">
+        <f>ROUND(B50,0)</f>
+        <v>4</v>
+      </c>
+      <c r="D50" s="9">
+        <v>84</v>
+      </c>
+      <c r="E50" s="7"/>
+      <c r="F50" s="10">
+        <v>33.33</v>
+      </c>
+      <c r="I50" s="4">
+        <v>20.7</v>
+      </c>
+      <c r="J50" s="6">
+        <v>3</v>
+      </c>
+      <c r="K50" s="14">
+        <v>88.125386811567495</v>
+      </c>
+      <c r="L50" s="14">
+        <v>2.1814031009999999</v>
+      </c>
+      <c r="M50" s="14">
+        <v>1.3778090000000001</v>
+      </c>
+      <c r="N50" s="17">
+        <v>29.5</v>
+      </c>
+      <c r="O50">
+        <v>11.3</v>
+      </c>
+      <c r="P50">
+        <v>37.549999999999997</v>
+      </c>
+      <c r="Q50">
+        <v>11.517340300604381</v>
+      </c>
+      <c r="R50">
+        <f>14-COUNT(D50:Q50)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18">
+      <c r="A51" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B51" s="9">
+        <v>6.0650386810302734</v>
+      </c>
+      <c r="C51" s="9">
+        <f>ROUND(B51,0)</f>
+        <v>6</v>
+      </c>
+      <c r="D51" s="9">
+        <v>39</v>
+      </c>
+      <c r="E51" s="7">
+        <v>30.6</v>
+      </c>
+      <c r="F51" s="10">
+        <v>47.47</v>
+      </c>
+      <c r="G51">
+        <v>2.3600954282097502</v>
+      </c>
+      <c r="H51">
+        <v>32.230390963532798</v>
+      </c>
+      <c r="I51" s="4">
+        <v>7.8</v>
+      </c>
+      <c r="J51" s="6">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="K51" s="14">
+        <v>108.042936043301</v>
+      </c>
+      <c r="L51" s="14">
+        <v>2.6101259950000002</v>
+      </c>
+      <c r="M51" s="14">
+        <v>39.148890999999999</v>
+      </c>
+      <c r="N51" s="17">
+        <v>30.9</v>
+      </c>
+      <c r="O51">
+        <v>76.13</v>
+      </c>
+      <c r="P51">
+        <v>78</v>
+      </c>
+      <c r="Q51">
+        <v>47.763172429029048</v>
+      </c>
+      <c r="R51">
+        <f>14-COUNT(D51:Q51)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:18">
+      <c r="A52" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="B52" s="9">
+        <v>6.0939054489135742</v>
+      </c>
+      <c r="C52" s="9">
+        <f>ROUND(B52,0)</f>
+        <v>6</v>
+      </c>
+      <c r="D52" s="9">
+        <v>91</v>
+      </c>
+      <c r="E52" s="7">
+        <v>22.5</v>
+      </c>
+      <c r="F52" s="10">
+        <v>29.37</v>
+      </c>
+      <c r="I52" s="4">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="J52" s="6">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="K52" s="14">
+        <v>232.12839506172801</v>
+      </c>
+      <c r="L52" s="14">
+        <v>1.5134735370000001</v>
+      </c>
+      <c r="M52" s="14">
+        <v>1.5125850000000001</v>
+      </c>
+      <c r="N52" s="17"/>
+      <c r="O52">
+        <v>78.7</v>
+      </c>
+      <c r="P52">
+        <v>57.49</v>
+      </c>
+      <c r="Q52">
+        <v>0.44893378226711567</v>
+      </c>
+      <c r="R52">
+        <f>14-COUNT(D52:Q52)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18">
+      <c r="A53" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B53" s="9">
+        <v>4.0461111068725586</v>
+      </c>
+      <c r="C53" s="9">
+        <f>ROUND(B53,0)</f>
+        <v>4</v>
+      </c>
+      <c r="D53" s="9">
+        <v>90</v>
+      </c>
+      <c r="E53" s="7">
+        <v>11.5</v>
+      </c>
+      <c r="F53" s="10">
+        <v>28.6</v>
+      </c>
+      <c r="G53">
+        <v>4.5721889921643397</v>
+      </c>
+      <c r="H53">
+        <v>4.1076471332099898</v>
+      </c>
+      <c r="I53" s="4">
+        <v>22.6</v>
+      </c>
+      <c r="J53" s="6">
+        <v>16.3</v>
+      </c>
+      <c r="K53" s="14">
+        <v>450.41861670461702</v>
+      </c>
+      <c r="L53" s="14">
+        <v>1.7448725620000001</v>
+      </c>
+      <c r="M53" s="14">
+        <v>17.577255000000001</v>
+      </c>
+      <c r="N53" s="17">
+        <v>35.700000000000003</v>
+      </c>
+      <c r="O53">
+        <v>18</v>
+      </c>
+      <c r="P53">
+        <v>15.36</v>
+      </c>
+      <c r="Q53">
+        <v>52.624622038954797</v>
+      </c>
+      <c r="R53">
+        <f>14-COUNT(D53:Q53)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18">
+      <c r="A54" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="B54" s="9">
+        <v>5.0984015464782715</v>
+      </c>
+      <c r="C54" s="9">
+        <f>ROUND(B54,0)</f>
+        <v>5</v>
+      </c>
+      <c r="D54" s="9">
+        <v>99</v>
+      </c>
+      <c r="E54" s="7">
+        <v>39.4</v>
+      </c>
+      <c r="F54" s="10">
+        <v>6.2</v>
+      </c>
+      <c r="G54">
+        <v>3.9922815471164199</v>
+      </c>
+      <c r="H54">
+        <v>6.9637149256103896</v>
+      </c>
+      <c r="I54" s="4">
+        <v>12.2</v>
+      </c>
+      <c r="J54" s="6">
+        <v>3.4</v>
+      </c>
+      <c r="K54" s="14">
+        <v>145.72518809651299</v>
+      </c>
+      <c r="L54" s="14">
+        <v>1.2969102939999999</v>
+      </c>
+      <c r="M54" s="14">
+        <v>10.361459</v>
+      </c>
+      <c r="N54" s="17">
+        <v>38.1</v>
+      </c>
+      <c r="O54">
+        <v>17.14</v>
+      </c>
+      <c r="P54">
+        <v>21.86</v>
+      </c>
+      <c r="Q54">
+        <v>12.9721733082354</v>
+      </c>
+      <c r="R54">
+        <f>14-COUNT(D54:Q54)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18">
+      <c r="A55" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="B55" s="9">
+        <v>4.7167830467224121</v>
+      </c>
+      <c r="C55" s="9">
+        <f>ROUND(B55,0)</f>
+        <v>5</v>
+      </c>
+      <c r="D55" s="9">
+        <v>73</v>
+      </c>
+      <c r="E55" s="7">
+        <v>11</v>
+      </c>
+      <c r="F55" s="10">
+        <v>35.68</v>
+      </c>
+      <c r="G55">
+        <v>3.4929601052144399</v>
+      </c>
+      <c r="H55">
+        <v>7.2035714523007597</v>
+      </c>
+      <c r="I55" s="4">
+        <v>20.5</v>
+      </c>
+      <c r="J55" s="6">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="K55" s="14">
+        <v>49.831029740416</v>
+      </c>
+      <c r="L55" s="14">
+        <v>1.7879851849999999</v>
+      </c>
+      <c r="M55" s="14">
+        <v>7.9746290000000002</v>
+      </c>
+      <c r="N55" s="17">
+        <v>38.799999999999997</v>
+      </c>
+      <c r="O55">
+        <v>39.35</v>
+      </c>
+      <c r="P55">
+        <v>20.25</v>
+      </c>
+      <c r="Q55">
+        <v>9.017289226159777</v>
+      </c>
+      <c r="R55">
+        <f>14-COUNT(D55:Q55)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18">
+      <c r="A56" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="B56" s="9">
+        <v>5.1539897918701172</v>
+      </c>
+      <c r="C56" s="9">
+        <f>ROUND(B56,0)</f>
+        <v>5</v>
+      </c>
+      <c r="D56" s="9">
+        <v>87</v>
+      </c>
+      <c r="E56" s="7">
+        <v>33.799999999999997</v>
+      </c>
+      <c r="F56" s="10">
+        <v>33.880000000000003</v>
+      </c>
+      <c r="I56" s="4">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="J56" s="6">
+        <v>3.3</v>
+      </c>
+      <c r="K56" s="14">
+        <v>594.56080156402697</v>
+      </c>
+      <c r="L56" s="14">
+        <v>1.6208092970000001</v>
+      </c>
+      <c r="M56" s="14">
+        <v>13.693778999999999</v>
+      </c>
+      <c r="N56" s="17"/>
+      <c r="O56">
+        <v>74.7</v>
+      </c>
+      <c r="P56">
+        <v>7.61</v>
+      </c>
+      <c r="Q56">
+        <v>12.903225806451612</v>
+      </c>
+      <c r="R56">
+        <f>14-COUNT(D56:Q56)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18">
+      <c r="A57" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="B57" s="9">
+        <v>7.0601553916931152</v>
+      </c>
+      <c r="C57" s="9">
+        <f>ROUND(B57,0)</f>
+        <v>7</v>
+      </c>
+      <c r="D57" s="9">
+        <v>54</v>
+      </c>
+      <c r="E57" s="7">
+        <v>24.3</v>
+      </c>
+      <c r="F57" s="10">
+        <v>53.33</v>
+      </c>
+      <c r="G57">
+        <v>2.81323141323141</v>
+      </c>
+      <c r="H57">
+        <v>22.189462189462201</v>
+      </c>
+      <c r="I57" s="4">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="J57" s="6">
+        <v>11.5</v>
+      </c>
+      <c r="K57" s="14">
+        <v>69.873827841486403</v>
+      </c>
+      <c r="L57" s="14">
+        <v>3.2364014619999999</v>
+      </c>
+      <c r="M57" s="14">
+        <v>23.358557999999999</v>
+      </c>
+      <c r="N57" s="17">
+        <v>31.9</v>
+      </c>
+      <c r="O57">
+        <v>79.69</v>
+      </c>
+      <c r="P57">
+        <v>57.73</v>
+      </c>
+      <c r="Q57">
+        <v>6.4740891275947163</v>
+      </c>
+      <c r="R57">
+        <f>14-COUNT(D57:Q57)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:18">
+      <c r="A58" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B58" s="9">
+        <v>7.3310360908508301</v>
+      </c>
+      <c r="C58" s="9">
+        <f>ROUND(B58,0)</f>
+        <v>7</v>
+      </c>
+      <c r="D58" s="9">
+        <v>51</v>
+      </c>
+      <c r="E58" s="7">
+        <v>25.2</v>
+      </c>
+      <c r="F58" s="10">
+        <v>31.78</v>
+      </c>
+      <c r="G58">
+        <v>3.1419453923882301</v>
+      </c>
+      <c r="H58">
+        <v>21.008758150672001</v>
+      </c>
+      <c r="I58" s="4">
+        <v>4.2</v>
+      </c>
+      <c r="J58" s="6">
+        <v>5.4</v>
+      </c>
+      <c r="K58" s="14">
+        <v>402.60628465804098</v>
+      </c>
+      <c r="L58" s="14">
+        <v>1.3260031560000001</v>
+      </c>
+      <c r="M58" s="14">
+        <v>31.128926</v>
+      </c>
+      <c r="N58" s="17">
+        <v>41.4</v>
+      </c>
+      <c r="O58">
+        <v>71.45</v>
+      </c>
+      <c r="P58">
+        <v>22.56</v>
+      </c>
+      <c r="Q58">
+        <v>13.632162661737524</v>
+      </c>
+      <c r="R58">
+        <f>14-COUNT(D58:Q58)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18">
+      <c r="A59" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B59" s="9">
+        <v>6.1988701820373535</v>
+      </c>
+      <c r="C59" s="9">
+        <f>ROUND(B59,0)</f>
+        <v>6</v>
+      </c>
+      <c r="D59" s="9">
+        <v>72</v>
+      </c>
+      <c r="E59" s="7">
+        <v>23.7</v>
+      </c>
+      <c r="F59" s="10">
+        <v>41.9</v>
+      </c>
+      <c r="G59">
+        <v>2.5892810587452599</v>
+      </c>
+      <c r="H59">
+        <v>24.9691550981936</v>
+      </c>
+      <c r="I59" s="4">
+        <v>5.6</v>
+      </c>
+      <c r="J59" s="6">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="K59" s="14">
+        <v>205.85916910314799</v>
+      </c>
+      <c r="L59" s="14">
+        <v>1.683797108</v>
+      </c>
+      <c r="M59" s="14">
+        <v>42.385586000000004</v>
+      </c>
+      <c r="N59" s="17">
+        <v>34.700000000000003</v>
+      </c>
+      <c r="O59">
+        <v>61.96</v>
+      </c>
+      <c r="P59">
+        <v>24.39</v>
+      </c>
+      <c r="Q59">
+        <v>22.445094172842865</v>
+      </c>
+      <c r="R59">
+        <f>14-COUNT(D59:Q59)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:18">
+      <c r="A60" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B60" s="9">
+        <v>5.0377349853515625</v>
+      </c>
+      <c r="C60" s="9">
+        <f>ROUND(B60,0)</f>
+        <v>5</v>
+      </c>
+      <c r="D60" s="9">
+        <v>88</v>
+      </c>
+      <c r="E60" s="7"/>
+      <c r="F60" s="10">
+        <v>6.82</v>
+      </c>
+      <c r="G60">
+        <v>5.0900631110499699</v>
+      </c>
+      <c r="H60">
+        <v>12.1771464548734</v>
+      </c>
+      <c r="I60" s="4">
+        <v>23.6</v>
+      </c>
+      <c r="J60" s="6">
+        <v>14.5</v>
+      </c>
+      <c r="K60" s="14">
+        <v>76.3985849056604</v>
+      </c>
+      <c r="L60" s="14">
+        <v>1.720200808</v>
+      </c>
+      <c r="M60" s="14">
+        <v>16.017084000000001</v>
+      </c>
+      <c r="N60" s="17">
+        <v>41.7</v>
+      </c>
+      <c r="O60">
+        <v>14.6</v>
+      </c>
+      <c r="P60">
+        <v>37.4</v>
+      </c>
+      <c r="Q60">
+        <v>9.1194968553459113</v>
+      </c>
+      <c r="R60">
+        <f>14-COUNT(D60:Q60)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:18">
+      <c r="A61" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="B61" s="9">
+        <v>5.8897590637207031</v>
+      </c>
+      <c r="C61" s="9">
+        <f>ROUND(B61,0)</f>
+        <v>6</v>
+      </c>
+      <c r="D61" s="9">
+        <v>70</v>
+      </c>
+      <c r="E61" s="7">
+        <v>16.8</v>
+      </c>
+      <c r="F61" s="10">
+        <v>17.98</v>
+      </c>
+      <c r="G61">
+        <v>3.44598668248031</v>
+      </c>
+      <c r="H61">
+        <v>23.3016076207638</v>
+      </c>
+      <c r="I61" s="4">
+        <v>13.6</v>
+      </c>
+      <c r="J61" s="6">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="K61" s="14">
+        <v>266.878947368421</v>
+      </c>
+      <c r="L61" s="14">
+        <v>2.3290716069999999</v>
+      </c>
+      <c r="M61" s="14">
+        <v>25.114878999999998</v>
+      </c>
+      <c r="N61" s="17">
+        <v>45.5</v>
+      </c>
+      <c r="O61">
+        <v>40.5</v>
+      </c>
+      <c r="P61">
+        <v>10.43</v>
+      </c>
+      <c r="Q61">
+        <v>11.080332409972298</v>
+      </c>
+      <c r="R61">
+        <f>14-COUNT(D61:Q61)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:18">
+      <c r="A62" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="B62" s="9">
+        <v>5.9106764793395996</v>
+      </c>
+      <c r="C62" s="9">
+        <f>ROUND(B62,0)</f>
+        <v>6</v>
+      </c>
+      <c r="D62" s="9">
+        <v>24</v>
+      </c>
+      <c r="E62" s="7">
+        <v>22.1</v>
+      </c>
+      <c r="F62" s="10">
+        <v>35.68</v>
+      </c>
+      <c r="G62">
+        <v>2.4216824108541299</v>
+      </c>
+      <c r="H62">
+        <v>32.376080408612999</v>
+      </c>
+      <c r="I62" s="4">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="J62" s="6">
+        <v>18.5</v>
+      </c>
+      <c r="K62" s="14">
+        <v>347.77758667983301</v>
+      </c>
+      <c r="L62" s="14">
+        <v>1.5638960449999999</v>
+      </c>
+      <c r="M62" s="14">
+        <v>30.777436000000002</v>
+      </c>
+      <c r="N62" s="17">
+        <v>32.1</v>
+      </c>
+      <c r="O62">
+        <v>90.58</v>
+      </c>
+      <c r="P62">
+        <v>15.6</v>
+      </c>
+      <c r="Q62">
+        <v>11.476848804037743</v>
+      </c>
+      <c r="R62">
+        <f>14-COUNT(D62:Q62)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:18">
+      <c r="A63" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="B63" s="9">
+        <v>4.8080825805664062</v>
+      </c>
+      <c r="C63" s="9">
+        <f>ROUND(B63,0)</f>
+        <v>5</v>
+      </c>
+      <c r="D63" s="9">
+        <v>96</v>
+      </c>
+      <c r="E63" s="7"/>
+      <c r="F63" s="10">
+        <v>31.93</v>
+      </c>
+      <c r="G63">
+        <v>5.0689345119236604</v>
+      </c>
+      <c r="H63">
+        <v>4.3504259659374496</v>
+      </c>
+      <c r="I63" s="4">
+        <v>24.4</v>
+      </c>
+      <c r="J63" s="6">
+        <v>2.9</v>
+      </c>
+      <c r="K63" s="14">
+        <v>109.285345798603</v>
+      </c>
+      <c r="L63" s="14">
+        <v>1.61326719</v>
+      </c>
+      <c r="M63" s="14">
+        <v>15.341718</v>
+      </c>
+      <c r="N63" s="17">
+        <v>35.4</v>
+      </c>
+      <c r="O63">
+        <v>44</v>
+      </c>
+      <c r="P63">
+        <v>23.71</v>
+      </c>
+      <c r="Q63">
+        <v>2.6724486878445144</v>
+      </c>
+      <c r="R63">
+        <f>14-COUNT(D63:Q63)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:18">
+      <c r="A64" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="B64" s="9">
+        <v>5.8823513984680176</v>
+      </c>
+      <c r="C64" s="9">
+        <f>ROUND(B64,0)</f>
+        <v>6</v>
+      </c>
+      <c r="D64" s="9">
+        <v>43</v>
+      </c>
+      <c r="E64" s="7">
+        <v>24</v>
+      </c>
+      <c r="F64" s="10">
+        <v>51.17</v>
+      </c>
+      <c r="G64">
+        <v>3.4966278887343298</v>
+      </c>
+      <c r="H64">
+        <v>14.5702439500892</v>
+      </c>
+      <c r="I64" s="4">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="J64" s="6">
+        <v>22.5</v>
+      </c>
+      <c r="K64" s="14">
+        <v>6.6813520020743002</v>
+      </c>
+      <c r="L64" s="14">
+        <v>3.3750323070000001</v>
+      </c>
+      <c r="M64" s="14">
+        <v>15.228497000000001</v>
+      </c>
+      <c r="N64" s="17">
+        <v>26.5</v>
+      </c>
+      <c r="O64">
+        <v>54.89</v>
+      </c>
+      <c r="P64">
+        <v>32.090000000000003</v>
+      </c>
+      <c r="Q64">
+        <v>10.888246842241731</v>
+      </c>
+      <c r="R64">
+        <f>14-COUNT(D64:Q64)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:18">
+      <c r="A65" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="B65" s="9">
+        <v>4.475654125213623</v>
+      </c>
+      <c r="C65" s="9">
+        <f>ROUND(B65,0)</f>
+        <v>4</v>
+      </c>
+      <c r="D65" s="9">
+        <v>94</v>
+      </c>
+      <c r="E65" s="7">
+        <v>10.7</v>
+      </c>
+      <c r="F65" s="10">
+        <v>1.28</v>
+      </c>
+      <c r="G65">
+        <v>3.6388238064867799</v>
+      </c>
+      <c r="H65">
+        <v>21.6013743112299</v>
+      </c>
+      <c r="I65" s="4">
+        <v>27.8</v>
+      </c>
+      <c r="J65" s="6">
+        <v>3.2</v>
+      </c>
+      <c r="K65" s="14">
+        <v>87.324493094844897</v>
+      </c>
+      <c r="L65" s="14">
+        <v>1.5311732680000001</v>
+      </c>
+      <c r="M65" s="14">
+        <v>15.800242000000001</v>
+      </c>
+      <c r="N65" s="17">
+        <v>47.7</v>
+      </c>
+      <c r="O65">
+        <v>43.4</v>
+      </c>
+      <c r="P65">
+        <v>11.93</v>
+      </c>
+      <c r="Q65">
+        <v>10.190814210914713</v>
+      </c>
+      <c r="R65">
+        <f>14-COUNT(D65:Q65)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:18">
+      <c r="A66" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="B66" s="9">
+        <v>4.6781597137451172</v>
+      </c>
+      <c r="C66" s="9">
+        <f>ROUND(B66,0)</f>
+        <v>5</v>
+      </c>
+      <c r="D66" s="9">
+        <v>98</v>
+      </c>
+      <c r="E66" s="7"/>
+      <c r="F66" s="10">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="I66" s="4">
+        <v>24.7</v>
+      </c>
+      <c r="J66" s="6">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="K66" s="14">
+        <v>4.2885262442999901</v>
+      </c>
+      <c r="L66" s="14">
+        <v>1.6035010940000001</v>
+      </c>
+      <c r="M66" s="14">
+        <v>16.519642999999999</v>
+      </c>
+      <c r="N66" s="17">
+        <v>32.4</v>
+      </c>
+      <c r="O66">
+        <v>10.7</v>
+      </c>
+      <c r="P66">
+        <v>48.86</v>
+      </c>
+      <c r="Q66">
+        <v>0.43659648782380905</v>
+      </c>
+      <c r="R66">
+        <f>14-COUNT(D66:Q66)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:18">
+      <c r="A67" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="B67" s="9">
+        <v>5.2291488647460938</v>
+      </c>
+      <c r="C67" s="9">
+        <f>ROUND(B67,0)</f>
+        <v>5</v>
+      </c>
+      <c r="D67" s="9">
+        <v>80</v>
+      </c>
+      <c r="E67" s="7"/>
+      <c r="F67" s="10">
+        <v>37.93</v>
+      </c>
+      <c r="I67" s="4">
+        <v>14.5</v>
+      </c>
+      <c r="J67" s="6">
+        <v>6.7</v>
+      </c>
+      <c r="K67" s="14">
+        <v>12.2530483263465</v>
+      </c>
+      <c r="L67" s="14">
+        <v>2.7327663169999998</v>
+      </c>
+      <c r="M67" s="14">
+        <v>20.373964000000001</v>
+      </c>
+      <c r="N67" s="17">
+        <v>43.2</v>
+      </c>
+      <c r="O67">
+        <v>12.2</v>
+      </c>
+      <c r="P67">
+        <v>30.72</v>
+      </c>
+      <c r="Q67">
+        <v>4.1282744238503613</v>
+      </c>
+      <c r="R67">
+        <f>14-COUNT(D67:Q67)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:18">
+      <c r="A68" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="B68" s="9">
+        <v>5.6295366287231445</v>
+      </c>
+      <c r="C68" s="9">
+        <f>ROUND(B68,0)</f>
+        <v>6</v>
+      </c>
+      <c r="D68" s="9">
+        <v>72</v>
+      </c>
+      <c r="E68" s="7">
+        <v>26.5</v>
+      </c>
+      <c r="F68" s="10">
+        <v>42.87</v>
+      </c>
+      <c r="G68">
+        <v>4.2144782030305201</v>
+      </c>
+      <c r="H68">
+        <v>8.20524896027338</v>
+      </c>
+      <c r="I68" s="4">
+        <v>15.4</v>
+      </c>
+      <c r="J68" s="6">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="K68" s="14">
+        <v>32.333159541188699</v>
+      </c>
+      <c r="L68" s="14">
+        <v>3.336949615</v>
+      </c>
+      <c r="M68" s="14">
+        <v>25.102250000000002</v>
+      </c>
+      <c r="N68" s="17">
+        <v>26.8</v>
+      </c>
+      <c r="O68">
+        <v>28.3</v>
+      </c>
+      <c r="P68">
+        <v>16.59</v>
+      </c>
+      <c r="Q68">
+        <v>6.7153284671532854</v>
+      </c>
+      <c r="R68">
+        <f>14-COUNT(D68:Q68)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:18">
+      <c r="A69" s="8" t="s">
+        <v>137</v>
+      </c>
+      <c r="B69" s="9">
+        <v>7.0394196510314941</v>
+      </c>
+      <c r="C69" s="9">
+        <f>ROUND(B69,0)</f>
+        <v>7</v>
+      </c>
+      <c r="D69" s="9">
+        <v>91</v>
+      </c>
+      <c r="E69" s="7">
+        <v>28.9</v>
+      </c>
+      <c r="F69" s="10">
+        <v>24.47</v>
+      </c>
+      <c r="I69" s="4">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="J69" s="6">
+        <v>2.8</v>
+      </c>
+      <c r="K69" s="14">
+        <v>112.44192583732099</v>
+      </c>
+      <c r="L69" s="14">
+        <v>1.751084868</v>
+      </c>
+      <c r="M69" s="14">
+        <v>9.2430889999999994</v>
+      </c>
+      <c r="N69" s="17"/>
+      <c r="O69">
+        <v>90.4</v>
+      </c>
+      <c r="P69">
+        <v>89.87</v>
+      </c>
+      <c r="Q69">
+        <v>0.62658406082793583</v>
+      </c>
+      <c r="R69">
+        <f>14-COUNT(D69:Q69)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:18">
+      <c r="A70" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="B70" s="9">
+        <v>5.9778175354003906</v>
+      </c>
+      <c r="C70" s="9">
+        <f>ROUND(B70,0)</f>
+        <v>6</v>
+      </c>
+      <c r="D70" s="9">
+        <v>39</v>
+      </c>
+      <c r="E70" s="7">
+        <v>37</v>
+      </c>
+      <c r="F70" s="10">
+        <v>56.93</v>
+      </c>
+      <c r="G70">
+        <v>2.37726020355352</v>
+      </c>
+      <c r="H70">
+        <v>34.4151063649146</v>
+      </c>
+      <c r="I70" s="4">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="J70" s="6">
+        <v>21.2</v>
+      </c>
+      <c r="K70" s="14">
+        <v>31.2116436153104</v>
+      </c>
+      <c r="L70" s="14">
+        <v>4.7946621010000001</v>
+      </c>
+      <c r="M70" s="14">
+        <v>30.234611000000001</v>
+      </c>
+      <c r="N70" s="17">
+        <v>35.1</v>
+      </c>
+      <c r="O70">
+        <v>75.83</v>
+      </c>
+      <c r="P70">
+        <v>45.97</v>
+      </c>
+      <c r="Q70">
+        <v>20.714055966548731</v>
+      </c>
+      <c r="R70">
+        <f>14-COUNT(D70:Q70)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:18">
+      <c r="A71" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B71" s="9">
+        <v>5.2489123344421387</v>
+      </c>
+      <c r="C71" s="9">
+        <f>ROUND(B71,0)</f>
+        <v>5</v>
+      </c>
+      <c r="D71" s="9">
+        <v>95</v>
+      </c>
+      <c r="E71" s="7">
+        <v>15.6</v>
+      </c>
+      <c r="F71" s="10">
+        <v>36.770000000000003</v>
+      </c>
+      <c r="I71" s="3">
+        <v>23.6</v>
+      </c>
+      <c r="J71" s="6">
+        <v>3.2</v>
+      </c>
+      <c r="K71" s="14">
+        <v>17.347873677280599</v>
+      </c>
+      <c r="L71" s="14">
+        <v>1.485914602</v>
+      </c>
+      <c r="M71" s="14">
+        <v>14.162544</v>
+      </c>
+      <c r="N71" s="17">
+        <v>27.6</v>
+      </c>
+      <c r="O71">
+        <v>18.09</v>
+      </c>
+      <c r="P71">
+        <v>29.5</v>
+      </c>
+      <c r="Q71">
+        <v>3.1087357122576353</v>
+      </c>
+      <c r="R71">
+        <f>14-COUNT(D71:Q71)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:18">
+      <c r="A72" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="B72" s="9">
+        <v>3.7953007221221924</v>
+      </c>
+      <c r="C72" s="9">
+        <f>ROUND(B72,0)</f>
+        <v>4</v>
+      </c>
+      <c r="E72" s="7">
+        <v>26.7</v>
+      </c>
+      <c r="F72" s="10">
+        <v>29.3</v>
+      </c>
+      <c r="G72">
+        <v>3.34493465723311</v>
+      </c>
+      <c r="H72">
+        <v>20.6634232854394</v>
+      </c>
+      <c r="I72" s="4">
+        <v>28.9</v>
+      </c>
+      <c r="J72" s="6">
+        <v>21.2</v>
+      </c>
+      <c r="K72" s="14">
+        <v>73.561890645586303</v>
+      </c>
+      <c r="L72" s="14">
+        <v>2.270169144</v>
+      </c>
+      <c r="M72" s="14">
+        <v>26.536635</v>
+      </c>
+      <c r="N72" s="17">
+        <v>54.2</v>
+      </c>
+      <c r="O72">
+        <v>11</v>
+      </c>
+      <c r="P72">
+        <v>42.4</v>
+      </c>
+      <c r="Q72">
+        <v>11.594202898550725</v>
+      </c>
+      <c r="R72">
+        <f>14-COUNT(D72:Q72)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:18">
+      <c r="A73" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="B73" s="9">
+        <v>4.4244909286499023</v>
+      </c>
+      <c r="C73" s="9">
+        <f>ROUND(B73,0)</f>
+        <v>4</v>
+      </c>
+      <c r="D73" s="9">
+        <v>94</v>
+      </c>
+      <c r="E73" s="7">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="F73" s="10">
+        <v>6.3</v>
+      </c>
+      <c r="G73">
+        <v>4.94573145418242</v>
+      </c>
+      <c r="H73">
+        <v>9.6654283116666395</v>
+      </c>
+      <c r="I73" s="4">
+        <v>35.9</v>
+      </c>
+      <c r="J73" s="6">
+        <v>6.8</v>
+      </c>
+      <c r="K73" s="14">
+        <v>49.126931063122903</v>
+      </c>
+      <c r="L73" s="14">
+        <v>1.612780331</v>
+      </c>
+      <c r="M73" s="14"/>
+      <c r="N73" s="17">
+        <v>33.200000000000003</v>
+      </c>
+      <c r="O73">
+        <v>5.41</v>
+      </c>
+      <c r="P73">
+        <v>48.32</v>
+      </c>
+      <c r="Q73">
+        <v>5.191029900332226</v>
+      </c>
+      <c r="R73">
+        <f>14-COUNT(D73:Q73)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:18">
+      <c r="A74" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B74" s="9">
+        <v>5.089902400970459</v>
+      </c>
+      <c r="C74" s="9">
+        <f>ROUND(B74,0)</f>
+        <v>5</v>
+      </c>
+      <c r="D74" s="9">
+        <v>77</v>
+      </c>
+      <c r="E74" s="7">
+        <v>38.9</v>
+      </c>
+      <c r="F74" s="10">
+        <v>43.87</v>
+      </c>
+      <c r="I74" s="3">
+        <v>15.7</v>
+      </c>
+      <c r="J74" s="6">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="K74" s="14">
+        <v>68.496425781249997</v>
+      </c>
+      <c r="L74" s="14">
+        <v>3.526306038</v>
+      </c>
+      <c r="M74" s="14">
+        <v>37.572918999999999</v>
+      </c>
+      <c r="N74" s="17">
+        <v>33.1</v>
+      </c>
+      <c r="O74">
+        <v>60.8</v>
+      </c>
+      <c r="P74">
+        <v>31.81</v>
+      </c>
+      <c r="Q74">
+        <v>20.0390625</v>
+      </c>
+      <c r="R74">
+        <f>14-COUNT(D74:Q74)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:18">
+      <c r="A75" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="B75" s="9">
+        <v>6.2729406356811523</v>
+      </c>
+      <c r="C75" s="9">
+        <f>ROUND(B75,0)</f>
+        <v>6</v>
+      </c>
+      <c r="D75" s="9">
+        <v>42</v>
+      </c>
+      <c r="E75" s="7">
+        <v>28.8</v>
+      </c>
+      <c r="F75" s="10">
+        <v>54.68</v>
+      </c>
+      <c r="G75">
+        <v>2.3825265363966102</v>
+      </c>
+      <c r="H75">
+        <v>31.673394796562199</v>
+      </c>
+      <c r="I75" s="4">
+        <v>8</v>
+      </c>
+      <c r="J75" s="6">
+        <v>31.9</v>
+      </c>
+      <c r="K75" s="14">
+        <v>45.1352114924182</v>
+      </c>
+      <c r="L75" s="14">
+        <v>4.5945722770000001</v>
+      </c>
+      <c r="M75" s="14">
+        <v>29.684875000000002</v>
+      </c>
+      <c r="N75" s="17">
+        <v>37.700000000000003</v>
+      </c>
+      <c r="O75">
+        <v>72.13</v>
+      </c>
+      <c r="P75">
+        <v>66.94</v>
+      </c>
+      <c r="Q75">
+        <v>34.203889257236021</v>
+      </c>
+      <c r="R75">
+        <f>14-COUNT(D75:Q75)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:18">
+      <c r="A76" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="B76" s="9">
+        <v>7.0613808631896973</v>
+      </c>
+      <c r="C76" s="9">
+        <f>ROUND(B76,0)</f>
+        <v>7</v>
+      </c>
+      <c r="D76" s="9">
+        <v>39</v>
+      </c>
+      <c r="E76" s="7">
+        <v>23.5</v>
+      </c>
+      <c r="F76" s="10">
+        <v>49.6</v>
+      </c>
+      <c r="G76">
+        <v>2.4130606765276998</v>
+      </c>
+      <c r="H76">
+        <v>33.336849423441102</v>
+      </c>
+      <c r="I76" s="4">
+        <v>6.3</v>
+      </c>
+      <c r="J76" s="6">
+        <v>13.5</v>
+      </c>
+      <c r="K76" s="14">
+        <v>231.44749034749</v>
+      </c>
+      <c r="L76" s="14">
+        <v>2.3455869890000001</v>
+      </c>
+      <c r="M76" s="14">
+        <v>37.932749000000001</v>
+      </c>
+      <c r="N76" s="17">
+        <v>31.2</v>
+      </c>
+      <c r="O76">
+        <v>94.67</v>
+      </c>
+      <c r="P76">
+        <v>42.35</v>
+      </c>
+      <c r="Q76">
+        <v>25.456790374630287</v>
+      </c>
+      <c r="R76">
+        <f>14-COUNT(D76:Q76)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:18">
+      <c r="A77" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B77" s="9">
+        <v>4.7823829650878906</v>
+      </c>
+      <c r="C77" s="9">
+        <f>ROUND(B77,0)</f>
+        <v>5</v>
+      </c>
+      <c r="E77" s="7"/>
+      <c r="F77" s="10">
+        <v>0.38</v>
+      </c>
+      <c r="G77">
+        <v>4.0975978134522197</v>
+      </c>
+      <c r="H77">
+        <v>22.422013555968</v>
+      </c>
+      <c r="I77" s="4">
+        <v>23.2</v>
+      </c>
+      <c r="J77" s="6">
+        <v>7.1</v>
+      </c>
+      <c r="K77" s="14">
+        <v>7.8594209647999396</v>
+      </c>
+      <c r="L77" s="14">
+        <v>2.0146800420000002</v>
+      </c>
+      <c r="M77" s="14">
+        <v>20.494221</v>
+      </c>
+      <c r="N77" s="17">
+        <v>38</v>
+      </c>
+      <c r="O77">
+        <v>9.81</v>
+      </c>
+      <c r="P77">
+        <v>51.19</v>
+      </c>
+      <c r="Q77">
+        <v>1.2613032172934373</v>
+      </c>
+      <c r="R77">
+        <f>14-COUNT(D77:Q77)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:18">
+      <c r="A78" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="B78" s="9">
+        <v>4.078620433807373</v>
+      </c>
+      <c r="C78" s="9">
+        <f>ROUND(B78,0)</f>
+        <v>4</v>
+      </c>
+      <c r="D78" s="9">
+        <v>93</v>
+      </c>
+      <c r="E78" s="7"/>
+      <c r="F78" s="10">
+        <v>18.93</v>
+      </c>
+      <c r="G78">
+        <v>4.9492635062293804</v>
+      </c>
+      <c r="H78">
+        <v>5.3385004015964901</v>
+      </c>
+      <c r="I78" s="4">
+        <v>28.6</v>
+      </c>
+      <c r="J78" s="6">
+        <v>3.9</v>
+      </c>
+      <c r="K78" s="14">
+        <v>43.951349260914398</v>
+      </c>
+      <c r="L78" s="14">
+        <v>1.9295615370000001</v>
+      </c>
+      <c r="M78" s="14">
+        <v>10.999344000000001</v>
+      </c>
+      <c r="N78" s="17">
+        <v>40.6</v>
+      </c>
+      <c r="O78">
+        <v>3.7</v>
+      </c>
+      <c r="P78">
+        <v>20.59</v>
+      </c>
+      <c r="Q78">
+        <v>16.494845360824741</v>
+      </c>
+      <c r="R78">
+        <f>14-COUNT(D78:Q78)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:18">
+      <c r="A79" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="B79" s="9">
+        <v>3.416862964630127</v>
+      </c>
+      <c r="C79" s="9">
+        <f>ROUND(B79,0)</f>
+        <v>3</v>
+      </c>
+      <c r="D79" s="9">
+        <v>99</v>
+      </c>
+      <c r="E79" s="7">
+        <v>14.5</v>
+      </c>
+      <c r="F79" s="10">
+        <v>13.98</v>
+      </c>
+      <c r="G79">
+        <v>4.5089180901256203</v>
+      </c>
+      <c r="H79">
+        <v>6.4466569309838304</v>
+      </c>
+      <c r="I79" s="4">
+        <v>31</v>
+      </c>
+      <c r="J79" s="6">
+        <v>3.7</v>
+      </c>
+      <c r="K79" s="14">
+        <v>197.519134493</v>
+      </c>
+      <c r="L79" s="14">
+        <v>2.0067722699999999</v>
+      </c>
+      <c r="M79" s="14">
+        <v>15.323005</v>
+      </c>
+      <c r="N79" s="17">
+        <v>46.1</v>
+      </c>
+      <c r="O79">
+        <v>5.83</v>
+      </c>
+      <c r="P79">
+        <v>18.329999999999998</v>
+      </c>
+      <c r="Q79">
+        <v>40.305473058973277</v>
+      </c>
+      <c r="R79">
+        <f>14-COUNT(D79:Q79)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:18">
+      <c r="A80" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="B80" s="9">
+        <v>4.7418503761291504</v>
+      </c>
+      <c r="C80" s="9">
+        <f>ROUND(B80,0)</f>
+        <v>5</v>
+      </c>
+      <c r="D80" s="9">
+        <v>95</v>
+      </c>
+      <c r="E80" s="7">
+        <v>12.3</v>
+      </c>
+      <c r="F80" s="10">
+        <v>12.65</v>
+      </c>
+      <c r="G80">
+        <v>5.6685934691248399</v>
+      </c>
+      <c r="H80">
+        <v>3.2060615438680098</v>
+      </c>
+      <c r="I80" s="4">
+        <v>23.1</v>
+      </c>
+      <c r="J80" s="6">
+        <v>4.8</v>
+      </c>
+      <c r="K80" s="14">
+        <v>15.195977675607899</v>
+      </c>
+      <c r="L80" s="14">
+        <v>1.5667934619999999</v>
+      </c>
+      <c r="M80" s="14">
+        <v>14.916247</v>
+      </c>
+      <c r="N80" s="17">
+        <v>33</v>
+      </c>
+      <c r="O80">
+        <v>7</v>
+      </c>
+      <c r="P80">
+        <v>14.6</v>
+      </c>
+      <c r="Q80">
+        <v>5.2540997713470849</v>
+      </c>
+      <c r="R80">
+        <f>14-COUNT(D80:Q80)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:18">
+      <c r="A81" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="B81" s="9">
+        <v>6.6756658554077148</v>
+      </c>
+      <c r="C81" s="9">
+        <f>ROUND(B81,0)</f>
+        <v>7</v>
+      </c>
+      <c r="D81" s="9">
+        <v>86</v>
+      </c>
+      <c r="E81" s="7">
+        <v>25.5</v>
+      </c>
+      <c r="F81" s="10">
+        <v>35.880000000000003</v>
+      </c>
+      <c r="G81">
+        <v>2.6721554733360402</v>
+      </c>
+      <c r="H81">
+        <v>22.640510400188301</v>
+      </c>
+      <c r="I81" s="4">
+        <v>6.1</v>
+      </c>
+      <c r="J81" s="6">
+        <v>7.5</v>
+      </c>
+      <c r="K81" s="14">
+        <v>1454.0374999999999</v>
+      </c>
+      <c r="L81" s="14">
+        <v>1.9806688539999999</v>
+      </c>
+      <c r="M81" s="14">
+        <v>31.893222000000002</v>
+      </c>
+      <c r="N81" s="17"/>
+      <c r="O81">
+        <v>73.17</v>
+      </c>
+      <c r="P81">
+        <v>66.489999999999995</v>
+      </c>
+      <c r="Q81">
+        <v>28.343749046325691</v>
+      </c>
+      <c r="R81">
+        <f>14-COUNT(D81:Q81)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:18">
+      <c r="A82" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="B82" s="9">
+        <v>4.623140811920166</v>
+      </c>
+      <c r="C82" s="9">
+        <f>ROUND(B82,0)</f>
+        <v>5</v>
+      </c>
+      <c r="D82" s="9">
+        <v>97</v>
+      </c>
+      <c r="E82" s="7">
+        <v>28.9</v>
+      </c>
+      <c r="F82" s="10">
+        <v>17.97</v>
+      </c>
+      <c r="I82" s="4">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="J82" s="6">
+        <v>8.6</v>
+      </c>
+      <c r="K82" s="14">
+        <v>29.714731369150801</v>
+      </c>
+      <c r="L82" s="14">
+        <v>1.6259996080000001</v>
+      </c>
+      <c r="M82" s="14">
+        <v>12.428921000000001</v>
+      </c>
+      <c r="N82" s="17">
+        <v>37.9</v>
+      </c>
+      <c r="O82">
+        <v>14.26</v>
+      </c>
+      <c r="P82">
+        <v>40</v>
+      </c>
+      <c r="Q82">
+        <v>6.6074523396880416</v>
+      </c>
+      <c r="R82">
+        <f>14-COUNT(D82:Q82)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:18">
+      <c r="A83" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="B83" s="9">
+        <v>6.1741175651550293</v>
+      </c>
+      <c r="C83" s="9">
+        <f>ROUND(B83,0)</f>
+        <v>6</v>
+      </c>
+      <c r="E83" s="7">
+        <v>21.6</v>
+      </c>
+      <c r="F83" s="10">
+        <v>20.149999999999999</v>
+      </c>
+      <c r="G83">
+        <v>3.47529761733847</v>
+      </c>
+      <c r="H83">
+        <v>9.9748468124938992</v>
+      </c>
+      <c r="I83" s="4">
+        <v>13.7</v>
+      </c>
+      <c r="J83" s="6">
+        <v>7.8</v>
+      </c>
+      <c r="K83" s="14">
+        <v>622.96206896551701</v>
+      </c>
+      <c r="L83" s="14">
+        <v>1.831791645</v>
+      </c>
+      <c r="M83" s="14">
+        <v>18.213287999999999</v>
+      </c>
+      <c r="N83" s="17">
+        <v>35.799999999999997</v>
+      </c>
+      <c r="O83">
+        <v>41.44</v>
+      </c>
+      <c r="P83">
+        <v>22.48</v>
+      </c>
+      <c r="Q83">
+        <v>36.945812807881772</v>
+      </c>
+      <c r="R83">
+        <f>14-COUNT(D83:Q83)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:18">
+      <c r="A84" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="B84" s="9">
+        <v>6.4102993011474609</v>
+      </c>
+      <c r="C84" s="9">
+        <f>ROUND(B84,0)</f>
+        <v>6</v>
+      </c>
+      <c r="D84" s="9">
+        <v>73</v>
+      </c>
+      <c r="E84" s="7">
+        <v>14</v>
+      </c>
+      <c r="F84" s="10">
+        <v>19.43</v>
+      </c>
+      <c r="G84">
+        <v>3.7401749708323599</v>
+      </c>
+      <c r="H84">
+        <v>10.080217905205</v>
+      </c>
+      <c r="I84" s="4">
+        <v>13.1</v>
+      </c>
+      <c r="J84" s="6">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="K84" s="14">
+        <v>66.443723346793902</v>
+      </c>
+      <c r="L84" s="14">
+        <v>2.1725092840000002</v>
+      </c>
+      <c r="M84" s="14">
+        <v>13.701247</v>
+      </c>
+      <c r="N84" s="17">
+        <v>43.4</v>
+      </c>
+      <c r="O84">
+        <v>44.39</v>
+      </c>
+      <c r="P84">
+        <v>31.54</v>
+      </c>
+      <c r="Q84">
+        <v>11.606265593250855</v>
+      </c>
+      <c r="R84">
+        <f>14-COUNT(D84:Q84)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:18">
+      <c r="A85" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="B85" s="9">
+        <v>5.3255305290222168</v>
+      </c>
+      <c r="C85" s="9">
+        <f>ROUND(B85,0)</f>
+        <v>5</v>
+      </c>
+      <c r="D85" s="9">
+        <v>72</v>
+      </c>
+      <c r="E85" s="7">
+        <v>24.2</v>
+      </c>
+      <c r="F85" s="10">
+        <v>47</v>
+      </c>
+      <c r="G85">
+        <v>2.8199115948819702</v>
+      </c>
+      <c r="H85">
+        <v>20.026377959564002</v>
+      </c>
+      <c r="I85" s="4">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="J85" s="6">
+        <v>15.9</v>
+      </c>
+      <c r="K85" s="14">
+        <v>123.654509353119</v>
+      </c>
+      <c r="L85" s="14">
+        <v>4.3550731010000003</v>
+      </c>
+      <c r="M85" s="14">
+        <v>26.432732999999999</v>
+      </c>
+      <c r="N85" s="17">
+        <v>26.3</v>
+      </c>
+      <c r="O85">
+        <v>46.6</v>
+      </c>
+      <c r="P85">
+        <v>33.090000000000003</v>
+      </c>
+      <c r="Q85">
+        <v>55.557921825117958</v>
+      </c>
+      <c r="R85">
+        <f>14-COUNT(D85:Q85)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:18">
+      <c r="A86" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="B86" s="9">
+        <v>5.3338503837585449</v>
+      </c>
+      <c r="C86" s="9">
+        <f>ROUND(B86,0)</f>
+        <v>5</v>
+      </c>
+      <c r="E86" s="7">
+        <v>25.6</v>
+      </c>
+      <c r="F86" s="10">
+        <v>47.92</v>
+      </c>
+      <c r="G86">
+        <v>4.32143522139053</v>
+      </c>
+      <c r="H86">
+        <v>6.6063382117454301</v>
+      </c>
+      <c r="I86" s="4">
+        <v>16.5</v>
+      </c>
+      <c r="J86" s="6">
+        <v>13</v>
+      </c>
+      <c r="K86" s="14">
+        <v>1.9797413682123599</v>
+      </c>
+      <c r="L86" s="14">
+        <v>4.1221787049999996</v>
+      </c>
+      <c r="M86" s="14">
+        <v>20.360968</v>
+      </c>
+      <c r="N86" s="17">
+        <v>32.299999999999997</v>
+      </c>
+      <c r="O86">
+        <v>27</v>
+      </c>
+      <c r="P86">
+        <v>43.44</v>
+      </c>
+      <c r="Q86">
+        <v>0.36509694650160346</v>
+      </c>
+      <c r="R86">
+        <f>14-COUNT(D86:Q86)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:18">
+      <c r="A87" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="B87" s="9">
+        <v>5.6147985458374023</v>
+      </c>
+      <c r="C87" s="9">
+        <f>ROUND(B87,0)</f>
+        <v>6</v>
+      </c>
+      <c r="D87" s="9">
+        <v>71</v>
+      </c>
+      <c r="E87" s="7">
+        <v>45.9</v>
+      </c>
+      <c r="F87" s="10">
+        <v>42.43</v>
+      </c>
+      <c r="G87">
+        <v>3.2140115063305599</v>
+      </c>
+      <c r="H87">
+        <v>18.1266320575108</v>
+      </c>
+      <c r="I87" s="4">
+        <v>10.7</v>
+      </c>
+      <c r="J87" s="6">
+        <v>10.3</v>
+      </c>
+      <c r="K87" s="14">
+        <v>46.280371747211902</v>
+      </c>
+      <c r="L87" s="14">
+        <v>2.471931482</v>
+      </c>
+      <c r="M87" s="14">
+        <v>36.090035</v>
+      </c>
+      <c r="N87" s="17">
+        <v>31.9</v>
+      </c>
+      <c r="O87">
+        <v>61</v>
+      </c>
+      <c r="P87">
+        <v>9.36</v>
+      </c>
+      <c r="Q87">
+        <v>0.66914498141263945</v>
+      </c>
+      <c r="R87">
+        <f>14-COUNT(D87:Q87)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:18">
+      <c r="A88" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="B88" s="9">
+        <v>5.3124828338623047</v>
+      </c>
+      <c r="C88" s="9">
+        <f>ROUND(B88,0)</f>
+        <v>5</v>
+      </c>
+      <c r="D88" s="9">
+        <v>97</v>
+      </c>
+      <c r="E88" s="7">
+        <v>23.4</v>
+      </c>
+      <c r="F88" s="10">
+        <v>34.03</v>
+      </c>
+      <c r="G88">
+        <v>5.2361663882698997</v>
+      </c>
+      <c r="H88">
+        <v>5.8802340651695602</v>
+      </c>
+      <c r="I88" s="4">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="J88" s="6">
+        <v>2.9</v>
+      </c>
+      <c r="K88" s="14">
+        <v>80.079722159982097</v>
+      </c>
+      <c r="L88" s="14">
+        <v>1.3015604540000001</v>
+      </c>
+      <c r="M88" s="14">
+        <v>21.448879999999999</v>
+      </c>
+      <c r="N88" s="17">
+        <v>40.700000000000003</v>
+      </c>
+      <c r="O88">
+        <v>56.8</v>
+      </c>
+      <c r="P88">
+        <v>22.71</v>
+      </c>
+      <c r="Q88">
+        <v>18.216446336544927</v>
+      </c>
+      <c r="R88">
+        <f>14-COUNT(D88:Q88)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:18">
+      <c r="A89" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="B89" s="9">
+        <v>4.2798633575439453</v>
+      </c>
+      <c r="C89" s="9">
+        <f>ROUND(B89,0)</f>
+        <v>4</v>
+      </c>
+      <c r="D89" s="9">
+        <v>86</v>
+      </c>
+      <c r="E89" s="7">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="F89" s="10">
+        <v>25.97</v>
+      </c>
+      <c r="G89">
+        <v>4.3663628454440397</v>
+      </c>
+      <c r="H89">
+        <v>9.84770069541133</v>
+      </c>
+      <c r="I89" s="4">
+        <v>30.1</v>
+      </c>
+      <c r="J89" s="6">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="K89" s="14">
+        <v>37.728367964597297</v>
+      </c>
+      <c r="L89" s="14">
+        <v>1.960396129</v>
+      </c>
+      <c r="M89" s="14">
+        <v>20.156713</v>
+      </c>
+      <c r="N89" s="17">
+        <v>45.6</v>
+      </c>
+      <c r="O89">
+        <v>5.94</v>
+      </c>
+      <c r="P89">
+        <v>33.17</v>
+      </c>
+      <c r="Q89">
+        <v>7.184821587527658</v>
+      </c>
+      <c r="R89">
+        <f>14-COUNT(D89:Q89)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:18">
+      <c r="A90" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="B90" s="9">
+        <v>4.1543416976928711</v>
+      </c>
+      <c r="C90" s="9">
+        <f>ROUND(B90,0)</f>
+        <v>4</v>
+      </c>
+      <c r="D90" s="9">
+        <v>97</v>
+      </c>
+      <c r="E90" s="7">
+        <v>20.3</v>
+      </c>
+      <c r="F90" s="10">
+        <v>19.75</v>
+      </c>
+      <c r="G90">
+        <v>4.2237942680967704</v>
+      </c>
+      <c r="H90">
+        <v>5.3544983965731197</v>
+      </c>
+      <c r="I90" s="5">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="J90" s="6">
+        <v>7.8</v>
+      </c>
+      <c r="K90" s="14">
+        <v>81.721395541128203</v>
+      </c>
+      <c r="L90" s="14">
+        <v>1.503220129</v>
+      </c>
+      <c r="M90" s="14">
+        <v>8.3322769999999995</v>
+      </c>
+      <c r="N90" s="17">
+        <v>38.1</v>
+      </c>
+      <c r="O90">
+        <v>2.1</v>
+      </c>
+      <c r="P90">
+        <v>37.46</v>
+      </c>
+      <c r="Q90">
+        <v>16.702394806149321</v>
+      </c>
+      <c r="R90">
+        <f>14-COUNT(D90:Q90)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:18">
+      <c r="A91" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="B91" s="9">
+        <v>4.4413061141967773</v>
+      </c>
+      <c r="C91" s="9">
+        <f>ROUND(B91,0)</f>
+        <v>4</v>
+      </c>
+      <c r="D91" s="9">
+        <v>92</v>
+      </c>
+      <c r="E91" s="7">
+        <v>21.4</v>
+      </c>
+      <c r="F91" s="10">
+        <v>22.57</v>
+      </c>
+      <c r="G91">
+        <v>4.2382239682248004</v>
+      </c>
+      <c r="H91">
+        <v>17.446370434939599</v>
+      </c>
+      <c r="I91" s="4">
+        <v>30.4</v>
+      </c>
+      <c r="J91" s="6">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="K91" s="14">
+        <v>3.0776445723863999</v>
+      </c>
+      <c r="L91" s="14">
+        <v>2.2975601029999999</v>
+      </c>
+      <c r="M91" s="14">
+        <v>28.710813000000002</v>
+      </c>
+      <c r="N91" s="17">
+        <v>59.1</v>
+      </c>
+      <c r="O91">
+        <v>14.84</v>
+      </c>
+      <c r="P91">
+        <v>37.090000000000003</v>
+      </c>
+      <c r="Q91">
+        <v>0.97171106171579891</v>
+      </c>
+      <c r="R91">
+        <f>14-COUNT(D91:Q91)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:18">
+      <c r="A92" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="B92" s="9">
+        <v>4.7366924285888672</v>
+      </c>
+      <c r="C92" s="9">
+        <f>ROUND(B92,0)</f>
+        <v>5</v>
+      </c>
+      <c r="D92" s="9">
+        <v>93</v>
+      </c>
+      <c r="E92" s="7">
+        <v>22.8</v>
+      </c>
+      <c r="F92" s="10">
+        <v>27.7</v>
+      </c>
+      <c r="G92">
+        <v>4.2393644425714196</v>
+      </c>
+      <c r="H92">
+        <v>6.4479717392958404</v>
+      </c>
+      <c r="I92" s="4">
+        <v>15.9</v>
+      </c>
+      <c r="J92" s="6">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="K92" s="14">
+        <v>204.42970352284601</v>
+      </c>
+      <c r="L92" s="14">
+        <v>2.0671706080000001</v>
+      </c>
+      <c r="M92" s="14">
+        <v>18.687477999999999</v>
+      </c>
+      <c r="N92" s="17">
+        <v>32.799999999999997</v>
+      </c>
+      <c r="O92">
+        <v>15.44</v>
+      </c>
+      <c r="P92">
+        <v>4.93</v>
+      </c>
+      <c r="Q92">
+        <v>14.745029307093688</v>
+      </c>
+      <c r="R92">
+        <f>14-COUNT(D92:Q92)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:18">
+      <c r="A93" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="B93" s="9">
+        <v>7.4589653015136719</v>
+      </c>
+      <c r="C93" s="9">
+        <f>ROUND(B93,0)</f>
+        <v>7</v>
+      </c>
+      <c r="D93" s="9">
+        <v>33</v>
+      </c>
+      <c r="E93" s="7">
+        <v>25.8</v>
+      </c>
+      <c r="F93" s="10">
+        <v>52.37</v>
+      </c>
+      <c r="G93">
+        <v>2.2263915622436099</v>
+      </c>
+      <c r="H93">
+        <v>35.107265135106601</v>
+      </c>
+      <c r="I93" s="4">
+        <v>3.8</v>
+      </c>
+      <c r="J93" s="6">
+        <v>12.6</v>
+      </c>
+      <c r="K93" s="14">
+        <v>508.544197091125</v>
+      </c>
+      <c r="L93" s="14">
+        <v>1.8695020659999999</v>
+      </c>
+      <c r="M93" s="14">
+        <v>38.400931</v>
+      </c>
+      <c r="N93" s="17">
+        <v>28.6</v>
+      </c>
+      <c r="O93">
+        <v>93.17</v>
+      </c>
+      <c r="P93">
+        <v>74.739999999999995</v>
+      </c>
+      <c r="Q93">
+        <v>30.513505491243691</v>
+      </c>
+      <c r="R93">
+        <f>14-COUNT(D93:Q93)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:18">
+      <c r="A94" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="B94" s="9">
+        <v>7.3271827697753906</v>
+      </c>
+      <c r="C94" s="9">
+        <f>ROUND(B94,0)</f>
+        <v>7</v>
+      </c>
+      <c r="D94" s="9">
+        <v>33</v>
+      </c>
+      <c r="E94" s="7">
+        <v>16</v>
+      </c>
+      <c r="F94" s="10">
+        <v>41.28</v>
+      </c>
+      <c r="G94">
+        <v>2.6979730347539101</v>
+      </c>
+      <c r="H94">
+        <v>22.4443696333425</v>
+      </c>
+      <c r="I94" s="4">
+        <v>7.8</v>
+      </c>
+      <c r="J94" s="6">
+        <v>12.1</v>
+      </c>
+      <c r="K94" s="14">
+        <v>18.206296760472402</v>
+      </c>
+      <c r="L94" s="14">
+        <v>3.7186145019999999</v>
+      </c>
+      <c r="M94" s="14">
+        <v>32.613869999999999</v>
+      </c>
+      <c r="N94" s="17"/>
+      <c r="O94">
+        <v>85.5</v>
+      </c>
+      <c r="P94">
+        <v>21.54</v>
+      </c>
+      <c r="Q94">
+        <v>2.1647487752079297</v>
+      </c>
+      <c r="R94">
+        <f>14-COUNT(D94:Q94)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="1:18">
+      <c r="A95" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="B95" s="9">
+        <v>6.4763565063476562</v>
+      </c>
+      <c r="C95" s="9">
+        <f>ROUND(B95,0)</f>
+        <v>6</v>
+      </c>
+      <c r="D95" s="9">
+        <v>84</v>
+      </c>
+      <c r="E95" s="7"/>
+      <c r="F95" s="10">
+        <v>12.13</v>
+      </c>
+      <c r="G95">
+        <v>4.9198766448943596</v>
+      </c>
+      <c r="H95">
+        <v>4.58559197042542</v>
+      </c>
+      <c r="I95" s="4"/>
+      <c r="J95" s="6">
+        <v>12.2</v>
+      </c>
+      <c r="K95" s="14">
+        <v>51.666785773641401</v>
+      </c>
+      <c r="L95" s="14">
+        <v>2.3588229690000002</v>
+      </c>
+      <c r="M95" s="14">
+        <v>23.448450000000001</v>
+      </c>
+      <c r="N95" s="17">
+        <v>46.6</v>
+      </c>
+      <c r="O95">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="P95">
+        <v>48.12</v>
+      </c>
+      <c r="Q95">
+        <v>12.497922552767161</v>
+      </c>
+      <c r="R95">
+        <f>14-COUNT(D95:Q95)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:18">
+      <c r="A96" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="B96" s="9">
+        <v>4.6156735420227051</v>
+      </c>
+      <c r="C96" s="9">
+        <f>ROUND(B96,0)</f>
+        <v>5</v>
+      </c>
+      <c r="D96" s="9">
+        <v>100</v>
+      </c>
+      <c r="E96" s="7">
+        <v>7.7</v>
+      </c>
+      <c r="F96" s="10">
+        <v>13.52</v>
+      </c>
+      <c r="G96">
+        <v>5.91684917249255</v>
+      </c>
+      <c r="H96">
+        <v>3.192584473213</v>
+      </c>
+      <c r="I96" s="4">
+        <v>26.2</v>
+      </c>
+      <c r="J96" s="6">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="K96" s="14">
+        <v>16.9553548590827</v>
+      </c>
+      <c r="L96" s="14">
+        <v>1.559410481</v>
+      </c>
+      <c r="M96" s="14">
+        <v>13.454078000000001</v>
+      </c>
+      <c r="N96" s="17">
+        <v>34</v>
+      </c>
+      <c r="O96">
+        <v>1.95</v>
+      </c>
+      <c r="P96">
+        <v>18.190000000000001</v>
+      </c>
+      <c r="Q96">
+        <v>13.262808873450698</v>
+      </c>
+      <c r="R96">
+        <f>14-COUNT(D96:Q96)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:18">
+      <c r="A97" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="B97" s="9">
+        <v>5.3219280242919922</v>
+      </c>
+      <c r="C97" s="9">
+        <f>ROUND(B97,0)</f>
+        <v>5</v>
+      </c>
+      <c r="D97" s="9">
+        <v>96</v>
+      </c>
+      <c r="E97" s="7">
+        <v>5.8</v>
+      </c>
+      <c r="F97" s="11">
+        <v>9.07</v>
+      </c>
+      <c r="G97">
+        <v>4.9014286643141203</v>
+      </c>
+      <c r="H97">
+        <v>11.5074729636627</v>
+      </c>
+      <c r="I97" s="4">
+        <v>21.4</v>
+      </c>
+      <c r="J97" s="6">
+        <v>9.5</v>
+      </c>
+      <c r="K97" s="14">
+        <v>209.587833371762</v>
+      </c>
+      <c r="L97" s="14">
+        <v>1.6105036260000001</v>
+      </c>
+      <c r="M97" s="14">
+        <v>7.1707000000000001</v>
+      </c>
+      <c r="N97" s="17">
+        <v>43</v>
+      </c>
+      <c r="O97">
+        <v>42.68</v>
+      </c>
+      <c r="P97">
+        <v>17.64</v>
+      </c>
+      <c r="Q97">
+        <v>37.331049551478415</v>
+      </c>
+      <c r="R97">
+        <f>14-COUNT(D97:Q97)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:18">
+      <c r="A98" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="B98" s="9">
+        <v>7.5787448883056641</v>
+      </c>
+      <c r="C98" s="9">
+        <f>ROUND(B98,0)</f>
+        <v>8</v>
+      </c>
+      <c r="D98" s="9">
+        <v>21</v>
+      </c>
+      <c r="E98" s="7">
+        <v>20.2</v>
+      </c>
+      <c r="F98" s="10">
+        <v>59.95</v>
+      </c>
+      <c r="G98">
+        <v>2.2154372612291202</v>
+      </c>
+      <c r="H98">
+        <v>39.580945718163903</v>
+      </c>
+      <c r="I98" s="4">
+        <v>2.7</v>
+      </c>
+      <c r="J98" s="6">
+        <v>12.2</v>
+      </c>
+      <c r="K98" s="14">
+        <v>14.4621363742146</v>
+      </c>
+      <c r="L98" s="14">
+        <v>2.8172961070000002</v>
+      </c>
+      <c r="M98" s="14">
+        <v>38.709806999999998</v>
+      </c>
+      <c r="N98" s="17">
+        <v>26.8</v>
+      </c>
+      <c r="O98">
+        <v>96.3</v>
+      </c>
+      <c r="P98">
+        <v>28.28</v>
+      </c>
+      <c r="Q98">
+        <v>2.205092496653259</v>
+      </c>
+      <c r="R98">
+        <f>14-COUNT(D98:Q98)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:18">
+      <c r="A99" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="B99" s="9">
+        <v>5.8308706283569336</v>
+      </c>
+      <c r="C99" s="9">
+        <f>ROUND(B99,0)</f>
+        <v>6</v>
+      </c>
+      <c r="D99" s="9">
+        <v>92</v>
+      </c>
+      <c r="E99" s="7">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="F99" s="10">
+        <v>33.72</v>
+      </c>
+      <c r="G99">
+        <v>6.8044786624803502</v>
+      </c>
+      <c r="H99">
+        <v>1.07946408378278</v>
+      </c>
+      <c r="I99" s="4">
+        <v>14.3</v>
+      </c>
+      <c r="J99" s="6">
+        <v>2.9</v>
+      </c>
+      <c r="K99" s="14">
+        <v>255.57279343088399</v>
+      </c>
+      <c r="L99" s="14">
+        <v>2.3859996830000001</v>
+      </c>
+      <c r="M99" s="14">
+        <v>9.9883570000000006</v>
+      </c>
+      <c r="N99" s="17">
+        <v>30.7</v>
+      </c>
+      <c r="O99">
+        <v>13.8</v>
+      </c>
+      <c r="P99">
+        <v>11.68</v>
+      </c>
+      <c r="Q99">
+        <v>40.265670402656703</v>
+      </c>
+      <c r="R99">
+        <f>14-COUNT(D99:Q99)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:18">
+      <c r="A100" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="B100" s="9">
+        <v>6.2942824363708496</v>
+      </c>
+      <c r="C100" s="9">
+        <f>ROUND(B100,0)</f>
+        <v>6</v>
+      </c>
+      <c r="D100" s="9">
+        <v>93</v>
+      </c>
+      <c r="E100" s="7">
+        <v>15.6</v>
+      </c>
+      <c r="F100" s="10">
+        <v>24.63</v>
+      </c>
+      <c r="I100" s="4">
+        <v>28.8</v>
+      </c>
+      <c r="J100" s="6">
+        <v>3.2</v>
+      </c>
+      <c r="K100" s="14">
+        <v>15.322308332829399</v>
+      </c>
+      <c r="L100" s="14">
+        <v>1.4580674179999999</v>
+      </c>
+      <c r="M100" s="14">
+        <v>2.23278</v>
+      </c>
+      <c r="N100" s="17">
+        <v>45.9</v>
+      </c>
+      <c r="O100">
+        <v>63.7</v>
+      </c>
+      <c r="P100">
+        <v>46.39</v>
+      </c>
+      <c r="Q100">
+        <v>1.6174425149672742</v>
+      </c>
+      <c r="R100">
+        <f>14-COUNT(D100:Q100)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:18">
+      <c r="A101" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="B101" s="9">
+        <v>6.5676589012145996</v>
+      </c>
+      <c r="C101" s="9">
+        <f>ROUND(B101,0)</f>
+        <v>7</v>
+      </c>
+      <c r="D101" s="9">
+        <v>88</v>
+      </c>
+      <c r="E101" s="7">
+        <v>6.1</v>
+      </c>
+      <c r="F101" s="10">
+        <v>8.98</v>
+      </c>
+      <c r="G101">
+        <v>3.6700825940654598</v>
+      </c>
+      <c r="H101">
+        <v>14.6615391338548</v>
+      </c>
+      <c r="I101" s="4">
+        <v>14.3</v>
+      </c>
+      <c r="J101" s="6">
+        <v>4.3</v>
+      </c>
+      <c r="K101" s="14">
+        <v>55.132997040624197</v>
+      </c>
+      <c r="L101" s="14">
+        <v>1.9408513249999999</v>
+      </c>
+      <c r="M101" s="14">
+        <v>15.463361000000001</v>
+      </c>
+      <c r="N101" s="17">
+        <v>50.4</v>
+      </c>
+      <c r="O101">
+        <v>44.92</v>
+      </c>
+      <c r="P101">
+        <v>13.7</v>
+      </c>
+      <c r="Q101">
+        <v>7.5733118105999457</v>
+      </c>
+      <c r="R101">
+        <f>14-COUNT(D101:Q101)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:18">
+      <c r="A102" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="B102" s="9">
+        <v>5.7132954597473145</v>
+      </c>
+      <c r="C102" s="9">
+        <f>ROUND(B102,0)</f>
+        <v>6</v>
+      </c>
+      <c r="D102" s="9">
+        <v>92</v>
+      </c>
+      <c r="E102" s="7">
+        <v>13.4</v>
+      </c>
+      <c r="F102" s="10">
+        <v>25.27</v>
+      </c>
+      <c r="G102">
+        <v>4.6324420742250796</v>
+      </c>
+      <c r="H102">
+        <v>8.0886769443584896</v>
+      </c>
+      <c r="I102" s="4">
+        <v>22.7</v>
+      </c>
+      <c r="J102" s="6">
+        <v>9.5</v>
+      </c>
+      <c r="K102" s="14">
+        <v>17.1439642587465</v>
+      </c>
+      <c r="L102" s="14">
+        <v>2.919371215</v>
+      </c>
+      <c r="M102" s="14">
+        <v>10.489746</v>
+      </c>
+      <c r="N102" s="17">
+        <v>47.9</v>
+      </c>
+      <c r="O102">
+        <v>43</v>
+      </c>
+      <c r="P102">
+        <v>31.25</v>
+      </c>
+      <c r="Q102">
+        <v>12.081550465643092</v>
+      </c>
+      <c r="R102">
+        <f>14-COUNT(D102:Q102)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:18">
+      <c r="A103" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="B103" s="9">
+        <v>5.7109365463256836</v>
+      </c>
+      <c r="C103" s="9">
+        <f>ROUND(B103,0)</f>
+        <v>6</v>
+      </c>
+      <c r="D103" s="9">
+        <v>84</v>
+      </c>
+      <c r="E103" s="7">
+        <v>4.8</v>
+      </c>
+      <c r="F103" s="10">
+        <v>12.03</v>
+      </c>
+      <c r="G103">
+        <v>3.7521822789402401</v>
+      </c>
+      <c r="H103">
+        <v>12.9060496171469</v>
+      </c>
+      <c r="I103" s="4">
+        <v>13.5</v>
+      </c>
+      <c r="J103" s="6">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="K103" s="14">
+        <v>25.129285156249999</v>
+      </c>
+      <c r="L103" s="14">
+        <v>1.979901752</v>
+      </c>
+      <c r="M103" s="14">
+        <v>13.614037</v>
+      </c>
+      <c r="N103" s="17">
+        <v>43.8</v>
+      </c>
+      <c r="O103">
+        <v>40.200000000000003</v>
+      </c>
+      <c r="P103">
+        <v>18.920000000000002</v>
+      </c>
+      <c r="Q103">
+        <v>2.7406250000000001</v>
+      </c>
+      <c r="R103">
+        <f>14-COUNT(D103:Q103)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:18">
+      <c r="A104" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="B104" s="9">
+        <v>5.5942702293395996</v>
+      </c>
+      <c r="C104" s="9">
+        <f>ROUND(B104,0)</f>
+        <v>6</v>
+      </c>
+      <c r="D104" s="9">
+        <v>96</v>
+      </c>
+      <c r="E104" s="7">
+        <v>24.3</v>
+      </c>
+      <c r="F104" s="10">
+        <v>14.58</v>
+      </c>
+      <c r="G104">
+        <v>4.7420389623737602</v>
+      </c>
+      <c r="H104">
+        <v>4.9678691835089701</v>
+      </c>
+      <c r="I104" s="4">
+        <v>12.3</v>
+      </c>
+      <c r="J104" s="6">
+        <v>3.2</v>
+      </c>
+      <c r="K104" s="14">
+        <v>351.873394372338</v>
+      </c>
+      <c r="L104" s="14">
+        <v>1.566442484</v>
+      </c>
+      <c r="M104" s="14">
+        <v>13.676774</v>
+      </c>
+      <c r="N104" s="17">
+        <v>40.1</v>
+      </c>
+      <c r="O104">
+        <v>39.69</v>
+      </c>
+      <c r="P104">
+        <v>27.24</v>
+      </c>
+      <c r="Q104">
+        <v>18.747694268370392</v>
+      </c>
+      <c r="R104">
+        <f>14-COUNT(D104:Q104)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:18">
+      <c r="A105" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="B105" s="9">
+        <v>6.201268196105957</v>
+      </c>
+      <c r="C105" s="9">
+        <f>ROUND(B105,0)</f>
+        <v>6</v>
+      </c>
+      <c r="D105" s="9">
+        <v>75</v>
+      </c>
+      <c r="E105" s="7">
+        <v>28</v>
+      </c>
+      <c r="F105" s="10">
+        <v>52.23</v>
+      </c>
+      <c r="G105">
+        <v>2.80621007003925</v>
+      </c>
+      <c r="H105">
+        <v>20.6717045345817</v>
+      </c>
+      <c r="I105" s="4">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="J105" s="6">
+        <v>16.2</v>
+      </c>
+      <c r="K105" s="14">
+        <v>124.027045298671</v>
+      </c>
+      <c r="L105" s="14">
+        <v>2.7536132470000001</v>
+      </c>
+      <c r="M105" s="14">
+        <v>33.346711999999997</v>
+      </c>
+      <c r="N105" s="17">
+        <v>32.1</v>
+      </c>
+      <c r="O105">
+        <v>66.599999999999994</v>
+      </c>
+      <c r="P105">
+        <v>38.31</v>
+      </c>
+      <c r="Q105">
+        <v>35.291812273425002</v>
+      </c>
+      <c r="R105">
+        <f>14-COUNT(D105:Q105)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:18">
+      <c r="A106" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="B106" s="9">
+        <v>5.7114992141723633</v>
+      </c>
+      <c r="C106" s="9">
+        <f>ROUND(B106,0)</f>
+        <v>6</v>
+      </c>
+      <c r="D106" s="9">
+        <v>72</v>
+      </c>
+      <c r="E106" s="7">
+        <v>22.7</v>
+      </c>
+      <c r="F106" s="10">
+        <v>38.700000000000003</v>
+      </c>
+      <c r="G106">
+        <v>2.6107194075643498</v>
+      </c>
+      <c r="H106">
+        <v>20.729251510321198</v>
+      </c>
+      <c r="I106" s="4">
+        <v>7.4</v>
+      </c>
+      <c r="J106" s="6">
+        <v>14</v>
+      </c>
+      <c r="K106" s="14">
+        <v>112.37070028928601</v>
+      </c>
+      <c r="L106" s="14">
+        <v>1.9087955809999999</v>
+      </c>
+      <c r="M106" s="14">
+        <v>34.141741000000003</v>
+      </c>
+      <c r="N106" s="17">
+        <v>35.6</v>
+      </c>
+      <c r="O106">
+        <v>64.59</v>
+      </c>
+      <c r="P106">
+        <v>27.61</v>
+      </c>
+      <c r="Q106">
+        <v>10.68351747945426</v>
+      </c>
+      <c r="R106">
+        <f>14-COUNT(D106:Q106)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:18">
+      <c r="A107" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="B107" s="9">
+        <v>6.08990478515625</v>
+      </c>
+      <c r="C107" s="9">
+        <f>ROUND(B107,0)</f>
+        <v>6</v>
+      </c>
+      <c r="D107" s="9">
+        <v>84</v>
+      </c>
+      <c r="E107" s="7">
+        <v>29.7</v>
+      </c>
+      <c r="F107" s="10">
+        <v>44.42</v>
+      </c>
+      <c r="G107">
+        <v>2.92065610587747</v>
+      </c>
+      <c r="H107">
+        <v>18.8834670280431</v>
+      </c>
+      <c r="I107" s="4">
+        <v>10.3</v>
+      </c>
+      <c r="J107" s="6">
+        <v>10.4</v>
+      </c>
+      <c r="K107" s="14">
+        <v>85.129255041724605</v>
+      </c>
+      <c r="L107" s="14">
+        <v>2.0628492619999999</v>
+      </c>
+      <c r="M107" s="14">
+        <v>26.441125</v>
+      </c>
+      <c r="N107" s="17">
+        <v>27.5</v>
+      </c>
+      <c r="O107">
+        <v>54.08</v>
+      </c>
+      <c r="P107">
+        <v>34.44</v>
+      </c>
+      <c r="Q107">
+        <v>37.30006954102921</v>
+      </c>
+      <c r="R107">
+        <f>14-COUNT(D107:Q107)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:18">
+      <c r="A108" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="B108" s="9">
+        <v>5.5787429809570312</v>
+      </c>
+      <c r="C108" s="9">
+        <f>ROUND(B108,0)</f>
+        <v>6</v>
+      </c>
+      <c r="D108" s="9">
+        <v>34</v>
+      </c>
+      <c r="E108" s="7">
+        <v>39.299999999999997</v>
+      </c>
+      <c r="F108" s="10">
+        <v>55.75</v>
+      </c>
+      <c r="G108">
+        <v>2.7082218591338201</v>
+      </c>
+      <c r="H108">
+        <v>22.274981443758598</v>
+      </c>
+      <c r="I108" s="4">
+        <v>18</v>
+      </c>
+      <c r="J108" s="6">
+        <v>31</v>
+      </c>
+      <c r="K108" s="14">
+        <v>8.8231172379093206</v>
+      </c>
+      <c r="L108" s="14">
+        <v>5.9328232779999999</v>
+      </c>
+      <c r="M108" s="14">
+        <v>29.046813</v>
+      </c>
+      <c r="N108" s="17">
+        <v>37.700000000000003</v>
+      </c>
+      <c r="O108">
+        <v>70.52</v>
+      </c>
+      <c r="P108">
+        <v>24.5</v>
+      </c>
+      <c r="Q108">
+        <v>7.5180312423863649</v>
+      </c>
+      <c r="R108">
+        <f>14-COUNT(D108:Q108)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:18">
+      <c r="A109" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="B109" s="9">
+        <v>3.1083738803863525</v>
+      </c>
+      <c r="C109" s="9">
+        <f>ROUND(B109,0)</f>
+        <v>3</v>
+      </c>
+      <c r="D109" s="9">
+        <v>95</v>
+      </c>
+      <c r="E109" s="7">
+        <v>12.3</v>
+      </c>
+      <c r="F109" s="10">
+        <v>1.93</v>
+      </c>
+      <c r="G109">
+        <v>4.2592924568413499</v>
+      </c>
+      <c r="H109">
+        <v>8.1513547603455798</v>
+      </c>
+      <c r="I109" s="4">
+        <v>29.7</v>
+      </c>
+      <c r="J109" s="6">
+        <v>6.7</v>
+      </c>
+      <c r="K109" s="14">
+        <v>494.86854479124401</v>
+      </c>
+      <c r="L109" s="14">
+        <v>2.7858125299999998</v>
+      </c>
+      <c r="M109" s="14">
+        <v>15.459153000000001</v>
+      </c>
+      <c r="N109" s="17">
+        <v>50.4</v>
+      </c>
+      <c r="O109">
+        <v>10.6</v>
+      </c>
+      <c r="P109">
+        <v>5.57</v>
+      </c>
+      <c r="Q109">
+        <v>46.684229881308468</v>
+      </c>
+      <c r="R109">
+        <f>14-COUNT(D109:Q109)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:18">
+      <c r="A110" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="B110" s="9">
+        <v>4.0895624160766602</v>
+      </c>
+      <c r="C110" s="9">
+        <f>ROUND(B110,0)</f>
+        <v>4</v>
+      </c>
+      <c r="E110" s="7">
+        <v>24.8</v>
+      </c>
+      <c r="F110" s="10">
+        <v>8.48</v>
+      </c>
+      <c r="G110">
+        <v>5.8990749876049096</v>
+      </c>
+      <c r="H110">
+        <v>3.9976892562619701</v>
+      </c>
+      <c r="I110" s="4"/>
+      <c r="J110" s="6">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="K110" s="14">
+        <v>104.699528955389</v>
+      </c>
+      <c r="L110" s="14">
+        <v>1.6294331559999999</v>
+      </c>
+      <c r="M110" s="14">
+        <v>11.178661</v>
+      </c>
+      <c r="N110" s="17">
+        <v>34</v>
+      </c>
+      <c r="O110">
+        <v>2.1</v>
+      </c>
+      <c r="P110">
+        <v>43.42</v>
+      </c>
+      <c r="Q110">
+        <v>21.945137157107229</v>
+      </c>
+      <c r="R110">
+        <f>14-COUNT(D110:Q110)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:18">
+      <c r="A111" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="B111" s="9">
+        <v>4.6830248832702637</v>
+      </c>
+      <c r="C111" s="9">
+        <f>ROUND(B111,0)</f>
+        <v>5</v>
+      </c>
+      <c r="D111" s="9">
+        <v>96</v>
+      </c>
+      <c r="E111" s="7">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="F111" s="10">
+        <v>14.68</v>
+      </c>
+      <c r="G111">
+        <v>8.3062047774780297</v>
+      </c>
+      <c r="H111">
+        <v>8.3785239782870402</v>
+      </c>
+      <c r="I111" s="4">
+        <v>23.4</v>
+      </c>
+      <c r="J111" s="6">
+        <v>6</v>
+      </c>
+      <c r="K111" s="14">
+        <v>82.327777489222498</v>
+      </c>
+      <c r="L111" s="14">
+        <v>1.6261849719999999</v>
+      </c>
+      <c r="M111" s="14">
+        <v>15.920230999999999</v>
+      </c>
+      <c r="N111" s="17">
+        <v>40.299999999999997</v>
+      </c>
+      <c r="O111">
+        <v>17.7</v>
+      </c>
+      <c r="P111">
+        <v>17.96</v>
+      </c>
+      <c r="Q111">
+        <v>16.620786370955177</v>
+      </c>
+      <c r="R111">
+        <f>14-COUNT(D111:Q111)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:18">
+      <c r="A112" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="B112" s="9">
+        <v>5.1220312118530273</v>
+      </c>
+      <c r="C112" s="9">
+        <f>ROUND(B112,0)</f>
+        <v>5</v>
+      </c>
+      <c r="D112" s="9">
+        <v>54</v>
+      </c>
+      <c r="E112" s="7">
+        <v>38.9</v>
+      </c>
+      <c r="F112" s="10">
+        <v>44.82</v>
+      </c>
+      <c r="G112">
+        <v>2.87916488134907</v>
+      </c>
+      <c r="H112">
+        <v>22.3268670670601</v>
+      </c>
+      <c r="I112" s="4">
+        <v>7.4</v>
+      </c>
+      <c r="J112" s="6">
+        <v>15.6</v>
+      </c>
+      <c r="K112" s="14">
+        <v>80.291195975302998</v>
+      </c>
+      <c r="L112" s="14">
+        <v>2.3197503199999998</v>
+      </c>
+      <c r="M112" s="14">
+        <v>35.078639000000003</v>
+      </c>
+      <c r="N112" s="17">
+        <v>29.1</v>
+      </c>
+      <c r="O112">
+        <v>53.5</v>
+      </c>
+      <c r="Q112">
+        <v>29.705008003658818</v>
+      </c>
+      <c r="R112">
+        <f>14-COUNT(D112:Q112)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:18">
+      <c r="A113" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="B113" s="9">
+        <v>6.365509033203125</v>
+      </c>
+      <c r="C113" s="9">
+        <f>ROUND(B113,0)</f>
+        <v>6</v>
+      </c>
+      <c r="D113" s="9">
+        <v>47</v>
+      </c>
+      <c r="E113" s="7">
+        <v>30.1</v>
+      </c>
+      <c r="F113" s="10">
+        <v>48.13</v>
+      </c>
+      <c r="I113" s="4">
+        <v>6.1</v>
+      </c>
+      <c r="J113" s="6">
+        <v>12.8</v>
+      </c>
+      <c r="K113" s="14">
+        <v>113.12839495903199</v>
+      </c>
+      <c r="L113" s="14">
+        <v>2.992271423</v>
+      </c>
+      <c r="M113" s="14">
+        <v>32.356543000000002</v>
+      </c>
+      <c r="N113" s="17">
+        <v>26.1</v>
+      </c>
+      <c r="O113">
+        <v>79.98</v>
+      </c>
+      <c r="P113">
+        <v>81.709999999999994</v>
+      </c>
+      <c r="Q113">
+        <v>28.015806988352743</v>
+      </c>
+      <c r="R113">
+        <f>14-COUNT(D113:Q113)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="114" spans="1:18">
+      <c r="A114" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="B114" s="9">
+        <v>6.3784379959106445</v>
+      </c>
+      <c r="C114" s="9">
+        <f>ROUND(B114,0)</f>
+        <v>6</v>
+      </c>
+      <c r="D114" s="9">
+        <v>70</v>
+      </c>
+      <c r="E114" s="7">
+        <v>16.5</v>
+      </c>
+      <c r="F114" s="10">
+        <v>1.28</v>
+      </c>
+      <c r="G114">
+        <v>3.2914348296565201</v>
+      </c>
+      <c r="H114">
+        <v>12.206436749511299</v>
+      </c>
+      <c r="I114" s="4">
+        <v>2.8</v>
+      </c>
+      <c r="J114" s="6">
+        <v>9.9</v>
+      </c>
+      <c r="K114" s="14">
+        <v>7915.7306064880104</v>
+      </c>
+      <c r="L114" s="14">
+        <v>1.530099412</v>
+      </c>
+      <c r="M114" s="14">
+        <v>13.421915</v>
+      </c>
+      <c r="N114" s="17"/>
+      <c r="O114">
+        <v>82</v>
+      </c>
+      <c r="P114">
+        <v>133.76</v>
+      </c>
+      <c r="Q114">
+        <v>0.78984483826813856</v>
+      </c>
+      <c r="R114">
+        <f>14-COUNT(D114:Q114)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:18">
+      <c r="A115" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="B115" s="9">
+        <v>4.3309454917907715</v>
+      </c>
+      <c r="C115" s="9">
+        <f>ROUND(B115,0)</f>
+        <v>4</v>
+      </c>
+      <c r="D115" s="9">
+        <v>99</v>
+      </c>
+      <c r="E115" s="7">
+        <v>13</v>
+      </c>
+      <c r="F115" s="10">
+        <v>6.9</v>
+      </c>
+      <c r="I115" s="4">
+        <v>14.9</v>
+      </c>
+      <c r="J115" s="6">
+        <v>14.6</v>
+      </c>
+      <c r="K115" s="14">
+        <v>341.95503109551902</v>
+      </c>
+      <c r="L115" s="14">
+        <v>1.5497655269999999</v>
+      </c>
+      <c r="M115" s="14">
+        <v>12.444495999999999</v>
+      </c>
+      <c r="N115" s="17">
+        <v>39.799999999999997</v>
+      </c>
+      <c r="O115">
+        <v>25.8</v>
+      </c>
+      <c r="P115">
+        <v>13.62</v>
+      </c>
+      <c r="Q115">
+        <v>20.730346037314622</v>
+      </c>
+      <c r="R115">
+        <f>14-COUNT(D115:Q115)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="116" spans="1:18">
+      <c r="A116" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="B116" s="9">
+        <v>6.1668376922607422</v>
+      </c>
+      <c r="C116" s="9">
+        <f>ROUND(B116,0)</f>
+        <v>6</v>
+      </c>
+      <c r="D116" s="9">
+        <v>47</v>
+      </c>
+      <c r="E116" s="7">
+        <v>22.5</v>
+      </c>
+      <c r="F116" s="10">
+        <v>46.05</v>
+      </c>
+      <c r="G116">
+        <v>2.8227603438251299</v>
+      </c>
+      <c r="H116">
+        <v>20.8966481763754</v>
+      </c>
+      <c r="I116" s="4">
+        <v>6.4</v>
+      </c>
+      <c r="J116" s="6">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="K116" s="14">
+        <v>102.61906653426</v>
+      </c>
+      <c r="L116" s="14">
+        <v>2.8881774459999998</v>
+      </c>
+      <c r="M116" s="14">
+        <v>36.505336999999997</v>
+      </c>
+      <c r="N116" s="17">
+        <v>25.7</v>
+      </c>
+      <c r="O116">
+        <v>71.59</v>
+      </c>
+      <c r="P116">
+        <v>72.790000000000006</v>
+      </c>
+      <c r="Q116">
+        <v>9.1291832658336602</v>
+      </c>
+      <c r="R116">
+        <f>14-COUNT(D116:Q116)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:18">
+      <c r="A117" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="B117" s="9">
+        <v>4.5136551856994629</v>
+      </c>
+      <c r="C117" s="9">
+        <f>ROUND(B117,0)</f>
+        <v>5</v>
+      </c>
+      <c r="D117" s="9">
+        <v>85</v>
+      </c>
+      <c r="E117" s="7">
+        <v>20.3</v>
+      </c>
+      <c r="F117" s="10">
+        <v>33.92</v>
+      </c>
+      <c r="G117">
+        <v>3.24346805490097</v>
+      </c>
+      <c r="H117">
+        <v>26.801934676544999</v>
+      </c>
+      <c r="I117" s="4">
+        <v>25.9</v>
+      </c>
+      <c r="J117" s="6">
+        <v>11.6</v>
+      </c>
+      <c r="K117" s="14">
+        <v>46.754285337444003</v>
+      </c>
+      <c r="L117" s="14">
+        <v>2.1691135539999999</v>
+      </c>
+      <c r="M117" s="14">
+        <v>29.305698</v>
+      </c>
+      <c r="N117" s="17">
+        <v>63</v>
+      </c>
+      <c r="O117">
+        <v>49</v>
+      </c>
+      <c r="P117">
+        <v>34.75</v>
+      </c>
+      <c r="Q117">
+        <v>10.304264316744842</v>
+      </c>
+      <c r="R117">
+        <f>14-COUNT(D117:Q117)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:18">
+      <c r="A118" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="B118" s="9">
+        <v>5.8738870620727539</v>
+      </c>
+      <c r="C118" s="9">
+        <f>ROUND(B118,0)</f>
+        <v>6</v>
+      </c>
+      <c r="D118" s="9">
+        <v>43</v>
+      </c>
+      <c r="E118" s="7">
+        <v>23.3</v>
+      </c>
+      <c r="F118" s="10">
+        <v>37.549999999999997</v>
+      </c>
+      <c r="H118">
+        <v>23.888714398899801</v>
+      </c>
+      <c r="I118" s="4">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="J118" s="6">
+        <v>26.9</v>
+      </c>
+      <c r="K118" s="14">
+        <v>527.96677267131702</v>
+      </c>
+      <c r="L118" s="14">
+        <v>3.1578342109999999</v>
+      </c>
+      <c r="M118" s="14">
+        <v>26.236792000000001</v>
+      </c>
+      <c r="N118" s="17">
+        <v>31.6</v>
+      </c>
+      <c r="O118">
+        <v>84.33</v>
+      </c>
+      <c r="P118">
+        <v>41.87</v>
+      </c>
+      <c r="Q118">
+        <v>14.576002862502321</v>
+      </c>
+      <c r="R118">
+        <f>14-COUNT(D118:Q118)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="119" spans="1:18">
+      <c r="A119" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="B119" s="9">
+        <v>4.1243429183959961</v>
+      </c>
+      <c r="C119" s="9">
+        <f>ROUND(B119,0)</f>
+        <v>4</v>
+      </c>
+      <c r="D119" s="9">
+        <v>93</v>
+      </c>
+      <c r="E119" s="7">
+        <v>32.700000000000003</v>
+      </c>
+      <c r="F119" s="10">
+        <v>36.799999999999997</v>
+      </c>
+      <c r="I119" s="4">
+        <v>22.8</v>
+      </c>
+      <c r="J119" s="6">
+        <v>3.4</v>
+      </c>
+      <c r="K119" s="14">
+        <v>74.228417868177104</v>
+      </c>
+      <c r="L119" s="14">
+        <v>1.466407341</v>
+      </c>
+      <c r="M119" s="14">
+        <v>29.614932</v>
+      </c>
+      <c r="N119" s="17">
+        <v>35.799999999999997</v>
+      </c>
+      <c r="O119">
+        <v>46.16</v>
+      </c>
+      <c r="P119">
+        <v>35.43</v>
+      </c>
+      <c r="Q119">
+        <v>18.666323377960865</v>
+      </c>
+      <c r="R119">
+        <f>14-COUNT(D119:Q119)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="120" spans="1:18">
+      <c r="A120" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="B120" s="9">
+        <v>6.2301731109619141</v>
+      </c>
+      <c r="C120" s="9">
+        <f>ROUND(B120,0)</f>
+        <v>6</v>
+      </c>
+      <c r="D120" s="9">
+        <v>49</v>
+      </c>
+      <c r="E120" s="7">
+        <v>29.3</v>
+      </c>
+      <c r="F120" s="10">
+        <v>40.380000000000003</v>
+      </c>
+      <c r="G120">
+        <v>2.8615200483817098</v>
+      </c>
+      <c r="H120">
+        <v>20.275629124322101</v>
+      </c>
+      <c r="I120" s="4">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="J120" s="6">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="K120" s="14">
+        <v>93.1049519201935</v>
+      </c>
+      <c r="L120" s="14">
+        <v>2.2706885099999998</v>
+      </c>
+      <c r="M120" s="14">
+        <v>33.180988999999997</v>
+      </c>
+      <c r="N120" s="17">
+        <v>36</v>
+      </c>
+      <c r="O120">
+        <v>76.19</v>
+      </c>
+      <c r="P120">
+        <v>22.94</v>
+      </c>
+      <c r="Q120">
+        <v>24.695894967158079</v>
+      </c>
+      <c r="R120">
+        <f>14-COUNT(D120:Q120)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:18">
+      <c r="A121" s="8" t="s">
+        <v>141</v>
+      </c>
+      <c r="B121" s="9">
+        <v>6.42144775390625</v>
+      </c>
+      <c r="C121" s="9">
+        <f>ROUND(B121,0)</f>
+        <v>6</v>
+      </c>
+      <c r="D121" s="9">
+        <v>59</v>
+      </c>
+      <c r="E121" s="7">
+        <v>12.6</v>
+      </c>
+      <c r="F121" s="10">
+        <v>41.27</v>
+      </c>
+      <c r="I121" s="4">
+        <v>11.5</v>
+      </c>
+      <c r="J121" s="6">
+        <v>7.4</v>
+      </c>
+      <c r="K121" s="14">
+        <v>76.133521391631405</v>
+      </c>
+      <c r="L121" s="14">
+        <v>2.3188884989999998</v>
+      </c>
+      <c r="M121" s="14">
+        <v>26.204868999999999</v>
+      </c>
+      <c r="N121" s="17">
+        <v>36.700000000000003</v>
+      </c>
+      <c r="O121">
+        <v>43.55</v>
+      </c>
+      <c r="P121">
+        <v>21.07</v>
+      </c>
+      <c r="Q121">
+        <v>10.343206393982134</v>
+      </c>
+      <c r="R121">
+        <f>14-COUNT(D121:Q121)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="122" spans="1:18">
+      <c r="A122" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="B122" s="9">
+        <v>7.2868046760559082</v>
+      </c>
+      <c r="C122" s="9">
+        <f>ROUND(B122,0)</f>
+        <v>7</v>
+      </c>
+      <c r="D122" s="9">
+        <v>17</v>
+      </c>
+      <c r="E122" s="7">
+        <v>18.8</v>
+      </c>
+      <c r="F122" s="10">
+        <v>59.32</v>
+      </c>
+      <c r="G122" s="9">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="H122">
+        <v>39.5</v>
+      </c>
+      <c r="I122" s="4">
+        <v>2.8</v>
+      </c>
+      <c r="J122" s="6">
+        <v>14.8</v>
+      </c>
+      <c r="K122" s="14">
+        <v>24.717645036949701</v>
+      </c>
+      <c r="L122" s="14">
+        <v>2.4664065709999998</v>
+      </c>
+      <c r="M122" s="14">
+        <v>44.237478000000003</v>
+      </c>
+      <c r="N122" s="17">
+        <v>27.2</v>
+      </c>
+      <c r="O122">
+        <v>92.52</v>
+      </c>
+      <c r="P122">
+        <v>29.58</v>
+      </c>
+      <c r="Q122">
+        <v>6.3209842568467511</v>
+      </c>
+      <c r="R122">
+        <f>14-COUNT(D122:Q122)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:18">
+      <c r="A123" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="B123" s="9">
+        <v>7.4735932350158691</v>
+      </c>
+      <c r="C123" s="9">
+        <f>ROUND(B123,0)</f>
+        <v>7</v>
+      </c>
+      <c r="D123" s="9">
+        <v>41</v>
+      </c>
+      <c r="E123" s="7">
+        <v>25.7</v>
+      </c>
+      <c r="F123" s="10">
+        <v>46.95</v>
+      </c>
+      <c r="G123">
+        <v>2.2128824637337701</v>
+      </c>
+      <c r="H123">
+        <v>37.505457085479797</v>
+      </c>
+      <c r="I123" s="4">
+        <v>2.7</v>
+      </c>
+      <c r="J123" s="6">
+        <v>17.2</v>
+      </c>
+      <c r="K123" s="14">
+        <v>214.242762425347</v>
+      </c>
+      <c r="L123" s="14">
+        <v>2.396185547</v>
+      </c>
+      <c r="M123" s="14">
+        <v>27.700901999999999</v>
+      </c>
+      <c r="N123" s="17">
+        <v>32.5</v>
+      </c>
+      <c r="O123">
+        <v>87</v>
+      </c>
+      <c r="P123">
+        <v>42.51</v>
+      </c>
+      <c r="Q123">
+        <v>10.089584025557285</v>
+      </c>
+      <c r="R123">
+        <f>14-COUNT(D123:Q123)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:18">
+      <c r="A124" s="8" t="s">
+        <v>127</v>
+      </c>
+      <c r="B124" s="9">
+        <v>5.8292341232299805</v>
+      </c>
+      <c r="C124" s="9">
+        <f>ROUND(B124,0)</f>
+        <v>6</v>
+      </c>
+      <c r="D124" s="9">
+        <v>85</v>
+      </c>
+      <c r="E124" s="7"/>
+      <c r="F124" s="10">
+        <v>38.53</v>
+      </c>
+      <c r="G124">
+        <v>6.2705799674902396</v>
+      </c>
+      <c r="H124">
+        <v>2.9592907429550501</v>
+      </c>
+      <c r="I124" s="4">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="J124" s="6">
+        <v>2.5</v>
+      </c>
+      <c r="K124" s="14">
+        <v>64.281289179023801</v>
+      </c>
+      <c r="L124" s="14">
+        <v>2.5833153879999999</v>
+      </c>
+      <c r="M124" s="14">
+        <v>20.6</v>
+      </c>
+      <c r="N124" s="17">
+        <v>34</v>
+      </c>
+      <c r="O124">
+        <v>17.489999999999998</v>
+      </c>
+      <c r="P124">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="Q124">
+        <v>5.2597449383961381</v>
+      </c>
+      <c r="R124">
+        <f>14-COUNT(D124:Q124)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="1:18">
+      <c r="A125" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="B125" s="9">
+        <v>3.3471212387084961</v>
+      </c>
+      <c r="C125" s="9">
+        <f>ROUND(B125,0)</f>
+        <v>3</v>
+      </c>
+      <c r="D125" s="9">
+        <v>89</v>
+      </c>
+      <c r="E125" s="7">
+        <v>14.8</v>
+      </c>
+      <c r="F125" s="10">
+        <v>6.17</v>
+      </c>
+      <c r="G125">
+        <v>4.8515478517615502</v>
+      </c>
+      <c r="H125">
+        <v>9.6321931518388393</v>
+      </c>
+      <c r="I125" s="4">
+        <v>29.2</v>
+      </c>
+      <c r="J125" s="6">
+        <v>5.4</v>
+      </c>
+      <c r="K125" s="14">
+        <v>64.698599006547795</v>
+      </c>
+      <c r="L125" s="14">
+        <v>2.0172102519999999</v>
+      </c>
+      <c r="M125" s="14">
+        <v>11.390269</v>
+      </c>
+      <c r="N125" s="17">
+        <v>37.799999999999997</v>
+      </c>
+      <c r="O125">
+        <v>4.8600000000000003</v>
+      </c>
+      <c r="P125">
+        <v>8.51</v>
+      </c>
+      <c r="Q125">
+        <v>15.240460600587042</v>
+      </c>
+      <c r="R125">
+        <f>14-COUNT(D125:Q125)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:18">
+      <c r="A126" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="B126" s="9">
+        <v>5.9388952255249023</v>
+      </c>
+      <c r="C126" s="9">
+        <f>ROUND(B126,0)</f>
+        <v>6</v>
+      </c>
+      <c r="D126" s="9">
+        <v>97</v>
+      </c>
+      <c r="E126" s="7">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="F126" s="10">
+        <v>13.75</v>
+      </c>
+      <c r="G126">
+        <v>3.6937840960351802</v>
+      </c>
+      <c r="H126">
+        <v>8.6987429564403502</v>
+      </c>
+      <c r="I126" s="4">
+        <v>32.700000000000003</v>
+      </c>
+      <c r="J126" s="6">
+        <v>14.4</v>
+      </c>
+      <c r="K126" s="14">
+        <v>135.13185421519299</v>
+      </c>
+      <c r="L126" s="14">
+        <v>1.7415079250000001</v>
+      </c>
+      <c r="M126" s="14">
+        <v>17.834917999999998</v>
+      </c>
+      <c r="N126" s="17">
+        <v>36.5</v>
+      </c>
+      <c r="O126">
+        <v>34.89</v>
+      </c>
+      <c r="P126">
+        <v>60.39</v>
+      </c>
+      <c r="Q126">
+        <v>32.903364716475167</v>
+      </c>
+      <c r="R126">
+        <f>14-COUNT(D126:Q126)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:18">
+      <c r="A127" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="B127" s="9">
+        <v>4.3608050346374512</v>
+      </c>
+      <c r="C127" s="9">
+        <f>ROUND(B127,0)</f>
+        <v>4</v>
+      </c>
+      <c r="D127" s="9">
+        <v>80</v>
+      </c>
+      <c r="E127" s="7">
+        <v>7.4</v>
+      </c>
+      <c r="F127" s="10">
+        <v>6.12</v>
+      </c>
+      <c r="G127">
+        <v>4.5513104055187199</v>
+      </c>
+      <c r="H127">
+        <v>15.651100887626299</v>
+      </c>
+      <c r="I127" s="4">
+        <v>29.2</v>
+      </c>
+      <c r="J127" s="6">
+        <v>9.6</v>
+      </c>
+      <c r="K127" s="14">
+        <v>143.36631733774601</v>
+      </c>
+      <c r="L127" s="14">
+        <v>1.660319265</v>
+      </c>
+      <c r="M127" s="14">
+        <v>18.763441</v>
+      </c>
+      <c r="N127" s="17">
+        <v>43</v>
+      </c>
+      <c r="O127">
+        <v>5.7</v>
+      </c>
+      <c r="P127">
+        <v>43.48</v>
+      </c>
+      <c r="Q127">
+        <v>48.722191579334435</v>
+      </c>
+      <c r="R127">
+        <f>14-COUNT(D127:Q127)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:18">
+      <c r="A128" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="B128" s="9">
+        <v>6.1918597221374512</v>
+      </c>
+      <c r="C128" s="9">
+        <f>ROUND(B128,0)</f>
+        <v>6</v>
+      </c>
+      <c r="D128" s="9">
+        <v>92</v>
+      </c>
+      <c r="E128" s="7"/>
+      <c r="F128" s="10">
+        <v>10.67</v>
+      </c>
+      <c r="G128">
+        <v>3.29086780304119</v>
+      </c>
+      <c r="H128">
+        <v>19.2100951450171</v>
+      </c>
+      <c r="I128" s="4">
+        <v>12.1</v>
+      </c>
+      <c r="J128" s="6">
+        <v>13.6</v>
+      </c>
+      <c r="K128" s="14">
+        <v>266.885964912281</v>
+      </c>
+      <c r="L128" s="14">
+        <v>2.3274293319999999</v>
+      </c>
+      <c r="M128" s="14">
+        <v>26.147864999999999</v>
+      </c>
+      <c r="N128" s="17">
+        <v>40.299999999999997</v>
+      </c>
+      <c r="O128">
+        <v>65.099999999999994</v>
+      </c>
+      <c r="P128">
+        <v>69.27</v>
+      </c>
+      <c r="Q128">
+        <v>4.8732943469785575</v>
+      </c>
+      <c r="R128">
+        <f>14-COUNT(D128:Q128)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="1:18">
+      <c r="A129" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="B129" s="9">
+        <v>5.607262134552002</v>
+      </c>
+      <c r="C129" s="9">
+        <f>ROUND(B129,0)</f>
+        <v>6</v>
+      </c>
+      <c r="D129" s="9">
+        <v>82</v>
+      </c>
+      <c r="E129" s="7">
+        <v>27.2</v>
+      </c>
+      <c r="F129" s="10">
+        <v>39.869999999999997</v>
+      </c>
+      <c r="G129">
+        <v>4.07131378673696</v>
+      </c>
+      <c r="H129">
+        <v>6.3709110577942303</v>
+      </c>
+      <c r="I129" s="4">
+        <v>12.3</v>
+      </c>
+      <c r="J129" s="6">
+        <v>7.3</v>
+      </c>
+      <c r="K129" s="14">
+        <v>104.914075594766</v>
+      </c>
+      <c r="L129" s="14">
+        <v>1.7250975909999999</v>
+      </c>
+      <c r="M129" s="14">
+        <v>25.301887000000001</v>
+      </c>
+      <c r="N129" s="17">
+        <v>41.9</v>
+      </c>
+      <c r="O129">
+        <v>51.04</v>
+      </c>
+      <c r="P129">
+        <v>20.3</v>
+      </c>
+      <c r="Q129">
+        <v>26.481556072398426</v>
+      </c>
+      <c r="R129">
+        <f>14-COUNT(D129:Q129)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:18">
+      <c r="A130" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="B130" s="9">
+        <v>4.0005168914794922</v>
+      </c>
+      <c r="C130" s="9">
+        <f>ROUND(B130,0)</f>
+        <v>4</v>
+      </c>
+      <c r="D130" s="9">
+        <v>93</v>
+      </c>
+      <c r="E130" s="7">
+        <v>10</v>
+      </c>
+      <c r="F130" s="10">
+        <v>0.3</v>
+      </c>
+      <c r="G130">
+        <v>4.5343375628240601</v>
+      </c>
+      <c r="H130">
+        <v>13.6801283192429</v>
+      </c>
+      <c r="I130" s="4">
+        <v>29</v>
+      </c>
+      <c r="J130" s="6">
+        <v>9.9</v>
+      </c>
+      <c r="K130" s="14">
+        <v>213.75901655695199</v>
+      </c>
+      <c r="L130" s="14">
+        <v>1.7230074019999999</v>
+      </c>
+      <c r="M130" s="14">
+        <v>12.676283</v>
+      </c>
+      <c r="N130" s="17">
+        <v>42.8</v>
+      </c>
+      <c r="O130">
+        <v>17.71</v>
+      </c>
+      <c r="P130">
+        <v>8.41</v>
+      </c>
+      <c r="Q130">
+        <v>34.410532615200481</v>
+      </c>
+      <c r="R130">
+        <f>14-COUNT(D130:Q130)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:18">
+      <c r="A131" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="B131" s="9">
+        <v>4.3110671043395996</v>
+      </c>
+      <c r="C131" s="9">
+        <f>ROUND(B131,0)</f>
+        <v>4</v>
+      </c>
+      <c r="D131" s="9">
+        <v>46</v>
+      </c>
+      <c r="E131" s="7">
+        <v>28.9</v>
+      </c>
+      <c r="F131" s="10">
+        <v>50.45</v>
+      </c>
+      <c r="G131">
+        <v>2.4582984193627602</v>
+      </c>
+      <c r="H131">
+        <v>27.897566743807001</v>
+      </c>
+      <c r="I131" s="4">
+        <v>13.7</v>
+      </c>
+      <c r="J131" s="6">
+        <v>22.4</v>
+      </c>
+      <c r="K131" s="14">
+        <v>77.389837559771493</v>
+      </c>
+      <c r="L131" s="14">
+        <v>5.1017697169999998</v>
+      </c>
+      <c r="M131" s="14">
+        <v>30.859074</v>
+      </c>
+      <c r="N131" s="17">
+        <v>25.5</v>
+      </c>
+      <c r="O131">
+        <v>43.4</v>
+      </c>
+      <c r="P131">
+        <v>44.92</v>
+      </c>
+      <c r="Q131">
+        <v>56.579606069498865</v>
+      </c>
+      <c r="R131">
+        <f>14-COUNT(D131:Q131)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:18">
+      <c r="A132" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="B132" s="9">
+        <v>7.1032733917236328</v>
+      </c>
+      <c r="C132" s="9">
+        <f>ROUND(B132,0)</f>
+        <v>7</v>
+      </c>
+      <c r="D132" s="9">
+        <v>27</v>
+      </c>
+      <c r="E132" s="7">
+        <v>22.3</v>
+      </c>
+      <c r="F132" s="10">
+        <v>51.5</v>
+      </c>
+      <c r="G132">
+        <v>2.2653598482396502</v>
+      </c>
+      <c r="H132">
+        <v>33.010054247025202</v>
+      </c>
+      <c r="I132" s="4">
+        <v>3.1</v>
+      </c>
+      <c r="J132" s="6">
+        <v>8.9</v>
+      </c>
+      <c r="K132" s="14">
+        <v>272.89824742694202</v>
+      </c>
+      <c r="L132" s="14">
+        <v>2.8989730470000001</v>
+      </c>
+      <c r="M132" s="14">
+        <v>32.734135000000002</v>
+      </c>
+      <c r="N132" s="17">
+        <v>34.1</v>
+      </c>
+      <c r="O132">
+        <v>91.61</v>
+      </c>
+      <c r="P132">
+        <v>15.45</v>
+      </c>
+      <c r="Q132">
+        <v>24.908071614206591</v>
+      </c>
+      <c r="R132">
+        <f>14-COUNT(D132:Q132)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:18">
+      <c r="A133" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="B133" s="9">
+        <v>6.9917593002319336</v>
+      </c>
+      <c r="C133" s="9">
+        <f>ROUND(B133,0)</f>
+        <v>7</v>
+      </c>
+      <c r="D133" s="9">
+        <v>69</v>
+      </c>
+      <c r="E133" s="7">
+        <v>21.8</v>
+      </c>
+      <c r="F133" s="10">
+        <v>38.880000000000003</v>
+      </c>
+      <c r="G133">
+        <v>2.5197485693251198</v>
+      </c>
+      <c r="H133">
+        <v>27.448182690720799</v>
+      </c>
+      <c r="I133" s="4">
+        <v>12.4</v>
+      </c>
+      <c r="J133" s="6">
+        <v>15.3</v>
+      </c>
+      <c r="K133" s="14">
+        <v>35.607764593732398</v>
+      </c>
+      <c r="L133" s="14">
+        <v>5.4680782109999999</v>
+      </c>
+      <c r="M133" s="14">
+        <v>25.773724000000001</v>
+      </c>
+      <c r="N133" s="17">
+        <v>41.5</v>
+      </c>
+      <c r="O133">
+        <v>87.36</v>
+      </c>
+      <c r="P133">
+        <v>9.34</v>
+      </c>
+      <c r="Q133">
+        <v>16.645403840645777</v>
+      </c>
+      <c r="R133">
+        <f>14-COUNT(D133:Q133)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:18">
+      <c r="A134" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="B134" s="9">
+        <v>6.3360099792480469</v>
+      </c>
+      <c r="C134" s="9">
+        <f>ROUND(B134,0)</f>
+        <v>6</v>
+      </c>
+      <c r="D134" s="9">
+        <v>41</v>
+      </c>
+      <c r="E134" s="7">
+        <v>16.8</v>
+      </c>
+      <c r="F134" s="10">
+        <v>34.880000000000003</v>
+      </c>
+      <c r="G134">
+        <v>2.7812603590557798</v>
+      </c>
+      <c r="H134">
+        <v>23.523561944972698</v>
+      </c>
+      <c r="I134" s="4">
+        <v>13.4</v>
+      </c>
+      <c r="J134" s="6">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="K134" s="14">
+        <v>19.750599931436401</v>
+      </c>
+      <c r="L134" s="14">
+        <v>2.0612895770000002</v>
+      </c>
+      <c r="M134" s="14">
+        <v>34.229075999999999</v>
+      </c>
+      <c r="N134" s="17">
+        <v>39.700000000000003</v>
+      </c>
+      <c r="O134">
+        <v>61.46</v>
+      </c>
+      <c r="P134">
+        <v>20</v>
+      </c>
+      <c r="Q134">
+        <v>13.773283611337275</v>
+      </c>
+      <c r="R134">
+        <f>14-COUNT(D134:Q134)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:18">
+      <c r="A135" s="8" t="s">
+        <v>142</v>
+      </c>
+      <c r="B135" s="9">
+        <v>5.0707507133483887</v>
+      </c>
+      <c r="C135" s="9">
+        <f t="shared" ref="C135:C139" si="2">ROUND(B135,0)</f>
+        <v>5</v>
+      </c>
+      <c r="D135" s="9">
+        <v>79</v>
+      </c>
+      <c r="E135" s="7"/>
+      <c r="F135" s="10">
+        <v>10.5</v>
+      </c>
+      <c r="G135">
+        <v>4.3313616222191396</v>
+      </c>
+      <c r="H135">
+        <v>7.5620099657344602</v>
+      </c>
+      <c r="I135" s="4">
+        <v>33.700000000000003</v>
+      </c>
+      <c r="J135" s="6">
+        <v>3.7</v>
+      </c>
+      <c r="K135" s="14">
+        <v>36.253120571396202</v>
+      </c>
+      <c r="L135" s="14">
+        <v>1.878402629</v>
+      </c>
+      <c r="M135" s="14">
+        <v>20.279105000000001</v>
+      </c>
+      <c r="N135" s="17">
+        <v>46.9</v>
+      </c>
+      <c r="O135">
+        <v>57</v>
+      </c>
+      <c r="P135">
+        <v>23.96</v>
+      </c>
+      <c r="Q135">
+        <v>3.0610509608298848</v>
+      </c>
+      <c r="R135">
+        <f t="shared" ref="R135:R139" si="3">14-COUNT(D135:Q135)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="136" spans="1:18">
+      <c r="A136" s="8" t="s">
+        <v>143</v>
+      </c>
+      <c r="B136" s="9">
+        <v>5.1752786636352539</v>
+      </c>
+      <c r="C136" s="9">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+      <c r="D136" s="9">
+        <v>30</v>
+      </c>
+      <c r="E136" s="7">
+        <v>22.8</v>
+      </c>
+      <c r="F136" s="10">
+        <v>21.03</v>
+      </c>
+      <c r="G136">
+        <v>3.78309935825152</v>
+      </c>
+      <c r="H136">
+        <v>7.2818237057439301</v>
+      </c>
+      <c r="I136" s="4">
+        <v>26.4</v>
+      </c>
+      <c r="J136" s="6">
+        <v>7.3</v>
+      </c>
+      <c r="K136" s="14">
+        <v>308.12655206888797</v>
+      </c>
+      <c r="L136" s="14">
+        <v>2.3690779389999999</v>
+      </c>
+      <c r="M136" s="14">
+        <v>17.944656999999999</v>
+      </c>
+      <c r="N136" s="17">
+        <v>35.299999999999997</v>
+      </c>
+      <c r="O136">
+        <v>48.31</v>
+      </c>
+      <c r="P136">
+        <v>85.95</v>
+      </c>
+      <c r="Q136">
+        <v>22.569097300609538</v>
+      </c>
+      <c r="R136">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:18">
+      <c r="A137" s="8" t="s">
+        <v>144</v>
+      </c>
+      <c r="B137" s="9">
+        <v>3.2535600662231445</v>
+      </c>
+      <c r="C137" s="9">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="D137" s="9">
+        <v>99</v>
+      </c>
+      <c r="E137" s="7">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="F137" s="10">
+        <v>15.33</v>
+      </c>
+      <c r="G137">
+        <v>6.67268064092928</v>
+      </c>
+      <c r="H137">
+        <v>1.86661884765236</v>
+      </c>
+      <c r="I137" s="4"/>
+      <c r="J137" s="6">
+        <v>8.5</v>
+      </c>
+      <c r="K137" s="14">
+        <v>53.507623539216198</v>
+      </c>
+      <c r="L137" s="14">
+        <v>1.404976709</v>
+      </c>
+      <c r="M137" s="14">
+        <v>7.0387729999999999</v>
+      </c>
+      <c r="N137" s="17">
+        <v>36.700000000000003</v>
+      </c>
+      <c r="O137">
+        <v>22.55</v>
+      </c>
+      <c r="P137">
+        <v>29.56</v>
+      </c>
+      <c r="Q137">
+        <v>2.3637706687879994</v>
+      </c>
+      <c r="R137">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="138" spans="1:18">
+      <c r="A138" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="B138" s="9">
+        <v>3.9327774047851562</v>
+      </c>
+      <c r="C138" s="9">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="D138" s="9">
+        <v>95</v>
+      </c>
+      <c r="E138" s="7">
+        <v>13.8</v>
+      </c>
+      <c r="F138" s="10">
+        <v>15.42</v>
+      </c>
+      <c r="G138">
+        <v>5.1307888553671104</v>
+      </c>
+      <c r="H138">
+        <v>7.1719909603049397</v>
+      </c>
+      <c r="I138" s="4"/>
+      <c r="J138" s="6">
+        <v>6.1</v>
+      </c>
+      <c r="K138" s="14">
+        <v>22.9948344745019</v>
+      </c>
+      <c r="L138" s="14">
+        <v>2.1439141730000002</v>
+      </c>
+      <c r="M138" s="14">
+        <v>12.970041</v>
+      </c>
+      <c r="N138" s="17">
+        <v>57.1</v>
+      </c>
+      <c r="O138">
+        <v>17.34</v>
+      </c>
+      <c r="P138">
+        <v>35.72</v>
+      </c>
+      <c r="Q138">
+        <v>5.111717940784783</v>
+      </c>
+      <c r="R138">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="1:18">
+      <c r="A139" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="B139" s="9">
+        <v>3.6383001804351807</v>
+      </c>
+      <c r="C139" s="9">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="D139" s="9">
+        <v>88</v>
+      </c>
+      <c r="E139" s="7">
+        <v>15.8</v>
+      </c>
+      <c r="F139" s="10">
+        <v>17.850000000000001</v>
+      </c>
+      <c r="G139">
+        <v>4.0771793327345298</v>
+      </c>
+      <c r="H139">
+        <v>12.3734757506249</v>
+      </c>
+      <c r="I139" s="4">
+        <v>34.700000000000003</v>
+      </c>
+      <c r="J139" s="6">
+        <v>10.7</v>
+      </c>
+      <c r="K139" s="14">
+        <v>42.729492051182604</v>
+      </c>
+      <c r="L139" s="14">
+        <v>2.3203841710000002</v>
+      </c>
+      <c r="M139" s="14">
+        <v>27.182075999999999</v>
+      </c>
+      <c r="N139" s="17">
+        <v>43.2</v>
+      </c>
+      <c r="O139">
+        <v>19.89</v>
+      </c>
+      <c r="P139">
+        <v>24.22</v>
+      </c>
+      <c r="Q139">
+        <v>10.339925035543493</v>
+      </c>
+      <c r="R139">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:18">
+      <c r="A140" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="C140" s="6">
+        <f>138-COUNT(C2:C139)</f>
+        <v>0</v>
+      </c>
+      <c r="D140" s="6">
+        <f t="shared" ref="D140:R140" si="4">138-COUNT(D2:D139)</f>
+        <v>9</v>
+      </c>
+      <c r="E140" s="6">
+        <f t="shared" si="4"/>
+        <v>18</v>
+      </c>
+      <c r="F140" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G140" s="6">
+        <f t="shared" si="4"/>
+        <v>16</v>
+      </c>
+      <c r="H140" s="6">
+        <f t="shared" si="4"/>
+        <v>15</v>
+      </c>
+      <c r="I140" s="6">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="J140" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K140" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L140" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="M140" s="6">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="N140" s="6">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="O140" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P140" s="6">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="Q140" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R140" s="6">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:R139" xr:uid="{F6030529-A0B2-8F44-993B-7018E813D0E8}">
+    <sortState ref="A4:R134">
+      <sortCondition descending="1" ref="R1:R139"/>
+    </sortState>
+  </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>